--- a/Main/SASdata/couple_formue.xlsx
+++ b/Main/SASdata/couple_formue.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\github\Main\SASdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D2C0A7-1CC2-4B79-8491-E504CE0E9879}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D307DE0-6043-4414-BC7C-7570144CD42A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6EC07FC9-461D-4A48-A1A5-A60E64016522}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -115,7 +115,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,9 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4253942D-D70C-439F-BCC9-108C66B9FC8F}">
   <dimension ref="A1:U145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Main/SASdata/couple_formue.xlsx
+++ b/Main/SASdata/couple_formue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C3A6BF-C99B-42BA-AFF1-238735CF68BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA01109-B205-4E17-8975-A239591CBDCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6EC07FC9-461D-4A48-A1A5-A60E64016522}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Aldersforskel</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Kvinde (ST)</t>
-  </si>
-  <si>
-    <t>Nobs</t>
   </si>
   <si>
     <t>Frac</t>
@@ -113,14 +110,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4253942D-D70C-439F-BCC9-108C66B9FC8F}">
-  <dimension ref="A1:T145"/>
+  <dimension ref="A1:S145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +447,7 @@
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,11 +505,8 @@
       <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-4</v>
       </c>
@@ -537,47 +529,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.1992407304160335</v>
+        <v>0.54449588477366251</v>
       </c>
       <c r="I2">
-        <v>6.467373350629102</v>
+        <v>3.3027850886075938</v>
       </c>
       <c r="J2">
-        <v>8.5326758129237525</v>
+        <v>4.9204589321404786</v>
       </c>
       <c r="K2">
-        <v>10.142260825273047</v>
+        <v>6.1925763660988693</v>
       </c>
       <c r="L2">
-        <v>11.946427687272299</v>
+        <v>7.5319900413674929</v>
       </c>
       <c r="M2">
-        <v>13.842960338664264</v>
+        <v>8.8650823045267479</v>
       </c>
       <c r="N2">
-        <v>15.879307815600129</v>
+        <v>10.209918827187211</v>
       </c>
       <c r="O2">
-        <v>18.404634438368067</v>
+        <v>12.093162109374999</v>
       </c>
       <c r="P2">
-        <v>21.037157571072807</v>
+        <v>14.34358188096591</v>
       </c>
       <c r="Q2">
-        <v>27.812197647544451</v>
+        <v>18.052756493934599</v>
       </c>
       <c r="R2">
-        <v>87.177320180940796</v>
+        <v>43.089660493827161</v>
       </c>
       <c r="S2">
-        <v>50</v>
-      </c>
-      <c r="T2" s="6">
-        <f>S2/SUM($S$2:$S$145)</f>
-        <v>2.6605792613167741E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.486634340420241E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-4</v>
       </c>
@@ -600,47 +588,43 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1.5889031188622065</v>
+        <v>2.3921589688506977</v>
       </c>
       <c r="I3">
-        <v>6.3081588820745038</v>
+        <v>6.3432939261342911</v>
       </c>
       <c r="J3">
-        <v>9.4077552721961872</v>
+        <v>7.7808340000000005</v>
       </c>
       <c r="K3">
-        <v>12.247492317394558</v>
+        <v>9.4308662551440321</v>
       </c>
       <c r="L3">
-        <v>14.743158172012844</v>
+        <v>12.119677208895251</v>
       </c>
       <c r="M3">
-        <v>16.981991752350652</v>
+        <v>13.634462025316459</v>
       </c>
       <c r="N3">
-        <v>19.712363031399402</v>
+        <v>14.15351469354189</v>
       </c>
       <c r="O3">
-        <v>23.161557644727257</v>
+        <v>14.39675837974684</v>
       </c>
       <c r="P3">
-        <v>29.850267207390658</v>
+        <v>17.024994625954189</v>
       </c>
       <c r="Q3">
-        <v>35.35007296317935</v>
+        <v>20.449633856154581</v>
       </c>
       <c r="R3">
-        <v>66.019959124106464</v>
+        <v>46.57761</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
-      <c r="T3" s="6">
-        <f t="shared" ref="T3:T66" si="0">S3/SUM($S$2:$S$145)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4</v>
       </c>
@@ -663,47 +647,43 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <v>1.1992407304160335</v>
+        <v>0.54449588477366251</v>
       </c>
       <c r="I4">
-        <v>6.467373350629102</v>
+        <v>3.3027850886075938</v>
       </c>
       <c r="J4">
-        <v>8.5326758129237525</v>
+        <v>4.9204589321404786</v>
       </c>
       <c r="K4">
-        <v>10.142260825273047</v>
+        <v>6.1925763660988693</v>
       </c>
       <c r="L4">
-        <v>11.946427687272299</v>
+        <v>7.5319900413674929</v>
       </c>
       <c r="M4">
-        <v>13.842960338664264</v>
+        <v>8.8650823045267479</v>
       </c>
       <c r="N4">
-        <v>15.879307815600129</v>
+        <v>10.209918827187211</v>
       </c>
       <c r="O4">
-        <v>18.404634438368067</v>
+        <v>12.093162109374999</v>
       </c>
       <c r="P4">
-        <v>21.037157571072807</v>
+        <v>14.34358188096591</v>
       </c>
       <c r="Q4">
-        <v>27.812197647544451</v>
+        <v>18.052756493934599</v>
       </c>
       <c r="R4">
-        <v>87.177320180940796</v>
+        <v>43.089660493827161</v>
       </c>
       <c r="S4">
-        <v>266</v>
-      </c>
-      <c r="T4" s="6">
-        <f t="shared" si="0"/>
-        <v>1.4154281670205238E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.486634340420241E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-4</v>
       </c>
@@ -726,47 +706,43 @@
         <v>3</v>
       </c>
       <c r="H5">
-        <v>1.5889031188622065</v>
+        <v>2.3921589688506977</v>
       </c>
       <c r="I5">
-        <v>6.3081588820745038</v>
+        <v>6.3432939261342911</v>
       </c>
       <c r="J5">
-        <v>9.4077552721961872</v>
+        <v>7.7808340000000005</v>
       </c>
       <c r="K5">
-        <v>12.247492317394558</v>
+        <v>9.4308662551440321</v>
       </c>
       <c r="L5">
-        <v>14.743158172012844</v>
+        <v>12.119677208895251</v>
       </c>
       <c r="M5">
-        <v>16.981991752350652</v>
+        <v>13.634462025316459</v>
       </c>
       <c r="N5">
-        <v>19.712363031399402</v>
+        <v>14.15351469354189</v>
       </c>
       <c r="O5">
-        <v>23.161557644727257</v>
+        <v>14.39675837974684</v>
       </c>
       <c r="P5">
-        <v>29.850267207390658</v>
+        <v>17.024994625954189</v>
       </c>
       <c r="Q5">
-        <v>35.35007296317935</v>
+        <v>20.449633856154581</v>
       </c>
       <c r="R5">
-        <v>66.019959124106464</v>
+        <v>46.57761</v>
       </c>
       <c r="S5">
-        <v>55</v>
-      </c>
-      <c r="T5" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9266371874484513E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.486634340420241E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-4</v>
       </c>
@@ -789,47 +765,43 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.8940443658107826</v>
+        <v>2.1148227712137491</v>
       </c>
       <c r="I6">
-        <v>12.554004729307463</v>
+        <v>5.2310055915414031</v>
       </c>
       <c r="J6">
-        <v>15.501556999125087</v>
+        <v>8.3413183593750002</v>
       </c>
       <c r="K6">
-        <v>18.403093694392918</v>
+        <v>9.2247247265624992</v>
       </c>
       <c r="L6">
-        <v>21.230968861748359</v>
+        <v>11.545770042194091</v>
       </c>
       <c r="M6">
-        <v>24.449356986019673</v>
+        <v>12.51341721374046</v>
       </c>
       <c r="N6">
-        <v>26.830580086809658</v>
+        <v>15.100380658436219</v>
       </c>
       <c r="O6">
-        <v>28.891050353282228</v>
+        <v>17.110495</v>
       </c>
       <c r="P6">
-        <v>31.8624861641294</v>
+        <v>20.632932098765441</v>
       </c>
       <c r="Q6">
-        <v>35.987449907469653</v>
+        <v>24.108676134902261</v>
       </c>
       <c r="R6">
-        <v>61.194183774818462</v>
+        <v>55.598904403866811</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
-      <c r="T6" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-4</v>
       </c>
@@ -852,47 +824,43 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>2.7470475809201318</v>
+        <v>2.5385654008438818</v>
       </c>
       <c r="I7">
-        <v>7.4000694195679095</v>
+        <v>6.9766913663440082</v>
       </c>
       <c r="J7">
-        <v>11.70452397968034</v>
+        <v>9.253395061728396</v>
       </c>
       <c r="K7">
-        <v>13.930320383929409</v>
+        <v>10.25841429521776</v>
       </c>
       <c r="L7">
-        <v>17.10843337458607</v>
+        <v>11.776512345679009</v>
       </c>
       <c r="M7">
-        <v>19.239314413078091</v>
+        <v>13.880933921755719</v>
       </c>
       <c r="N7">
-        <v>21.788147195442239</v>
+        <v>14.448945312499999</v>
       </c>
       <c r="O7">
-        <v>25.891951414074594</v>
+        <v>16.937078059071748</v>
       </c>
       <c r="P7">
-        <v>29.902112752372986</v>
+        <v>17.487985480943738</v>
       </c>
       <c r="Q7">
-        <v>39.787149322943783</v>
+        <v>27.081190584743229</v>
       </c>
       <c r="R7">
-        <v>62.055613398917842</v>
+        <v>43.072423664122141</v>
       </c>
       <c r="S7">
-        <v>56</v>
-      </c>
-      <c r="T7" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9798487726747866E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.486634340420241E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-4</v>
       </c>
@@ -915,47 +883,43 @@
         <v>2</v>
       </c>
       <c r="H8">
-        <v>7.8940443658107826</v>
+        <v>2.1148227712137491</v>
       </c>
       <c r="I8">
-        <v>12.554004729307463</v>
+        <v>5.2310055915414031</v>
       </c>
       <c r="J8">
-        <v>15.501556999125087</v>
+        <v>8.3413183593750002</v>
       </c>
       <c r="K8">
-        <v>18.403093694392918</v>
+        <v>9.2247247265624992</v>
       </c>
       <c r="L8">
-        <v>21.230968861748359</v>
+        <v>11.545770042194091</v>
       </c>
       <c r="M8">
-        <v>24.449356986019673</v>
+        <v>12.51341721374046</v>
       </c>
       <c r="N8">
-        <v>26.830580086809658</v>
+        <v>15.100380658436219</v>
       </c>
       <c r="O8">
-        <v>28.891050353282228</v>
+        <v>17.110495</v>
       </c>
       <c r="P8">
-        <v>31.8624861641294</v>
+        <v>20.632932098765441</v>
       </c>
       <c r="Q8">
-        <v>35.987449907469653</v>
+        <v>24.108676134902261</v>
       </c>
       <c r="R8">
-        <v>61.194183774818462</v>
+        <v>55.598904403866811</v>
       </c>
       <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-4</v>
       </c>
@@ -978,47 +942,43 @@
         <v>3</v>
       </c>
       <c r="H9">
-        <v>2.7470475809201318</v>
+        <v>2.5385654008438818</v>
       </c>
       <c r="I9">
-        <v>7.4000694195679095</v>
+        <v>6.9766913663440082</v>
       </c>
       <c r="J9">
-        <v>11.70452397968034</v>
+        <v>9.253395061728396</v>
       </c>
       <c r="K9">
-        <v>13.930320383929409</v>
+        <v>10.25841429521776</v>
       </c>
       <c r="L9">
-        <v>17.10843337458607</v>
+        <v>11.776512345679009</v>
       </c>
       <c r="M9">
-        <v>19.239314413078091</v>
+        <v>13.880933921755719</v>
       </c>
       <c r="N9">
-        <v>21.788147195442239</v>
+        <v>14.448945312499999</v>
       </c>
       <c r="O9">
-        <v>25.891951414074594</v>
+        <v>16.937078059071748</v>
       </c>
       <c r="P9">
-        <v>29.902112752372986</v>
+        <v>17.487985480943738</v>
       </c>
       <c r="Q9">
-        <v>39.787149322943783</v>
+        <v>27.081190584743229</v>
       </c>
       <c r="R9">
-        <v>62.055613398917842</v>
+        <v>43.072423664122141</v>
       </c>
       <c r="S9">
-        <v>46</v>
-      </c>
-      <c r="T9" s="6">
-        <f t="shared" si="0"/>
-        <v>2.4477329204114322E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-4</v>
       </c>
@@ -1041,47 +1001,43 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.1992407304160335</v>
+        <v>0.54449588477366251</v>
       </c>
       <c r="I10">
-        <v>6.467373350629102</v>
+        <v>3.3027850886075938</v>
       </c>
       <c r="J10">
-        <v>8.5326758129237525</v>
+        <v>4.9204589321404786</v>
       </c>
       <c r="K10">
-        <v>10.142260825273047</v>
+        <v>6.1925763660988693</v>
       </c>
       <c r="L10">
-        <v>11.946427687272299</v>
+        <v>7.5319900413674929</v>
       </c>
       <c r="M10">
-        <v>13.842960338664264</v>
+        <v>8.8650823045267479</v>
       </c>
       <c r="N10">
-        <v>15.879307815600129</v>
+        <v>10.209918827187211</v>
       </c>
       <c r="O10">
-        <v>18.404634438368067</v>
+        <v>12.093162109374999</v>
       </c>
       <c r="P10">
-        <v>21.037157571072807</v>
+        <v>14.34358188096591</v>
       </c>
       <c r="Q10">
-        <v>27.812197647544451</v>
+        <v>18.052756493934599</v>
       </c>
       <c r="R10">
-        <v>87.177320180940796</v>
+        <v>43.089660493827161</v>
       </c>
       <c r="S10">
-        <v>188</v>
-      </c>
-      <c r="T10" s="6">
-        <f t="shared" si="0"/>
-        <v>1.000377802255107E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>6.216585851050603E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-4</v>
       </c>
@@ -1104,47 +1060,43 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1.5889031188622065</v>
+        <v>2.3921589688506977</v>
       </c>
       <c r="I11">
-        <v>6.3081588820745038</v>
+        <v>6.3432939261342911</v>
       </c>
       <c r="J11">
-        <v>9.4077552721961872</v>
+        <v>7.7808340000000005</v>
       </c>
       <c r="K11">
-        <v>12.247492317394558</v>
+        <v>9.4308662551440321</v>
       </c>
       <c r="L11">
-        <v>14.743158172012844</v>
+        <v>12.119677208895251</v>
       </c>
       <c r="M11">
-        <v>16.981991752350652</v>
+        <v>13.634462025316459</v>
       </c>
       <c r="N11">
-        <v>19.712363031399402</v>
+        <v>14.15351469354189</v>
       </c>
       <c r="O11">
-        <v>23.161557644727257</v>
+        <v>14.39675837974684</v>
       </c>
       <c r="P11">
-        <v>29.850267207390658</v>
+        <v>17.024994625954189</v>
       </c>
       <c r="Q11">
-        <v>35.35007296317935</v>
+        <v>20.449633856154581</v>
       </c>
       <c r="R11">
-        <v>66.019959124106464</v>
+        <v>46.57761</v>
       </c>
       <c r="S11">
-        <v>122</v>
-      </c>
-      <c r="T11" s="6">
-        <f t="shared" si="0"/>
-        <v>6.4918133976129286E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-4</v>
       </c>
@@ -1167,47 +1119,43 @@
         <v>2</v>
       </c>
       <c r="H12">
-        <v>1.1992407304160335</v>
+        <v>0.54449588477366251</v>
       </c>
       <c r="I12">
-        <v>6.467373350629102</v>
+        <v>3.3027850886075938</v>
       </c>
       <c r="J12">
-        <v>8.5326758129237525</v>
+        <v>4.9204589321404786</v>
       </c>
       <c r="K12">
-        <v>10.142260825273047</v>
+        <v>6.1925763660988693</v>
       </c>
       <c r="L12">
-        <v>11.946427687272299</v>
+        <v>7.5319900413674929</v>
       </c>
       <c r="M12">
-        <v>13.842960338664264</v>
+        <v>8.8650823045267479</v>
       </c>
       <c r="N12">
-        <v>15.879307815600129</v>
+        <v>10.209918827187211</v>
       </c>
       <c r="O12">
-        <v>18.404634438368067</v>
+        <v>12.093162109374999</v>
       </c>
       <c r="P12">
-        <v>21.037157571072807</v>
+        <v>14.34358188096591</v>
       </c>
       <c r="Q12">
-        <v>27.812197647544451</v>
+        <v>18.052756493934599</v>
       </c>
       <c r="R12">
-        <v>87.177320180940796</v>
+        <v>43.089660493827161</v>
       </c>
       <c r="S12">
-        <v>15635</v>
-      </c>
-      <c r="T12" s="6">
-        <f t="shared" si="0"/>
-        <v>8.3196313501375518E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.0905134899912973E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-4</v>
       </c>
@@ -1230,47 +1178,43 @@
         <v>3</v>
       </c>
       <c r="H13">
-        <v>1.5889031188622065</v>
+        <v>2.3921589688506977</v>
       </c>
       <c r="I13">
-        <v>6.3081588820745038</v>
+        <v>6.3432939261342911</v>
       </c>
       <c r="J13">
-        <v>9.4077552721961872</v>
+        <v>7.7808340000000005</v>
       </c>
       <c r="K13">
-        <v>12.247492317394558</v>
+        <v>9.4308662551440321</v>
       </c>
       <c r="L13">
-        <v>14.743158172012844</v>
+        <v>12.119677208895251</v>
       </c>
       <c r="M13">
-        <v>16.981991752350652</v>
+        <v>13.634462025316459</v>
       </c>
       <c r="N13">
-        <v>19.712363031399402</v>
+        <v>14.15351469354189</v>
       </c>
       <c r="O13">
-        <v>23.161557644727257</v>
+        <v>14.39675837974684</v>
       </c>
       <c r="P13">
-        <v>29.850267207390658</v>
+        <v>17.024994625954189</v>
       </c>
       <c r="Q13">
-        <v>35.35007296317935</v>
+        <v>20.449633856154581</v>
       </c>
       <c r="R13">
-        <v>66.019959124106464</v>
+        <v>46.57761</v>
       </c>
       <c r="S13">
-        <v>2398</v>
-      </c>
-      <c r="T13" s="6">
-        <f t="shared" si="0"/>
-        <v>1.2760138137275247E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>5.0976003978614936E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-4</v>
       </c>
@@ -1293,47 +1237,43 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.8940443658107826</v>
+        <v>2.1148227712137491</v>
       </c>
       <c r="I14">
-        <v>12.554004729307463</v>
+        <v>5.2310055915414031</v>
       </c>
       <c r="J14">
-        <v>15.501556999125087</v>
+        <v>8.3413183593750002</v>
       </c>
       <c r="K14">
-        <v>18.403093694392918</v>
+        <v>9.2247247265624992</v>
       </c>
       <c r="L14">
-        <v>21.230968861748359</v>
+        <v>11.545770042194091</v>
       </c>
       <c r="M14">
-        <v>24.449356986019673</v>
+        <v>12.51341721374046</v>
       </c>
       <c r="N14">
-        <v>26.830580086809658</v>
+        <v>15.100380658436219</v>
       </c>
       <c r="O14">
-        <v>28.891050353282228</v>
+        <v>17.110495</v>
       </c>
       <c r="P14">
-        <v>31.8624861641294</v>
+        <v>20.632932098765441</v>
       </c>
       <c r="Q14">
-        <v>35.987449907469653</v>
+        <v>24.108676134902261</v>
       </c>
       <c r="R14">
-        <v>61.194183774818462</v>
+        <v>55.598904403866811</v>
       </c>
       <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.486634340420241E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-4</v>
       </c>
@@ -1356,47 +1296,43 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>2.7470475809201318</v>
+        <v>2.5385654008438818</v>
       </c>
       <c r="I15">
-        <v>7.4000694195679095</v>
+        <v>6.9766913663440082</v>
       </c>
       <c r="J15">
-        <v>11.70452397968034</v>
+        <v>9.253395061728396</v>
       </c>
       <c r="K15">
-        <v>13.930320383929409</v>
+        <v>10.25841429521776</v>
       </c>
       <c r="L15">
-        <v>17.10843337458607</v>
+        <v>11.776512345679009</v>
       </c>
       <c r="M15">
-        <v>19.239314413078091</v>
+        <v>13.880933921755719</v>
       </c>
       <c r="N15">
-        <v>21.788147195442239</v>
+        <v>14.448945312499999</v>
       </c>
       <c r="O15">
-        <v>25.891951414074594</v>
+        <v>16.937078059071748</v>
       </c>
       <c r="P15">
-        <v>29.902112752372986</v>
+        <v>17.487985480943738</v>
       </c>
       <c r="Q15">
-        <v>39.787149322943783</v>
+        <v>27.081190584743229</v>
       </c>
       <c r="R15">
-        <v>62.055613398917842</v>
+        <v>43.072423664122141</v>
       </c>
       <c r="S15">
-        <v>88</v>
-      </c>
-      <c r="T15" s="6">
-        <f t="shared" si="0"/>
-        <v>4.6826194999175218E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.486634340420241E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-4</v>
       </c>
@@ -1419,47 +1355,43 @@
         <v>2</v>
       </c>
       <c r="H16">
-        <v>7.8940443658107826</v>
+        <v>2.1148227712137491</v>
       </c>
       <c r="I16">
-        <v>12.554004729307463</v>
+        <v>5.2310055915414031</v>
       </c>
       <c r="J16">
-        <v>15.501556999125087</v>
+        <v>8.3413183593750002</v>
       </c>
       <c r="K16">
-        <v>18.403093694392918</v>
+        <v>9.2247247265624992</v>
       </c>
       <c r="L16">
-        <v>21.230968861748359</v>
+        <v>11.545770042194091</v>
       </c>
       <c r="M16">
-        <v>24.449356986019673</v>
+        <v>12.51341721374046</v>
       </c>
       <c r="N16">
-        <v>26.830580086809658</v>
+        <v>15.100380658436219</v>
       </c>
       <c r="O16">
-        <v>28.891050353282228</v>
+        <v>17.110495</v>
       </c>
       <c r="P16">
-        <v>31.8624861641294</v>
+        <v>20.632932098765441</v>
       </c>
       <c r="Q16">
-        <v>35.987449907469653</v>
+        <v>24.108676134902261</v>
       </c>
       <c r="R16">
-        <v>61.194183774818462</v>
+        <v>55.598904403866811</v>
       </c>
       <c r="S16">
-        <v>1019</v>
-      </c>
-      <c r="T16" s="6">
-        <f t="shared" si="0"/>
-        <v>5.4222605345635852E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.8649757553151809E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-4</v>
       </c>
@@ -1482,47 +1414,43 @@
         <v>3</v>
       </c>
       <c r="H17">
-        <v>2.7470475809201318</v>
+        <v>2.5385654008438818</v>
       </c>
       <c r="I17">
-        <v>7.4000694195679095</v>
+        <v>6.9766913663440082</v>
       </c>
       <c r="J17">
-        <v>11.70452397968034</v>
+        <v>9.253395061728396</v>
       </c>
       <c r="K17">
-        <v>13.930320383929409</v>
+        <v>10.25841429521776</v>
       </c>
       <c r="L17">
-        <v>17.10843337458607</v>
+        <v>11.776512345679009</v>
       </c>
       <c r="M17">
-        <v>19.239314413078091</v>
+        <v>13.880933921755719</v>
       </c>
       <c r="N17">
-        <v>21.788147195442239</v>
+        <v>14.448945312499999</v>
       </c>
       <c r="O17">
-        <v>25.891951414074594</v>
+        <v>16.937078059071748</v>
       </c>
       <c r="P17">
-        <v>29.902112752372986</v>
+        <v>17.487985480943738</v>
       </c>
       <c r="Q17">
-        <v>39.787149322943783</v>
+        <v>27.081190584743229</v>
       </c>
       <c r="R17">
-        <v>62.055613398917842</v>
+        <v>43.072423664122141</v>
       </c>
       <c r="S17">
-        <v>958</v>
-      </c>
-      <c r="T17" s="6">
-        <f t="shared" si="0"/>
-        <v>5.097669864682939E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.3676488872311329E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-3</v>
       </c>
@@ -1545,47 +1473,43 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1.1992407304160335</v>
+        <v>0.57648734177215188</v>
       </c>
       <c r="I18">
-        <v>6.467373350629102</v>
+        <v>3.5836779236641219</v>
       </c>
       <c r="J18">
-        <v>8.5326758129237525</v>
+        <v>5.5476953125000001</v>
       </c>
       <c r="K18">
-        <v>10.142260825273047</v>
+        <v>6.9881015220054659</v>
       </c>
       <c r="L18">
-        <v>11.946427687272299</v>
+        <v>8.6304989265267178</v>
       </c>
       <c r="M18">
-        <v>13.842960338664264</v>
+        <v>9.997211934156379</v>
       </c>
       <c r="N18">
-        <v>15.879307815600129</v>
+        <v>11.39918183444656</v>
       </c>
       <c r="O18">
-        <v>18.404634438368067</v>
+        <v>13.489800421875</v>
       </c>
       <c r="P18">
-        <v>21.037157571072807</v>
+        <v>15.81245122621166</v>
       </c>
       <c r="Q18">
-        <v>27.812197647544451</v>
+        <v>19.71048778062293</v>
       </c>
       <c r="R18">
-        <v>87.177320180940796</v>
+        <v>78.631494140624994</v>
       </c>
       <c r="S18">
-        <v>50</v>
-      </c>
-      <c r="T18" s="6">
-        <f t="shared" si="0"/>
-        <v>2.6605792613167741E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.486634340420241E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-3</v>
       </c>
@@ -1608,47 +1532,43 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>1.5889031188622065</v>
+        <v>3.3608966244725735</v>
       </c>
       <c r="I19">
-        <v>6.3081588820745038</v>
+        <v>4.6757043365249062</v>
       </c>
       <c r="J19">
-        <v>9.4077552721961872</v>
+        <v>6.7317164921602339</v>
       </c>
       <c r="K19">
-        <v>12.247492317394558</v>
+        <v>8.4807337251908397</v>
       </c>
       <c r="L19">
-        <v>14.743158172012844</v>
+        <v>9.494675848101263</v>
       </c>
       <c r="M19">
-        <v>16.981991752350652</v>
+        <v>10.81011619341564</v>
       </c>
       <c r="N19">
-        <v>19.712363031399402</v>
+        <v>12.129468093988551</v>
       </c>
       <c r="O19">
-        <v>23.161557644727257</v>
+        <v>14.195088867187501</v>
       </c>
       <c r="P19">
-        <v>29.850267207390658</v>
+        <v>16.922557431304398</v>
       </c>
       <c r="Q19">
-        <v>35.35007296317935</v>
+        <v>19.10858854198473</v>
       </c>
       <c r="R19">
-        <v>66.019959124106464</v>
+        <v>55.835715648854965</v>
       </c>
       <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.729951510630362E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-3</v>
       </c>
@@ -1671,47 +1591,43 @@
         <v>2</v>
       </c>
       <c r="H20">
-        <v>1.1992407304160335</v>
+        <v>0.57648734177215188</v>
       </c>
       <c r="I20">
-        <v>6.467373350629102</v>
+        <v>3.5836779236641219</v>
       </c>
       <c r="J20">
-        <v>8.5326758129237525</v>
+        <v>5.5476953125000001</v>
       </c>
       <c r="K20">
-        <v>10.142260825273047</v>
+        <v>6.9881015220054659</v>
       </c>
       <c r="L20">
-        <v>11.946427687272299</v>
+        <v>8.6304989265267178</v>
       </c>
       <c r="M20">
-        <v>13.842960338664264</v>
+        <v>9.997211934156379</v>
       </c>
       <c r="N20">
-        <v>15.879307815600129</v>
+        <v>11.39918183444656</v>
       </c>
       <c r="O20">
-        <v>18.404634438368067</v>
+        <v>13.489800421875</v>
       </c>
       <c r="P20">
-        <v>21.037157571072807</v>
+        <v>15.81245122621166</v>
       </c>
       <c r="Q20">
-        <v>27.812197647544451</v>
+        <v>19.71048778062293</v>
       </c>
       <c r="R20">
-        <v>87.177320180940796</v>
+        <v>78.631494140624994</v>
       </c>
       <c r="S20">
-        <v>266</v>
-      </c>
-      <c r="T20" s="6">
-        <f t="shared" si="0"/>
-        <v>1.4154281670205238E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>7.459903021260724E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-3</v>
       </c>
@@ -1734,47 +1650,43 @@
         <v>3</v>
       </c>
       <c r="H21">
-        <v>1.5889031188622065</v>
+        <v>3.3608966244725735</v>
       </c>
       <c r="I21">
-        <v>6.3081588820745038</v>
+        <v>4.6757043365249062</v>
       </c>
       <c r="J21">
-        <v>9.4077552721961872</v>
+        <v>6.7317164921602339</v>
       </c>
       <c r="K21">
-        <v>12.247492317394558</v>
+        <v>8.4807337251908397</v>
       </c>
       <c r="L21">
-        <v>14.743158172012844</v>
+        <v>9.494675848101263</v>
       </c>
       <c r="M21">
-        <v>16.981991752350652</v>
+        <v>10.81011619341564</v>
       </c>
       <c r="N21">
-        <v>19.712363031399402</v>
+        <v>12.129468093988551</v>
       </c>
       <c r="O21">
-        <v>23.161557644727257</v>
+        <v>14.195088867187501</v>
       </c>
       <c r="P21">
-        <v>29.850267207390658</v>
+        <v>16.922557431304398</v>
       </c>
       <c r="Q21">
-        <v>35.35007296317935</v>
+        <v>19.10858854198473</v>
       </c>
       <c r="R21">
-        <v>66.019959124106464</v>
+        <v>55.835715648854965</v>
       </c>
       <c r="S21">
-        <v>55</v>
-      </c>
-      <c r="T21" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9266371874484513E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.729951510630362E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-3</v>
       </c>
@@ -1797,47 +1709,43 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.8940443658107826</v>
+        <v>1.1697151898734179</v>
       </c>
       <c r="I22">
-        <v>12.554004729307463</v>
+        <v>5.15640429736185</v>
       </c>
       <c r="J22">
-        <v>15.501556999125087</v>
+        <v>8.0239735806297716</v>
       </c>
       <c r="K22">
-        <v>18.403093694392918</v>
+        <v>9.7096846192868878</v>
       </c>
       <c r="L22">
-        <v>21.230968861748359</v>
+        <v>13.107079893098089</v>
       </c>
       <c r="M22">
-        <v>24.449356986019673</v>
+        <v>15.168771738506569</v>
       </c>
       <c r="N22">
-        <v>26.830580086809658</v>
+        <v>16.869688488549638</v>
       </c>
       <c r="O22">
-        <v>28.891050353282228</v>
+        <v>17.96376208248784</v>
       </c>
       <c r="P22">
-        <v>31.8624861641294</v>
+        <v>21.237351112828939</v>
       </c>
       <c r="Q22">
-        <v>35.987449907469653</v>
+        <v>27.794939390625</v>
       </c>
       <c r="R22">
-        <v>61.194183774818462</v>
+        <v>98.903339694656509</v>
       </c>
       <c r="S22">
         <v>0</v>
       </c>
-      <c r="T22" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-3</v>
       </c>
@@ -1860,47 +1768,43 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2.7470475809201318</v>
+        <v>2.9478320312499999</v>
       </c>
       <c r="I23">
-        <v>7.4000694195679095</v>
+        <v>5.0113507969995323</v>
       </c>
       <c r="J23">
-        <v>11.70452397968034</v>
+        <v>9.7337761563506984</v>
       </c>
       <c r="K23">
-        <v>13.930320383929409</v>
+        <v>12.947347580745729</v>
       </c>
       <c r="L23">
-        <v>17.10843337458607</v>
+        <v>15.15560461676955</v>
       </c>
       <c r="M23">
-        <v>19.239314413078091</v>
+        <v>17.621838248945149</v>
       </c>
       <c r="N23">
-        <v>21.788147195442239</v>
+        <v>19.961570603651992</v>
       </c>
       <c r="O23">
-        <v>25.891951414074594</v>
+        <v>22.377479207756231</v>
       </c>
       <c r="P23">
-        <v>29.902112752372986</v>
+        <v>27.951065132040643</v>
       </c>
       <c r="Q23">
-        <v>39.787149322943783</v>
+        <v>32.995386899594905</v>
       </c>
       <c r="R23">
-        <v>62.055613398917842</v>
+        <v>47.96168776371308</v>
       </c>
       <c r="S23">
-        <v>56</v>
-      </c>
-      <c r="T23" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9798487726747866E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.729951510630362E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-3</v>
       </c>
@@ -1923,47 +1827,43 @@
         <v>2</v>
       </c>
       <c r="H24">
-        <v>7.8940443658107826</v>
+        <v>1.1697151898734179</v>
       </c>
       <c r="I24">
-        <v>12.554004729307463</v>
+        <v>5.15640429736185</v>
       </c>
       <c r="J24">
-        <v>15.501556999125087</v>
+        <v>8.0239735806297716</v>
       </c>
       <c r="K24">
-        <v>18.403093694392918</v>
+        <v>9.7096846192868878</v>
       </c>
       <c r="L24">
-        <v>21.230968861748359</v>
+        <v>13.107079893098089</v>
       </c>
       <c r="M24">
-        <v>24.449356986019673</v>
+        <v>15.168771738506569</v>
       </c>
       <c r="N24">
-        <v>26.830580086809658</v>
+        <v>16.869688488549638</v>
       </c>
       <c r="O24">
-        <v>28.891050353282228</v>
+        <v>17.96376208248784</v>
       </c>
       <c r="P24">
-        <v>31.8624861641294</v>
+        <v>21.237351112828939</v>
       </c>
       <c r="Q24">
-        <v>35.987449907469653</v>
+        <v>27.794939390625</v>
       </c>
       <c r="R24">
-        <v>61.194183774818462</v>
+        <v>98.903339694656509</v>
       </c>
       <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-3</v>
       </c>
@@ -1986,47 +1886,43 @@
         <v>3</v>
       </c>
       <c r="H25">
-        <v>2.7470475809201318</v>
+        <v>2.9478320312499999</v>
       </c>
       <c r="I25">
-        <v>7.4000694195679095</v>
+        <v>5.0113507969995323</v>
       </c>
       <c r="J25">
-        <v>11.70452397968034</v>
+        <v>9.7337761563506984</v>
       </c>
       <c r="K25">
-        <v>13.930320383929409</v>
+        <v>12.947347580745729</v>
       </c>
       <c r="L25">
-        <v>17.10843337458607</v>
+        <v>15.15560461676955</v>
       </c>
       <c r="M25">
-        <v>19.239314413078091</v>
+        <v>17.621838248945149</v>
       </c>
       <c r="N25">
-        <v>21.788147195442239</v>
+        <v>19.961570603651992</v>
       </c>
       <c r="O25">
-        <v>25.891951414074594</v>
+        <v>22.377479207756231</v>
       </c>
       <c r="P25">
-        <v>29.902112752372986</v>
+        <v>27.951065132040643</v>
       </c>
       <c r="Q25">
-        <v>39.787149322943783</v>
+        <v>32.995386899594905</v>
       </c>
       <c r="R25">
-        <v>62.055613398917842</v>
+        <v>47.96168776371308</v>
       </c>
       <c r="S25">
-        <v>46</v>
-      </c>
-      <c r="T25" s="6">
-        <f t="shared" si="0"/>
-        <v>2.4477329204114322E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-3</v>
       </c>
@@ -2049,47 +1945,43 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>1.1992407304160335</v>
+        <v>0.57648734177215188</v>
       </c>
       <c r="I26">
-        <v>6.467373350629102</v>
+        <v>3.5836779236641219</v>
       </c>
       <c r="J26">
-        <v>8.5326758129237525</v>
+        <v>5.5476953125000001</v>
       </c>
       <c r="K26">
-        <v>10.142260825273047</v>
+        <v>6.9881015220054659</v>
       </c>
       <c r="L26">
-        <v>11.946427687272299</v>
+        <v>8.6304989265267178</v>
       </c>
       <c r="M26">
-        <v>13.842960338664264</v>
+        <v>9.997211934156379</v>
       </c>
       <c r="N26">
-        <v>15.879307815600129</v>
+        <v>11.39918183444656</v>
       </c>
       <c r="O26">
-        <v>18.404634438368067</v>
+        <v>13.489800421875</v>
       </c>
       <c r="P26">
-        <v>21.037157571072807</v>
+        <v>15.81245122621166</v>
       </c>
       <c r="Q26">
-        <v>27.812197647544451</v>
+        <v>19.71048778062293</v>
       </c>
       <c r="R26">
-        <v>87.177320180940796</v>
+        <v>78.631494140624994</v>
       </c>
       <c r="S26">
-        <v>188</v>
-      </c>
-      <c r="T26" s="6">
-        <f t="shared" si="0"/>
-        <v>1.000377802255107E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.486634340420241E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-3</v>
       </c>
@@ -2112,47 +2004,43 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>1.5889031188622065</v>
+        <v>3.3608966244725735</v>
       </c>
       <c r="I27">
-        <v>6.3081588820745038</v>
+        <v>4.6757043365249062</v>
       </c>
       <c r="J27">
-        <v>9.4077552721961872</v>
+        <v>6.7317164921602339</v>
       </c>
       <c r="K27">
-        <v>12.247492317394558</v>
+        <v>8.4807337251908397</v>
       </c>
       <c r="L27">
-        <v>14.743158172012844</v>
+        <v>9.494675848101263</v>
       </c>
       <c r="M27">
-        <v>16.981991752350652</v>
+        <v>10.81011619341564</v>
       </c>
       <c r="N27">
-        <v>19.712363031399402</v>
+        <v>12.129468093988551</v>
       </c>
       <c r="O27">
-        <v>23.161557644727257</v>
+        <v>14.195088867187501</v>
       </c>
       <c r="P27">
-        <v>29.850267207390658</v>
+        <v>16.922557431304398</v>
       </c>
       <c r="Q27">
-        <v>35.35007296317935</v>
+        <v>19.10858854198473</v>
       </c>
       <c r="R27">
-        <v>66.019959124106464</v>
+        <v>55.835715648854965</v>
       </c>
       <c r="S27">
-        <v>122</v>
-      </c>
-      <c r="T27" s="6">
-        <f t="shared" si="0"/>
-        <v>6.4918133976129286E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+        <v>6.216585851050603E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-3</v>
       </c>
@@ -2175,47 +2063,43 @@
         <v>2</v>
       </c>
       <c r="H28">
-        <v>1.1992407304160335</v>
+        <v>0.57648734177215188</v>
       </c>
       <c r="I28">
-        <v>6.467373350629102</v>
+        <v>3.5836779236641219</v>
       </c>
       <c r="J28">
-        <v>8.5326758129237525</v>
+        <v>5.5476953125000001</v>
       </c>
       <c r="K28">
-        <v>10.142260825273047</v>
+        <v>6.9881015220054659</v>
       </c>
       <c r="L28">
-        <v>11.946427687272299</v>
+        <v>8.6304989265267178</v>
       </c>
       <c r="M28">
-        <v>13.842960338664264</v>
+        <v>9.997211934156379</v>
       </c>
       <c r="N28">
-        <v>15.879307815600129</v>
+        <v>11.39918183444656</v>
       </c>
       <c r="O28">
-        <v>18.404634438368067</v>
+        <v>13.489800421875</v>
       </c>
       <c r="P28">
-        <v>21.037157571072807</v>
+        <v>15.81245122621166</v>
       </c>
       <c r="Q28">
-        <v>27.812197647544451</v>
+        <v>19.71048778062293</v>
       </c>
       <c r="R28">
-        <v>87.177320180940796</v>
+        <v>78.631494140624994</v>
       </c>
       <c r="S28">
-        <v>15635</v>
-      </c>
-      <c r="T28" s="6">
-        <f t="shared" si="0"/>
-        <v>8.3196313501375518E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+        <v>6.7636454059430556E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-3</v>
       </c>
@@ -2238,47 +2122,43 @@
         <v>3</v>
       </c>
       <c r="H29">
-        <v>1.5889031188622065</v>
+        <v>3.3608966244725735</v>
       </c>
       <c r="I29">
-        <v>6.3081588820745038</v>
+        <v>4.6757043365249062</v>
       </c>
       <c r="J29">
-        <v>9.4077552721961872</v>
+        <v>6.7317164921602339</v>
       </c>
       <c r="K29">
-        <v>12.247492317394558</v>
+        <v>8.4807337251908397</v>
       </c>
       <c r="L29">
-        <v>14.743158172012844</v>
+        <v>9.494675848101263</v>
       </c>
       <c r="M29">
-        <v>16.981991752350652</v>
+        <v>10.81011619341564</v>
       </c>
       <c r="N29">
-        <v>19.712363031399402</v>
+        <v>12.129468093988551</v>
       </c>
       <c r="O29">
-        <v>23.161557644727257</v>
+        <v>14.195088867187501</v>
       </c>
       <c r="P29">
-        <v>29.850267207390658</v>
+        <v>16.922557431304398</v>
       </c>
       <c r="Q29">
-        <v>35.35007296317935</v>
+        <v>19.10858854198473</v>
       </c>
       <c r="R29">
-        <v>66.019959124106464</v>
+        <v>55.835715648854965</v>
       </c>
       <c r="S29">
-        <v>2398</v>
-      </c>
-      <c r="T29" s="6">
-        <f t="shared" si="0"/>
-        <v>1.2760138137275247E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8.7032201914708437E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-3</v>
       </c>
@@ -2301,47 +2181,43 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>7.8940443658107826</v>
+        <v>1.1697151898734179</v>
       </c>
       <c r="I30">
-        <v>12.554004729307463</v>
+        <v>5.15640429736185</v>
       </c>
       <c r="J30">
-        <v>15.501556999125087</v>
+        <v>8.0239735806297716</v>
       </c>
       <c r="K30">
-        <v>18.403093694392918</v>
+        <v>9.7096846192868878</v>
       </c>
       <c r="L30">
-        <v>21.230968861748359</v>
+        <v>13.107079893098089</v>
       </c>
       <c r="M30">
-        <v>24.449356986019673</v>
+        <v>15.168771738506569</v>
       </c>
       <c r="N30">
-        <v>26.830580086809658</v>
+        <v>16.869688488549638</v>
       </c>
       <c r="O30">
-        <v>28.891050353282228</v>
+        <v>17.96376208248784</v>
       </c>
       <c r="P30">
-        <v>31.8624861641294</v>
+        <v>21.237351112828939</v>
       </c>
       <c r="Q30">
-        <v>35.987449907469653</v>
+        <v>27.794939390625</v>
       </c>
       <c r="R30">
-        <v>61.194183774818462</v>
+        <v>98.903339694656509</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
-      <c r="T30" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-3</v>
       </c>
@@ -2364,47 +2240,43 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>2.7470475809201318</v>
+        <v>2.9478320312499999</v>
       </c>
       <c r="I31">
-        <v>7.4000694195679095</v>
+        <v>5.0113507969995323</v>
       </c>
       <c r="J31">
-        <v>11.70452397968034</v>
+        <v>9.7337761563506984</v>
       </c>
       <c r="K31">
-        <v>13.930320383929409</v>
+        <v>12.947347580745729</v>
       </c>
       <c r="L31">
-        <v>17.10843337458607</v>
+        <v>15.15560461676955</v>
       </c>
       <c r="M31">
-        <v>19.239314413078091</v>
+        <v>17.621838248945149</v>
       </c>
       <c r="N31">
-        <v>21.788147195442239</v>
+        <v>19.961570603651992</v>
       </c>
       <c r="O31">
-        <v>25.891951414074594</v>
+        <v>22.377479207756231</v>
       </c>
       <c r="P31">
-        <v>29.902112752372986</v>
+        <v>27.951065132040643</v>
       </c>
       <c r="Q31">
-        <v>39.787149322943783</v>
+        <v>32.995386899594905</v>
       </c>
       <c r="R31">
-        <v>62.055613398917842</v>
+        <v>47.96168776371308</v>
       </c>
       <c r="S31">
-        <v>88</v>
-      </c>
-      <c r="T31" s="6">
-        <f t="shared" si="0"/>
-        <v>4.6826194999175218E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.486634340420241E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-3</v>
       </c>
@@ -2427,47 +2299,43 @@
         <v>2</v>
       </c>
       <c r="H32">
-        <v>7.8940443658107826</v>
+        <v>1.1697151898734179</v>
       </c>
       <c r="I32">
-        <v>12.554004729307463</v>
+        <v>5.15640429736185</v>
       </c>
       <c r="J32">
-        <v>15.501556999125087</v>
+        <v>8.0239735806297716</v>
       </c>
       <c r="K32">
-        <v>18.403093694392918</v>
+        <v>9.7096846192868878</v>
       </c>
       <c r="L32">
-        <v>21.230968861748359</v>
+        <v>13.107079893098089</v>
       </c>
       <c r="M32">
-        <v>24.449356986019673</v>
+        <v>15.168771738506569</v>
       </c>
       <c r="N32">
-        <v>26.830580086809658</v>
+        <v>16.869688488549638</v>
       </c>
       <c r="O32">
-        <v>28.891050353282228</v>
+        <v>17.96376208248784</v>
       </c>
       <c r="P32">
-        <v>31.8624861641294</v>
+        <v>21.237351112828939</v>
       </c>
       <c r="Q32">
-        <v>35.987449907469653</v>
+        <v>27.794939390625</v>
       </c>
       <c r="R32">
-        <v>61.194183774818462</v>
+        <v>98.903339694656509</v>
       </c>
       <c r="S32">
-        <v>1019</v>
-      </c>
-      <c r="T32" s="6">
-        <f t="shared" si="0"/>
-        <v>5.4222605345635852E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.2272783787144098E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>-3</v>
       </c>
@@ -2490,47 +2358,43 @@
         <v>3</v>
       </c>
       <c r="H33">
-        <v>2.7470475809201318</v>
+        <v>2.9478320312499999</v>
       </c>
       <c r="I33">
-        <v>7.4000694195679095</v>
+        <v>5.0113507969995323</v>
       </c>
       <c r="J33">
-        <v>11.70452397968034</v>
+        <v>9.7337761563506984</v>
       </c>
       <c r="K33">
-        <v>13.930320383929409</v>
+        <v>12.947347580745729</v>
       </c>
       <c r="L33">
-        <v>17.10843337458607</v>
+        <v>15.15560461676955</v>
       </c>
       <c r="M33">
-        <v>19.239314413078091</v>
+        <v>17.621838248945149</v>
       </c>
       <c r="N33">
-        <v>21.788147195442239</v>
+        <v>19.961570603651992</v>
       </c>
       <c r="O33">
-        <v>25.891951414074594</v>
+        <v>22.377479207756231</v>
       </c>
       <c r="P33">
-        <v>29.902112752372986</v>
+        <v>27.951065132040643</v>
       </c>
       <c r="Q33">
-        <v>39.787149322943783</v>
+        <v>32.995386899594905</v>
       </c>
       <c r="R33">
-        <v>62.055613398917842</v>
+        <v>47.96168776371308</v>
       </c>
       <c r="S33">
-        <v>958</v>
-      </c>
-      <c r="T33" s="6">
-        <f t="shared" si="0"/>
-        <v>5.097669864682939E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.9786149446723864E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>-2</v>
       </c>
@@ -2553,47 +2417,43 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1.1992407304160335</v>
+        <v>8.7275390625000004E-2</v>
       </c>
       <c r="I34">
-        <v>6.467373350629102</v>
+        <v>3.6622253086419758</v>
       </c>
       <c r="J34">
-        <v>8.5326758129237525</v>
+        <v>5.4188806139232009</v>
       </c>
       <c r="K34">
-        <v>10.142260825273047</v>
+        <v>7.037705896885071</v>
       </c>
       <c r="L34">
-        <v>11.946427687272299</v>
+        <v>8.5308104500907458</v>
       </c>
       <c r="M34">
-        <v>13.842960338664264</v>
+        <v>9.9317241173664126</v>
       </c>
       <c r="N34">
-        <v>15.879307815600129</v>
+        <v>11.777870175438601</v>
       </c>
       <c r="O34">
-        <v>18.404634438368067</v>
+        <v>13.628095</v>
       </c>
       <c r="P34">
-        <v>21.037157571072807</v>
+        <v>15.864739441195589</v>
       </c>
       <c r="Q34">
-        <v>27.812197647544451</v>
+        <v>21.232329</v>
       </c>
       <c r="R34">
-        <v>87.177320180940796</v>
+        <v>70.806950000000001</v>
       </c>
       <c r="S34">
-        <v>50</v>
-      </c>
-      <c r="T34" s="6">
-        <f t="shared" si="0"/>
-        <v>2.6605792613167741E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.973268680840482E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>-2</v>
       </c>
@@ -2616,47 +2476,43 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1.5889031188622065</v>
+        <v>2.496154672395273</v>
       </c>
       <c r="I35">
-        <v>6.3081588820745038</v>
+        <v>5.8632698892671611</v>
       </c>
       <c r="J35">
-        <v>9.4077552721961872</v>
+        <v>7.2686788399570368</v>
       </c>
       <c r="K35">
-        <v>12.247492317394558</v>
+        <v>8.7826858877707252</v>
       </c>
       <c r="L35">
-        <v>14.743158172012844</v>
+        <v>9.7416863509787905</v>
       </c>
       <c r="M35">
-        <v>16.981991752350652</v>
+        <v>11.44873091603054</v>
       </c>
       <c r="N35">
-        <v>19.712363031399402</v>
+        <v>13.910938</v>
       </c>
       <c r="O35">
-        <v>23.161557644727257</v>
+        <v>17.055630085131781</v>
       </c>
       <c r="P35">
-        <v>29.850267207390658</v>
+        <v>19.495053333333338</v>
       </c>
       <c r="Q35">
-        <v>35.35007296317935</v>
+        <v>26.732408732824428</v>
       </c>
       <c r="R35">
-        <v>66.019959124106464</v>
+        <v>51.61468</v>
       </c>
       <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.486634340420241E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>-2</v>
       </c>
@@ -2679,47 +2535,43 @@
         <v>2</v>
       </c>
       <c r="H36">
-        <v>1.1992407304160335</v>
+        <v>8.7275390625000004E-2</v>
       </c>
       <c r="I36">
-        <v>6.467373350629102</v>
+        <v>3.6622253086419758</v>
       </c>
       <c r="J36">
-        <v>8.5326758129237525</v>
+        <v>5.4188806139232009</v>
       </c>
       <c r="K36">
-        <v>10.142260825273047</v>
+        <v>7.037705896885071</v>
       </c>
       <c r="L36">
-        <v>11.946427687272299</v>
+        <v>8.5308104500907458</v>
       </c>
       <c r="M36">
-        <v>13.842960338664264</v>
+        <v>9.9317241173664126</v>
       </c>
       <c r="N36">
-        <v>15.879307815600129</v>
+        <v>11.777870175438601</v>
       </c>
       <c r="O36">
-        <v>18.404634438368067</v>
+        <v>13.628095</v>
       </c>
       <c r="P36">
-        <v>21.037157571072807</v>
+        <v>15.864739441195589</v>
       </c>
       <c r="Q36">
-        <v>27.812197647544451</v>
+        <v>21.232329</v>
       </c>
       <c r="R36">
-        <v>87.177320180940796</v>
+        <v>70.806950000000001</v>
       </c>
       <c r="S36">
-        <v>266</v>
-      </c>
-      <c r="T36" s="6">
-        <f t="shared" si="0"/>
-        <v>1.4154281670205238E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.3676488872311329E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-2</v>
       </c>
@@ -2742,47 +2594,43 @@
         <v>3</v>
       </c>
       <c r="H37">
-        <v>1.5889031188622065</v>
+        <v>2.496154672395273</v>
       </c>
       <c r="I37">
-        <v>6.3081588820745038</v>
+        <v>5.8632698892671611</v>
       </c>
       <c r="J37">
-        <v>9.4077552721961872</v>
+        <v>7.2686788399570368</v>
       </c>
       <c r="K37">
-        <v>12.247492317394558</v>
+        <v>8.7826858877707252</v>
       </c>
       <c r="L37">
-        <v>14.743158172012844</v>
+        <v>9.7416863509787905</v>
       </c>
       <c r="M37">
-        <v>16.981991752350652</v>
+        <v>11.44873091603054</v>
       </c>
       <c r="N37">
-        <v>19.712363031399402</v>
+        <v>13.910938</v>
       </c>
       <c r="O37">
-        <v>23.161557644727257</v>
+        <v>17.055630085131781</v>
       </c>
       <c r="P37">
-        <v>29.850267207390658</v>
+        <v>19.495053333333338</v>
       </c>
       <c r="Q37">
-        <v>35.35007296317935</v>
+        <v>26.732408732824428</v>
       </c>
       <c r="R37">
-        <v>66.019959124106464</v>
+        <v>51.61468</v>
       </c>
       <c r="S37">
-        <v>55</v>
-      </c>
-      <c r="T37" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9266371874484513E-4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.486634340420241E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-2</v>
       </c>
@@ -2805,47 +2653,43 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>7.8940443658107826</v>
+        <v>1.0738683127572011</v>
       </c>
       <c r="I38">
-        <v>12.554004729307463</v>
+        <v>4.551925720538792</v>
       </c>
       <c r="J38">
-        <v>15.501556999125087</v>
+        <v>7.0134819298664119</v>
       </c>
       <c r="K38">
-        <v>18.403093694392918</v>
+        <v>9.3051509832563699</v>
       </c>
       <c r="L38">
-        <v>21.230968861748359</v>
+        <v>11.814865234375</v>
       </c>
       <c r="M38">
-        <v>24.449356986019673</v>
+        <v>14.348261816229011</v>
       </c>
       <c r="N38">
-        <v>26.830580086809658</v>
+        <v>16.338760687022901</v>
       </c>
       <c r="O38">
-        <v>28.891050353282228</v>
+        <v>18.58457738818565</v>
       </c>
       <c r="P38">
-        <v>31.8624861641294</v>
+        <v>22.477912726462261</v>
       </c>
       <c r="Q38">
-        <v>35.987449907469653</v>
+        <v>30.842407000000001</v>
       </c>
       <c r="R38">
-        <v>61.194183774818462</v>
+        <v>53.37075690115762</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
-      <c r="T38" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-2</v>
       </c>
@@ -2868,47 +2712,43 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>2.7470475809201318</v>
+        <v>2.9686934156378597</v>
       </c>
       <c r="I39">
-        <v>7.4000694195679095</v>
+        <v>4.805974221267455</v>
       </c>
       <c r="J39">
-        <v>11.70452397968034</v>
+        <v>8.6703806856851191</v>
       </c>
       <c r="K39">
-        <v>13.930320383929409</v>
+        <v>11.247218106995891</v>
       </c>
       <c r="L39">
-        <v>17.10843337458607</v>
+        <v>13.625821307998621</v>
       </c>
       <c r="M39">
-        <v>19.239314413078091</v>
+        <v>15.464482421874999</v>
       </c>
       <c r="N39">
-        <v>21.788147195442239</v>
+        <v>18.96338822141561</v>
       </c>
       <c r="O39">
-        <v>25.891951414074594</v>
+        <v>21.310987999999998</v>
       </c>
       <c r="P39">
-        <v>29.902112752372986</v>
+        <v>24.786283020770323</v>
       </c>
       <c r="Q39">
-        <v>39.787149322943783</v>
+        <v>28.768556295636692</v>
       </c>
       <c r="R39">
-        <v>62.055613398917842</v>
+        <v>37.767200000000003</v>
       </c>
       <c r="S39">
-        <v>56</v>
-      </c>
-      <c r="T39" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9798487726747866E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-2</v>
       </c>
@@ -2931,47 +2771,43 @@
         <v>2</v>
       </c>
       <c r="H40">
-        <v>7.8940443658107826</v>
+        <v>1.0738683127572011</v>
       </c>
       <c r="I40">
-        <v>12.554004729307463</v>
+        <v>4.551925720538792</v>
       </c>
       <c r="J40">
-        <v>15.501556999125087</v>
+        <v>7.0134819298664119</v>
       </c>
       <c r="K40">
-        <v>18.403093694392918</v>
+        <v>9.3051509832563699</v>
       </c>
       <c r="L40">
-        <v>21.230968861748359</v>
+        <v>11.814865234375</v>
       </c>
       <c r="M40">
-        <v>24.449356986019673</v>
+        <v>14.348261816229011</v>
       </c>
       <c r="N40">
-        <v>26.830580086809658</v>
+        <v>16.338760687022901</v>
       </c>
       <c r="O40">
-        <v>28.891050353282228</v>
+        <v>18.58457738818565</v>
       </c>
       <c r="P40">
-        <v>31.8624861641294</v>
+        <v>22.477912726462261</v>
       </c>
       <c r="Q40">
-        <v>35.987449907469653</v>
+        <v>30.842407000000001</v>
       </c>
       <c r="R40">
-        <v>61.194183774818462</v>
+        <v>53.37075690115762</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
-      <c r="T40" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-2</v>
       </c>
@@ -2994,47 +2830,43 @@
         <v>3</v>
       </c>
       <c r="H41">
-        <v>2.7470475809201318</v>
+        <v>2.9686934156378597</v>
       </c>
       <c r="I41">
-        <v>7.4000694195679095</v>
+        <v>4.805974221267455</v>
       </c>
       <c r="J41">
-        <v>11.70452397968034</v>
+        <v>8.6703806856851191</v>
       </c>
       <c r="K41">
-        <v>13.930320383929409</v>
+        <v>11.247218106995891</v>
       </c>
       <c r="L41">
-        <v>17.10843337458607</v>
+        <v>13.625821307998621</v>
       </c>
       <c r="M41">
-        <v>19.239314413078091</v>
+        <v>15.464482421874999</v>
       </c>
       <c r="N41">
-        <v>21.788147195442239</v>
+        <v>18.96338822141561</v>
       </c>
       <c r="O41">
-        <v>25.891951414074594</v>
+        <v>21.310987999999998</v>
       </c>
       <c r="P41">
-        <v>29.902112752372986</v>
+        <v>24.786283020770323</v>
       </c>
       <c r="Q41">
-        <v>39.787149322943783</v>
+        <v>28.768556295636692</v>
       </c>
       <c r="R41">
-        <v>62.055613398917842</v>
+        <v>37.767200000000003</v>
       </c>
       <c r="S41">
-        <v>46</v>
-      </c>
-      <c r="T41" s="6">
-        <f t="shared" si="0"/>
-        <v>2.4477329204114322E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.973268680840482E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-2</v>
       </c>
@@ -3057,47 +2889,43 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>1.1992407304160335</v>
+        <v>8.7275390625000004E-2</v>
       </c>
       <c r="I42">
-        <v>6.467373350629102</v>
+        <v>3.6622253086419758</v>
       </c>
       <c r="J42">
-        <v>8.5326758129237525</v>
+        <v>5.4188806139232009</v>
       </c>
       <c r="K42">
-        <v>10.142260825273047</v>
+        <v>7.037705896885071</v>
       </c>
       <c r="L42">
-        <v>11.946427687272299</v>
+        <v>8.5308104500907458</v>
       </c>
       <c r="M42">
-        <v>13.842960338664264</v>
+        <v>9.9317241173664126</v>
       </c>
       <c r="N42">
-        <v>15.879307815600129</v>
+        <v>11.777870175438601</v>
       </c>
       <c r="O42">
-        <v>18.404634438368067</v>
+        <v>13.628095</v>
       </c>
       <c r="P42">
-        <v>21.037157571072807</v>
+        <v>15.864739441195589</v>
       </c>
       <c r="Q42">
-        <v>27.812197647544451</v>
+        <v>21.232329</v>
       </c>
       <c r="R42">
-        <v>87.177320180940796</v>
+        <v>70.806950000000001</v>
       </c>
       <c r="S42">
-        <v>188</v>
-      </c>
-      <c r="T42" s="6">
-        <f t="shared" si="0"/>
-        <v>1.000377802255107E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <v>9.9465373616809639E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-2</v>
       </c>
@@ -3120,47 +2948,43 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1.5889031188622065</v>
+        <v>2.496154672395273</v>
       </c>
       <c r="I43">
-        <v>6.3081588820745038</v>
+        <v>5.8632698892671611</v>
       </c>
       <c r="J43">
-        <v>9.4077552721961872</v>
+        <v>7.2686788399570368</v>
       </c>
       <c r="K43">
-        <v>12.247492317394558</v>
+        <v>8.7826858877707252</v>
       </c>
       <c r="L43">
-        <v>14.743158172012844</v>
+        <v>9.7416863509787905</v>
       </c>
       <c r="M43">
-        <v>16.981991752350652</v>
+        <v>11.44873091603054</v>
       </c>
       <c r="N43">
-        <v>19.712363031399402</v>
+        <v>13.910938</v>
       </c>
       <c r="O43">
-        <v>23.161557644727257</v>
+        <v>17.055630085131781</v>
       </c>
       <c r="P43">
-        <v>29.850267207390658</v>
+        <v>19.495053333333338</v>
       </c>
       <c r="Q43">
-        <v>35.35007296317935</v>
+        <v>26.732408732824428</v>
       </c>
       <c r="R43">
-        <v>66.019959124106464</v>
+        <v>51.61468</v>
       </c>
       <c r="S43">
-        <v>122</v>
-      </c>
-      <c r="T43" s="6">
-        <f t="shared" si="0"/>
-        <v>6.4918133976129286E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.973268680840482E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-2</v>
       </c>
@@ -3183,47 +3007,43 @@
         <v>2</v>
       </c>
       <c r="H44">
-        <v>1.1992407304160335</v>
+        <v>8.7275390625000004E-2</v>
       </c>
       <c r="I44">
-        <v>6.467373350629102</v>
+        <v>3.6622253086419758</v>
       </c>
       <c r="J44">
-        <v>8.5326758129237525</v>
+        <v>5.4188806139232009</v>
       </c>
       <c r="K44">
-        <v>10.142260825273047</v>
+        <v>7.037705896885071</v>
       </c>
       <c r="L44">
-        <v>11.946427687272299</v>
+        <v>8.5308104500907458</v>
       </c>
       <c r="M44">
-        <v>13.842960338664264</v>
+        <v>9.9317241173664126</v>
       </c>
       <c r="N44">
-        <v>15.879307815600129</v>
+        <v>11.777870175438601</v>
       </c>
       <c r="O44">
-        <v>18.404634438368067</v>
+        <v>13.628095</v>
       </c>
       <c r="P44">
-        <v>21.037157571072807</v>
+        <v>15.864739441195589</v>
       </c>
       <c r="Q44">
-        <v>27.812197647544451</v>
+        <v>21.232329</v>
       </c>
       <c r="R44">
-        <v>87.177320180940796</v>
+        <v>70.806950000000001</v>
       </c>
       <c r="S44">
-        <v>15635</v>
-      </c>
-      <c r="T44" s="6">
-        <f t="shared" si="0"/>
-        <v>8.3196313501375518E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+        <v>9.1010816859380825E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-2</v>
       </c>
@@ -3246,47 +3066,43 @@
         <v>3</v>
       </c>
       <c r="H45">
-        <v>1.5889031188622065</v>
+        <v>2.496154672395273</v>
       </c>
       <c r="I45">
-        <v>6.3081588820745038</v>
+        <v>5.8632698892671611</v>
       </c>
       <c r="J45">
-        <v>9.4077552721961872</v>
+        <v>7.2686788399570368</v>
       </c>
       <c r="K45">
-        <v>12.247492317394558</v>
+        <v>8.7826858877707252</v>
       </c>
       <c r="L45">
-        <v>14.743158172012844</v>
+        <v>9.7416863509787905</v>
       </c>
       <c r="M45">
-        <v>16.981991752350652</v>
+        <v>11.44873091603054</v>
       </c>
       <c r="N45">
-        <v>19.712363031399402</v>
+        <v>13.910938</v>
       </c>
       <c r="O45">
-        <v>23.161557644727257</v>
+        <v>17.055630085131781</v>
       </c>
       <c r="P45">
-        <v>29.850267207390658</v>
+        <v>19.495053333333338</v>
       </c>
       <c r="Q45">
-        <v>35.35007296317935</v>
+        <v>26.732408732824428</v>
       </c>
       <c r="R45">
-        <v>66.019959124106464</v>
+        <v>51.61468</v>
       </c>
       <c r="S45">
-        <v>2398</v>
-      </c>
-      <c r="T45" s="6">
-        <f t="shared" si="0"/>
-        <v>1.2760138137275247E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.330349372124829E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-2</v>
       </c>
@@ -3309,47 +3125,43 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>7.8940443658107826</v>
+        <v>1.0738683127572011</v>
       </c>
       <c r="I46">
-        <v>12.554004729307463</v>
+        <v>4.551925720538792</v>
       </c>
       <c r="J46">
-        <v>15.501556999125087</v>
+        <v>7.0134819298664119</v>
       </c>
       <c r="K46">
-        <v>18.403093694392918</v>
+        <v>9.3051509832563699</v>
       </c>
       <c r="L46">
-        <v>21.230968861748359</v>
+        <v>11.814865234375</v>
       </c>
       <c r="M46">
-        <v>24.449356986019673</v>
+        <v>14.348261816229011</v>
       </c>
       <c r="N46">
-        <v>26.830580086809658</v>
+        <v>16.338760687022901</v>
       </c>
       <c r="O46">
-        <v>28.891050353282228</v>
+        <v>18.58457738818565</v>
       </c>
       <c r="P46">
-        <v>31.8624861641294</v>
+        <v>22.477912726462261</v>
       </c>
       <c r="Q46">
-        <v>35.987449907469653</v>
+        <v>30.842407000000001</v>
       </c>
       <c r="R46">
-        <v>61.194183774818462</v>
+        <v>53.37075690115762</v>
       </c>
       <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.729951510630362E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-2</v>
       </c>
@@ -3372,47 +3184,43 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>2.7470475809201318</v>
+        <v>2.9686934156378597</v>
       </c>
       <c r="I47">
-        <v>7.4000694195679095</v>
+        <v>4.805974221267455</v>
       </c>
       <c r="J47">
-        <v>11.70452397968034</v>
+        <v>8.6703806856851191</v>
       </c>
       <c r="K47">
-        <v>13.930320383929409</v>
+        <v>11.247218106995891</v>
       </c>
       <c r="L47">
-        <v>17.10843337458607</v>
+        <v>13.625821307998621</v>
       </c>
       <c r="M47">
-        <v>19.239314413078091</v>
+        <v>15.464482421874999</v>
       </c>
       <c r="N47">
-        <v>21.788147195442239</v>
+        <v>18.96338822141561</v>
       </c>
       <c r="O47">
-        <v>25.891951414074594</v>
+        <v>21.310987999999998</v>
       </c>
       <c r="P47">
-        <v>29.902112752372986</v>
+        <v>24.786283020770323</v>
       </c>
       <c r="Q47">
-        <v>39.787149322943783</v>
+        <v>28.768556295636692</v>
       </c>
       <c r="R47">
-        <v>62.055613398917842</v>
+        <v>37.767200000000003</v>
       </c>
       <c r="S47">
-        <v>88</v>
-      </c>
-      <c r="T47" s="6">
-        <f t="shared" si="0"/>
-        <v>4.6826194999175218E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8.703220191470844E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-2</v>
       </c>
@@ -3435,47 +3243,43 @@
         <v>2</v>
       </c>
       <c r="H48">
-        <v>7.8940443658107826</v>
+        <v>1.0738683127572011</v>
       </c>
       <c r="I48">
-        <v>12.554004729307463</v>
+        <v>4.551925720538792</v>
       </c>
       <c r="J48">
-        <v>15.501556999125087</v>
+        <v>7.0134819298664119</v>
       </c>
       <c r="K48">
-        <v>18.403093694392918</v>
+        <v>9.3051509832563699</v>
       </c>
       <c r="L48">
-        <v>21.230968861748359</v>
+        <v>11.814865234375</v>
       </c>
       <c r="M48">
-        <v>24.449356986019673</v>
+        <v>14.348261816229011</v>
       </c>
       <c r="N48">
-        <v>26.830580086809658</v>
+        <v>16.338760687022901</v>
       </c>
       <c r="O48">
-        <v>28.891050353282228</v>
+        <v>18.58457738818565</v>
       </c>
       <c r="P48">
-        <v>31.8624861641294</v>
+        <v>22.477912726462261</v>
       </c>
       <c r="Q48">
-        <v>35.987449907469653</v>
+        <v>30.842407000000001</v>
       </c>
       <c r="R48">
-        <v>61.194183774818462</v>
+        <v>53.37075690115762</v>
       </c>
       <c r="S48">
-        <v>1019</v>
-      </c>
-      <c r="T48" s="6">
-        <f t="shared" si="0"/>
-        <v>5.4222605345635852E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+        <v>5.0976003978614936E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-2</v>
       </c>
@@ -3498,47 +3302,43 @@
         <v>3</v>
       </c>
       <c r="H49">
-        <v>2.7470475809201318</v>
+        <v>2.9686934156378597</v>
       </c>
       <c r="I49">
-        <v>7.4000694195679095</v>
+        <v>4.805974221267455</v>
       </c>
       <c r="J49">
-        <v>11.70452397968034</v>
+        <v>8.6703806856851191</v>
       </c>
       <c r="K49">
-        <v>13.930320383929409</v>
+        <v>11.247218106995891</v>
       </c>
       <c r="L49">
-        <v>17.10843337458607</v>
+        <v>13.625821307998621</v>
       </c>
       <c r="M49">
-        <v>19.239314413078091</v>
+        <v>15.464482421874999</v>
       </c>
       <c r="N49">
-        <v>21.788147195442239</v>
+        <v>18.96338822141561</v>
       </c>
       <c r="O49">
-        <v>25.891951414074594</v>
+        <v>21.310987999999998</v>
       </c>
       <c r="P49">
-        <v>29.902112752372986</v>
+        <v>24.786283020770323</v>
       </c>
       <c r="Q49">
-        <v>39.787149322943783</v>
+        <v>28.768556295636692</v>
       </c>
       <c r="R49">
-        <v>62.055613398917842</v>
+        <v>37.767200000000003</v>
       </c>
       <c r="S49">
-        <v>958</v>
-      </c>
-      <c r="T49" s="6">
-        <f t="shared" si="0"/>
-        <v>5.097669864682939E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+        <v>5.9679224170085792E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-1</v>
       </c>
@@ -3561,47 +3361,43 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>1.1992407304160335</v>
+        <v>0.36298664122137403</v>
       </c>
       <c r="I50">
-        <v>6.467373350629102</v>
+        <v>3.9253959212376941</v>
       </c>
       <c r="J50">
-        <v>8.5326758129237525</v>
+        <v>5.8203544682395645</v>
       </c>
       <c r="K50">
-        <v>10.142260825273047</v>
+        <v>7.7923896962286472</v>
       </c>
       <c r="L50">
-        <v>11.946427687272299</v>
+        <v>9.1143035711709377</v>
       </c>
       <c r="M50">
-        <v>13.842960338664264</v>
+        <v>10.777220683287171</v>
       </c>
       <c r="N50">
-        <v>15.879307815600129</v>
+        <v>12.847560921875001</v>
       </c>
       <c r="O50">
-        <v>18.404634438368067</v>
+        <v>14.652311097046409</v>
       </c>
       <c r="P50">
-        <v>21.037157571072807</v>
+        <v>16.962520501500471</v>
       </c>
       <c r="Q50">
-        <v>27.812197647544451</v>
+        <v>21.373634637580789</v>
       </c>
       <c r="R50">
-        <v>87.177320180940796</v>
+        <v>110.0926687763713</v>
       </c>
       <c r="S50">
-        <v>50</v>
-      </c>
-      <c r="T50" s="6">
-        <f t="shared" si="0"/>
-        <v>2.6605792613167741E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.973268680840482E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-1</v>
       </c>
@@ -3624,47 +3420,43 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1.5889031188622065</v>
+        <v>4.0371624472573844</v>
       </c>
       <c r="I51">
-        <v>6.3081588820745038</v>
+        <v>6.8757893255305742</v>
       </c>
       <c r="J51">
-        <v>9.4077552721961872</v>
+        <v>8.0329957805907188</v>
       </c>
       <c r="K51">
-        <v>12.247492317394558</v>
+        <v>8.7407083750000005</v>
       </c>
       <c r="L51">
-        <v>14.743158172012844</v>
+        <v>11.020537109375001</v>
       </c>
       <c r="M51">
-        <v>16.981991752350652</v>
+        <v>13.00297350415512</v>
       </c>
       <c r="N51">
-        <v>19.712363031399402</v>
+        <v>15.18388829038112</v>
       </c>
       <c r="O51">
-        <v>23.161557644727257</v>
+        <v>16.29380274261603</v>
       </c>
       <c r="P51">
-        <v>29.850267207390658</v>
+        <v>19.571032212926291</v>
       </c>
       <c r="Q51">
-        <v>35.35007296317935</v>
+        <v>24.0977656260388</v>
       </c>
       <c r="R51">
-        <v>66.019959124106464</v>
+        <v>75.582141350210975</v>
       </c>
       <c r="S51">
-        <v>0</v>
-      </c>
-      <c r="T51" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.973268680840482E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-1</v>
       </c>
@@ -3687,47 +3479,43 @@
         <v>2</v>
       </c>
       <c r="H52">
-        <v>1.1992407304160335</v>
+        <v>0.36298664122137403</v>
       </c>
       <c r="I52">
-        <v>6.467373350629102</v>
+        <v>3.9253959212376941</v>
       </c>
       <c r="J52">
-        <v>8.5326758129237525</v>
+        <v>5.8203544682395645</v>
       </c>
       <c r="K52">
-        <v>10.142260825273047</v>
+        <v>7.7923896962286472</v>
       </c>
       <c r="L52">
-        <v>11.946427687272299</v>
+        <v>9.1143035711709377</v>
       </c>
       <c r="M52">
-        <v>13.842960338664264</v>
+        <v>10.777220683287171</v>
       </c>
       <c r="N52">
-        <v>15.879307815600129</v>
+        <v>12.847560921875001</v>
       </c>
       <c r="O52">
-        <v>18.404634438368067</v>
+        <v>14.652311097046409</v>
       </c>
       <c r="P52">
-        <v>21.037157571072807</v>
+        <v>16.962520501500471</v>
       </c>
       <c r="Q52">
-        <v>27.812197647544451</v>
+        <v>21.373634637580789</v>
       </c>
       <c r="R52">
-        <v>87.177320180940796</v>
+        <v>110.0926687763713</v>
       </c>
       <c r="S52">
-        <v>266</v>
-      </c>
-      <c r="T52" s="6">
-        <f t="shared" si="0"/>
-        <v>1.4154281670205238E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.237970906378217E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-1</v>
       </c>
@@ -3750,47 +3538,43 @@
         <v>3</v>
       </c>
       <c r="H53">
-        <v>1.5889031188622065</v>
+        <v>4.0371624472573844</v>
       </c>
       <c r="I53">
-        <v>6.3081588820745038</v>
+        <v>6.8757893255305742</v>
       </c>
       <c r="J53">
-        <v>9.4077552721961872</v>
+        <v>8.0329957805907188</v>
       </c>
       <c r="K53">
-        <v>12.247492317394558</v>
+        <v>8.7407083750000005</v>
       </c>
       <c r="L53">
-        <v>14.743158172012844</v>
+        <v>11.020537109375001</v>
       </c>
       <c r="M53">
-        <v>16.981991752350652</v>
+        <v>13.00297350415512</v>
       </c>
       <c r="N53">
-        <v>19.712363031399402</v>
+        <v>15.18388829038112</v>
       </c>
       <c r="O53">
-        <v>23.161557644727257</v>
+        <v>16.29380274261603</v>
       </c>
       <c r="P53">
-        <v>29.850267207390658</v>
+        <v>19.571032212926291</v>
       </c>
       <c r="Q53">
-        <v>35.35007296317935</v>
+        <v>24.0977656260388</v>
       </c>
       <c r="R53">
-        <v>66.019959124106464</v>
+        <v>75.582141350210975</v>
       </c>
       <c r="S53">
-        <v>55</v>
-      </c>
-      <c r="T53" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9266371874484513E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.729951510630362E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-1</v>
       </c>
@@ -3813,47 +3597,43 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>7.8940443658107826</v>
+        <v>2.1354242749731482</v>
       </c>
       <c r="I54">
-        <v>12.554004729307463</v>
+        <v>4.7762877734374998</v>
       </c>
       <c r="J54">
-        <v>15.501556999125087</v>
+        <v>7.4728632594204978</v>
       </c>
       <c r="K54">
-        <v>18.403093694392918</v>
+        <v>9.689548828125</v>
       </c>
       <c r="L54">
-        <v>21.230968861748359</v>
+        <v>11.876012749999999</v>
       </c>
       <c r="M54">
-        <v>24.449356986019673</v>
+        <v>14.427649727767699</v>
       </c>
       <c r="N54">
-        <v>26.830580086809658</v>
+        <v>16.78614105749508</v>
       </c>
       <c r="O54">
-        <v>28.891050353282228</v>
+        <v>18.961078000000001</v>
       </c>
       <c r="P54">
-        <v>31.8624861641294</v>
+        <v>22.156904120447891</v>
       </c>
       <c r="Q54">
-        <v>35.987449907469653</v>
+        <v>30.171791320406328</v>
       </c>
       <c r="R54">
-        <v>61.194183774818462</v>
+        <v>70.839391428571403</v>
       </c>
       <c r="S54">
-        <v>0</v>
-      </c>
-      <c r="T54" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-1</v>
       </c>
@@ -3876,47 +3656,43 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>2.7470475809201318</v>
+        <v>1.839367088607595</v>
       </c>
       <c r="I55">
-        <v>7.4000694195679095</v>
+        <v>3.8443399999999999</v>
       </c>
       <c r="J55">
-        <v>11.70452397968034</v>
+        <v>7.9566764322916699</v>
       </c>
       <c r="K55">
-        <v>13.930320383929409</v>
+        <v>10.5547</v>
       </c>
       <c r="L55">
-        <v>17.10843337458607</v>
+        <v>14.117525392428441</v>
       </c>
       <c r="M55">
-        <v>19.239314413078091</v>
+        <v>16.70009074410163</v>
       </c>
       <c r="N55">
-        <v>21.788147195442239</v>
+        <v>20.113669999999999</v>
       </c>
       <c r="O55">
-        <v>25.891951414074594</v>
+        <v>22.661708217913201</v>
       </c>
       <c r="P55">
-        <v>29.902112752372986</v>
+        <v>29.339189453125002</v>
       </c>
       <c r="Q55">
-        <v>39.787149322943783</v>
+        <v>37.889091796875</v>
       </c>
       <c r="R55">
-        <v>62.055613398917842</v>
+        <v>80.564341603053435</v>
       </c>
       <c r="S55">
-        <v>56</v>
-      </c>
-      <c r="T55" s="6">
-        <f t="shared" si="0"/>
-        <v>2.9798487726747866E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+        <v>7.459903021260724E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-1</v>
       </c>
@@ -3939,47 +3715,43 @@
         <v>2</v>
       </c>
       <c r="H56">
-        <v>7.8940443658107826</v>
+        <v>2.1354242749731482</v>
       </c>
       <c r="I56">
-        <v>12.554004729307463</v>
+        <v>4.7762877734374998</v>
       </c>
       <c r="J56">
-        <v>15.501556999125087</v>
+        <v>7.4728632594204978</v>
       </c>
       <c r="K56">
-        <v>18.403093694392918</v>
+        <v>9.689548828125</v>
       </c>
       <c r="L56">
-        <v>21.230968861748359</v>
+        <v>11.876012749999999</v>
       </c>
       <c r="M56">
-        <v>24.449356986019673</v>
+        <v>14.427649727767699</v>
       </c>
       <c r="N56">
-        <v>26.830580086809658</v>
+        <v>16.78614105749508</v>
       </c>
       <c r="O56">
-        <v>28.891050353282228</v>
+        <v>18.961078000000001</v>
       </c>
       <c r="P56">
-        <v>31.8624861641294</v>
+        <v>22.156904120447891</v>
       </c>
       <c r="Q56">
-        <v>35.987449907469653</v>
+        <v>30.171791320406328</v>
       </c>
       <c r="R56">
-        <v>61.194183774818462</v>
+        <v>70.839391428571403</v>
       </c>
       <c r="S56">
-        <v>0</v>
-      </c>
-      <c r="T56" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.486634340420241E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-1</v>
       </c>
@@ -4002,47 +3774,43 @@
         <v>3</v>
       </c>
       <c r="H57">
-        <v>2.7470475809201318</v>
+        <v>1.839367088607595</v>
       </c>
       <c r="I57">
-        <v>7.4000694195679095</v>
+        <v>3.8443399999999999</v>
       </c>
       <c r="J57">
-        <v>11.70452397968034</v>
+        <v>7.9566764322916699</v>
       </c>
       <c r="K57">
-        <v>13.930320383929409</v>
+        <v>10.5547</v>
       </c>
       <c r="L57">
-        <v>17.10843337458607</v>
+        <v>14.117525392428441</v>
       </c>
       <c r="M57">
-        <v>19.239314413078091</v>
+        <v>16.70009074410163</v>
       </c>
       <c r="N57">
-        <v>21.788147195442239</v>
+        <v>20.113669999999999</v>
       </c>
       <c r="O57">
-        <v>25.891951414074594</v>
+        <v>22.661708217913201</v>
       </c>
       <c r="P57">
-        <v>29.902112752372986</v>
+        <v>29.339189453125002</v>
       </c>
       <c r="Q57">
-        <v>39.787149322943783</v>
+        <v>37.889091796875</v>
       </c>
       <c r="R57">
-        <v>62.055613398917842</v>
+        <v>80.564341603053435</v>
       </c>
       <c r="S57">
-        <v>46</v>
-      </c>
-      <c r="T57" s="6">
-        <f t="shared" si="0"/>
-        <v>2.4477329204114322E-4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.486634340420241E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-1</v>
       </c>
@@ -4065,47 +3833,43 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>1.1992407304160335</v>
+        <v>0.36298664122137403</v>
       </c>
       <c r="I58">
-        <v>6.467373350629102</v>
+        <v>3.9253959212376941</v>
       </c>
       <c r="J58">
-        <v>8.5326758129237525</v>
+        <v>5.8203544682395645</v>
       </c>
       <c r="K58">
-        <v>10.142260825273047</v>
+        <v>7.7923896962286472</v>
       </c>
       <c r="L58">
-        <v>11.946427687272299</v>
+        <v>9.1143035711709377</v>
       </c>
       <c r="M58">
-        <v>13.842960338664264</v>
+        <v>10.777220683287171</v>
       </c>
       <c r="N58">
-        <v>15.879307815600129</v>
+        <v>12.847560921875001</v>
       </c>
       <c r="O58">
-        <v>18.404634438368067</v>
+        <v>14.652311097046409</v>
       </c>
       <c r="P58">
-        <v>21.037157571072807</v>
+        <v>16.962520501500471</v>
       </c>
       <c r="Q58">
-        <v>27.812197647544451</v>
+        <v>21.373634637580789</v>
       </c>
       <c r="R58">
-        <v>87.177320180940796</v>
+        <v>110.0926687763713</v>
       </c>
       <c r="S58">
-        <v>188</v>
-      </c>
-      <c r="T58" s="6">
-        <f t="shared" si="0"/>
-        <v>1.000377802255107E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.491980604252145E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-1</v>
       </c>
@@ -4128,47 +3892,43 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>1.5889031188622065</v>
+        <v>4.0371624472573844</v>
       </c>
       <c r="I59">
-        <v>6.3081588820745038</v>
+        <v>6.8757893255305742</v>
       </c>
       <c r="J59">
-        <v>9.4077552721961872</v>
+        <v>8.0329957805907188</v>
       </c>
       <c r="K59">
-        <v>12.247492317394558</v>
+        <v>8.7407083750000005</v>
       </c>
       <c r="L59">
-        <v>14.743158172012844</v>
+        <v>11.020537109375001</v>
       </c>
       <c r="M59">
-        <v>16.981991752350652</v>
+        <v>13.00297350415512</v>
       </c>
       <c r="N59">
-        <v>19.712363031399402</v>
+        <v>15.18388829038112</v>
       </c>
       <c r="O59">
-        <v>23.161557644727257</v>
+        <v>16.29380274261603</v>
       </c>
       <c r="P59">
-        <v>29.850267207390658</v>
+        <v>19.571032212926291</v>
       </c>
       <c r="Q59">
-        <v>35.35007296317935</v>
+        <v>24.0977656260388</v>
       </c>
       <c r="R59">
-        <v>66.019959124106464</v>
+        <v>75.582141350210975</v>
       </c>
       <c r="S59">
-        <v>122</v>
-      </c>
-      <c r="T59" s="6">
-        <f t="shared" si="0"/>
-        <v>6.4918133976129286E-4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+        <v>9.9465373616809639E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-1</v>
       </c>
@@ -4191,47 +3951,43 @@
         <v>2</v>
       </c>
       <c r="H60">
-        <v>1.1992407304160335</v>
+        <v>0.36298664122137403</v>
       </c>
       <c r="I60">
-        <v>6.467373350629102</v>
+        <v>3.9253959212376941</v>
       </c>
       <c r="J60">
-        <v>8.5326758129237525</v>
+        <v>5.8203544682395645</v>
       </c>
       <c r="K60">
-        <v>10.142260825273047</v>
+        <v>7.7923896962286472</v>
       </c>
       <c r="L60">
-        <v>11.946427687272299</v>
+        <v>9.1143035711709377</v>
       </c>
       <c r="M60">
-        <v>13.842960338664264</v>
+        <v>10.777220683287171</v>
       </c>
       <c r="N60">
-        <v>15.879307815600129</v>
+        <v>12.847560921875001</v>
       </c>
       <c r="O60">
-        <v>18.404634438368067</v>
+        <v>14.652311097046409</v>
       </c>
       <c r="P60">
-        <v>21.037157571072807</v>
+        <v>16.962520501500471</v>
       </c>
       <c r="Q60">
-        <v>27.812197647544451</v>
+        <v>21.373634637580789</v>
       </c>
       <c r="R60">
-        <v>87.177320180940796</v>
+        <v>110.0926687763713</v>
       </c>
       <c r="S60">
-        <v>15635</v>
-      </c>
-      <c r="T60" s="6">
-        <f t="shared" si="0"/>
-        <v>8.3196313501375518E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.1117742136018898</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-1</v>
       </c>
@@ -4254,47 +4010,43 @@
         <v>3</v>
       </c>
       <c r="H61">
-        <v>1.5889031188622065</v>
+        <v>4.0371624472573844</v>
       </c>
       <c r="I61">
-        <v>6.3081588820745038</v>
+        <v>6.8757893255305742</v>
       </c>
       <c r="J61">
-        <v>9.4077552721961872</v>
+        <v>8.0329957805907188</v>
       </c>
       <c r="K61">
-        <v>12.247492317394558</v>
+        <v>8.7407083750000005</v>
       </c>
       <c r="L61">
-        <v>14.743158172012844</v>
+        <v>11.020537109375001</v>
       </c>
       <c r="M61">
-        <v>16.981991752350652</v>
+        <v>13.00297350415512</v>
       </c>
       <c r="N61">
-        <v>19.712363031399402</v>
+        <v>15.18388829038112</v>
       </c>
       <c r="O61">
-        <v>23.161557644727257</v>
+        <v>16.29380274261603</v>
       </c>
       <c r="P61">
-        <v>29.850267207390658</v>
+        <v>19.571032212926291</v>
       </c>
       <c r="Q61">
-        <v>35.35007296317935</v>
+        <v>24.0977656260388</v>
       </c>
       <c r="R61">
-        <v>66.019959124106464</v>
+        <v>75.582141350210975</v>
       </c>
       <c r="S61">
-        <v>2398</v>
-      </c>
-      <c r="T61" s="6">
-        <f t="shared" si="0"/>
-        <v>1.2760138137275247E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.088772845953003E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-1</v>
       </c>
@@ -4317,47 +4069,43 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>7.8940443658107826</v>
+        <v>2.1354242749731482</v>
       </c>
       <c r="I62">
-        <v>12.554004729307463</v>
+        <v>4.7762877734374998</v>
       </c>
       <c r="J62">
-        <v>15.501556999125087</v>
+        <v>7.4728632594204978</v>
       </c>
       <c r="K62">
-        <v>18.403093694392918</v>
+        <v>9.689548828125</v>
       </c>
       <c r="L62">
-        <v>21.230968861748359</v>
+        <v>11.876012749999999</v>
       </c>
       <c r="M62">
-        <v>24.449356986019673</v>
+        <v>14.427649727767699</v>
       </c>
       <c r="N62">
-        <v>26.830580086809658</v>
+        <v>16.78614105749508</v>
       </c>
       <c r="O62">
-        <v>28.891050353282228</v>
+        <v>18.961078000000001</v>
       </c>
       <c r="P62">
-        <v>31.8624861641294</v>
+        <v>22.156904120447891</v>
       </c>
       <c r="Q62">
-        <v>35.987449907469653</v>
+        <v>30.171791320406328</v>
       </c>
       <c r="R62">
-        <v>61.194183774818462</v>
+        <v>70.839391428571403</v>
       </c>
       <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="T62" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.729951510630362E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-1</v>
       </c>
@@ -4380,47 +4128,43 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>2.7470475809201318</v>
+        <v>1.839367088607595</v>
       </c>
       <c r="I63">
-        <v>7.4000694195679095</v>
+        <v>3.8443399999999999</v>
       </c>
       <c r="J63">
-        <v>11.70452397968034</v>
+        <v>7.9566764322916699</v>
       </c>
       <c r="K63">
-        <v>13.930320383929409</v>
+        <v>10.5547</v>
       </c>
       <c r="L63">
-        <v>17.10843337458607</v>
+        <v>14.117525392428441</v>
       </c>
       <c r="M63">
-        <v>19.239314413078091</v>
+        <v>16.70009074410163</v>
       </c>
       <c r="N63">
-        <v>21.788147195442239</v>
+        <v>20.113669999999999</v>
       </c>
       <c r="O63">
-        <v>25.891951414074594</v>
+        <v>22.661708217913201</v>
       </c>
       <c r="P63">
-        <v>29.902112752372986</v>
+        <v>29.339189453125002</v>
       </c>
       <c r="Q63">
-        <v>39.787149322943783</v>
+        <v>37.889091796875</v>
       </c>
       <c r="R63">
-        <v>62.055613398917842</v>
+        <v>80.564341603053435</v>
       </c>
       <c r="S63">
-        <v>88</v>
-      </c>
-      <c r="T63" s="6">
-        <f t="shared" si="0"/>
-        <v>4.6826194999175218E-4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.486634340420241E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-1</v>
       </c>
@@ -4443,47 +4187,43 @@
         <v>2</v>
       </c>
       <c r="H64">
-        <v>7.8940443658107826</v>
+        <v>2.1354242749731482</v>
       </c>
       <c r="I64">
-        <v>12.554004729307463</v>
+        <v>4.7762877734374998</v>
       </c>
       <c r="J64">
-        <v>15.501556999125087</v>
+        <v>7.4728632594204978</v>
       </c>
       <c r="K64">
-        <v>18.403093694392918</v>
+        <v>9.689548828125</v>
       </c>
       <c r="L64">
-        <v>21.230968861748359</v>
+        <v>11.876012749999999</v>
       </c>
       <c r="M64">
-        <v>24.449356986019673</v>
+        <v>14.427649727767699</v>
       </c>
       <c r="N64">
-        <v>26.830580086809658</v>
+        <v>16.78614105749508</v>
       </c>
       <c r="O64">
-        <v>28.891050353282228</v>
+        <v>18.961078000000001</v>
       </c>
       <c r="P64">
-        <v>31.8624861641294</v>
+        <v>22.156904120447891</v>
       </c>
       <c r="Q64">
-        <v>35.987449907469653</v>
+        <v>30.171791320406328</v>
       </c>
       <c r="R64">
-        <v>61.194183774818462</v>
+        <v>70.839391428571403</v>
       </c>
       <c r="S64">
-        <v>1019</v>
-      </c>
-      <c r="T64" s="6">
-        <f t="shared" si="0"/>
-        <v>5.4222605345635852E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+        <v>7.5842347382817357E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1</v>
       </c>
@@ -4506,47 +4246,43 @@
         <v>3</v>
       </c>
       <c r="H65">
-        <v>2.7470475809201318</v>
+        <v>1.839367088607595</v>
       </c>
       <c r="I65">
-        <v>7.4000694195679095</v>
+        <v>3.8443399999999999</v>
       </c>
       <c r="J65">
-        <v>11.70452397968034</v>
+        <v>7.9566764322916699</v>
       </c>
       <c r="K65">
-        <v>13.930320383929409</v>
+        <v>10.5547</v>
       </c>
       <c r="L65">
-        <v>17.10843337458607</v>
+        <v>14.117525392428441</v>
       </c>
       <c r="M65">
-        <v>19.239314413078091</v>
+        <v>16.70009074410163</v>
       </c>
       <c r="N65">
-        <v>21.788147195442239</v>
+        <v>20.113669999999999</v>
       </c>
       <c r="O65">
-        <v>25.891951414074594</v>
+        <v>22.661708217913201</v>
       </c>
       <c r="P65">
-        <v>29.902112752372986</v>
+        <v>29.339189453125002</v>
       </c>
       <c r="Q65">
-        <v>39.787149322943783</v>
+        <v>37.889091796875</v>
       </c>
       <c r="R65">
-        <v>62.055613398917842</v>
+        <v>80.564341603053435</v>
       </c>
       <c r="S65">
-        <v>958</v>
-      </c>
-      <c r="T65" s="6">
-        <f t="shared" si="0"/>
-        <v>5.097669864682939E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8.7032201914708437E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -4569,47 +4305,43 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>1.1992407304160335</v>
+        <v>0.47721679687500002</v>
       </c>
       <c r="I66">
-        <v>6.467373350629102</v>
+        <v>4.0104523493254147</v>
       </c>
       <c r="J66">
-        <v>8.5326758129237525</v>
+        <v>6.04470054446461</v>
       </c>
       <c r="K66">
-        <v>10.142260825273047</v>
+        <v>7.5634003055071064</v>
       </c>
       <c r="L66">
-        <v>11.946427687272299</v>
+        <v>9.269675572519084</v>
       </c>
       <c r="M66">
-        <v>13.842960338664264</v>
+        <v>10.593566739451001</v>
       </c>
       <c r="N66">
-        <v>15.879307815600129</v>
+        <v>12.35365</v>
       </c>
       <c r="O66">
-        <v>18.404634438368067</v>
+        <v>14.5060371399177</v>
       </c>
       <c r="P66">
-        <v>21.037157571072807</v>
+        <v>17.09028</v>
       </c>
       <c r="Q66">
-        <v>27.812197647544451</v>
+        <v>22.073692968749999</v>
       </c>
       <c r="R66">
-        <v>87.177320180940796</v>
+        <v>73.350458984374995</v>
       </c>
       <c r="S66">
-        <v>50</v>
-      </c>
-      <c r="T66" s="6">
-        <f t="shared" si="0"/>
-        <v>2.6605792613167741E-4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.1189854531891081E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0</v>
       </c>
@@ -4632,47 +4364,43 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>1.5889031188622065</v>
+        <v>0.62017578124999995</v>
       </c>
       <c r="I67">
-        <v>6.3081588820745038</v>
+        <v>6.6967579800600783</v>
       </c>
       <c r="J67">
-        <v>9.4077552721961872</v>
+        <v>8.2986873580246918</v>
       </c>
       <c r="K67">
-        <v>12.247492317394558</v>
+        <v>10.211143280160471</v>
       </c>
       <c r="L67">
-        <v>14.743158172012844</v>
+        <v>13.141307572573471</v>
       </c>
       <c r="M67">
-        <v>16.981991752350652</v>
+        <v>14.166525</v>
       </c>
       <c r="N67">
-        <v>19.712363031399402</v>
+        <v>16.960998627885502</v>
       </c>
       <c r="O67">
-        <v>23.161557644727257</v>
+        <v>19.381079437500002</v>
       </c>
       <c r="P67">
-        <v>29.850267207390658</v>
+        <v>24.007263811634349</v>
       </c>
       <c r="Q67">
-        <v>35.35007296317935</v>
+        <v>30.452266444444462</v>
       </c>
       <c r="R67">
-        <v>66.019959124106464</v>
+        <v>91.403887349953834</v>
       </c>
       <c r="S67">
-        <v>0</v>
-      </c>
-      <c r="T67" s="6">
-        <f t="shared" ref="T67:T130" si="1">S67/SUM($S$2:$S$145)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.973268680840482E-4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
@@ -4695,47 +4423,43 @@
         <v>2</v>
       </c>
       <c r="H68">
-        <v>1.1992407304160335</v>
+        <v>0.47721679687500002</v>
       </c>
       <c r="I68">
-        <v>6.467373350629102</v>
+        <v>4.0104523493254147</v>
       </c>
       <c r="J68">
-        <v>8.5326758129237525</v>
+        <v>6.04470054446461</v>
       </c>
       <c r="K68">
-        <v>10.142260825273047</v>
+        <v>7.5634003055071064</v>
       </c>
       <c r="L68">
-        <v>11.946427687272299</v>
+        <v>9.269675572519084</v>
       </c>
       <c r="M68">
-        <v>13.842960338664264</v>
+        <v>10.593566739451001</v>
       </c>
       <c r="N68">
-        <v>15.879307815600129</v>
+        <v>12.35365</v>
       </c>
       <c r="O68">
-        <v>18.404634438368067</v>
+        <v>14.5060371399177</v>
       </c>
       <c r="P68">
-        <v>21.037157571072807</v>
+        <v>17.09028</v>
       </c>
       <c r="Q68">
-        <v>27.812197647544451</v>
+        <v>22.073692968749999</v>
       </c>
       <c r="R68">
-        <v>87.177320180940796</v>
+        <v>73.350458984374995</v>
       </c>
       <c r="S68">
-        <v>266</v>
-      </c>
-      <c r="T68" s="6">
-        <f t="shared" si="1"/>
-        <v>1.4154281670205238E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.237970906378217E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
@@ -4758,47 +4482,43 @@
         <v>3</v>
       </c>
       <c r="H69">
-        <v>1.5889031188622065</v>
+        <v>0.62017578124999995</v>
       </c>
       <c r="I69">
-        <v>6.3081588820745038</v>
+        <v>6.6967579800600783</v>
       </c>
       <c r="J69">
-        <v>9.4077552721961872</v>
+        <v>8.2986873580246918</v>
       </c>
       <c r="K69">
-        <v>12.247492317394558</v>
+        <v>10.211143280160471</v>
       </c>
       <c r="L69">
-        <v>14.743158172012844</v>
+        <v>13.141307572573471</v>
       </c>
       <c r="M69">
-        <v>16.981991752350652</v>
+        <v>14.166525</v>
       </c>
       <c r="N69">
-        <v>19.712363031399402</v>
+        <v>16.960998627885502</v>
       </c>
       <c r="O69">
-        <v>23.161557644727257</v>
+        <v>19.381079437500002</v>
       </c>
       <c r="P69">
-        <v>29.850267207390658</v>
+        <v>24.007263811634349</v>
       </c>
       <c r="Q69">
-        <v>35.35007296317935</v>
+        <v>30.452266444444462</v>
       </c>
       <c r="R69">
-        <v>66.019959124106464</v>
+        <v>91.403887349953834</v>
       </c>
       <c r="S69">
-        <v>55</v>
-      </c>
-      <c r="T69" s="6">
-        <f t="shared" si="1"/>
-        <v>2.9266371874484513E-4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.729951510630362E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0</v>
       </c>
@@ -4821,47 +4541,43 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>7.8940443658107826</v>
+        <v>0.7629423868312758</v>
       </c>
       <c r="I70">
-        <v>12.554004729307463</v>
+        <v>6.8481139999999998</v>
       </c>
       <c r="J70">
-        <v>15.501556999125087</v>
+        <v>8.9217313924050625</v>
       </c>
       <c r="K70">
-        <v>18.403093694392918</v>
+        <v>11.009604</v>
       </c>
       <c r="L70">
-        <v>21.230968861748359</v>
+        <v>12.921591578896509</v>
       </c>
       <c r="M70">
-        <v>24.449356986019673</v>
+        <v>14.609462025316461</v>
       </c>
       <c r="N70">
-        <v>26.830580086809658</v>
+        <v>16.627009375</v>
       </c>
       <c r="O70">
-        <v>28.891050353282228</v>
+        <v>19.631711546875</v>
       </c>
       <c r="P70">
-        <v>31.8624861641294</v>
+        <v>23.479561753749174</v>
       </c>
       <c r="Q70">
-        <v>35.987449907469653</v>
+        <v>30.846968435826408</v>
       </c>
       <c r="R70">
-        <v>61.194183774818462</v>
+        <v>58.154754990925568</v>
       </c>
       <c r="S70">
         <v>0</v>
       </c>
-      <c r="T70" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0</v>
       </c>
@@ -4884,47 +4600,43 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>2.7470475809201318</v>
+        <v>2.15532667876588</v>
       </c>
       <c r="I71">
-        <v>7.4000694195679095</v>
+        <v>8.1659176008483367</v>
       </c>
       <c r="J71">
-        <v>11.70452397968034</v>
+        <v>11.01791450632911</v>
       </c>
       <c r="K71">
-        <v>13.930320383929409</v>
+        <v>14.30351484308736</v>
       </c>
       <c r="L71">
-        <v>17.10843337458607</v>
+        <v>16.711660671874998</v>
       </c>
       <c r="M71">
-        <v>19.239314413078091</v>
+        <v>19.498062977099238</v>
       </c>
       <c r="N71">
-        <v>21.788147195442239</v>
+        <v>22.254230900763361</v>
       </c>
       <c r="O71">
-        <v>25.891951414074594</v>
+        <v>24.949844440371631</v>
       </c>
       <c r="P71">
-        <v>29.902112752372986</v>
+        <v>29.152473609375008</v>
       </c>
       <c r="Q71">
-        <v>39.787149322943783</v>
+        <v>36.425375039648138</v>
       </c>
       <c r="R71">
-        <v>62.055613398917842</v>
+        <v>57.608820000000001</v>
       </c>
       <c r="S71">
-        <v>56</v>
-      </c>
-      <c r="T71" s="6">
-        <f t="shared" si="1"/>
-        <v>2.9798487726747866E-4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+        <v>6.216585851050603E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0</v>
       </c>
@@ -4947,47 +4659,43 @@
         <v>2</v>
       </c>
       <c r="H72">
-        <v>7.8940443658107826</v>
+        <v>0.7629423868312758</v>
       </c>
       <c r="I72">
-        <v>12.554004729307463</v>
+        <v>6.8481139999999998</v>
       </c>
       <c r="J72">
-        <v>15.501556999125087</v>
+        <v>8.9217313924050625</v>
       </c>
       <c r="K72">
-        <v>18.403093694392918</v>
+        <v>11.009604</v>
       </c>
       <c r="L72">
-        <v>21.230968861748359</v>
+        <v>12.921591578896509</v>
       </c>
       <c r="M72">
-        <v>24.449356986019673</v>
+        <v>14.609462025316461</v>
       </c>
       <c r="N72">
-        <v>26.830580086809658</v>
+        <v>16.627009375</v>
       </c>
       <c r="O72">
-        <v>28.891050353282228</v>
+        <v>19.631711546875</v>
       </c>
       <c r="P72">
-        <v>31.8624861641294</v>
+        <v>23.479561753749174</v>
       </c>
       <c r="Q72">
-        <v>35.987449907469653</v>
+        <v>30.846968435826408</v>
       </c>
       <c r="R72">
-        <v>61.194183774818462</v>
+        <v>58.154754990925568</v>
       </c>
       <c r="S72">
-        <v>0</v>
-      </c>
-      <c r="T72" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.973268680840482E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0</v>
       </c>
@@ -5010,47 +4718,43 @@
         <v>3</v>
       </c>
       <c r="H73">
-        <v>2.7470475809201318</v>
+        <v>2.15532667876588</v>
       </c>
       <c r="I73">
-        <v>7.4000694195679095</v>
+        <v>8.1659176008483367</v>
       </c>
       <c r="J73">
-        <v>11.70452397968034</v>
+        <v>11.01791450632911</v>
       </c>
       <c r="K73">
-        <v>13.930320383929409</v>
+        <v>14.30351484308736</v>
       </c>
       <c r="L73">
-        <v>17.10843337458607</v>
+        <v>16.711660671874998</v>
       </c>
       <c r="M73">
-        <v>19.239314413078091</v>
+        <v>19.498062977099238</v>
       </c>
       <c r="N73">
-        <v>21.788147195442239</v>
+        <v>22.254230900763361</v>
       </c>
       <c r="O73">
-        <v>25.891951414074594</v>
+        <v>24.949844440371631</v>
       </c>
       <c r="P73">
-        <v>29.902112752372986</v>
+        <v>29.152473609375008</v>
       </c>
       <c r="Q73">
-        <v>39.787149322943783</v>
+        <v>36.425375039648138</v>
       </c>
       <c r="R73">
-        <v>62.055613398917842</v>
+        <v>57.608820000000001</v>
       </c>
       <c r="S73">
-        <v>46</v>
-      </c>
-      <c r="T73" s="6">
-        <f t="shared" si="1"/>
-        <v>2.4477329204114322E-4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8.703220191470844E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0</v>
       </c>
@@ -5073,47 +4777,43 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>1.1992407304160335</v>
+        <v>0.47721679687500002</v>
       </c>
       <c r="I74">
-        <v>6.467373350629102</v>
+        <v>4.0104523493254147</v>
       </c>
       <c r="J74">
-        <v>8.5326758129237525</v>
+        <v>6.04470054446461</v>
       </c>
       <c r="K74">
-        <v>10.142260825273047</v>
+        <v>7.5634003055071064</v>
       </c>
       <c r="L74">
-        <v>11.946427687272299</v>
+        <v>9.269675572519084</v>
       </c>
       <c r="M74">
-        <v>13.842960338664264</v>
+        <v>10.593566739451001</v>
       </c>
       <c r="N74">
-        <v>15.879307815600129</v>
+        <v>12.35365</v>
       </c>
       <c r="O74">
-        <v>18.404634438368067</v>
+        <v>14.5060371399177</v>
       </c>
       <c r="P74">
-        <v>21.037157571072807</v>
+        <v>17.09028</v>
       </c>
       <c r="Q74">
-        <v>27.812197647544451</v>
+        <v>22.073692968749999</v>
       </c>
       <c r="R74">
-        <v>87.177320180940796</v>
+        <v>73.350458984374995</v>
       </c>
       <c r="S74">
-        <v>188</v>
-      </c>
-      <c r="T74" s="6">
-        <f t="shared" si="1"/>
-        <v>1.000377802255107E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.243317170210121E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0</v>
       </c>
@@ -5136,47 +4836,43 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>1.5889031188622065</v>
+        <v>0.62017578124999995</v>
       </c>
       <c r="I75">
-        <v>6.3081588820745038</v>
+        <v>6.6967579800600783</v>
       </c>
       <c r="J75">
-        <v>9.4077552721961872</v>
+        <v>8.2986873580246918</v>
       </c>
       <c r="K75">
-        <v>12.247492317394558</v>
+        <v>10.211143280160471</v>
       </c>
       <c r="L75">
-        <v>14.743158172012844</v>
+        <v>13.141307572573471</v>
       </c>
       <c r="M75">
-        <v>16.981991752350652</v>
+        <v>14.166525</v>
       </c>
       <c r="N75">
-        <v>19.712363031399402</v>
+        <v>16.960998627885502</v>
       </c>
       <c r="O75">
-        <v>23.161557644727257</v>
+        <v>19.381079437500002</v>
       </c>
       <c r="P75">
-        <v>29.850267207390658</v>
+        <v>24.007263811634349</v>
       </c>
       <c r="Q75">
-        <v>35.35007296317935</v>
+        <v>30.452266444444462</v>
       </c>
       <c r="R75">
-        <v>66.019959124106464</v>
+        <v>91.403887349953834</v>
       </c>
       <c r="S75">
-        <v>122</v>
-      </c>
-      <c r="T75" s="6">
-        <f t="shared" si="1"/>
-        <v>6.4918133976129286E-4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.3676488872311329E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0</v>
       </c>
@@ -5199,47 +4895,43 @@
         <v>2</v>
       </c>
       <c r="H76">
-        <v>1.1992407304160335</v>
+        <v>0.47721679687500002</v>
       </c>
       <c r="I76">
-        <v>6.467373350629102</v>
+        <v>4.0104523493254147</v>
       </c>
       <c r="J76">
-        <v>8.5326758129237525</v>
+        <v>6.04470054446461</v>
       </c>
       <c r="K76">
-        <v>10.142260825273047</v>
+        <v>7.5634003055071064</v>
       </c>
       <c r="L76">
-        <v>11.946427687272299</v>
+        <v>9.269675572519084</v>
       </c>
       <c r="M76">
-        <v>13.842960338664264</v>
+        <v>10.593566739451001</v>
       </c>
       <c r="N76">
-        <v>15.879307815600129</v>
+        <v>12.35365</v>
       </c>
       <c r="O76">
-        <v>18.404634438368067</v>
+        <v>14.5060371399177</v>
       </c>
       <c r="P76">
-        <v>21.037157571072807</v>
+        <v>17.09028</v>
       </c>
       <c r="Q76">
-        <v>27.812197647544451</v>
+        <v>22.073692968749999</v>
       </c>
       <c r="R76">
-        <v>87.177320180940796</v>
+        <v>73.350458984374995</v>
       </c>
       <c r="S76">
-        <v>15635</v>
-      </c>
-      <c r="T76" s="6">
-        <f t="shared" si="1"/>
-        <v>8.3196313501375518E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.1219694143976128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0</v>
       </c>
@@ -5262,47 +4954,43 @@
         <v>3</v>
       </c>
       <c r="H77">
-        <v>1.5889031188622065</v>
+        <v>0.62017578124999995</v>
       </c>
       <c r="I77">
-        <v>6.3081588820745038</v>
+        <v>6.6967579800600783</v>
       </c>
       <c r="J77">
-        <v>9.4077552721961872</v>
+        <v>8.2986873580246918</v>
       </c>
       <c r="K77">
-        <v>12.247492317394558</v>
+        <v>10.211143280160471</v>
       </c>
       <c r="L77">
-        <v>14.743158172012844</v>
+        <v>13.141307572573471</v>
       </c>
       <c r="M77">
-        <v>16.981991752350652</v>
+        <v>14.166525</v>
       </c>
       <c r="N77">
-        <v>19.712363031399402</v>
+        <v>16.960998627885502</v>
       </c>
       <c r="O77">
-        <v>23.161557644727257</v>
+        <v>19.381079437500002</v>
       </c>
       <c r="P77">
-        <v>29.850267207390658</v>
+        <v>24.007263811634349</v>
       </c>
       <c r="Q77">
-        <v>35.35007296317935</v>
+        <v>30.452266444444462</v>
       </c>
       <c r="R77">
-        <v>66.019959124106464</v>
+        <v>91.403887349953834</v>
       </c>
       <c r="S77">
-        <v>2398</v>
-      </c>
-      <c r="T77" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2760138137275247E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.1260723610593061E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
@@ -5325,47 +5013,43 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>7.8940443658107826</v>
+        <v>0.7629423868312758</v>
       </c>
       <c r="I78">
-        <v>12.554004729307463</v>
+        <v>6.8481139999999998</v>
       </c>
       <c r="J78">
-        <v>15.501556999125087</v>
+        <v>8.9217313924050625</v>
       </c>
       <c r="K78">
-        <v>18.403093694392918</v>
+        <v>11.009604</v>
       </c>
       <c r="L78">
-        <v>21.230968861748359</v>
+        <v>12.921591578896509</v>
       </c>
       <c r="M78">
-        <v>24.449356986019673</v>
+        <v>14.609462025316461</v>
       </c>
       <c r="N78">
-        <v>26.830580086809658</v>
+        <v>16.627009375</v>
       </c>
       <c r="O78">
-        <v>28.891050353282228</v>
+        <v>19.631711546875</v>
       </c>
       <c r="P78">
-        <v>31.8624861641294</v>
+        <v>23.479561753749174</v>
       </c>
       <c r="Q78">
-        <v>35.987449907469653</v>
+        <v>30.846968435826408</v>
       </c>
       <c r="R78">
-        <v>61.194183774818462</v>
+        <v>58.154754990925568</v>
       </c>
       <c r="S78">
-        <v>0</v>
-      </c>
-      <c r="T78" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.729951510630362E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0</v>
       </c>
@@ -5388,47 +5072,43 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>2.7470475809201318</v>
+        <v>2.15532667876588</v>
       </c>
       <c r="I79">
-        <v>7.4000694195679095</v>
+        <v>8.1659176008483367</v>
       </c>
       <c r="J79">
-        <v>11.70452397968034</v>
+        <v>11.01791450632911</v>
       </c>
       <c r="K79">
-        <v>13.930320383929409</v>
+        <v>14.30351484308736</v>
       </c>
       <c r="L79">
-        <v>17.10843337458607</v>
+        <v>16.711660671874998</v>
       </c>
       <c r="M79">
-        <v>19.239314413078091</v>
+        <v>19.498062977099238</v>
       </c>
       <c r="N79">
-        <v>21.788147195442239</v>
+        <v>22.254230900763361</v>
       </c>
       <c r="O79">
-        <v>25.891951414074594</v>
+        <v>24.949844440371631</v>
       </c>
       <c r="P79">
-        <v>29.902112752372986</v>
+        <v>29.152473609375008</v>
       </c>
       <c r="Q79">
-        <v>39.787149322943783</v>
+        <v>36.425375039648138</v>
       </c>
       <c r="R79">
-        <v>62.055613398917842</v>
+        <v>57.608820000000001</v>
       </c>
       <c r="S79">
-        <v>88</v>
-      </c>
-      <c r="T79" s="6">
-        <f t="shared" si="1"/>
-        <v>4.6826194999175218E-4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.3676488872311329E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0</v>
       </c>
@@ -5451,47 +5131,43 @@
         <v>2</v>
       </c>
       <c r="H80">
-        <v>7.8940443658107826</v>
+        <v>0.7629423868312758</v>
       </c>
       <c r="I80">
-        <v>12.554004729307463</v>
+        <v>6.8481139999999998</v>
       </c>
       <c r="J80">
-        <v>15.501556999125087</v>
+        <v>8.9217313924050625</v>
       </c>
       <c r="K80">
-        <v>18.403093694392918</v>
+        <v>11.009604</v>
       </c>
       <c r="L80">
-        <v>21.230968861748359</v>
+        <v>12.921591578896509</v>
       </c>
       <c r="M80">
-        <v>24.449356986019673</v>
+        <v>14.609462025316461</v>
       </c>
       <c r="N80">
-        <v>26.830580086809658</v>
+        <v>16.627009375</v>
       </c>
       <c r="O80">
-        <v>28.891050353282228</v>
+        <v>19.631711546875</v>
       </c>
       <c r="P80">
-        <v>31.8624861641294</v>
+        <v>23.479561753749174</v>
       </c>
       <c r="Q80">
-        <v>35.987449907469653</v>
+        <v>30.846968435826408</v>
       </c>
       <c r="R80">
-        <v>61.194183774818462</v>
+        <v>58.154754990925568</v>
       </c>
       <c r="S80">
-        <v>1019</v>
-      </c>
-      <c r="T80" s="6">
-        <f t="shared" si="1"/>
-        <v>5.4222605345635852E-3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+        <v>9.3248787765759043E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>0</v>
       </c>
@@ -5514,47 +5190,43 @@
         <v>3</v>
       </c>
       <c r="H81">
-        <v>2.7470475809201318</v>
+        <v>2.15532667876588</v>
       </c>
       <c r="I81">
-        <v>7.4000694195679095</v>
+        <v>8.1659176008483367</v>
       </c>
       <c r="J81">
-        <v>11.70452397968034</v>
+        <v>11.01791450632911</v>
       </c>
       <c r="K81">
-        <v>13.930320383929409</v>
+        <v>14.30351484308736</v>
       </c>
       <c r="L81">
-        <v>17.10843337458607</v>
+        <v>16.711660671874998</v>
       </c>
       <c r="M81">
-        <v>19.239314413078091</v>
+        <v>19.498062977099238</v>
       </c>
       <c r="N81">
-        <v>21.788147195442239</v>
+        <v>22.254230900763361</v>
       </c>
       <c r="O81">
-        <v>25.891951414074594</v>
+        <v>24.949844440371631</v>
       </c>
       <c r="P81">
-        <v>29.902112752372986</v>
+        <v>29.152473609375008</v>
       </c>
       <c r="Q81">
-        <v>39.787149322943783</v>
+        <v>36.425375039648138</v>
       </c>
       <c r="R81">
-        <v>62.055613398917842</v>
+        <v>57.608820000000001</v>
       </c>
       <c r="S81">
-        <v>958</v>
-      </c>
-      <c r="T81" s="6">
-        <f t="shared" si="1"/>
-        <v>5.097669864682939E-3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+        <v>9.2005470595548922E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -5577,47 +5249,43 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>1.1992407304160335</v>
+        <v>0.33471193415637862</v>
       </c>
       <c r="I82">
-        <v>6.467373350629102</v>
+        <v>4.2170353991769547</v>
       </c>
       <c r="J82">
-        <v>8.5326758129237525</v>
+        <v>6.0866842250878577</v>
       </c>
       <c r="K82">
-        <v>10.142260825273047</v>
+        <v>7.7005138765432104</v>
       </c>
       <c r="L82">
-        <v>11.946427687272299</v>
+        <v>8.9938760000000002</v>
       </c>
       <c r="M82">
-        <v>13.842960338664264</v>
+        <v>10.651862139917689</v>
       </c>
       <c r="N82">
-        <v>15.879307815600129</v>
+        <v>12.33949042831216</v>
       </c>
       <c r="O82">
-        <v>18.404634438368067</v>
+        <v>14.081077349713741</v>
       </c>
       <c r="P82">
-        <v>21.037157571072807</v>
+        <v>16.948515435114501</v>
       </c>
       <c r="Q82">
-        <v>27.812197647544451</v>
+        <v>21.419370747076609</v>
       </c>
       <c r="R82">
-        <v>87.177320180940796</v>
+        <v>87.685649999999995</v>
       </c>
       <c r="S82">
-        <v>50</v>
-      </c>
-      <c r="T82" s="6">
-        <f t="shared" si="1"/>
-        <v>2.6605792613167741E-4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+        <v>6.216585851050603E-4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -5640,47 +5308,43 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>1.5889031188622065</v>
+        <v>1.1682921810699591</v>
       </c>
       <c r="I83">
-        <v>6.3081588820745038</v>
+        <v>6.3063760000000002</v>
       </c>
       <c r="J83">
-        <v>9.4077552721961872</v>
+        <v>7.5530523159042637</v>
       </c>
       <c r="K83">
-        <v>12.247492317394558</v>
+        <v>8.8675625</v>
       </c>
       <c r="L83">
-        <v>14.743158172012844</v>
+        <v>10.558250183206109</v>
       </c>
       <c r="M83">
-        <v>16.981991752350652</v>
+        <v>11.68690655209452</v>
       </c>
       <c r="N83">
-        <v>19.712363031399402</v>
+        <v>13.812572416756181</v>
       </c>
       <c r="O83">
-        <v>23.161557644727257</v>
+        <v>16.41449517508056</v>
       </c>
       <c r="P83">
-        <v>29.850267207390658</v>
+        <v>18.73211953462604</v>
       </c>
       <c r="Q83">
-        <v>35.35007296317935</v>
+        <v>22.924876297640651</v>
       </c>
       <c r="R83">
-        <v>66.019959124106464</v>
+        <v>60.497309999999999</v>
       </c>
       <c r="S83">
-        <v>0</v>
-      </c>
-      <c r="T83" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.729951510630362E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1</v>
       </c>
@@ -5703,47 +5367,43 @@
         <v>2</v>
       </c>
       <c r="H84">
-        <v>1.1992407304160335</v>
+        <v>0.33471193415637862</v>
       </c>
       <c r="I84">
-        <v>6.467373350629102</v>
+        <v>4.2170353991769547</v>
       </c>
       <c r="J84">
-        <v>8.5326758129237525</v>
+        <v>6.0866842250878577</v>
       </c>
       <c r="K84">
-        <v>10.142260825273047</v>
+        <v>7.7005138765432104</v>
       </c>
       <c r="L84">
-        <v>11.946427687272299</v>
+        <v>8.9938760000000002</v>
       </c>
       <c r="M84">
-        <v>13.842960338664264</v>
+        <v>10.651862139917689</v>
       </c>
       <c r="N84">
-        <v>15.879307815600129</v>
+        <v>12.33949042831216</v>
       </c>
       <c r="O84">
-        <v>18.404634438368067</v>
+        <v>14.081077349713741</v>
       </c>
       <c r="P84">
-        <v>21.037157571072807</v>
+        <v>16.948515435114501</v>
       </c>
       <c r="Q84">
-        <v>27.812197647544451</v>
+        <v>21.419370747076609</v>
       </c>
       <c r="R84">
-        <v>87.177320180940796</v>
+        <v>87.685649999999995</v>
       </c>
       <c r="S84">
-        <v>266</v>
-      </c>
-      <c r="T84" s="6">
-        <f t="shared" si="1"/>
-        <v>1.4154281670205238E-3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.3676488872311329E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -5766,47 +5426,43 @@
         <v>3</v>
       </c>
       <c r="H85">
-        <v>1.5889031188622065</v>
+        <v>1.1682921810699591</v>
       </c>
       <c r="I85">
-        <v>6.3081588820745038</v>
+        <v>6.3063760000000002</v>
       </c>
       <c r="J85">
-        <v>9.4077552721961872</v>
+        <v>7.5530523159042637</v>
       </c>
       <c r="K85">
-        <v>12.247492317394558</v>
+        <v>8.8675625</v>
       </c>
       <c r="L85">
-        <v>14.743158172012844</v>
+        <v>10.558250183206109</v>
       </c>
       <c r="M85">
-        <v>16.981991752350652</v>
+        <v>11.68690655209452</v>
       </c>
       <c r="N85">
-        <v>19.712363031399402</v>
+        <v>13.812572416756181</v>
       </c>
       <c r="O85">
-        <v>23.161557644727257</v>
+        <v>16.41449517508056</v>
       </c>
       <c r="P85">
-        <v>29.850267207390658</v>
+        <v>18.73211953462604</v>
       </c>
       <c r="Q85">
-        <v>35.35007296317935</v>
+        <v>22.924876297640651</v>
       </c>
       <c r="R85">
-        <v>66.019959124106464</v>
+        <v>60.497309999999999</v>
       </c>
       <c r="S85">
-        <v>55</v>
-      </c>
-      <c r="T85" s="6">
-        <f t="shared" si="1"/>
-        <v>2.9266371874484513E-4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.486634340420241E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1</v>
       </c>
@@ -5829,47 +5485,43 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>7.8940443658107826</v>
+        <v>1.4637690839694659</v>
       </c>
       <c r="I86">
-        <v>12.554004729307463</v>
+        <v>6.6970318239190991</v>
       </c>
       <c r="J86">
-        <v>15.501556999125087</v>
+        <v>8.3890452446906743</v>
       </c>
       <c r="K86">
-        <v>18.403093694392918</v>
+        <v>10.808166752163061</v>
       </c>
       <c r="L86">
-        <v>21.230968861748359</v>
+        <v>12.306529893249049</v>
       </c>
       <c r="M86">
-        <v>24.449356986019673</v>
+        <v>14.21725190839695</v>
       </c>
       <c r="N86">
-        <v>26.830580086809658</v>
+        <v>16.285162</v>
       </c>
       <c r="O86">
-        <v>28.891050353282228</v>
+        <v>18.873180166204978</v>
       </c>
       <c r="P86">
-        <v>31.8624861641294</v>
+        <v>22.943038116343491</v>
       </c>
       <c r="Q86">
-        <v>35.987449907469653</v>
+        <v>26.218776000000009</v>
       </c>
       <c r="R86">
-        <v>61.194183774818462</v>
+        <v>55.206669691470054</v>
       </c>
       <c r="S86">
         <v>0</v>
       </c>
-      <c r="T86" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1</v>
       </c>
@@ -5892,47 +5544,43 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>2.7470475809201318</v>
+        <v>1.4740997229916899</v>
       </c>
       <c r="I87">
-        <v>7.4000694195679095</v>
+        <v>7.7693447191668135</v>
       </c>
       <c r="J87">
-        <v>11.70452397968034</v>
+        <v>11.239554820803368</v>
       </c>
       <c r="K87">
-        <v>13.930320383929409</v>
+        <v>13.07894468313641</v>
       </c>
       <c r="L87">
-        <v>17.10843337458607</v>
+        <v>14.375578224113099</v>
       </c>
       <c r="M87">
-        <v>19.239314413078091</v>
+        <v>16.013120361529932</v>
       </c>
       <c r="N87">
-        <v>21.788147195442239</v>
+        <v>18.611569609375</v>
       </c>
       <c r="O87">
-        <v>25.891951414074594</v>
+        <v>21.600739773569099</v>
       </c>
       <c r="P87">
-        <v>29.902112752372986</v>
+        <v>26.666127296874997</v>
       </c>
       <c r="Q87">
-        <v>39.787149322943783</v>
+        <v>35.365535211192721</v>
       </c>
       <c r="R87">
-        <v>62.055613398917842</v>
+        <v>60.026386718749997</v>
       </c>
       <c r="S87">
-        <v>56</v>
-      </c>
-      <c r="T87" s="6">
-        <f t="shared" si="1"/>
-        <v>2.9798487726747866E-4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.973268680840482E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -5955,47 +5603,43 @@
         <v>2</v>
       </c>
       <c r="H88">
-        <v>7.8940443658107826</v>
+        <v>1.4637690839694659</v>
       </c>
       <c r="I88">
-        <v>12.554004729307463</v>
+        <v>6.6970318239190991</v>
       </c>
       <c r="J88">
-        <v>15.501556999125087</v>
+        <v>8.3890452446906743</v>
       </c>
       <c r="K88">
-        <v>18.403093694392918</v>
+        <v>10.808166752163061</v>
       </c>
       <c r="L88">
-        <v>21.230968861748359</v>
+        <v>12.306529893249049</v>
       </c>
       <c r="M88">
-        <v>24.449356986019673</v>
+        <v>14.21725190839695</v>
       </c>
       <c r="N88">
-        <v>26.830580086809658</v>
+        <v>16.285162</v>
       </c>
       <c r="O88">
-        <v>28.891050353282228</v>
+        <v>18.873180166204978</v>
       </c>
       <c r="P88">
-        <v>31.8624861641294</v>
+        <v>22.943038116343491</v>
       </c>
       <c r="Q88">
-        <v>35.987449907469653</v>
+        <v>26.218776000000009</v>
       </c>
       <c r="R88">
-        <v>61.194183774818462</v>
+        <v>55.206669691470054</v>
       </c>
       <c r="S88">
-        <v>0</v>
-      </c>
-      <c r="T88" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.729951510630362E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1</v>
       </c>
@@ -6018,47 +5662,43 @@
         <v>3</v>
       </c>
       <c r="H89">
-        <v>2.7470475809201318</v>
+        <v>1.4740997229916899</v>
       </c>
       <c r="I89">
-        <v>7.4000694195679095</v>
+        <v>7.7693447191668135</v>
       </c>
       <c r="J89">
-        <v>11.70452397968034</v>
+        <v>11.239554820803368</v>
       </c>
       <c r="K89">
-        <v>13.930320383929409</v>
+        <v>13.07894468313641</v>
       </c>
       <c r="L89">
-        <v>17.10843337458607</v>
+        <v>14.375578224113099</v>
       </c>
       <c r="M89">
-        <v>19.239314413078091</v>
+        <v>16.013120361529932</v>
       </c>
       <c r="N89">
-        <v>21.788147195442239</v>
+        <v>18.611569609375</v>
       </c>
       <c r="O89">
-        <v>25.891951414074594</v>
+        <v>21.600739773569099</v>
       </c>
       <c r="P89">
-        <v>29.902112752372986</v>
+        <v>26.666127296874997</v>
       </c>
       <c r="Q89">
-        <v>39.787149322943783</v>
+        <v>35.365535211192721</v>
       </c>
       <c r="R89">
-        <v>62.055613398917842</v>
+        <v>60.026386718749997</v>
       </c>
       <c r="S89">
-        <v>46</v>
-      </c>
-      <c r="T89" s="6">
-        <f t="shared" si="1"/>
-        <v>2.4477329204114322E-4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.486634340420241E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1</v>
       </c>
@@ -6081,47 +5721,43 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>1.1992407304160335</v>
+        <v>0.33471193415637862</v>
       </c>
       <c r="I90">
-        <v>6.467373350629102</v>
+        <v>4.2170353991769547</v>
       </c>
       <c r="J90">
-        <v>8.5326758129237525</v>
+        <v>6.0866842250878577</v>
       </c>
       <c r="K90">
-        <v>10.142260825273047</v>
+        <v>7.7005138765432104</v>
       </c>
       <c r="L90">
-        <v>11.946427687272299</v>
+        <v>8.9938760000000002</v>
       </c>
       <c r="M90">
-        <v>13.842960338664264</v>
+        <v>10.651862139917689</v>
       </c>
       <c r="N90">
-        <v>15.879307815600129</v>
+        <v>12.33949042831216</v>
       </c>
       <c r="O90">
-        <v>18.404634438368067</v>
+        <v>14.081077349713741</v>
       </c>
       <c r="P90">
-        <v>21.037157571072807</v>
+        <v>16.948515435114501</v>
       </c>
       <c r="Q90">
-        <v>27.812197647544451</v>
+        <v>21.419370747076609</v>
       </c>
       <c r="R90">
-        <v>87.177320180940796</v>
+        <v>87.685649999999995</v>
       </c>
       <c r="S90">
-        <v>188</v>
-      </c>
-      <c r="T90" s="6">
-        <f t="shared" si="1"/>
-        <v>1.000377802255107E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.1189854531891081E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -6144,47 +5780,43 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>1.5889031188622065</v>
+        <v>1.1682921810699591</v>
       </c>
       <c r="I91">
-        <v>6.3081588820745038</v>
+        <v>6.3063760000000002</v>
       </c>
       <c r="J91">
-        <v>9.4077552721961872</v>
+        <v>7.5530523159042637</v>
       </c>
       <c r="K91">
-        <v>12.247492317394558</v>
+        <v>8.8675625</v>
       </c>
       <c r="L91">
-        <v>14.743158172012844</v>
+        <v>10.558250183206109</v>
       </c>
       <c r="M91">
-        <v>16.981991752350652</v>
+        <v>11.68690655209452</v>
       </c>
       <c r="N91">
-        <v>19.712363031399402</v>
+        <v>13.812572416756181</v>
       </c>
       <c r="O91">
-        <v>23.161557644727257</v>
+        <v>16.41449517508056</v>
       </c>
       <c r="P91">
-        <v>29.850267207390658</v>
+        <v>18.73211953462604</v>
       </c>
       <c r="Q91">
-        <v>35.35007296317935</v>
+        <v>22.924876297640651</v>
       </c>
       <c r="R91">
-        <v>66.019959124106464</v>
+        <v>60.497309999999999</v>
       </c>
       <c r="S91">
-        <v>122</v>
-      </c>
-      <c r="T91" s="6">
-        <f t="shared" si="1"/>
-        <v>6.4918133976129286E-4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.243317170210121E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -6207,47 +5839,43 @@
         <v>2</v>
       </c>
       <c r="H92">
-        <v>1.1992407304160335</v>
+        <v>0.33471193415637862</v>
       </c>
       <c r="I92">
-        <v>6.467373350629102</v>
+        <v>4.2170353991769547</v>
       </c>
       <c r="J92">
-        <v>8.5326758129237525</v>
+        <v>6.0866842250878577</v>
       </c>
       <c r="K92">
-        <v>10.142260825273047</v>
+        <v>7.7005138765432104</v>
       </c>
       <c r="L92">
-        <v>11.946427687272299</v>
+        <v>8.9938760000000002</v>
       </c>
       <c r="M92">
-        <v>13.842960338664264</v>
+        <v>10.651862139917689</v>
       </c>
       <c r="N92">
-        <v>15.879307815600129</v>
+        <v>12.33949042831216</v>
       </c>
       <c r="O92">
-        <v>18.404634438368067</v>
+        <v>14.081077349713741</v>
       </c>
       <c r="P92">
-        <v>21.037157571072807</v>
+        <v>16.948515435114501</v>
       </c>
       <c r="Q92">
-        <v>27.812197647544451</v>
+        <v>21.419370747076609</v>
       </c>
       <c r="R92">
-        <v>87.177320180940796</v>
+        <v>87.685649999999995</v>
       </c>
       <c r="S92">
-        <v>15635</v>
-      </c>
-      <c r="T92" s="6">
-        <f t="shared" si="1"/>
-        <v>8.3196313501375518E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0.1140121845082681</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1</v>
       </c>
@@ -6270,47 +5898,43 @@
         <v>3</v>
       </c>
       <c r="H93">
-        <v>1.5889031188622065</v>
+        <v>1.1682921810699591</v>
       </c>
       <c r="I93">
-        <v>6.3081588820745038</v>
+        <v>6.3063760000000002</v>
       </c>
       <c r="J93">
-        <v>9.4077552721961872</v>
+        <v>7.5530523159042637</v>
       </c>
       <c r="K93">
-        <v>12.247492317394558</v>
+        <v>8.8675625</v>
       </c>
       <c r="L93">
-        <v>14.743158172012844</v>
+        <v>10.558250183206109</v>
       </c>
       <c r="M93">
-        <v>16.981991752350652</v>
+        <v>11.68690655209452</v>
       </c>
       <c r="N93">
-        <v>19.712363031399402</v>
+        <v>13.812572416756181</v>
       </c>
       <c r="O93">
-        <v>23.161557644727257</v>
+        <v>16.41449517508056</v>
       </c>
       <c r="P93">
-        <v>29.850267207390658</v>
+        <v>18.73211953462604</v>
       </c>
       <c r="Q93">
-        <v>35.35007296317935</v>
+        <v>22.924876297640651</v>
       </c>
       <c r="R93">
-        <v>66.019959124106464</v>
+        <v>60.497309999999999</v>
       </c>
       <c r="S93">
-        <v>2398</v>
-      </c>
-      <c r="T93" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2760138137275247E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.7903767251025739E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -6333,47 +5957,43 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>7.8940443658107826</v>
+        <v>1.4637690839694659</v>
       </c>
       <c r="I94">
-        <v>12.554004729307463</v>
+        <v>6.6970318239190991</v>
       </c>
       <c r="J94">
-        <v>15.501556999125087</v>
+        <v>8.3890452446906743</v>
       </c>
       <c r="K94">
-        <v>18.403093694392918</v>
+        <v>10.808166752163061</v>
       </c>
       <c r="L94">
-        <v>21.230968861748359</v>
+        <v>12.306529893249049</v>
       </c>
       <c r="M94">
-        <v>24.449356986019673</v>
+        <v>14.21725190839695</v>
       </c>
       <c r="N94">
-        <v>26.830580086809658</v>
+        <v>16.285162</v>
       </c>
       <c r="O94">
-        <v>28.891050353282228</v>
+        <v>18.873180166204978</v>
       </c>
       <c r="P94">
-        <v>31.8624861641294</v>
+        <v>22.943038116343491</v>
       </c>
       <c r="Q94">
-        <v>35.987449907469653</v>
+        <v>26.218776000000009</v>
       </c>
       <c r="R94">
-        <v>61.194183774818462</v>
+        <v>55.206669691470054</v>
       </c>
       <c r="S94">
         <v>0</v>
       </c>
-      <c r="T94" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -6396,47 +6016,43 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>2.7470475809201318</v>
+        <v>1.4740997229916899</v>
       </c>
       <c r="I95">
-        <v>7.4000694195679095</v>
+        <v>7.7693447191668135</v>
       </c>
       <c r="J95">
-        <v>11.70452397968034</v>
+        <v>11.239554820803368</v>
       </c>
       <c r="K95">
-        <v>13.930320383929409</v>
+        <v>13.07894468313641</v>
       </c>
       <c r="L95">
-        <v>17.10843337458607</v>
+        <v>14.375578224113099</v>
       </c>
       <c r="M95">
-        <v>19.239314413078091</v>
+        <v>16.013120361529932</v>
       </c>
       <c r="N95">
-        <v>21.788147195442239</v>
+        <v>18.611569609375</v>
       </c>
       <c r="O95">
-        <v>25.891951414074594</v>
+        <v>21.600739773569099</v>
       </c>
       <c r="P95">
-        <v>29.902112752372986</v>
+        <v>26.666127296874997</v>
       </c>
       <c r="Q95">
-        <v>39.787149322943783</v>
+        <v>35.365535211192721</v>
       </c>
       <c r="R95">
-        <v>62.055613398917842</v>
+        <v>60.026386718749997</v>
       </c>
       <c r="S95">
-        <v>88</v>
-      </c>
-      <c r="T95" s="6">
-        <f t="shared" si="1"/>
-        <v>4.6826194999175218E-4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.729951510630362E-4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1</v>
       </c>
@@ -6459,47 +6075,43 @@
         <v>2</v>
       </c>
       <c r="H96">
-        <v>7.8940443658107826</v>
+        <v>1.4637690839694659</v>
       </c>
       <c r="I96">
-        <v>12.554004729307463</v>
+        <v>6.6970318239190991</v>
       </c>
       <c r="J96">
-        <v>15.501556999125087</v>
+        <v>8.3890452446906743</v>
       </c>
       <c r="K96">
-        <v>18.403093694392918</v>
+        <v>10.808166752163061</v>
       </c>
       <c r="L96">
-        <v>21.230968861748359</v>
+        <v>12.306529893249049</v>
       </c>
       <c r="M96">
-        <v>24.449356986019673</v>
+        <v>14.21725190839695</v>
       </c>
       <c r="N96">
-        <v>26.830580086809658</v>
+        <v>16.285162</v>
       </c>
       <c r="O96">
-        <v>28.891050353282228</v>
+        <v>18.873180166204978</v>
       </c>
       <c r="P96">
-        <v>31.8624861641294</v>
+        <v>22.943038116343491</v>
       </c>
       <c r="Q96">
-        <v>35.987449907469653</v>
+        <v>26.218776000000009</v>
       </c>
       <c r="R96">
-        <v>61.194183774818462</v>
+        <v>55.206669691470054</v>
       </c>
       <c r="S96">
-        <v>1019</v>
-      </c>
-      <c r="T96" s="6">
-        <f t="shared" si="1"/>
-        <v>5.4222605345635852E-3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8.2058933233867953E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1</v>
       </c>
@@ -6522,47 +6134,43 @@
         <v>3</v>
       </c>
       <c r="H97">
-        <v>2.7470475809201318</v>
+        <v>1.4740997229916899</v>
       </c>
       <c r="I97">
-        <v>7.4000694195679095</v>
+        <v>7.7693447191668135</v>
       </c>
       <c r="J97">
-        <v>11.70452397968034</v>
+        <v>11.239554820803368</v>
       </c>
       <c r="K97">
-        <v>13.930320383929409</v>
+        <v>13.07894468313641</v>
       </c>
       <c r="L97">
-        <v>17.10843337458607</v>
+        <v>14.375578224113099</v>
       </c>
       <c r="M97">
-        <v>19.239314413078091</v>
+        <v>16.013120361529932</v>
       </c>
       <c r="N97">
-        <v>21.788147195442239</v>
+        <v>18.611569609375</v>
       </c>
       <c r="O97">
-        <v>25.891951414074594</v>
+        <v>21.600739773569099</v>
       </c>
       <c r="P97">
-        <v>29.902112752372986</v>
+        <v>26.666127296874997</v>
       </c>
       <c r="Q97">
-        <v>39.787149322943783</v>
+        <v>35.365535211192721</v>
       </c>
       <c r="R97">
-        <v>62.055613398917842</v>
+        <v>60.026386718749997</v>
       </c>
       <c r="S97">
-        <v>958</v>
-      </c>
-      <c r="T97" s="6">
-        <f t="shared" si="1"/>
-        <v>5.097669864682939E-3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+        <v>7.832898172323759E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -6585,47 +6193,43 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>1.1992407304160335</v>
+        <v>0.25344650205761321</v>
       </c>
       <c r="I98">
-        <v>6.467373350629102</v>
+        <v>4.0650399999999998</v>
       </c>
       <c r="J98">
-        <v>8.5326758129237525</v>
+        <v>5.9845214843749996</v>
       </c>
       <c r="K98">
-        <v>10.142260825273047</v>
+        <v>7.3051772287862526</v>
       </c>
       <c r="L98">
-        <v>11.946427687272299</v>
+        <v>8.933997890295359</v>
       </c>
       <c r="M98">
-        <v>13.842960338664264</v>
+        <v>10.347041015625001</v>
       </c>
       <c r="N98">
-        <v>15.879307815600129</v>
+        <v>11.702159999999999</v>
       </c>
       <c r="O98">
-        <v>18.404634438368067</v>
+        <v>13.351320406278861</v>
       </c>
       <c r="P98">
-        <v>21.037157571072807</v>
+        <v>16.20872</v>
       </c>
       <c r="Q98">
-        <v>27.812197647544451</v>
+        <v>20.361956106870238</v>
       </c>
       <c r="R98">
-        <v>87.177320180940796</v>
+        <v>83.124395198522635</v>
       </c>
       <c r="S98">
-        <v>50</v>
-      </c>
-      <c r="T98" s="6">
-        <f t="shared" si="1"/>
-        <v>2.6605792613167741E-4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.486634340420241E-4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -6648,47 +6252,43 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>1.5889031188622065</v>
+        <v>2.949804526748971</v>
       </c>
       <c r="I99">
-        <v>6.3081588820745038</v>
+        <v>5.6144616805170822</v>
       </c>
       <c r="J99">
-        <v>9.4077552721961872</v>
+        <v>6.7019879339699457</v>
       </c>
       <c r="K99">
-        <v>12.247492317394558</v>
+        <v>7.7090207734375005</v>
       </c>
       <c r="L99">
-        <v>14.743158172012844</v>
+        <v>11.048292858259101</v>
       </c>
       <c r="M99">
-        <v>16.981991752350652</v>
+        <v>12.598531437501961</v>
       </c>
       <c r="N99">
-        <v>19.712363031399402</v>
+        <v>13.714682209256331</v>
       </c>
       <c r="O99">
-        <v>23.161557644727257</v>
+        <v>15.060348840159859</v>
       </c>
       <c r="P99">
-        <v>29.850267207390658</v>
+        <v>17.732736036502999</v>
       </c>
       <c r="Q99">
-        <v>35.35007296317935</v>
+        <v>22.521615718749999</v>
       </c>
       <c r="R99">
-        <v>66.019959124106464</v>
+        <v>60.485770042194098</v>
       </c>
       <c r="S99">
-        <v>0</v>
-      </c>
-      <c r="T99" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.729951510630362E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -6711,47 +6311,43 @@
         <v>2</v>
       </c>
       <c r="H100">
-        <v>1.1992407304160335</v>
+        <v>0.25344650205761321</v>
       </c>
       <c r="I100">
-        <v>6.467373350629102</v>
+        <v>4.0650399999999998</v>
       </c>
       <c r="J100">
-        <v>8.5326758129237525</v>
+        <v>5.9845214843749996</v>
       </c>
       <c r="K100">
-        <v>10.142260825273047</v>
+        <v>7.3051772287862526</v>
       </c>
       <c r="L100">
-        <v>11.946427687272299</v>
+        <v>8.933997890295359</v>
       </c>
       <c r="M100">
-        <v>13.842960338664264</v>
+        <v>10.347041015625001</v>
       </c>
       <c r="N100">
-        <v>15.879307815600129</v>
+        <v>11.702159999999999</v>
       </c>
       <c r="O100">
-        <v>18.404634438368067</v>
+        <v>13.351320406278861</v>
       </c>
       <c r="P100">
-        <v>21.037157571072807</v>
+        <v>16.20872</v>
       </c>
       <c r="Q100">
-        <v>27.812197647544451</v>
+        <v>20.361956106870238</v>
       </c>
       <c r="R100">
-        <v>87.177320180940796</v>
+        <v>83.124395198522635</v>
       </c>
       <c r="S100">
-        <v>266</v>
-      </c>
-      <c r="T100" s="6">
-        <f t="shared" si="1"/>
-        <v>1.4154281670205238E-3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.740644038294169E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -6774,47 +6370,43 @@
         <v>3</v>
       </c>
       <c r="H101">
-        <v>1.5889031188622065</v>
+        <v>2.949804526748971</v>
       </c>
       <c r="I101">
-        <v>6.3081588820745038</v>
+        <v>5.6144616805170822</v>
       </c>
       <c r="J101">
-        <v>9.4077552721961872</v>
+        <v>6.7019879339699457</v>
       </c>
       <c r="K101">
-        <v>12.247492317394558</v>
+        <v>7.7090207734375005</v>
       </c>
       <c r="L101">
-        <v>14.743158172012844</v>
+        <v>11.048292858259101</v>
       </c>
       <c r="M101">
-        <v>16.981991752350652</v>
+        <v>12.598531437501961</v>
       </c>
       <c r="N101">
-        <v>19.712363031399402</v>
+        <v>13.714682209256331</v>
       </c>
       <c r="O101">
-        <v>23.161557644727257</v>
+        <v>15.060348840159859</v>
       </c>
       <c r="P101">
-        <v>29.850267207390658</v>
+        <v>17.732736036502999</v>
       </c>
       <c r="Q101">
-        <v>35.35007296317935</v>
+        <v>22.521615718749999</v>
       </c>
       <c r="R101">
-        <v>66.019959124106464</v>
+        <v>60.485770042194098</v>
       </c>
       <c r="S101">
-        <v>55</v>
-      </c>
-      <c r="T101" s="6">
-        <f t="shared" si="1"/>
-        <v>2.9266371874484513E-4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
@@ -6837,47 +6429,43 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>7.8940443658107826</v>
+        <v>2.1247784810126578</v>
       </c>
       <c r="I102">
-        <v>12.554004729307463</v>
+        <v>6.4855106075949376</v>
       </c>
       <c r="J102">
-        <v>15.501556999125087</v>
+        <v>9.7189586625111293</v>
       </c>
       <c r="K102">
-        <v>18.403093694392918</v>
+        <v>11.712478911392401</v>
       </c>
       <c r="L102">
-        <v>21.230968861748359</v>
+        <v>13.15378881012658</v>
       </c>
       <c r="M102">
-        <v>24.449356986019673</v>
+        <v>14.498496093749999</v>
       </c>
       <c r="N102">
-        <v>26.830580086809658</v>
+        <v>16.332376253858019</v>
       </c>
       <c r="O102">
-        <v>28.891050353282228</v>
+        <v>18.884907609375002</v>
       </c>
       <c r="P102">
-        <v>31.8624861641294</v>
+        <v>20.516871204042669</v>
       </c>
       <c r="Q102">
-        <v>35.987449907469653</v>
+        <v>24.677276296296302</v>
       </c>
       <c r="R102">
-        <v>61.194183774818462</v>
+        <v>51.680781250000003</v>
       </c>
       <c r="S102">
         <v>0</v>
       </c>
-      <c r="T102" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -6900,47 +6488,43 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>2.7470475809201318</v>
+        <v>2.9398300000000002</v>
       </c>
       <c r="I103">
-        <v>7.4000694195679095</v>
+        <v>4.7967140000000006</v>
       </c>
       <c r="J103">
-        <v>11.70452397968034</v>
+        <v>9.5650275143120957</v>
       </c>
       <c r="K103">
-        <v>13.930320383929409</v>
+        <v>14.811707049578832</v>
       </c>
       <c r="L103">
-        <v>17.10843337458607</v>
+        <v>16.594202810126582</v>
       </c>
       <c r="M103">
-        <v>19.239314413078091</v>
+        <v>19.834192059095098</v>
       </c>
       <c r="N103">
-        <v>21.788147195442239</v>
+        <v>21.536043218778843</v>
       </c>
       <c r="O103">
-        <v>25.891951414074594</v>
+        <v>22.237145310892501</v>
       </c>
       <c r="P103">
-        <v>29.902112752372986</v>
+        <v>28.918747907663899</v>
       </c>
       <c r="Q103">
-        <v>39.787149322943783</v>
+        <v>47.645134615566406</v>
       </c>
       <c r="R103">
-        <v>62.055613398917842</v>
+        <v>101.99119</v>
       </c>
       <c r="S103">
-        <v>56</v>
-      </c>
-      <c r="T103" s="6">
-        <f t="shared" si="1"/>
-        <v>2.9798487726747866E-4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
@@ -6963,47 +6547,43 @@
         <v>2</v>
       </c>
       <c r="H104">
-        <v>7.8940443658107826</v>
+        <v>2.1247784810126578</v>
       </c>
       <c r="I104">
-        <v>12.554004729307463</v>
+        <v>6.4855106075949376</v>
       </c>
       <c r="J104">
-        <v>15.501556999125087</v>
+        <v>9.7189586625111293</v>
       </c>
       <c r="K104">
-        <v>18.403093694392918</v>
+        <v>11.712478911392401</v>
       </c>
       <c r="L104">
-        <v>21.230968861748359</v>
+        <v>13.15378881012658</v>
       </c>
       <c r="M104">
-        <v>24.449356986019673</v>
+        <v>14.498496093749999</v>
       </c>
       <c r="N104">
-        <v>26.830580086809658</v>
+        <v>16.332376253858019</v>
       </c>
       <c r="O104">
-        <v>28.891050353282228</v>
+        <v>18.884907609375002</v>
       </c>
       <c r="P104">
-        <v>31.8624861641294</v>
+        <v>20.516871204042669</v>
       </c>
       <c r="Q104">
-        <v>35.987449907469653</v>
+        <v>24.677276296296302</v>
       </c>
       <c r="R104">
-        <v>61.194183774818462</v>
+        <v>51.680781250000003</v>
       </c>
       <c r="S104">
-        <v>0</v>
-      </c>
-      <c r="T104" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -7026,47 +6606,43 @@
         <v>3</v>
       </c>
       <c r="H105">
-        <v>2.7470475809201318</v>
+        <v>2.9398300000000002</v>
       </c>
       <c r="I105">
-        <v>7.4000694195679095</v>
+        <v>4.7967140000000006</v>
       </c>
       <c r="J105">
-        <v>11.70452397968034</v>
+        <v>9.5650275143120957</v>
       </c>
       <c r="K105">
-        <v>13.930320383929409</v>
+        <v>14.811707049578832</v>
       </c>
       <c r="L105">
-        <v>17.10843337458607</v>
+        <v>16.594202810126582</v>
       </c>
       <c r="M105">
-        <v>19.239314413078091</v>
+        <v>19.834192059095098</v>
       </c>
       <c r="N105">
-        <v>21.788147195442239</v>
+        <v>21.536043218778843</v>
       </c>
       <c r="O105">
-        <v>25.891951414074594</v>
+        <v>22.237145310892501</v>
       </c>
       <c r="P105">
-        <v>29.902112752372986</v>
+        <v>28.918747907663899</v>
       </c>
       <c r="Q105">
-        <v>39.787149322943783</v>
+        <v>47.645134615566406</v>
       </c>
       <c r="R105">
-        <v>62.055613398917842</v>
+        <v>101.99119</v>
       </c>
       <c r="S105">
-        <v>46</v>
-      </c>
-      <c r="T105" s="6">
-        <f t="shared" si="1"/>
-        <v>2.4477329204114322E-4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -7089,47 +6665,43 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>1.1992407304160335</v>
+        <v>0.25344650205761321</v>
       </c>
       <c r="I106">
-        <v>6.467373350629102</v>
+        <v>4.0650399999999998</v>
       </c>
       <c r="J106">
-        <v>8.5326758129237525</v>
+        <v>5.9845214843749996</v>
       </c>
       <c r="K106">
-        <v>10.142260825273047</v>
+        <v>7.3051772287862526</v>
       </c>
       <c r="L106">
-        <v>11.946427687272299</v>
+        <v>8.933997890295359</v>
       </c>
       <c r="M106">
-        <v>13.842960338664264</v>
+        <v>10.347041015625001</v>
       </c>
       <c r="N106">
-        <v>15.879307815600129</v>
+        <v>11.702159999999999</v>
       </c>
       <c r="O106">
-        <v>18.404634438368067</v>
+        <v>13.351320406278861</v>
       </c>
       <c r="P106">
-        <v>21.037157571072807</v>
+        <v>16.20872</v>
       </c>
       <c r="Q106">
-        <v>27.812197647544451</v>
+        <v>20.361956106870238</v>
       </c>
       <c r="R106">
-        <v>87.177320180940796</v>
+        <v>83.124395198522635</v>
       </c>
       <c r="S106">
-        <v>188</v>
-      </c>
-      <c r="T106" s="6">
-        <f t="shared" si="1"/>
-        <v>1.000377802255107E-3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.237970906378217E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -7152,47 +6724,43 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>1.5889031188622065</v>
+        <v>2.949804526748971</v>
       </c>
       <c r="I107">
-        <v>6.3081588820745038</v>
+        <v>5.6144616805170822</v>
       </c>
       <c r="J107">
-        <v>9.4077552721961872</v>
+        <v>6.7019879339699457</v>
       </c>
       <c r="K107">
-        <v>12.247492317394558</v>
+        <v>7.7090207734375005</v>
       </c>
       <c r="L107">
-        <v>14.743158172012844</v>
+        <v>11.048292858259101</v>
       </c>
       <c r="M107">
-        <v>16.981991752350652</v>
+        <v>12.598531437501961</v>
       </c>
       <c r="N107">
-        <v>19.712363031399402</v>
+        <v>13.714682209256331</v>
       </c>
       <c r="O107">
-        <v>23.161557644727257</v>
+        <v>15.060348840159859</v>
       </c>
       <c r="P107">
-        <v>29.850267207390658</v>
+        <v>17.732736036502999</v>
       </c>
       <c r="Q107">
-        <v>35.35007296317935</v>
+        <v>22.521615718749999</v>
       </c>
       <c r="R107">
-        <v>66.019959124106464</v>
+        <v>60.485770042194098</v>
       </c>
       <c r="S107">
-        <v>122</v>
-      </c>
-      <c r="T107" s="6">
-        <f t="shared" si="1"/>
-        <v>6.4918133976129286E-4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+        <v>6.216585851050603E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
@@ -7215,47 +6783,43 @@
         <v>2</v>
       </c>
       <c r="H108">
-        <v>1.1992407304160335</v>
+        <v>0.25344650205761321</v>
       </c>
       <c r="I108">
-        <v>6.467373350629102</v>
+        <v>4.0650399999999998</v>
       </c>
       <c r="J108">
-        <v>8.5326758129237525</v>
+        <v>5.9845214843749996</v>
       </c>
       <c r="K108">
-        <v>10.142260825273047</v>
+        <v>7.3051772287862526</v>
       </c>
       <c r="L108">
-        <v>11.946427687272299</v>
+        <v>8.933997890295359</v>
       </c>
       <c r="M108">
-        <v>13.842960338664264</v>
+        <v>10.347041015625001</v>
       </c>
       <c r="N108">
-        <v>15.879307815600129</v>
+        <v>11.702159999999999</v>
       </c>
       <c r="O108">
-        <v>18.404634438368067</v>
+        <v>13.351320406278861</v>
       </c>
       <c r="P108">
-        <v>21.037157571072807</v>
+        <v>16.20872</v>
       </c>
       <c r="Q108">
-        <v>27.812197647544451</v>
+        <v>20.361956106870238</v>
       </c>
       <c r="R108">
-        <v>87.177320180940796</v>
+        <v>83.124395198522635</v>
       </c>
       <c r="S108">
-        <v>15635</v>
-      </c>
-      <c r="T108" s="6">
-        <f t="shared" si="1"/>
-        <v>8.3196313501375518E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+        <v>8.9518836255128686E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
@@ -7278,47 +6842,43 @@
         <v>3</v>
       </c>
       <c r="H109">
-        <v>1.5889031188622065</v>
+        <v>2.949804526748971</v>
       </c>
       <c r="I109">
-        <v>6.3081588820745038</v>
+        <v>5.6144616805170822</v>
       </c>
       <c r="J109">
-        <v>9.4077552721961872</v>
+        <v>6.7019879339699457</v>
       </c>
       <c r="K109">
-        <v>12.247492317394558</v>
+        <v>7.7090207734375005</v>
       </c>
       <c r="L109">
-        <v>14.743158172012844</v>
+        <v>11.048292858259101</v>
       </c>
       <c r="M109">
-        <v>16.981991752350652</v>
+        <v>12.598531437501961</v>
       </c>
       <c r="N109">
-        <v>19.712363031399402</v>
+        <v>13.714682209256331</v>
       </c>
       <c r="O109">
-        <v>23.161557644727257</v>
+        <v>15.060348840159859</v>
       </c>
       <c r="P109">
-        <v>29.850267207390658</v>
+        <v>17.732736036502999</v>
       </c>
       <c r="Q109">
-        <v>35.35007296317935</v>
+        <v>22.521615718749999</v>
       </c>
       <c r="R109">
-        <v>66.019959124106464</v>
+        <v>60.485770042194098</v>
       </c>
       <c r="S109">
-        <v>2398</v>
-      </c>
-      <c r="T109" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2760138137275247E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.4546810891458411E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2</v>
       </c>
@@ -7341,47 +6901,43 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>7.8940443658107826</v>
+        <v>2.1247784810126578</v>
       </c>
       <c r="I110">
-        <v>12.554004729307463</v>
+        <v>6.4855106075949376</v>
       </c>
       <c r="J110">
-        <v>15.501556999125087</v>
+        <v>9.7189586625111293</v>
       </c>
       <c r="K110">
-        <v>18.403093694392918</v>
+        <v>11.712478911392401</v>
       </c>
       <c r="L110">
-        <v>21.230968861748359</v>
+        <v>13.15378881012658</v>
       </c>
       <c r="M110">
-        <v>24.449356986019673</v>
+        <v>14.498496093749999</v>
       </c>
       <c r="N110">
-        <v>26.830580086809658</v>
+        <v>16.332376253858019</v>
       </c>
       <c r="O110">
-        <v>28.891050353282228</v>
+        <v>18.884907609375002</v>
       </c>
       <c r="P110">
-        <v>31.8624861641294</v>
+        <v>20.516871204042669</v>
       </c>
       <c r="Q110">
-        <v>35.987449907469653</v>
+        <v>24.677276296296302</v>
       </c>
       <c r="R110">
-        <v>61.194183774818462</v>
+        <v>51.680781250000003</v>
       </c>
       <c r="S110">
-        <v>0</v>
-      </c>
-      <c r="T110" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2</v>
       </c>
@@ -7404,47 +6960,43 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>2.7470475809201318</v>
+        <v>2.9398300000000002</v>
       </c>
       <c r="I111">
-        <v>7.4000694195679095</v>
+        <v>4.7967140000000006</v>
       </c>
       <c r="J111">
-        <v>11.70452397968034</v>
+        <v>9.5650275143120957</v>
       </c>
       <c r="K111">
-        <v>13.930320383929409</v>
+        <v>14.811707049578832</v>
       </c>
       <c r="L111">
-        <v>17.10843337458607</v>
+        <v>16.594202810126582</v>
       </c>
       <c r="M111">
-        <v>19.239314413078091</v>
+        <v>19.834192059095098</v>
       </c>
       <c r="N111">
-        <v>21.788147195442239</v>
+        <v>21.536043218778843</v>
       </c>
       <c r="O111">
-        <v>25.891951414074594</v>
+        <v>22.237145310892501</v>
       </c>
       <c r="P111">
-        <v>29.902112752372986</v>
+        <v>28.918747907663899</v>
       </c>
       <c r="Q111">
-        <v>39.787149322943783</v>
+        <v>47.645134615566406</v>
       </c>
       <c r="R111">
-        <v>62.055613398917842</v>
+        <v>101.99119</v>
       </c>
       <c r="S111">
-        <v>88</v>
-      </c>
-      <c r="T111" s="6">
-        <f t="shared" si="1"/>
-        <v>4.6826194999175218E-4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.729951510630362E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2</v>
       </c>
@@ -7467,47 +7019,43 @@
         <v>2</v>
       </c>
       <c r="H112">
-        <v>7.8940443658107826</v>
+        <v>2.1247784810126578</v>
       </c>
       <c r="I112">
-        <v>12.554004729307463</v>
+        <v>6.4855106075949376</v>
       </c>
       <c r="J112">
-        <v>15.501556999125087</v>
+        <v>9.7189586625111293</v>
       </c>
       <c r="K112">
-        <v>18.403093694392918</v>
+        <v>11.712478911392401</v>
       </c>
       <c r="L112">
-        <v>21.230968861748359</v>
+        <v>13.15378881012658</v>
       </c>
       <c r="M112">
-        <v>24.449356986019673</v>
+        <v>14.498496093749999</v>
       </c>
       <c r="N112">
-        <v>26.830580086809658</v>
+        <v>16.332376253858019</v>
       </c>
       <c r="O112">
-        <v>28.891050353282228</v>
+        <v>18.884907609375002</v>
       </c>
       <c r="P112">
-        <v>31.8624861641294</v>
+        <v>20.516871204042669</v>
       </c>
       <c r="Q112">
-        <v>35.987449907469653</v>
+        <v>24.677276296296302</v>
       </c>
       <c r="R112">
-        <v>61.194183774818462</v>
+        <v>51.680781250000003</v>
       </c>
       <c r="S112">
-        <v>1019</v>
-      </c>
-      <c r="T112" s="6">
-        <f t="shared" si="1"/>
-        <v>5.4222605345635852E-3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+        <v>5.9679224170085792E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2</v>
       </c>
@@ -7530,47 +7078,43 @@
         <v>3</v>
       </c>
       <c r="H113">
-        <v>2.7470475809201318</v>
+        <v>2.9398300000000002</v>
       </c>
       <c r="I113">
-        <v>7.4000694195679095</v>
+        <v>4.7967140000000006</v>
       </c>
       <c r="J113">
-        <v>11.70452397968034</v>
+        <v>9.5650275143120957</v>
       </c>
       <c r="K113">
-        <v>13.930320383929409</v>
+        <v>14.811707049578832</v>
       </c>
       <c r="L113">
-        <v>17.10843337458607</v>
+        <v>16.594202810126582</v>
       </c>
       <c r="M113">
-        <v>19.239314413078091</v>
+        <v>19.834192059095098</v>
       </c>
       <c r="N113">
-        <v>21.788147195442239</v>
+        <v>21.536043218778843</v>
       </c>
       <c r="O113">
-        <v>25.891951414074594</v>
+        <v>22.237145310892501</v>
       </c>
       <c r="P113">
-        <v>29.902112752372986</v>
+        <v>28.918747907663899</v>
       </c>
       <c r="Q113">
-        <v>39.787149322943783</v>
+        <v>47.645134615566406</v>
       </c>
       <c r="R113">
-        <v>62.055613398917842</v>
+        <v>101.99119</v>
       </c>
       <c r="S113">
-        <v>958</v>
-      </c>
-      <c r="T113" s="6">
-        <f t="shared" si="1"/>
-        <v>5.097669864682939E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.7299515106303618E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>3</v>
       </c>
@@ -7593,47 +7137,43 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>1.1992407304160335</v>
+        <v>3.3244274809160299E-2</v>
       </c>
       <c r="I114">
-        <v>6.467373350629102</v>
+        <v>3.3633125443037972</v>
       </c>
       <c r="J114">
-        <v>8.5326758129237525</v>
+        <v>5.1570740000000006</v>
       </c>
       <c r="K114">
-        <v>10.142260825273047</v>
+        <v>6.7602202625704892</v>
       </c>
       <c r="L114">
-        <v>11.946427687272299</v>
+        <v>8.201679465648855</v>
       </c>
       <c r="M114">
-        <v>13.842960338664264</v>
+        <v>9.4410965096952921</v>
       </c>
       <c r="N114">
-        <v>15.879307815600129</v>
+        <v>11.096442</v>
       </c>
       <c r="O114">
-        <v>18.404634438368067</v>
+        <v>12.80160260975441</v>
       </c>
       <c r="P114">
-        <v>21.037157571072807</v>
+        <v>15.553962167938941</v>
       </c>
       <c r="Q114">
-        <v>27.812197647544451</v>
+        <v>19.746592</v>
       </c>
       <c r="R114">
-        <v>87.177320180940796</v>
+        <v>58.266046304541426</v>
       </c>
       <c r="S114">
-        <v>50</v>
-      </c>
-      <c r="T114" s="6">
-        <f t="shared" si="1"/>
-        <v>2.6605792613167741E-4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.729951510630362E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3</v>
       </c>
@@ -7656,47 +7196,43 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>1.5889031188622065</v>
+        <v>3.3457519531250002</v>
       </c>
       <c r="I115">
-        <v>6.3081588820745038</v>
+        <v>5.1941785504325182</v>
       </c>
       <c r="J115">
-        <v>9.4077552721961872</v>
+        <v>7.3696172839506184</v>
       </c>
       <c r="K115">
-        <v>12.247492317394558</v>
+        <v>7.7820046552094526</v>
       </c>
       <c r="L115">
-        <v>14.743158172012844</v>
+        <v>8.8167912427983541</v>
       </c>
       <c r="M115">
-        <v>16.981991752350652</v>
+        <v>9.565031645569622</v>
       </c>
       <c r="N115">
-        <v>19.712363031399402</v>
+        <v>12.52122205343364</v>
       </c>
       <c r="O115">
-        <v>23.161557644727257</v>
+        <v>13.703519624999998</v>
       </c>
       <c r="P115">
-        <v>29.850267207390658</v>
+        <v>18.950154352723917</v>
       </c>
       <c r="Q115">
-        <v>35.35007296317935</v>
+        <v>26.967628428270039</v>
       </c>
       <c r="R115">
-        <v>66.019959124106464</v>
+        <v>36.093120229007638</v>
       </c>
       <c r="S115">
-        <v>0</v>
-      </c>
-      <c r="T115" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3</v>
       </c>
@@ -7719,47 +7255,43 @@
         <v>2</v>
       </c>
       <c r="H116">
-        <v>1.1992407304160335</v>
+        <v>3.3244274809160299E-2</v>
       </c>
       <c r="I116">
-        <v>6.467373350629102</v>
+        <v>3.3633125443037972</v>
       </c>
       <c r="J116">
-        <v>8.5326758129237525</v>
+        <v>5.1570740000000006</v>
       </c>
       <c r="K116">
-        <v>10.142260825273047</v>
+        <v>6.7602202625704892</v>
       </c>
       <c r="L116">
-        <v>11.946427687272299</v>
+        <v>8.201679465648855</v>
       </c>
       <c r="M116">
-        <v>13.842960338664264</v>
+        <v>9.4410965096952921</v>
       </c>
       <c r="N116">
-        <v>15.879307815600129</v>
+        <v>11.096442</v>
       </c>
       <c r="O116">
-        <v>18.404634438368067</v>
+        <v>12.80160260975441</v>
       </c>
       <c r="P116">
-        <v>21.037157571072807</v>
+        <v>15.553962167938941</v>
       </c>
       <c r="Q116">
-        <v>27.812197647544451</v>
+        <v>19.746592</v>
       </c>
       <c r="R116">
-        <v>87.177320180940796</v>
+        <v>58.266046304541426</v>
       </c>
       <c r="S116">
-        <v>266</v>
-      </c>
-      <c r="T116" s="6">
-        <f t="shared" si="1"/>
-        <v>1.4154281670205238E-3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.1189854531891081E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3</v>
       </c>
@@ -7782,47 +7314,43 @@
         <v>3</v>
       </c>
       <c r="H117">
-        <v>1.5889031188622065</v>
+        <v>3.3457519531250002</v>
       </c>
       <c r="I117">
-        <v>6.3081588820745038</v>
+        <v>5.1941785504325182</v>
       </c>
       <c r="J117">
-        <v>9.4077552721961872</v>
+        <v>7.3696172839506184</v>
       </c>
       <c r="K117">
-        <v>12.247492317394558</v>
+        <v>7.7820046552094526</v>
       </c>
       <c r="L117">
-        <v>14.743158172012844</v>
+        <v>8.8167912427983541</v>
       </c>
       <c r="M117">
-        <v>16.981991752350652</v>
+        <v>9.565031645569622</v>
       </c>
       <c r="N117">
-        <v>19.712363031399402</v>
+        <v>12.52122205343364</v>
       </c>
       <c r="O117">
-        <v>23.161557644727257</v>
+        <v>13.703519624999998</v>
       </c>
       <c r="P117">
-        <v>29.850267207390658</v>
+        <v>18.950154352723917</v>
       </c>
       <c r="Q117">
-        <v>35.35007296317935</v>
+        <v>26.967628428270039</v>
       </c>
       <c r="R117">
-        <v>66.019959124106464</v>
+        <v>36.093120229007638</v>
       </c>
       <c r="S117">
-        <v>55</v>
-      </c>
-      <c r="T117" s="6">
-        <f t="shared" si="1"/>
-        <v>2.9266371874484513E-4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>3</v>
       </c>
@@ -7845,47 +7373,43 @@
         <v>0</v>
       </c>
       <c r="H118">
-        <v>7.8940443658107826</v>
+        <v>2.4168037974683552</v>
       </c>
       <c r="I118">
-        <v>12.554004729307463</v>
+        <v>5.7805011832061073</v>
       </c>
       <c r="J118">
-        <v>15.501556999125087</v>
+        <v>9.1760970464135028</v>
       </c>
       <c r="K118">
-        <v>18.403093694392918</v>
+        <v>11.252230621463479</v>
       </c>
       <c r="L118">
-        <v>21.230968861748359</v>
+        <v>12.35359704641351</v>
       </c>
       <c r="M118">
-        <v>24.449356986019673</v>
+        <v>14.32625921940928</v>
       </c>
       <c r="N118">
-        <v>26.830580086809658</v>
+        <v>16.309449061249591</v>
       </c>
       <c r="O118">
-        <v>28.891050353282228</v>
+        <v>18.45369249131944</v>
       </c>
       <c r="P118">
-        <v>31.8624861641294</v>
+        <v>20.440049999999999</v>
       </c>
       <c r="Q118">
-        <v>35.987449907469653</v>
+        <v>28.01737748762217</v>
       </c>
       <c r="R118">
-        <v>61.194183774818462</v>
+        <v>52.522894736842105</v>
       </c>
       <c r="S118">
         <v>0</v>
       </c>
-      <c r="T118" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>3</v>
       </c>
@@ -7908,47 +7432,43 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>2.7470475809201318</v>
+        <v>0.5663248638838474</v>
       </c>
       <c r="I119">
-        <v>7.4000694195679095</v>
+        <v>8.9201113020095431</v>
       </c>
       <c r="J119">
-        <v>11.70452397968034</v>
+        <v>10.02716054008439</v>
       </c>
       <c r="K119">
-        <v>13.930320383929409</v>
+        <v>13.04054968010545</v>
       </c>
       <c r="L119">
-        <v>17.10843337458607</v>
+        <v>14.001102237654319</v>
       </c>
       <c r="M119">
-        <v>19.239314413078091</v>
+        <v>17.046119999999998</v>
       </c>
       <c r="N119">
-        <v>21.788147195442239</v>
+        <v>20.65009160305344</v>
       </c>
       <c r="O119">
-        <v>25.891951414074594</v>
+        <v>23.80545627586207</v>
       </c>
       <c r="P119">
-        <v>29.902112752372986</v>
+        <v>27.960988561445149</v>
       </c>
       <c r="Q119">
-        <v>39.787149322943783</v>
+        <v>33.5399001814882</v>
       </c>
       <c r="R119">
-        <v>62.055613398917842</v>
+        <v>70.301299999999998</v>
       </c>
       <c r="S119">
-        <v>56</v>
-      </c>
-      <c r="T119" s="6">
-        <f t="shared" si="1"/>
-        <v>2.9798487726747866E-4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3</v>
       </c>
@@ -7971,47 +7491,43 @@
         <v>2</v>
       </c>
       <c r="H120">
-        <v>7.8940443658107826</v>
+        <v>2.4168037974683552</v>
       </c>
       <c r="I120">
-        <v>12.554004729307463</v>
+        <v>5.7805011832061073</v>
       </c>
       <c r="J120">
-        <v>15.501556999125087</v>
+        <v>9.1760970464135028</v>
       </c>
       <c r="K120">
-        <v>18.403093694392918</v>
+        <v>11.252230621463479</v>
       </c>
       <c r="L120">
-        <v>21.230968861748359</v>
+        <v>12.35359704641351</v>
       </c>
       <c r="M120">
-        <v>24.449356986019673</v>
+        <v>14.32625921940928</v>
       </c>
       <c r="N120">
-        <v>26.830580086809658</v>
+        <v>16.309449061249591</v>
       </c>
       <c r="O120">
-        <v>28.891050353282228</v>
+        <v>18.45369249131944</v>
       </c>
       <c r="P120">
-        <v>31.8624861641294</v>
+        <v>20.440049999999999</v>
       </c>
       <c r="Q120">
-        <v>35.987449907469653</v>
+        <v>28.01737748762217</v>
       </c>
       <c r="R120">
-        <v>61.194183774818462</v>
+        <v>52.522894736842105</v>
       </c>
       <c r="S120">
         <v>0</v>
       </c>
-      <c r="T120" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3</v>
       </c>
@@ -8034,47 +7550,43 @@
         <v>3</v>
       </c>
       <c r="H121">
-        <v>2.7470475809201318</v>
+        <v>0.5663248638838474</v>
       </c>
       <c r="I121">
-        <v>7.4000694195679095</v>
+        <v>8.9201113020095431</v>
       </c>
       <c r="J121">
-        <v>11.70452397968034</v>
+        <v>10.02716054008439</v>
       </c>
       <c r="K121">
-        <v>13.930320383929409</v>
+        <v>13.04054968010545</v>
       </c>
       <c r="L121">
-        <v>17.10843337458607</v>
+        <v>14.001102237654319</v>
       </c>
       <c r="M121">
-        <v>19.239314413078091</v>
+        <v>17.046119999999998</v>
       </c>
       <c r="N121">
-        <v>21.788147195442239</v>
+        <v>20.65009160305344</v>
       </c>
       <c r="O121">
-        <v>25.891951414074594</v>
+        <v>23.80545627586207</v>
       </c>
       <c r="P121">
-        <v>29.902112752372986</v>
+        <v>27.960988561445149</v>
       </c>
       <c r="Q121">
-        <v>39.787149322943783</v>
+        <v>33.5399001814882</v>
       </c>
       <c r="R121">
-        <v>62.055613398917842</v>
+        <v>70.301299999999998</v>
       </c>
       <c r="S121">
-        <v>46</v>
-      </c>
-      <c r="T121" s="6">
-        <f t="shared" si="1"/>
-        <v>2.4477329204114322E-4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.729951510630362E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -8097,47 +7609,43 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>1.1992407304160335</v>
+        <v>3.3244274809160299E-2</v>
       </c>
       <c r="I122">
-        <v>6.467373350629102</v>
+        <v>3.3633125443037972</v>
       </c>
       <c r="J122">
-        <v>8.5326758129237525</v>
+        <v>5.1570740000000006</v>
       </c>
       <c r="K122">
-        <v>10.142260825273047</v>
+        <v>6.7602202625704892</v>
       </c>
       <c r="L122">
-        <v>11.946427687272299</v>
+        <v>8.201679465648855</v>
       </c>
       <c r="M122">
-        <v>13.842960338664264</v>
+        <v>9.4410965096952921</v>
       </c>
       <c r="N122">
-        <v>15.879307815600129</v>
+        <v>11.096442</v>
       </c>
       <c r="O122">
-        <v>18.404634438368067</v>
+        <v>12.80160260975441</v>
       </c>
       <c r="P122">
-        <v>21.037157571072807</v>
+        <v>15.553962167938941</v>
       </c>
       <c r="Q122">
-        <v>27.812197647544451</v>
+        <v>19.746592</v>
       </c>
       <c r="R122">
-        <v>87.177320180940796</v>
+        <v>58.266046304541426</v>
       </c>
       <c r="S122">
-        <v>188</v>
-      </c>
-      <c r="T122" s="6">
-        <f t="shared" si="1"/>
-        <v>1.000377802255107E-3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.486634340420241E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3</v>
       </c>
@@ -8160,47 +7668,43 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>1.5889031188622065</v>
+        <v>3.3457519531250002</v>
       </c>
       <c r="I123">
-        <v>6.3081588820745038</v>
+        <v>5.1941785504325182</v>
       </c>
       <c r="J123">
-        <v>9.4077552721961872</v>
+        <v>7.3696172839506184</v>
       </c>
       <c r="K123">
-        <v>12.247492317394558</v>
+        <v>7.7820046552094526</v>
       </c>
       <c r="L123">
-        <v>14.743158172012844</v>
+        <v>8.8167912427983541</v>
       </c>
       <c r="M123">
-        <v>16.981991752350652</v>
+        <v>9.565031645569622</v>
       </c>
       <c r="N123">
-        <v>19.712363031399402</v>
+        <v>12.52122205343364</v>
       </c>
       <c r="O123">
-        <v>23.161557644727257</v>
+        <v>13.703519624999998</v>
       </c>
       <c r="P123">
-        <v>29.850267207390658</v>
+        <v>18.950154352723917</v>
       </c>
       <c r="Q123">
-        <v>35.35007296317935</v>
+        <v>26.967628428270039</v>
       </c>
       <c r="R123">
-        <v>66.019959124106464</v>
+        <v>36.093120229007638</v>
       </c>
       <c r="S123">
-        <v>122</v>
-      </c>
-      <c r="T123" s="6">
-        <f t="shared" si="1"/>
-        <v>6.4918133976129286E-4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.729951510630362E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3</v>
       </c>
@@ -8223,47 +7727,43 @@
         <v>2</v>
       </c>
       <c r="H124">
-        <v>1.1992407304160335</v>
+        <v>3.3244274809160299E-2</v>
       </c>
       <c r="I124">
-        <v>6.467373350629102</v>
+        <v>3.3633125443037972</v>
       </c>
       <c r="J124">
-        <v>8.5326758129237525</v>
+        <v>5.1570740000000006</v>
       </c>
       <c r="K124">
-        <v>10.142260825273047</v>
+        <v>6.7602202625704892</v>
       </c>
       <c r="L124">
-        <v>11.946427687272299</v>
+        <v>8.201679465648855</v>
       </c>
       <c r="M124">
-        <v>13.842960338664264</v>
+        <v>9.4410965096952921</v>
       </c>
       <c r="N124">
-        <v>15.879307815600129</v>
+        <v>11.096442</v>
       </c>
       <c r="O124">
-        <v>18.404634438368067</v>
+        <v>12.80160260975441</v>
       </c>
       <c r="P124">
-        <v>21.037157571072807</v>
+        <v>15.553962167938941</v>
       </c>
       <c r="Q124">
-        <v>27.812197647544451</v>
+        <v>19.746592</v>
       </c>
       <c r="R124">
-        <v>87.177320180940796</v>
+        <v>58.266046304541426</v>
       </c>
       <c r="S124">
-        <v>15635</v>
-      </c>
-      <c r="T124" s="6">
-        <f t="shared" si="1"/>
-        <v>8.3196313501375518E-2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+        <v>6.5647146587094363E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3</v>
       </c>
@@ -8286,47 +7786,43 @@
         <v>3</v>
       </c>
       <c r="H125">
-        <v>1.5889031188622065</v>
+        <v>3.3457519531250002</v>
       </c>
       <c r="I125">
-        <v>6.3081588820745038</v>
+        <v>5.1941785504325182</v>
       </c>
       <c r="J125">
-        <v>9.4077552721961872</v>
+        <v>7.3696172839506184</v>
       </c>
       <c r="K125">
-        <v>12.247492317394558</v>
+        <v>7.7820046552094526</v>
       </c>
       <c r="L125">
-        <v>14.743158172012844</v>
+        <v>8.8167912427983541</v>
       </c>
       <c r="M125">
-        <v>16.981991752350652</v>
+        <v>9.565031645569622</v>
       </c>
       <c r="N125">
-        <v>19.712363031399402</v>
+        <v>12.52122205343364</v>
       </c>
       <c r="O125">
-        <v>23.161557644727257</v>
+        <v>13.703519624999998</v>
       </c>
       <c r="P125">
-        <v>29.850267207390658</v>
+        <v>18.950154352723917</v>
       </c>
       <c r="Q125">
-        <v>35.35007296317935</v>
+        <v>26.967628428270039</v>
       </c>
       <c r="R125">
-        <v>66.019959124106464</v>
+        <v>36.093120229007638</v>
       </c>
       <c r="S125">
-        <v>2398</v>
-      </c>
-      <c r="T125" s="6">
-        <f t="shared" si="1"/>
-        <v>1.2760138137275247E-2</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+        <v>9.0762153425338801E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3</v>
       </c>
@@ -8349,47 +7845,43 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>7.8940443658107826</v>
+        <v>2.4168037974683552</v>
       </c>
       <c r="I126">
-        <v>12.554004729307463</v>
+        <v>5.7805011832061073</v>
       </c>
       <c r="J126">
-        <v>15.501556999125087</v>
+        <v>9.1760970464135028</v>
       </c>
       <c r="K126">
-        <v>18.403093694392918</v>
+        <v>11.252230621463479</v>
       </c>
       <c r="L126">
-        <v>21.230968861748359</v>
+        <v>12.35359704641351</v>
       </c>
       <c r="M126">
-        <v>24.449356986019673</v>
+        <v>14.32625921940928</v>
       </c>
       <c r="N126">
-        <v>26.830580086809658</v>
+        <v>16.309449061249591</v>
       </c>
       <c r="O126">
-        <v>28.891050353282228</v>
+        <v>18.45369249131944</v>
       </c>
       <c r="P126">
-        <v>31.8624861641294</v>
+        <v>20.440049999999999</v>
       </c>
       <c r="Q126">
-        <v>35.987449907469653</v>
+        <v>28.01737748762217</v>
       </c>
       <c r="R126">
-        <v>61.194183774818462</v>
+        <v>52.522894736842105</v>
       </c>
       <c r="S126">
-        <v>0</v>
-      </c>
-      <c r="T126" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>3</v>
       </c>
@@ -8412,47 +7904,43 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>2.7470475809201318</v>
+        <v>0.5663248638838474</v>
       </c>
       <c r="I127">
-        <v>7.4000694195679095</v>
+        <v>8.9201113020095431</v>
       </c>
       <c r="J127">
-        <v>11.70452397968034</v>
+        <v>10.02716054008439</v>
       </c>
       <c r="K127">
-        <v>13.930320383929409</v>
+        <v>13.04054968010545</v>
       </c>
       <c r="L127">
-        <v>17.10843337458607</v>
+        <v>14.001102237654319</v>
       </c>
       <c r="M127">
-        <v>19.239314413078091</v>
+        <v>17.046119999999998</v>
       </c>
       <c r="N127">
-        <v>21.788147195442239</v>
+        <v>20.65009160305344</v>
       </c>
       <c r="O127">
-        <v>25.891951414074594</v>
+        <v>23.80545627586207</v>
       </c>
       <c r="P127">
-        <v>29.902112752372986</v>
+        <v>27.960988561445149</v>
       </c>
       <c r="Q127">
-        <v>39.787149322943783</v>
+        <v>33.5399001814882</v>
       </c>
       <c r="R127">
-        <v>62.055613398917842</v>
+        <v>70.301299999999998</v>
       </c>
       <c r="S127">
-        <v>88</v>
-      </c>
-      <c r="T127" s="6">
-        <f t="shared" si="1"/>
-        <v>4.6826194999175218E-4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.729951510630362E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>3</v>
       </c>
@@ -8475,47 +7963,43 @@
         <v>2</v>
       </c>
       <c r="H128">
-        <v>7.8940443658107826</v>
+        <v>2.4168037974683552</v>
       </c>
       <c r="I128">
-        <v>12.554004729307463</v>
+        <v>5.7805011832061073</v>
       </c>
       <c r="J128">
-        <v>15.501556999125087</v>
+        <v>9.1760970464135028</v>
       </c>
       <c r="K128">
-        <v>18.403093694392918</v>
+        <v>11.252230621463479</v>
       </c>
       <c r="L128">
-        <v>21.230968861748359</v>
+        <v>12.35359704641351</v>
       </c>
       <c r="M128">
-        <v>24.449356986019673</v>
+        <v>14.32625921940928</v>
       </c>
       <c r="N128">
-        <v>26.830580086809658</v>
+        <v>16.309449061249591</v>
       </c>
       <c r="O128">
-        <v>28.891050353282228</v>
+        <v>18.45369249131944</v>
       </c>
       <c r="P128">
-        <v>31.8624861641294</v>
+        <v>20.440049999999999</v>
       </c>
       <c r="Q128">
-        <v>35.987449907469653</v>
+        <v>28.01737748762217</v>
       </c>
       <c r="R128">
-        <v>61.194183774818462</v>
+        <v>52.522894736842105</v>
       </c>
       <c r="S128">
-        <v>1019</v>
-      </c>
-      <c r="T128" s="6">
-        <f t="shared" si="1"/>
-        <v>5.4222605345635852E-3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.7299515106303618E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>3</v>
       </c>
@@ -8538,47 +8022,43 @@
         <v>3</v>
       </c>
       <c r="H129">
-        <v>2.7470475809201318</v>
+        <v>0.5663248638838474</v>
       </c>
       <c r="I129">
-        <v>7.4000694195679095</v>
+        <v>8.9201113020095431</v>
       </c>
       <c r="J129">
-        <v>11.70452397968034</v>
+        <v>10.02716054008439</v>
       </c>
       <c r="K129">
-        <v>13.930320383929409</v>
+        <v>13.04054968010545</v>
       </c>
       <c r="L129">
-        <v>17.10843337458607</v>
+        <v>14.001102237654319</v>
       </c>
       <c r="M129">
-        <v>19.239314413078091</v>
+        <v>17.046119999999998</v>
       </c>
       <c r="N129">
-        <v>21.788147195442239</v>
+        <v>20.65009160305344</v>
       </c>
       <c r="O129">
-        <v>25.891951414074594</v>
+        <v>23.80545627586207</v>
       </c>
       <c r="P129">
-        <v>29.902112752372986</v>
+        <v>27.960988561445149</v>
       </c>
       <c r="Q129">
-        <v>39.787149322943783</v>
+        <v>33.5399001814882</v>
       </c>
       <c r="R129">
-        <v>62.055613398917842</v>
+        <v>70.301299999999998</v>
       </c>
       <c r="S129">
-        <v>958</v>
-      </c>
-      <c r="T129" s="6">
-        <f t="shared" si="1"/>
-        <v>5.097669864682939E-3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.3516100957354219E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>4</v>
       </c>
@@ -8601,47 +8081,43 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>1.1992407304160335</v>
+        <v>0.31911392405063282</v>
       </c>
       <c r="I130">
-        <v>6.467373350629102</v>
+        <v>3.3407819670781889</v>
       </c>
       <c r="J130">
-        <v>8.5326758129237525</v>
+        <v>4.9252798353909473</v>
       </c>
       <c r="K130">
-        <v>10.142260825273047</v>
+        <v>6.8123710937500004</v>
       </c>
       <c r="L130">
-        <v>11.946427687272299</v>
+        <v>8.297035392714589</v>
       </c>
       <c r="M130">
-        <v>13.842960338664264</v>
+        <v>9.4550483351235233</v>
       </c>
       <c r="N130">
-        <v>15.879307815600129</v>
+        <v>11.234451500950168</v>
       </c>
       <c r="O130">
-        <v>18.404634438368067</v>
+        <v>12.709834756176159</v>
       </c>
       <c r="P130">
-        <v>21.037157571072807</v>
+        <v>15.20328625</v>
       </c>
       <c r="Q130">
-        <v>27.812197647544451</v>
+        <v>18.993441085872579</v>
       </c>
       <c r="R130">
-        <v>87.177320180940796</v>
+        <v>57.441369999999999</v>
       </c>
       <c r="S130">
-        <v>50</v>
-      </c>
-      <c r="T130" s="6">
-        <f t="shared" si="1"/>
-        <v>2.6605792613167741E-4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4</v>
       </c>
@@ -8664,47 +8140,43 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>1.5889031188622065</v>
+        <v>2.465411392405064</v>
       </c>
       <c r="I131">
-        <v>6.3081588820745038</v>
+        <v>5.808709452201934</v>
       </c>
       <c r="J131">
-        <v>9.4077552721961872</v>
+        <v>7.6871716772151899</v>
       </c>
       <c r="K131">
-        <v>12.247492317394558</v>
+        <v>8.6211779999999987</v>
       </c>
       <c r="L131">
-        <v>14.743158172012844</v>
+        <v>10.62030217146958</v>
       </c>
       <c r="M131">
-        <v>16.981991752350652</v>
+        <v>13.129556786703601</v>
       </c>
       <c r="N131">
-        <v>19.712363031399402</v>
+        <v>16.040760405063288</v>
       </c>
       <c r="O131">
-        <v>23.161557644727257</v>
+        <v>20.264839598162631</v>
       </c>
       <c r="P131">
-        <v>29.850267207390658</v>
+        <v>24.533874045801532</v>
       </c>
       <c r="Q131">
-        <v>35.35007296317935</v>
+        <v>30.98007106383572</v>
       </c>
       <c r="R131">
-        <v>66.019959124106464</v>
+        <v>46.107929389312986</v>
       </c>
       <c r="S131">
         <v>0</v>
       </c>
-      <c r="T131" s="6">
-        <f t="shared" ref="T131:T145" si="2">S131/SUM($S$2:$S$145)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4</v>
       </c>
@@ -8727,47 +8199,43 @@
         <v>2</v>
       </c>
       <c r="H132">
-        <v>1.1992407304160335</v>
+        <v>0.31911392405063282</v>
       </c>
       <c r="I132">
-        <v>6.467373350629102</v>
+        <v>3.3407819670781889</v>
       </c>
       <c r="J132">
-        <v>8.5326758129237525</v>
+        <v>4.9252798353909473</v>
       </c>
       <c r="K132">
-        <v>10.142260825273047</v>
+        <v>6.8123710937500004</v>
       </c>
       <c r="L132">
-        <v>11.946427687272299</v>
+        <v>8.297035392714589</v>
       </c>
       <c r="M132">
-        <v>13.842960338664264</v>
+        <v>9.4550483351235233</v>
       </c>
       <c r="N132">
-        <v>15.879307815600129</v>
+        <v>11.234451500950168</v>
       </c>
       <c r="O132">
-        <v>18.404634438368067</v>
+        <v>12.709834756176159</v>
       </c>
       <c r="P132">
-        <v>21.037157571072807</v>
+        <v>15.20328625</v>
       </c>
       <c r="Q132">
-        <v>27.812197647544451</v>
+        <v>18.993441085872579</v>
       </c>
       <c r="R132">
-        <v>87.177320180940796</v>
+        <v>57.441369999999999</v>
       </c>
       <c r="S132">
-        <v>266</v>
-      </c>
-      <c r="T132" s="6">
-        <f t="shared" si="2"/>
-        <v>1.4154281670205238E-3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+        <v>9.9465373616809639E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>4</v>
       </c>
@@ -8790,47 +8258,43 @@
         <v>3</v>
       </c>
       <c r="H133">
-        <v>1.5889031188622065</v>
+        <v>2.465411392405064</v>
       </c>
       <c r="I133">
-        <v>6.3081588820745038</v>
+        <v>5.808709452201934</v>
       </c>
       <c r="J133">
-        <v>9.4077552721961872</v>
+        <v>7.6871716772151899</v>
       </c>
       <c r="K133">
-        <v>12.247492317394558</v>
+        <v>8.6211779999999987</v>
       </c>
       <c r="L133">
-        <v>14.743158172012844</v>
+        <v>10.62030217146958</v>
       </c>
       <c r="M133">
-        <v>16.981991752350652</v>
+        <v>13.129556786703601</v>
       </c>
       <c r="N133">
-        <v>19.712363031399402</v>
+        <v>16.040760405063288</v>
       </c>
       <c r="O133">
-        <v>23.161557644727257</v>
+        <v>20.264839598162631</v>
       </c>
       <c r="P133">
-        <v>29.850267207390658</v>
+        <v>24.533874045801532</v>
       </c>
       <c r="Q133">
-        <v>35.35007296317935</v>
+        <v>30.98007106383572</v>
       </c>
       <c r="R133">
-        <v>66.019959124106464</v>
+        <v>46.107929389312986</v>
       </c>
       <c r="S133">
-        <v>55</v>
-      </c>
-      <c r="T133" s="6">
-        <f t="shared" si="2"/>
-        <v>2.9266371874484513E-4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>4</v>
       </c>
@@ -8853,47 +8317,43 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>7.8940443658107826</v>
+        <v>1.0112000000000001</v>
       </c>
       <c r="I134">
-        <v>12.554004729307463</v>
+        <v>5.1142019334049413</v>
       </c>
       <c r="J134">
-        <v>15.501556999125087</v>
+        <v>6.8531970862962117</v>
       </c>
       <c r="K134">
-        <v>18.403093694392918</v>
+        <v>7.9665419999999996</v>
       </c>
       <c r="L134">
-        <v>21.230968861748359</v>
+        <v>11.17128227880659</v>
       </c>
       <c r="M134">
-        <v>24.449356986019673</v>
+        <v>11.742290000000001</v>
       </c>
       <c r="N134">
-        <v>26.830580086809658</v>
+        <v>13.223052766772961</v>
       </c>
       <c r="O134">
-        <v>28.891050353282228</v>
+        <v>16.432939805568612</v>
       </c>
       <c r="P134">
-        <v>31.8624861641294</v>
+        <v>19.533517725190862</v>
       </c>
       <c r="Q134">
-        <v>35.987449907469653</v>
+        <v>24.169363311068707</v>
       </c>
       <c r="R134">
-        <v>61.194183774818462</v>
+        <v>52.464699907663885</v>
       </c>
       <c r="S134">
-        <v>0</v>
-      </c>
-      <c r="T134" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>4</v>
       </c>
@@ -8916,47 +8376,43 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>2.7470475809201318</v>
+        <v>4.4483127572016459</v>
       </c>
       <c r="I135">
-        <v>7.4000694195679095</v>
+        <v>5.411090534979424</v>
       </c>
       <c r="J135">
-        <v>11.70452397968034</v>
+        <v>9.2565899999999992</v>
       </c>
       <c r="K135">
-        <v>13.930320383929409</v>
+        <v>10.050333969465649</v>
       </c>
       <c r="L135">
-        <v>17.10843337458607</v>
+        <v>10.362500000000001</v>
       </c>
       <c r="M135">
-        <v>19.239314413078091</v>
+        <v>12.25012658227848</v>
       </c>
       <c r="N135">
-        <v>21.788147195442239</v>
+        <v>13.08521</v>
       </c>
       <c r="O135">
-        <v>25.891951414074594</v>
+        <v>17.593012704174228</v>
       </c>
       <c r="P135">
-        <v>29.902112752372986</v>
+        <v>20.903037974683539</v>
       </c>
       <c r="Q135">
-        <v>39.787149322943783</v>
+        <v>25.103000923361037</v>
       </c>
       <c r="R135">
-        <v>62.055613398917842</v>
+        <v>29.049866412213738</v>
       </c>
       <c r="S135">
-        <v>56</v>
-      </c>
-      <c r="T135" s="6">
-        <f t="shared" si="2"/>
-        <v>2.9798487726747866E-4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>4</v>
       </c>
@@ -8979,47 +8435,43 @@
         <v>2</v>
       </c>
       <c r="H136">
-        <v>7.8940443658107826</v>
+        <v>1.0112000000000001</v>
       </c>
       <c r="I136">
-        <v>12.554004729307463</v>
+        <v>5.1142019334049413</v>
       </c>
       <c r="J136">
-        <v>15.501556999125087</v>
+        <v>6.8531970862962117</v>
       </c>
       <c r="K136">
-        <v>18.403093694392918</v>
+        <v>7.9665419999999996</v>
       </c>
       <c r="L136">
-        <v>21.230968861748359</v>
+        <v>11.17128227880659</v>
       </c>
       <c r="M136">
-        <v>24.449356986019673</v>
+        <v>11.742290000000001</v>
       </c>
       <c r="N136">
-        <v>26.830580086809658</v>
+        <v>13.223052766772961</v>
       </c>
       <c r="O136">
-        <v>28.891050353282228</v>
+        <v>16.432939805568612</v>
       </c>
       <c r="P136">
-        <v>31.8624861641294</v>
+        <v>19.533517725190862</v>
       </c>
       <c r="Q136">
-        <v>35.987449907469653</v>
+        <v>24.169363311068707</v>
       </c>
       <c r="R136">
-        <v>61.194183774818462</v>
+        <v>52.464699907663885</v>
       </c>
       <c r="S136">
-        <v>0</v>
-      </c>
-      <c r="T136" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>4</v>
       </c>
@@ -9042,47 +8494,43 @@
         <v>3</v>
       </c>
       <c r="H137">
-        <v>2.7470475809201318</v>
+        <v>4.4483127572016459</v>
       </c>
       <c r="I137">
-        <v>7.4000694195679095</v>
+        <v>5.411090534979424</v>
       </c>
       <c r="J137">
-        <v>11.70452397968034</v>
+        <v>9.2565899999999992</v>
       </c>
       <c r="K137">
-        <v>13.930320383929409</v>
+        <v>10.050333969465649</v>
       </c>
       <c r="L137">
-        <v>17.10843337458607</v>
+        <v>10.362500000000001</v>
       </c>
       <c r="M137">
-        <v>19.239314413078091</v>
+        <v>12.25012658227848</v>
       </c>
       <c r="N137">
-        <v>21.788147195442239</v>
+        <v>13.08521</v>
       </c>
       <c r="O137">
-        <v>25.891951414074594</v>
+        <v>17.593012704174228</v>
       </c>
       <c r="P137">
-        <v>29.902112752372986</v>
+        <v>20.903037974683539</v>
       </c>
       <c r="Q137">
-        <v>39.787149322943783</v>
+        <v>25.103000923361037</v>
       </c>
       <c r="R137">
-        <v>62.055613398917842</v>
+        <v>29.049866412213738</v>
       </c>
       <c r="S137">
-        <v>46</v>
-      </c>
-      <c r="T137" s="6">
-        <f t="shared" si="2"/>
-        <v>2.4477329204114322E-4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>4</v>
       </c>
@@ -9105,47 +8553,43 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>1.1992407304160335</v>
+        <v>0.31911392405063282</v>
       </c>
       <c r="I138">
-        <v>6.467373350629102</v>
+        <v>3.3407819670781889</v>
       </c>
       <c r="J138">
-        <v>8.5326758129237525</v>
+        <v>4.9252798353909473</v>
       </c>
       <c r="K138">
-        <v>10.142260825273047</v>
+        <v>6.8123710937500004</v>
       </c>
       <c r="L138">
-        <v>11.946427687272299</v>
+        <v>8.297035392714589</v>
       </c>
       <c r="M138">
-        <v>13.842960338664264</v>
+        <v>9.4550483351235233</v>
       </c>
       <c r="N138">
-        <v>15.879307815600129</v>
+        <v>11.234451500950168</v>
       </c>
       <c r="O138">
-        <v>18.404634438368067</v>
+        <v>12.709834756176159</v>
       </c>
       <c r="P138">
-        <v>21.037157571072807</v>
+        <v>15.20328625</v>
       </c>
       <c r="Q138">
-        <v>27.812197647544451</v>
+        <v>18.993441085872579</v>
       </c>
       <c r="R138">
-        <v>87.177320180940796</v>
+        <v>57.441369999999999</v>
       </c>
       <c r="S138">
-        <v>188</v>
-      </c>
-      <c r="T138" s="6">
-        <f t="shared" si="2"/>
-        <v>1.000377802255107E-3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+        <v>4.973268680840482E-4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>4</v>
       </c>
@@ -9168,47 +8612,43 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>1.5889031188622065</v>
+        <v>2.465411392405064</v>
       </c>
       <c r="I139">
-        <v>6.3081588820745038</v>
+        <v>5.808709452201934</v>
       </c>
       <c r="J139">
-        <v>9.4077552721961872</v>
+        <v>7.6871716772151899</v>
       </c>
       <c r="K139">
-        <v>12.247492317394558</v>
+        <v>8.6211779999999987</v>
       </c>
       <c r="L139">
-        <v>14.743158172012844</v>
+        <v>10.62030217146958</v>
       </c>
       <c r="M139">
-        <v>16.981991752350652</v>
+        <v>13.129556786703601</v>
       </c>
       <c r="N139">
-        <v>19.712363031399402</v>
+        <v>16.040760405063288</v>
       </c>
       <c r="O139">
-        <v>23.161557644727257</v>
+        <v>20.264839598162631</v>
       </c>
       <c r="P139">
-        <v>29.850267207390658</v>
+        <v>24.533874045801532</v>
       </c>
       <c r="Q139">
-        <v>35.35007296317935</v>
+        <v>30.98007106383572</v>
       </c>
       <c r="R139">
-        <v>66.019959124106464</v>
+        <v>46.107929389312986</v>
       </c>
       <c r="S139">
-        <v>122</v>
-      </c>
-      <c r="T139" s="6">
-        <f t="shared" si="2"/>
-        <v>6.4918133976129286E-4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.486634340420241E-4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>4</v>
       </c>
@@ -9231,47 +8671,43 @@
         <v>2</v>
       </c>
       <c r="H140">
-        <v>1.1992407304160335</v>
+        <v>0.31911392405063282</v>
       </c>
       <c r="I140">
-        <v>6.467373350629102</v>
+        <v>3.3407819670781889</v>
       </c>
       <c r="J140">
-        <v>8.5326758129237525</v>
+        <v>4.9252798353909473</v>
       </c>
       <c r="K140">
-        <v>10.142260825273047</v>
+        <v>6.8123710937500004</v>
       </c>
       <c r="L140">
-        <v>11.946427687272299</v>
+        <v>8.297035392714589</v>
       </c>
       <c r="M140">
-        <v>13.842960338664264</v>
+        <v>9.4550483351235233</v>
       </c>
       <c r="N140">
-        <v>15.879307815600129</v>
+        <v>11.234451500950168</v>
       </c>
       <c r="O140">
-        <v>18.404634438368067</v>
+        <v>12.709834756176159</v>
       </c>
       <c r="P140">
-        <v>21.037157571072807</v>
+        <v>15.20328625</v>
       </c>
       <c r="Q140">
-        <v>27.812197647544451</v>
+        <v>18.993441085872579</v>
       </c>
       <c r="R140">
-        <v>87.177320180940796</v>
+        <v>57.441369999999999</v>
       </c>
       <c r="S140">
-        <v>15635</v>
-      </c>
-      <c r="T140" s="6">
-        <f t="shared" si="2"/>
-        <v>8.3196313501375518E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.5931866219072482E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>4</v>
       </c>
@@ -9294,47 +8730,43 @@
         <v>3</v>
       </c>
       <c r="H141">
-        <v>1.5889031188622065</v>
+        <v>2.465411392405064</v>
       </c>
       <c r="I141">
-        <v>6.3081588820745038</v>
+        <v>5.808709452201934</v>
       </c>
       <c r="J141">
-        <v>9.4077552721961872</v>
+        <v>7.6871716772151899</v>
       </c>
       <c r="K141">
-        <v>12.247492317394558</v>
+        <v>8.6211779999999987</v>
       </c>
       <c r="L141">
-        <v>14.743158172012844</v>
+        <v>10.62030217146958</v>
       </c>
       <c r="M141">
-        <v>16.981991752350652</v>
+        <v>13.129556786703601</v>
       </c>
       <c r="N141">
-        <v>19.712363031399402</v>
+        <v>16.040760405063288</v>
       </c>
       <c r="O141">
-        <v>23.161557644727257</v>
+        <v>20.264839598162631</v>
       </c>
       <c r="P141">
-        <v>29.850267207390658</v>
+        <v>24.533874045801532</v>
       </c>
       <c r="Q141">
-        <v>35.35007296317935</v>
+        <v>30.98007106383572</v>
       </c>
       <c r="R141">
-        <v>66.019959124106464</v>
+        <v>46.107929389312986</v>
       </c>
       <c r="S141">
-        <v>2398</v>
-      </c>
-      <c r="T141" s="6">
-        <f t="shared" si="2"/>
-        <v>1.2760138137275247E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+        <v>6.2165858510506034E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>4</v>
       </c>
@@ -9357,47 +8789,43 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>7.8940443658107826</v>
+        <v>1.0112000000000001</v>
       </c>
       <c r="I142">
-        <v>12.554004729307463</v>
+        <v>5.1142019334049413</v>
       </c>
       <c r="J142">
-        <v>15.501556999125087</v>
+        <v>6.8531970862962117</v>
       </c>
       <c r="K142">
-        <v>18.403093694392918</v>
+        <v>7.9665419999999996</v>
       </c>
       <c r="L142">
-        <v>21.230968861748359</v>
+        <v>11.17128227880659</v>
       </c>
       <c r="M142">
-        <v>24.449356986019673</v>
+        <v>11.742290000000001</v>
       </c>
       <c r="N142">
-        <v>26.830580086809658</v>
+        <v>13.223052766772961</v>
       </c>
       <c r="O142">
-        <v>28.891050353282228</v>
+        <v>16.432939805568612</v>
       </c>
       <c r="P142">
-        <v>31.8624861641294</v>
+        <v>19.533517725190862</v>
       </c>
       <c r="Q142">
-        <v>35.987449907469653</v>
+        <v>24.169363311068707</v>
       </c>
       <c r="R142">
-        <v>61.194183774818462</v>
+        <v>52.464699907663885</v>
       </c>
       <c r="S142">
-        <v>0</v>
-      </c>
-      <c r="T142" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>4</v>
       </c>
@@ -9420,47 +8848,43 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>2.7470475809201318</v>
+        <v>4.4483127572016459</v>
       </c>
       <c r="I143">
-        <v>7.4000694195679095</v>
+        <v>5.411090534979424</v>
       </c>
       <c r="J143">
-        <v>11.70452397968034</v>
+        <v>9.2565899999999992</v>
       </c>
       <c r="K143">
-        <v>13.930320383929409</v>
+        <v>10.050333969465649</v>
       </c>
       <c r="L143">
-        <v>17.10843337458607</v>
+        <v>10.362500000000001</v>
       </c>
       <c r="M143">
-        <v>19.239314413078091</v>
+        <v>12.25012658227848</v>
       </c>
       <c r="N143">
-        <v>21.788147195442239</v>
+        <v>13.08521</v>
       </c>
       <c r="O143">
-        <v>25.891951414074594</v>
+        <v>17.593012704174228</v>
       </c>
       <c r="P143">
-        <v>29.902112752372986</v>
+        <v>20.903037974683539</v>
       </c>
       <c r="Q143">
-        <v>39.787149322943783</v>
+        <v>25.103000923361037</v>
       </c>
       <c r="R143">
-        <v>62.055613398917842</v>
+        <v>29.049866412213738</v>
       </c>
       <c r="S143">
-        <v>88</v>
-      </c>
-      <c r="T143" s="6">
-        <f t="shared" si="2"/>
-        <v>4.6826194999175218E-4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1.2433171702101199E-4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>4</v>
       </c>
@@ -9483,47 +8907,43 @@
         <v>2</v>
       </c>
       <c r="H144">
-        <v>7.8940443658107826</v>
+        <v>1.0112000000000001</v>
       </c>
       <c r="I144">
-        <v>12.554004729307463</v>
+        <v>5.1142019334049413</v>
       </c>
       <c r="J144">
-        <v>15.501556999125087</v>
+        <v>6.8531970862962117</v>
       </c>
       <c r="K144">
-        <v>18.403093694392918</v>
+        <v>7.9665419999999996</v>
       </c>
       <c r="L144">
-        <v>21.230968861748359</v>
+        <v>11.17128227880659</v>
       </c>
       <c r="M144">
-        <v>24.449356986019673</v>
+        <v>11.742290000000001</v>
       </c>
       <c r="N144">
-        <v>26.830580086809658</v>
+        <v>13.223052766772961</v>
       </c>
       <c r="O144">
-        <v>28.891050353282228</v>
+        <v>16.432939805568612</v>
       </c>
       <c r="P144">
-        <v>31.8624861641294</v>
+        <v>19.533517725190862</v>
       </c>
       <c r="Q144">
-        <v>35.987449907469653</v>
+        <v>24.169363311068707</v>
       </c>
       <c r="R144">
-        <v>61.194183774818462</v>
+        <v>52.464699907663885</v>
       </c>
       <c r="S144">
-        <v>1019</v>
-      </c>
-      <c r="T144" s="6">
-        <f t="shared" si="2"/>
-        <v>5.4222605345635852E-3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.735297774462265E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>4</v>
       </c>
@@ -9546,44 +8966,40 @@
         <v>3</v>
       </c>
       <c r="H145">
-        <v>2.7470475809201318</v>
+        <v>4.4483127572016459</v>
       </c>
       <c r="I145">
-        <v>7.4000694195679095</v>
+        <v>5.411090534979424</v>
       </c>
       <c r="J145">
-        <v>11.70452397968034</v>
+        <v>9.2565899999999992</v>
       </c>
       <c r="K145">
-        <v>13.930320383929409</v>
+        <v>10.050333969465649</v>
       </c>
       <c r="L145">
-        <v>17.10843337458607</v>
+        <v>10.362500000000001</v>
       </c>
       <c r="M145">
-        <v>19.239314413078091</v>
+        <v>12.25012658227848</v>
       </c>
       <c r="N145">
-        <v>21.788147195442239</v>
+        <v>13.08521</v>
       </c>
       <c r="O145">
-        <v>25.891951414074594</v>
+        <v>17.593012704174228</v>
       </c>
       <c r="P145">
-        <v>29.902112752372986</v>
+        <v>20.903037974683539</v>
       </c>
       <c r="Q145">
-        <v>39.787149322943783</v>
+        <v>25.103000923361037</v>
       </c>
       <c r="R145">
-        <v>62.055613398917842</v>
+        <v>29.049866412213738</v>
       </c>
       <c r="S145">
-        <v>958</v>
-      </c>
-      <c r="T145" s="6">
-        <f t="shared" si="2"/>
-        <v>5.097669864682939E-3</v>
+        <v>2.1136391893572049E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Main/SASdata/couple_formue.xlsx
+++ b/Main/SASdata/couple_formue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA01109-B205-4E17-8975-A239591CBDCC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA4948B-F116-4D4A-AB20-EF4D7061575F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6EC07FC9-461D-4A48-A1A5-A60E64016522}"/>
   </bookViews>
@@ -61,6 +61,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,12 +114,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4253942D-D70C-439F-BCC9-108C66B9FC8F}">
   <dimension ref="A1:S145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,6 +451,9 @@
     <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -528,40 +537,40 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="6">
         <v>0.54449588477366251</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="6">
         <v>3.3027850886075938</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <v>4.9204589321404786</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="6">
         <v>6.1925763660988693</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="6">
         <v>7.5319900413674929</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="6">
         <v>8.8650823045267479</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="6">
         <v>10.209918827187211</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="6">
         <v>12.093162109374999</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="6">
         <v>14.34358188096591</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="6">
         <v>18.052756493934599</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="6">
         <v>43.089660493827161</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="5">
         <v>2.486634340420241E-4</v>
       </c>
     </row>
@@ -587,40 +596,40 @@
       <c r="G3" s="4">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>2.3921589688506977</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6">
         <v>6.3432939261342911</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="6">
         <v>7.7808340000000005</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="6">
         <v>9.4308662551440321</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="6">
         <v>12.119677208895251</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="6">
         <v>13.634462025316459</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="6">
         <v>14.15351469354189</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="6">
         <v>14.39675837974684</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="6">
         <v>17.024994625954189</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="6">
         <v>20.449633856154581</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="6">
         <v>46.57761</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="5">
         <v>0</v>
       </c>
     </row>
@@ -646,40 +655,40 @@
       <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="6">
         <v>0.54449588477366251</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <v>3.3027850886075938</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <v>4.9204589321404786</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="6">
         <v>6.1925763660988693</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <v>7.5319900413674929</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="6">
         <v>8.8650823045267479</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="6">
         <v>10.209918827187211</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="6">
         <v>12.093162109374999</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="6">
         <v>14.34358188096591</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="6">
         <v>18.052756493934599</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="6">
         <v>43.089660493827161</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="5">
         <v>2.486634340420241E-4</v>
       </c>
     </row>
@@ -705,40 +714,40 @@
       <c r="G5" s="4">
         <v>3</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="6">
         <v>2.3921589688506977</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>6.3432939261342911</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>7.7808340000000005</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="6">
         <v>9.4308662551440321</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>12.119677208895251</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="6">
         <v>13.634462025316459</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="6">
         <v>14.15351469354189</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="6">
         <v>14.39675837974684</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="6">
         <v>17.024994625954189</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="6">
         <v>20.449633856154581</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="6">
         <v>46.57761</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="5">
         <v>2.486634340420241E-4</v>
       </c>
     </row>
@@ -764,40 +773,40 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="6">
         <v>2.1148227712137491</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
         <v>5.2310055915414031</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <v>8.3413183593750002</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="6">
         <v>9.2247247265624992</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="6">
         <v>11.545770042194091</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="6">
         <v>12.51341721374046</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="6">
         <v>15.100380658436219</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="6">
         <v>17.110495</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="6">
         <v>20.632932098765441</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="6">
         <v>24.108676134902261</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="6">
         <v>55.598904403866811</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="5">
         <v>0</v>
       </c>
     </row>
@@ -823,40 +832,40 @@
       <c r="G7" s="4">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="6">
         <v>2.5385654008438818</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="6">
         <v>6.9766913663440082</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="6">
         <v>9.253395061728396</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="6">
         <v>10.25841429521776</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="6">
         <v>11.776512345679009</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="6">
         <v>13.880933921755719</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="6">
         <v>14.448945312499999</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="6">
         <v>16.937078059071748</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="6">
         <v>17.487985480943738</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="6">
         <v>27.081190584743229</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="6">
         <v>43.072423664122141</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="5">
         <v>2.486634340420241E-4</v>
       </c>
     </row>
@@ -882,40 +891,40 @@
       <c r="G8" s="2">
         <v>2</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="6">
         <v>2.1148227712137491</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="6">
         <v>5.2310055915414031</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <v>8.3413183593750002</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="6">
         <v>9.2247247265624992</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="6">
         <v>11.545770042194091</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="6">
         <v>12.51341721374046</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="6">
         <v>15.100380658436219</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="6">
         <v>17.110495</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="6">
         <v>20.632932098765441</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="6">
         <v>24.108676134902261</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="6">
         <v>55.598904403866811</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -941,40 +950,40 @@
       <c r="G9" s="4">
         <v>3</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <v>2.5385654008438818</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="6">
         <v>6.9766913663440082</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="6">
         <v>9.253395061728396</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="6">
         <v>10.25841429521776</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="6">
         <v>11.776512345679009</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="6">
         <v>13.880933921755719</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="6">
         <v>14.448945312499999</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="6">
         <v>16.937078059071748</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="6">
         <v>17.487985480943738</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="6">
         <v>27.081190584743229</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="6">
         <v>43.072423664122141</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1000,40 +1009,40 @@
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="6">
         <v>0.54449588477366251</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="6">
         <v>3.3027850886075938</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="6">
         <v>4.9204589321404786</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="6">
         <v>6.1925763660988693</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="6">
         <v>7.5319900413674929</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="6">
         <v>8.8650823045267479</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="6">
         <v>10.209918827187211</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="6">
         <v>12.093162109374999</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="6">
         <v>14.34358188096591</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="6">
         <v>18.052756493934599</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="6">
         <v>43.089660493827161</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="5">
         <v>6.216585851050603E-4</v>
       </c>
     </row>
@@ -1059,40 +1068,40 @@
       <c r="G11" s="4">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="6">
         <v>2.3921589688506977</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="6">
         <v>6.3432939261342911</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="6">
         <v>7.7808340000000005</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="6">
         <v>9.4308662551440321</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="6">
         <v>12.119677208895251</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="6">
         <v>13.634462025316459</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="6">
         <v>14.15351469354189</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="6">
         <v>14.39675837974684</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="6">
         <v>17.024994625954189</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="6">
         <v>20.449633856154581</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="6">
         <v>46.57761</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -1118,40 +1127,40 @@
       <c r="G12" s="2">
         <v>2</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="6">
         <v>0.54449588477366251</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="6">
         <v>3.3027850886075938</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="6">
         <v>4.9204589321404786</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="6">
         <v>6.1925763660988693</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="6">
         <v>7.5319900413674929</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="6">
         <v>8.8650823045267479</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="6">
         <v>10.209918827187211</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="6">
         <v>12.093162109374999</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="6">
         <v>14.34358188096591</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="6">
         <v>18.052756493934599</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="6">
         <v>43.089660493827161</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="5">
         <v>4.0905134899912973E-2</v>
       </c>
     </row>
@@ -1177,40 +1186,40 @@
       <c r="G13" s="4">
         <v>3</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="6">
         <v>2.3921589688506977</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="6">
         <v>6.3432939261342911</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="6">
         <v>7.7808340000000005</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="6">
         <v>9.4308662551440321</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="6">
         <v>12.119677208895251</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="6">
         <v>13.634462025316459</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="6">
         <v>14.15351469354189</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="6">
         <v>14.39675837974684</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="6">
         <v>17.024994625954189</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="6">
         <v>20.449633856154581</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="6">
         <v>46.57761</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="5">
         <v>5.0976003978614936E-3</v>
       </c>
     </row>
@@ -1236,40 +1245,40 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="6">
         <v>2.1148227712137491</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="6">
         <v>5.2310055915414031</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="6">
         <v>8.3413183593750002</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="6">
         <v>9.2247247265624992</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="6">
         <v>11.545770042194091</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="6">
         <v>12.51341721374046</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="6">
         <v>15.100380658436219</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="6">
         <v>17.110495</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="6">
         <v>20.632932098765441</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="6">
         <v>24.108676134902261</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="6">
         <v>55.598904403866811</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="5">
         <v>2.486634340420241E-4</v>
       </c>
     </row>
@@ -1295,40 +1304,40 @@
       <c r="G15" s="4">
         <v>1</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="6">
         <v>2.5385654008438818</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="6">
         <v>6.9766913663440082</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="6">
         <v>9.253395061728396</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="6">
         <v>10.25841429521776</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="6">
         <v>11.776512345679009</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="6">
         <v>13.880933921755719</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="6">
         <v>14.448945312499999</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="6">
         <v>16.937078059071748</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="6">
         <v>17.487985480943738</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="6">
         <v>27.081190584743229</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="6">
         <v>43.072423664122141</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="5">
         <v>2.486634340420241E-4</v>
       </c>
     </row>
@@ -1354,40 +1363,40 @@
       <c r="G16" s="2">
         <v>2</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="6">
         <v>2.1148227712137491</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="6">
         <v>5.2310055915414031</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="6">
         <v>8.3413183593750002</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="6">
         <v>9.2247247265624992</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="6">
         <v>11.545770042194091</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="6">
         <v>12.51341721374046</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="6">
         <v>15.100380658436219</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="6">
         <v>17.110495</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="6">
         <v>20.632932098765441</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="6">
         <v>24.108676134902261</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="6">
         <v>55.598904403866811</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="5">
         <v>1.8649757553151809E-3</v>
       </c>
     </row>
@@ -1413,40 +1422,40 @@
       <c r="G17" s="4">
         <v>3</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="6">
         <v>2.5385654008438818</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="6">
         <v>6.9766913663440082</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="6">
         <v>9.253395061728396</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="6">
         <v>10.25841429521776</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="6">
         <v>11.776512345679009</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="6">
         <v>13.880933921755719</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="6">
         <v>14.448945312499999</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="6">
         <v>16.937078059071748</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="6">
         <v>17.487985480943738</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="6">
         <v>27.081190584743229</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="6">
         <v>43.072423664122141</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="5">
         <v>1.3676488872311329E-3</v>
       </c>
     </row>
@@ -1472,40 +1481,40 @@
       <c r="G18" s="2">
         <v>0</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="6">
         <v>0.57648734177215188</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="6">
         <v>3.5836779236641219</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="6">
         <v>5.5476953125000001</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="6">
         <v>6.9881015220054659</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="6">
         <v>8.6304989265267178</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="6">
         <v>9.997211934156379</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="6">
         <v>11.39918183444656</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="6">
         <v>13.489800421875</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="6">
         <v>15.81245122621166</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="6">
         <v>19.71048778062293</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="6">
         <v>78.631494140624994</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="5">
         <v>2.486634340420241E-4</v>
       </c>
     </row>
@@ -1531,40 +1540,40 @@
       <c r="G19" s="4">
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="6">
         <v>3.3608966244725735</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="6">
         <v>4.6757043365249062</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="6">
         <v>6.7317164921602339</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="6">
         <v>8.4807337251908397</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="6">
         <v>9.494675848101263</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="6">
         <v>10.81011619341564</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="6">
         <v>12.129468093988551</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="6">
         <v>14.195088867187501</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="6">
         <v>16.922557431304398</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="6">
         <v>19.10858854198473</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="6">
         <v>55.835715648854965</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="5">
         <v>3.729951510630362E-4</v>
       </c>
     </row>
@@ -1590,40 +1599,40 @@
       <c r="G20" s="2">
         <v>2</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="6">
         <v>0.57648734177215188</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="6">
         <v>3.5836779236641219</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="6">
         <v>5.5476953125000001</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="6">
         <v>6.9881015220054659</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="6">
         <v>8.6304989265267178</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="6">
         <v>9.997211934156379</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="6">
         <v>11.39918183444656</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="6">
         <v>13.489800421875</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="6">
         <v>15.81245122621166</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="6">
         <v>19.71048778062293</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="6">
         <v>78.631494140624994</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="5">
         <v>7.459903021260724E-4</v>
       </c>
     </row>
@@ -1649,40 +1658,40 @@
       <c r="G21" s="4">
         <v>3</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="6">
         <v>3.3608966244725735</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="6">
         <v>4.6757043365249062</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="6">
         <v>6.7317164921602339</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="6">
         <v>8.4807337251908397</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="6">
         <v>9.494675848101263</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="6">
         <v>10.81011619341564</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="6">
         <v>12.129468093988551</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="6">
         <v>14.195088867187501</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="6">
         <v>16.922557431304398</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="6">
         <v>19.10858854198473</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="6">
         <v>55.835715648854965</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="5">
         <v>3.729951510630362E-4</v>
       </c>
     </row>
@@ -1708,40 +1717,40 @@
       <c r="G22" s="2">
         <v>0</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="6">
         <v>1.1697151898734179</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="6">
         <v>5.15640429736185</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="6">
         <v>8.0239735806297716</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="6">
         <v>9.7096846192868878</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="6">
         <v>13.107079893098089</v>
       </c>
-      <c r="M22">
+      <c r="M22" s="6">
         <v>15.168771738506569</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="6">
         <v>16.869688488549638</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="6">
         <v>17.96376208248784</v>
       </c>
-      <c r="P22">
+      <c r="P22" s="6">
         <v>21.237351112828939</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="6">
         <v>27.794939390625</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="6">
         <v>98.903339694656509</v>
       </c>
-      <c r="S22">
+      <c r="S22" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1767,40 +1776,40 @@
       <c r="G23" s="4">
         <v>1</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="6">
         <v>2.9478320312499999</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="6">
         <v>5.0113507969995323</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="6">
         <v>9.7337761563506984</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="6">
         <v>12.947347580745729</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="6">
         <v>15.15560461676955</v>
       </c>
-      <c r="M23">
+      <c r="M23" s="6">
         <v>17.621838248945149</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="6">
         <v>19.961570603651992</v>
       </c>
-      <c r="O23">
+      <c r="O23" s="6">
         <v>22.377479207756231</v>
       </c>
-      <c r="P23">
+      <c r="P23" s="6">
         <v>27.951065132040643</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" s="6">
         <v>32.995386899594905</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="6">
         <v>47.96168776371308</v>
       </c>
-      <c r="S23">
+      <c r="S23" s="5">
         <v>3.729951510630362E-4</v>
       </c>
     </row>
@@ -1826,40 +1835,40 @@
       <c r="G24" s="2">
         <v>2</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="6">
         <v>1.1697151898734179</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="6">
         <v>5.15640429736185</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="6">
         <v>8.0239735806297716</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="6">
         <v>9.7096846192868878</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="6">
         <v>13.107079893098089</v>
       </c>
-      <c r="M24">
+      <c r="M24" s="6">
         <v>15.168771738506569</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="6">
         <v>16.869688488549638</v>
       </c>
-      <c r="O24">
+      <c r="O24" s="6">
         <v>17.96376208248784</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="6">
         <v>21.237351112828939</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="6">
         <v>27.794939390625</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="6">
         <v>98.903339694656509</v>
       </c>
-      <c r="S24">
+      <c r="S24" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -1885,40 +1894,40 @@
       <c r="G25" s="4">
         <v>3</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="6">
         <v>2.9478320312499999</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="6">
         <v>5.0113507969995323</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="6">
         <v>9.7337761563506984</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="6">
         <v>12.947347580745729</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="6">
         <v>15.15560461676955</v>
       </c>
-      <c r="M25">
+      <c r="M25" s="6">
         <v>17.621838248945149</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="6">
         <v>19.961570603651992</v>
       </c>
-      <c r="O25">
+      <c r="O25" s="6">
         <v>22.377479207756231</v>
       </c>
-      <c r="P25">
+      <c r="P25" s="6">
         <v>27.951065132040643</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="6">
         <v>32.995386899594905</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="6">
         <v>47.96168776371308</v>
       </c>
-      <c r="S25">
+      <c r="S25" s="5">
         <v>0</v>
       </c>
     </row>
@@ -1944,40 +1953,40 @@
       <c r="G26" s="2">
         <v>0</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="6">
         <v>0.57648734177215188</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="6">
         <v>3.5836779236641219</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="6">
         <v>5.5476953125000001</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="6">
         <v>6.9881015220054659</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="6">
         <v>8.6304989265267178</v>
       </c>
-      <c r="M26">
+      <c r="M26" s="6">
         <v>9.997211934156379</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="6">
         <v>11.39918183444656</v>
       </c>
-      <c r="O26">
+      <c r="O26" s="6">
         <v>13.489800421875</v>
       </c>
-      <c r="P26">
+      <c r="P26" s="6">
         <v>15.81245122621166</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" s="6">
         <v>19.71048778062293</v>
       </c>
-      <c r="R26">
+      <c r="R26" s="6">
         <v>78.631494140624994</v>
       </c>
-      <c r="S26">
+      <c r="S26" s="5">
         <v>2.486634340420241E-4</v>
       </c>
     </row>
@@ -2003,40 +2012,40 @@
       <c r="G27" s="4">
         <v>1</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="6">
         <v>3.3608966244725735</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="6">
         <v>4.6757043365249062</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="6">
         <v>6.7317164921602339</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="6">
         <v>8.4807337251908397</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="6">
         <v>9.494675848101263</v>
       </c>
-      <c r="M27">
+      <c r="M27" s="6">
         <v>10.81011619341564</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="6">
         <v>12.129468093988551</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="6">
         <v>14.195088867187501</v>
       </c>
-      <c r="P27">
+      <c r="P27" s="6">
         <v>16.922557431304398</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" s="6">
         <v>19.10858854198473</v>
       </c>
-      <c r="R27">
+      <c r="R27" s="6">
         <v>55.835715648854965</v>
       </c>
-      <c r="S27">
+      <c r="S27" s="5">
         <v>6.216585851050603E-4</v>
       </c>
     </row>
@@ -2062,40 +2071,40 @@
       <c r="G28" s="2">
         <v>2</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="6">
         <v>0.57648734177215188</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="6">
         <v>3.5836779236641219</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="6">
         <v>5.5476953125000001</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="6">
         <v>6.9881015220054659</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="6">
         <v>8.6304989265267178</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="6">
         <v>9.997211934156379</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="6">
         <v>11.39918183444656</v>
       </c>
-      <c r="O28">
+      <c r="O28" s="6">
         <v>13.489800421875</v>
       </c>
-      <c r="P28">
+      <c r="P28" s="6">
         <v>15.81245122621166</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" s="6">
         <v>19.71048778062293</v>
       </c>
-      <c r="R28">
+      <c r="R28" s="6">
         <v>78.631494140624994</v>
       </c>
-      <c r="S28">
+      <c r="S28" s="5">
         <v>6.7636454059430556E-2</v>
       </c>
     </row>
@@ -2121,40 +2130,40 @@
       <c r="G29" s="4">
         <v>3</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="6">
         <v>3.3608966244725735</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="6">
         <v>4.6757043365249062</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="6">
         <v>6.7317164921602339</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="6">
         <v>8.4807337251908397</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="6">
         <v>9.494675848101263</v>
       </c>
-      <c r="M29">
+      <c r="M29" s="6">
         <v>10.81011619341564</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="6">
         <v>12.129468093988551</v>
       </c>
-      <c r="O29">
+      <c r="O29" s="6">
         <v>14.195088867187501</v>
       </c>
-      <c r="P29">
+      <c r="P29" s="6">
         <v>16.922557431304398</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" s="6">
         <v>19.10858854198473</v>
       </c>
-      <c r="R29">
+      <c r="R29" s="6">
         <v>55.835715648854965</v>
       </c>
-      <c r="S29">
+      <c r="S29" s="5">
         <v>8.7032201914708437E-3</v>
       </c>
     </row>
@@ -2180,40 +2189,40 @@
       <c r="G30" s="2">
         <v>0</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="6">
         <v>1.1697151898734179</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="6">
         <v>5.15640429736185</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="6">
         <v>8.0239735806297716</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="6">
         <v>9.7096846192868878</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="6">
         <v>13.107079893098089</v>
       </c>
-      <c r="M30">
+      <c r="M30" s="6">
         <v>15.168771738506569</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="6">
         <v>16.869688488549638</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="6">
         <v>17.96376208248784</v>
       </c>
-      <c r="P30">
+      <c r="P30" s="6">
         <v>21.237351112828939</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" s="6">
         <v>27.794939390625</v>
       </c>
-      <c r="R30">
+      <c r="R30" s="6">
         <v>98.903339694656509</v>
       </c>
-      <c r="S30">
+      <c r="S30" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2239,40 +2248,40 @@
       <c r="G31" s="4">
         <v>1</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="6">
         <v>2.9478320312499999</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="6">
         <v>5.0113507969995323</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="6">
         <v>9.7337761563506984</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="6">
         <v>12.947347580745729</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="6">
         <v>15.15560461676955</v>
       </c>
-      <c r="M31">
+      <c r="M31" s="6">
         <v>17.621838248945149</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="6">
         <v>19.961570603651992</v>
       </c>
-      <c r="O31">
+      <c r="O31" s="6">
         <v>22.377479207756231</v>
       </c>
-      <c r="P31">
+      <c r="P31" s="6">
         <v>27.951065132040643</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" s="6">
         <v>32.995386899594905</v>
       </c>
-      <c r="R31">
+      <c r="R31" s="6">
         <v>47.96168776371308</v>
       </c>
-      <c r="S31">
+      <c r="S31" s="5">
         <v>2.486634340420241E-4</v>
       </c>
     </row>
@@ -2298,40 +2307,40 @@
       <c r="G32" s="2">
         <v>2</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="6">
         <v>1.1697151898734179</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="6">
         <v>5.15640429736185</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="6">
         <v>8.0239735806297716</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="6">
         <v>9.7096846192868878</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="6">
         <v>13.107079893098089</v>
       </c>
-      <c r="M32">
+      <c r="M32" s="6">
         <v>15.168771738506569</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="6">
         <v>16.869688488549638</v>
       </c>
-      <c r="O32">
+      <c r="O32" s="6">
         <v>17.96376208248784</v>
       </c>
-      <c r="P32">
+      <c r="P32" s="6">
         <v>21.237351112828939</v>
       </c>
-      <c r="Q32">
+      <c r="Q32" s="6">
         <v>27.794939390625</v>
       </c>
-      <c r="R32">
+      <c r="R32" s="6">
         <v>98.903339694656509</v>
       </c>
-      <c r="S32">
+      <c r="S32" s="5">
         <v>4.2272783787144098E-3</v>
       </c>
     </row>
@@ -2357,40 +2366,40 @@
       <c r="G33" s="4">
         <v>3</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="6">
         <v>2.9478320312499999</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="6">
         <v>5.0113507969995323</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="6">
         <v>9.7337761563506984</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="6">
         <v>12.947347580745729</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="6">
         <v>15.15560461676955</v>
       </c>
-      <c r="M33">
+      <c r="M33" s="6">
         <v>17.621838248945149</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="6">
         <v>19.961570603651992</v>
       </c>
-      <c r="O33">
+      <c r="O33" s="6">
         <v>22.377479207756231</v>
       </c>
-      <c r="P33">
+      <c r="P33" s="6">
         <v>27.951065132040643</v>
       </c>
-      <c r="Q33">
+      <c r="Q33" s="6">
         <v>32.995386899594905</v>
       </c>
-      <c r="R33">
+      <c r="R33" s="6">
         <v>47.96168776371308</v>
       </c>
-      <c r="S33">
+      <c r="S33" s="5">
         <v>3.9786149446723864E-3</v>
       </c>
     </row>
@@ -2416,40 +2425,40 @@
       <c r="G34" s="2">
         <v>0</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="6">
         <v>8.7275390625000004E-2</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="6">
         <v>3.6622253086419758</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="6">
         <v>5.4188806139232009</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="6">
         <v>7.037705896885071</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="6">
         <v>8.5308104500907458</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="6">
         <v>9.9317241173664126</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="6">
         <v>11.777870175438601</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="6">
         <v>13.628095</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="6">
         <v>15.864739441195589</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="6">
         <v>21.232329</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="6">
         <v>70.806950000000001</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="5">
         <v>4.973268680840482E-4</v>
       </c>
     </row>
@@ -2475,40 +2484,40 @@
       <c r="G35" s="4">
         <v>1</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="6">
         <v>2.496154672395273</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="6">
         <v>5.8632698892671611</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="6">
         <v>7.2686788399570368</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="6">
         <v>8.7826858877707252</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="6">
         <v>9.7416863509787905</v>
       </c>
-      <c r="M35">
+      <c r="M35" s="6">
         <v>11.44873091603054</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="6">
         <v>13.910938</v>
       </c>
-      <c r="O35">
+      <c r="O35" s="6">
         <v>17.055630085131781</v>
       </c>
-      <c r="P35">
+      <c r="P35" s="6">
         <v>19.495053333333338</v>
       </c>
-      <c r="Q35">
+      <c r="Q35" s="6">
         <v>26.732408732824428</v>
       </c>
-      <c r="R35">
+      <c r="R35" s="6">
         <v>51.61468</v>
       </c>
-      <c r="S35">
+      <c r="S35" s="5">
         <v>2.486634340420241E-4</v>
       </c>
     </row>
@@ -2534,40 +2543,40 @@
       <c r="G36" s="2">
         <v>2</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="6">
         <v>8.7275390625000004E-2</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="6">
         <v>3.6622253086419758</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="6">
         <v>5.4188806139232009</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="6">
         <v>7.037705896885071</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="6">
         <v>8.5308104500907458</v>
       </c>
-      <c r="M36">
+      <c r="M36" s="6">
         <v>9.9317241173664126</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="6">
         <v>11.777870175438601</v>
       </c>
-      <c r="O36">
+      <c r="O36" s="6">
         <v>13.628095</v>
       </c>
-      <c r="P36">
+      <c r="P36" s="6">
         <v>15.864739441195589</v>
       </c>
-      <c r="Q36">
+      <c r="Q36" s="6">
         <v>21.232329</v>
       </c>
-      <c r="R36">
+      <c r="R36" s="6">
         <v>70.806950000000001</v>
       </c>
-      <c r="S36">
+      <c r="S36" s="5">
         <v>1.3676488872311329E-3</v>
       </c>
     </row>
@@ -2593,40 +2602,40 @@
       <c r="G37" s="4">
         <v>3</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="6">
         <v>2.496154672395273</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="6">
         <v>5.8632698892671611</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="6">
         <v>7.2686788399570368</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="6">
         <v>8.7826858877707252</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="6">
         <v>9.7416863509787905</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="6">
         <v>11.44873091603054</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="6">
         <v>13.910938</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="6">
         <v>17.055630085131781</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="6">
         <v>19.495053333333338</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="6">
         <v>26.732408732824428</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="6">
         <v>51.61468</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="5">
         <v>2.486634340420241E-4</v>
       </c>
     </row>
@@ -2652,40 +2661,40 @@
       <c r="G38" s="2">
         <v>0</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="6">
         <v>1.0738683127572011</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="6">
         <v>4.551925720538792</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="6">
         <v>7.0134819298664119</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="6">
         <v>9.3051509832563699</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="6">
         <v>11.814865234375</v>
       </c>
-      <c r="M38">
+      <c r="M38" s="6">
         <v>14.348261816229011</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="6">
         <v>16.338760687022901</v>
       </c>
-      <c r="O38">
+      <c r="O38" s="6">
         <v>18.58457738818565</v>
       </c>
-      <c r="P38">
+      <c r="P38" s="6">
         <v>22.477912726462261</v>
       </c>
-      <c r="Q38">
+      <c r="Q38" s="6">
         <v>30.842407000000001</v>
       </c>
-      <c r="R38">
+      <c r="R38" s="6">
         <v>53.37075690115762</v>
       </c>
-      <c r="S38">
+      <c r="S38" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2711,40 +2720,40 @@
       <c r="G39" s="4">
         <v>1</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="6">
         <v>2.9686934156378597</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="6">
         <v>4.805974221267455</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="6">
         <v>8.6703806856851191</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="6">
         <v>11.247218106995891</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="6">
         <v>13.625821307998621</v>
       </c>
-      <c r="M39">
+      <c r="M39" s="6">
         <v>15.464482421874999</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="6">
         <v>18.96338822141561</v>
       </c>
-      <c r="O39">
+      <c r="O39" s="6">
         <v>21.310987999999998</v>
       </c>
-      <c r="P39">
+      <c r="P39" s="6">
         <v>24.786283020770323</v>
       </c>
-      <c r="Q39">
+      <c r="Q39" s="6">
         <v>28.768556295636692</v>
       </c>
-      <c r="R39">
+      <c r="R39" s="6">
         <v>37.767200000000003</v>
       </c>
-      <c r="S39">
+      <c r="S39" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -2770,40 +2779,40 @@
       <c r="G40" s="2">
         <v>2</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="6">
         <v>1.0738683127572011</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="6">
         <v>4.551925720538792</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="6">
         <v>7.0134819298664119</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="6">
         <v>9.3051509832563699</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="6">
         <v>11.814865234375</v>
       </c>
-      <c r="M40">
+      <c r="M40" s="6">
         <v>14.348261816229011</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="6">
         <v>16.338760687022901</v>
       </c>
-      <c r="O40">
+      <c r="O40" s="6">
         <v>18.58457738818565</v>
       </c>
-      <c r="P40">
+      <c r="P40" s="6">
         <v>22.477912726462261</v>
       </c>
-      <c r="Q40">
+      <c r="Q40" s="6">
         <v>30.842407000000001</v>
       </c>
-      <c r="R40">
+      <c r="R40" s="6">
         <v>53.37075690115762</v>
       </c>
-      <c r="S40">
+      <c r="S40" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2829,40 +2838,40 @@
       <c r="G41" s="4">
         <v>3</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="6">
         <v>2.9686934156378597</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="6">
         <v>4.805974221267455</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="6">
         <v>8.6703806856851191</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="6">
         <v>11.247218106995891</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="6">
         <v>13.625821307998621</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="6">
         <v>15.464482421874999</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="6">
         <v>18.96338822141561</v>
       </c>
-      <c r="O41">
+      <c r="O41" s="6">
         <v>21.310987999999998</v>
       </c>
-      <c r="P41">
+      <c r="P41" s="6">
         <v>24.786283020770323</v>
       </c>
-      <c r="Q41">
+      <c r="Q41" s="6">
         <v>28.768556295636692</v>
       </c>
-      <c r="R41">
+      <c r="R41" s="6">
         <v>37.767200000000003</v>
       </c>
-      <c r="S41">
+      <c r="S41" s="5">
         <v>4.973268680840482E-4</v>
       </c>
     </row>
@@ -2888,40 +2897,40 @@
       <c r="G42" s="2">
         <v>0</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="6">
         <v>8.7275390625000004E-2</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="6">
         <v>3.6622253086419758</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="6">
         <v>5.4188806139232009</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="6">
         <v>7.037705896885071</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="6">
         <v>8.5308104500907458</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="6">
         <v>9.9317241173664126</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="6">
         <v>11.777870175438601</v>
       </c>
-      <c r="O42">
+      <c r="O42" s="6">
         <v>13.628095</v>
       </c>
-      <c r="P42">
+      <c r="P42" s="6">
         <v>15.864739441195589</v>
       </c>
-      <c r="Q42">
+      <c r="Q42" s="6">
         <v>21.232329</v>
       </c>
-      <c r="R42">
+      <c r="R42" s="6">
         <v>70.806950000000001</v>
       </c>
-      <c r="S42">
+      <c r="S42" s="5">
         <v>9.9465373616809639E-4</v>
       </c>
     </row>
@@ -2947,40 +2956,40 @@
       <c r="G43" s="4">
         <v>1</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="6">
         <v>2.496154672395273</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="6">
         <v>5.8632698892671611</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="6">
         <v>7.2686788399570368</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="6">
         <v>8.7826858877707252</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="6">
         <v>9.7416863509787905</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="6">
         <v>11.44873091603054</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="6">
         <v>13.910938</v>
       </c>
-      <c r="O43">
+      <c r="O43" s="6">
         <v>17.055630085131781</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="6">
         <v>19.495053333333338</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="6">
         <v>26.732408732824428</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="6">
         <v>51.61468</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="5">
         <v>4.973268680840482E-4</v>
       </c>
     </row>
@@ -3006,40 +3015,40 @@
       <c r="G44" s="2">
         <v>2</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="6">
         <v>8.7275390625000004E-2</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="6">
         <v>3.6622253086419758</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="6">
         <v>5.4188806139232009</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="6">
         <v>7.037705896885071</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="6">
         <v>8.5308104500907458</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="6">
         <v>9.9317241173664126</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="6">
         <v>11.777870175438601</v>
       </c>
-      <c r="O44">
+      <c r="O44" s="6">
         <v>13.628095</v>
       </c>
-      <c r="P44">
+      <c r="P44" s="6">
         <v>15.864739441195589</v>
       </c>
-      <c r="Q44">
+      <c r="Q44" s="6">
         <v>21.232329</v>
       </c>
-      <c r="R44">
+      <c r="R44" s="6">
         <v>70.806950000000001</v>
       </c>
-      <c r="S44">
+      <c r="S44" s="5">
         <v>9.1010816859380825E-2</v>
       </c>
     </row>
@@ -3065,40 +3074,40 @@
       <c r="G45" s="4">
         <v>3</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="6">
         <v>2.496154672395273</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="6">
         <v>5.8632698892671611</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="6">
         <v>7.2686788399570368</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="6">
         <v>8.7826858877707252</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="6">
         <v>9.7416863509787905</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="6">
         <v>11.44873091603054</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="6">
         <v>13.910938</v>
       </c>
-      <c r="O45">
+      <c r="O45" s="6">
         <v>17.055630085131781</v>
       </c>
-      <c r="P45">
+      <c r="P45" s="6">
         <v>19.495053333333338</v>
       </c>
-      <c r="Q45">
+      <c r="Q45" s="6">
         <v>26.732408732824428</v>
       </c>
-      <c r="R45">
+      <c r="R45" s="6">
         <v>51.61468</v>
       </c>
-      <c r="S45">
+      <c r="S45" s="5">
         <v>1.330349372124829E-2</v>
       </c>
     </row>
@@ -3124,40 +3133,40 @@
       <c r="G46" s="2">
         <v>0</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="6">
         <v>1.0738683127572011</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="6">
         <v>4.551925720538792</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="6">
         <v>7.0134819298664119</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="6">
         <v>9.3051509832563699</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="6">
         <v>11.814865234375</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="6">
         <v>14.348261816229011</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="6">
         <v>16.338760687022901</v>
       </c>
-      <c r="O46">
+      <c r="O46" s="6">
         <v>18.58457738818565</v>
       </c>
-      <c r="P46">
+      <c r="P46" s="6">
         <v>22.477912726462261</v>
       </c>
-      <c r="Q46">
+      <c r="Q46" s="6">
         <v>30.842407000000001</v>
       </c>
-      <c r="R46">
+      <c r="R46" s="6">
         <v>53.37075690115762</v>
       </c>
-      <c r="S46">
+      <c r="S46" s="5">
         <v>3.729951510630362E-4</v>
       </c>
     </row>
@@ -3183,40 +3192,40 @@
       <c r="G47" s="4">
         <v>1</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="6">
         <v>2.9686934156378597</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="6">
         <v>4.805974221267455</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="6">
         <v>8.6703806856851191</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="6">
         <v>11.247218106995891</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="6">
         <v>13.625821307998621</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="6">
         <v>15.464482421874999</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="6">
         <v>18.96338822141561</v>
       </c>
-      <c r="O47">
+      <c r="O47" s="6">
         <v>21.310987999999998</v>
       </c>
-      <c r="P47">
+      <c r="P47" s="6">
         <v>24.786283020770323</v>
       </c>
-      <c r="Q47">
+      <c r="Q47" s="6">
         <v>28.768556295636692</v>
       </c>
-      <c r="R47">
+      <c r="R47" s="6">
         <v>37.767200000000003</v>
       </c>
-      <c r="S47">
+      <c r="S47" s="5">
         <v>8.703220191470844E-4</v>
       </c>
     </row>
@@ -3242,40 +3251,40 @@
       <c r="G48" s="2">
         <v>2</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="6">
         <v>1.0738683127572011</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="6">
         <v>4.551925720538792</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="6">
         <v>7.0134819298664119</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="6">
         <v>9.3051509832563699</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="6">
         <v>11.814865234375</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="6">
         <v>14.348261816229011</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="6">
         <v>16.338760687022901</v>
       </c>
-      <c r="O48">
+      <c r="O48" s="6">
         <v>18.58457738818565</v>
       </c>
-      <c r="P48">
+      <c r="P48" s="6">
         <v>22.477912726462261</v>
       </c>
-      <c r="Q48">
+      <c r="Q48" s="6">
         <v>30.842407000000001</v>
       </c>
-      <c r="R48">
+      <c r="R48" s="6">
         <v>53.37075690115762</v>
       </c>
-      <c r="S48">
+      <c r="S48" s="5">
         <v>5.0976003978614936E-3</v>
       </c>
     </row>
@@ -3301,40 +3310,40 @@
       <c r="G49" s="4">
         <v>3</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="6">
         <v>2.9686934156378597</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="6">
         <v>4.805974221267455</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="6">
         <v>8.6703806856851191</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="6">
         <v>11.247218106995891</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="6">
         <v>13.625821307998621</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="6">
         <v>15.464482421874999</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="6">
         <v>18.96338822141561</v>
       </c>
-      <c r="O49">
+      <c r="O49" s="6">
         <v>21.310987999999998</v>
       </c>
-      <c r="P49">
+      <c r="P49" s="6">
         <v>24.786283020770323</v>
       </c>
-      <c r="Q49">
+      <c r="Q49" s="6">
         <v>28.768556295636692</v>
       </c>
-      <c r="R49">
+      <c r="R49" s="6">
         <v>37.767200000000003</v>
       </c>
-      <c r="S49">
+      <c r="S49" s="5">
         <v>5.9679224170085792E-3</v>
       </c>
     </row>
@@ -3360,40 +3369,40 @@
       <c r="G50" s="2">
         <v>0</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="6">
         <v>0.36298664122137403</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="6">
         <v>3.9253959212376941</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="6">
         <v>5.8203544682395645</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="6">
         <v>7.7923896962286472</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="6">
         <v>9.1143035711709377</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="6">
         <v>10.777220683287171</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="6">
         <v>12.847560921875001</v>
       </c>
-      <c r="O50">
+      <c r="O50" s="6">
         <v>14.652311097046409</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="6">
         <v>16.962520501500471</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="6">
         <v>21.373634637580789</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="6">
         <v>110.0926687763713</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="5">
         <v>4.973268680840482E-4</v>
       </c>
     </row>
@@ -3419,40 +3428,40 @@
       <c r="G51" s="4">
         <v>1</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="6">
         <v>4.0371624472573844</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="6">
         <v>6.8757893255305742</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="6">
         <v>8.0329957805907188</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="6">
         <v>8.7407083750000005</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="6">
         <v>11.020537109375001</v>
       </c>
-      <c r="M51">
+      <c r="M51" s="6">
         <v>13.00297350415512</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="6">
         <v>15.18388829038112</v>
       </c>
-      <c r="O51">
+      <c r="O51" s="6">
         <v>16.29380274261603</v>
       </c>
-      <c r="P51">
+      <c r="P51" s="6">
         <v>19.571032212926291</v>
       </c>
-      <c r="Q51">
+      <c r="Q51" s="6">
         <v>24.0977656260388</v>
       </c>
-      <c r="R51">
+      <c r="R51" s="6">
         <v>75.582141350210975</v>
       </c>
-      <c r="S51">
+      <c r="S51" s="5">
         <v>4.973268680840482E-4</v>
       </c>
     </row>
@@ -3478,40 +3487,40 @@
       <c r="G52" s="2">
         <v>2</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="6">
         <v>0.36298664122137403</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="6">
         <v>3.9253959212376941</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="6">
         <v>5.8203544682395645</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="6">
         <v>7.7923896962286472</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="6">
         <v>9.1143035711709377</v>
       </c>
-      <c r="M52">
+      <c r="M52" s="6">
         <v>10.777220683287171</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="6">
         <v>12.847560921875001</v>
       </c>
-      <c r="O52">
+      <c r="O52" s="6">
         <v>14.652311097046409</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="6">
         <v>16.962520501500471</v>
       </c>
-      <c r="Q52">
+      <c r="Q52" s="6">
         <v>21.373634637580789</v>
       </c>
-      <c r="R52">
+      <c r="R52" s="6">
         <v>110.0926687763713</v>
       </c>
-      <c r="S52">
+      <c r="S52" s="5">
         <v>2.237970906378217E-3</v>
       </c>
     </row>
@@ -3537,40 +3546,40 @@
       <c r="G53" s="4">
         <v>3</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="6">
         <v>4.0371624472573844</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="6">
         <v>6.8757893255305742</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="6">
         <v>8.0329957805907188</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="6">
         <v>8.7407083750000005</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="6">
         <v>11.020537109375001</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="6">
         <v>13.00297350415512</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="6">
         <v>15.18388829038112</v>
       </c>
-      <c r="O53">
+      <c r="O53" s="6">
         <v>16.29380274261603</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="6">
         <v>19.571032212926291</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" s="6">
         <v>24.0977656260388</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="6">
         <v>75.582141350210975</v>
       </c>
-      <c r="S53">
+      <c r="S53" s="5">
         <v>3.729951510630362E-4</v>
       </c>
     </row>
@@ -3596,40 +3605,40 @@
       <c r="G54" s="2">
         <v>0</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="6">
         <v>2.1354242749731482</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="6">
         <v>4.7762877734374998</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="6">
         <v>7.4728632594204978</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="6">
         <v>9.689548828125</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="6">
         <v>11.876012749999999</v>
       </c>
-      <c r="M54">
+      <c r="M54" s="6">
         <v>14.427649727767699</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="6">
         <v>16.78614105749508</v>
       </c>
-      <c r="O54">
+      <c r="O54" s="6">
         <v>18.961078000000001</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="6">
         <v>22.156904120447891</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="6">
         <v>30.171791320406328</v>
       </c>
-      <c r="R54">
+      <c r="R54" s="6">
         <v>70.839391428571403</v>
       </c>
-      <c r="S54">
+      <c r="S54" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -3655,40 +3664,40 @@
       <c r="G55" s="4">
         <v>1</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="6">
         <v>1.839367088607595</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="6">
         <v>3.8443399999999999</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="6">
         <v>7.9566764322916699</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="6">
         <v>10.5547</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="6">
         <v>14.117525392428441</v>
       </c>
-      <c r="M55">
+      <c r="M55" s="6">
         <v>16.70009074410163</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="6">
         <v>20.113669999999999</v>
       </c>
-      <c r="O55">
+      <c r="O55" s="6">
         <v>22.661708217913201</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="6">
         <v>29.339189453125002</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" s="6">
         <v>37.889091796875</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="6">
         <v>80.564341603053435</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="5">
         <v>7.459903021260724E-4</v>
       </c>
     </row>
@@ -3714,40 +3723,40 @@
       <c r="G56" s="2">
         <v>2</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="6">
         <v>2.1354242749731482</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="6">
         <v>4.7762877734374998</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="6">
         <v>7.4728632594204978</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="6">
         <v>9.689548828125</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="6">
         <v>11.876012749999999</v>
       </c>
-      <c r="M56">
+      <c r="M56" s="6">
         <v>14.427649727767699</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="6">
         <v>16.78614105749508</v>
       </c>
-      <c r="O56">
+      <c r="O56" s="6">
         <v>18.961078000000001</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="6">
         <v>22.156904120447891</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" s="6">
         <v>30.171791320406328</v>
       </c>
-      <c r="R56">
+      <c r="R56" s="6">
         <v>70.839391428571403</v>
       </c>
-      <c r="S56">
+      <c r="S56" s="5">
         <v>2.486634340420241E-4</v>
       </c>
     </row>
@@ -3773,40 +3782,40 @@
       <c r="G57" s="4">
         <v>3</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="6">
         <v>1.839367088607595</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="6">
         <v>3.8443399999999999</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="6">
         <v>7.9566764322916699</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="6">
         <v>10.5547</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="6">
         <v>14.117525392428441</v>
       </c>
-      <c r="M57">
+      <c r="M57" s="6">
         <v>16.70009074410163</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="6">
         <v>20.113669999999999</v>
       </c>
-      <c r="O57">
+      <c r="O57" s="6">
         <v>22.661708217913201</v>
       </c>
-      <c r="P57">
+      <c r="P57" s="6">
         <v>29.339189453125002</v>
       </c>
-      <c r="Q57">
+      <c r="Q57" s="6">
         <v>37.889091796875</v>
       </c>
-      <c r="R57">
+      <c r="R57" s="6">
         <v>80.564341603053435</v>
       </c>
-      <c r="S57">
+      <c r="S57" s="5">
         <v>2.486634340420241E-4</v>
       </c>
     </row>
@@ -3832,40 +3841,40 @@
       <c r="G58" s="2">
         <v>0</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="6">
         <v>0.36298664122137403</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="6">
         <v>3.9253959212376941</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="6">
         <v>5.8203544682395645</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="6">
         <v>7.7923896962286472</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="6">
         <v>9.1143035711709377</v>
       </c>
-      <c r="M58">
+      <c r="M58" s="6">
         <v>10.777220683287171</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="6">
         <v>12.847560921875001</v>
       </c>
-      <c r="O58">
+      <c r="O58" s="6">
         <v>14.652311097046409</v>
       </c>
-      <c r="P58">
+      <c r="P58" s="6">
         <v>16.962520501500471</v>
       </c>
-      <c r="Q58">
+      <c r="Q58" s="6">
         <v>21.373634637580789</v>
       </c>
-      <c r="R58">
+      <c r="R58" s="6">
         <v>110.0926687763713</v>
       </c>
-      <c r="S58">
+      <c r="S58" s="5">
         <v>1.491980604252145E-3</v>
       </c>
     </row>
@@ -3891,40 +3900,40 @@
       <c r="G59" s="4">
         <v>1</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="6">
         <v>4.0371624472573844</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="6">
         <v>6.8757893255305742</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="6">
         <v>8.0329957805907188</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="6">
         <v>8.7407083750000005</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="6">
         <v>11.020537109375001</v>
       </c>
-      <c r="M59">
+      <c r="M59" s="6">
         <v>13.00297350415512</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="6">
         <v>15.18388829038112</v>
       </c>
-      <c r="O59">
+      <c r="O59" s="6">
         <v>16.29380274261603</v>
       </c>
-      <c r="P59">
+      <c r="P59" s="6">
         <v>19.571032212926291</v>
       </c>
-      <c r="Q59">
+      <c r="Q59" s="6">
         <v>24.0977656260388</v>
       </c>
-      <c r="R59">
+      <c r="R59" s="6">
         <v>75.582141350210975</v>
       </c>
-      <c r="S59">
+      <c r="S59" s="5">
         <v>9.9465373616809639E-4</v>
       </c>
     </row>
@@ -3950,40 +3959,40 @@
       <c r="G60" s="2">
         <v>2</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="6">
         <v>0.36298664122137403</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="6">
         <v>3.9253959212376941</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="6">
         <v>5.8203544682395645</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="6">
         <v>7.7923896962286472</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="6">
         <v>9.1143035711709377</v>
       </c>
-      <c r="M60">
+      <c r="M60" s="6">
         <v>10.777220683287171</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="6">
         <v>12.847560921875001</v>
       </c>
-      <c r="O60">
+      <c r="O60" s="6">
         <v>14.652311097046409</v>
       </c>
-      <c r="P60">
+      <c r="P60" s="6">
         <v>16.962520501500471</v>
       </c>
-      <c r="Q60">
+      <c r="Q60" s="6">
         <v>21.373634637580789</v>
       </c>
-      <c r="R60">
+      <c r="R60" s="6">
         <v>110.0926687763713</v>
       </c>
-      <c r="S60">
+      <c r="S60" s="5">
         <v>0.1117742136018898</v>
       </c>
     </row>
@@ -4009,40 +4018,40 @@
       <c r="G61" s="4">
         <v>3</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="6">
         <v>4.0371624472573844</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="6">
         <v>6.8757893255305742</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="6">
         <v>8.0329957805907188</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="6">
         <v>8.7407083750000005</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="6">
         <v>11.020537109375001</v>
       </c>
-      <c r="M61">
+      <c r="M61" s="6">
         <v>13.00297350415512</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="6">
         <v>15.18388829038112</v>
       </c>
-      <c r="O61">
+      <c r="O61" s="6">
         <v>16.29380274261603</v>
       </c>
-      <c r="P61">
+      <c r="P61" s="6">
         <v>19.571032212926291</v>
       </c>
-      <c r="Q61">
+      <c r="Q61" s="6">
         <v>24.0977656260388</v>
       </c>
-      <c r="R61">
+      <c r="R61" s="6">
         <v>75.582141350210975</v>
       </c>
-      <c r="S61">
+      <c r="S61" s="5">
         <v>2.088772845953003E-2</v>
       </c>
     </row>
@@ -4068,40 +4077,40 @@
       <c r="G62" s="2">
         <v>0</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="6">
         <v>2.1354242749731482</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="6">
         <v>4.7762877734374998</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="6">
         <v>7.4728632594204978</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="6">
         <v>9.689548828125</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="6">
         <v>11.876012749999999</v>
       </c>
-      <c r="M62">
+      <c r="M62" s="6">
         <v>14.427649727767699</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="6">
         <v>16.78614105749508</v>
       </c>
-      <c r="O62">
+      <c r="O62" s="6">
         <v>18.961078000000001</v>
       </c>
-      <c r="P62">
+      <c r="P62" s="6">
         <v>22.156904120447891</v>
       </c>
-      <c r="Q62">
+      <c r="Q62" s="6">
         <v>30.171791320406328</v>
       </c>
-      <c r="R62">
+      <c r="R62" s="6">
         <v>70.839391428571403</v>
       </c>
-      <c r="S62">
+      <c r="S62" s="5">
         <v>3.729951510630362E-4</v>
       </c>
     </row>
@@ -4127,40 +4136,40 @@
       <c r="G63" s="4">
         <v>1</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="6">
         <v>1.839367088607595</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="6">
         <v>3.8443399999999999</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="6">
         <v>7.9566764322916699</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="6">
         <v>10.5547</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="6">
         <v>14.117525392428441</v>
       </c>
-      <c r="M63">
+      <c r="M63" s="6">
         <v>16.70009074410163</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="6">
         <v>20.113669999999999</v>
       </c>
-      <c r="O63">
+      <c r="O63" s="6">
         <v>22.661708217913201</v>
       </c>
-      <c r="P63">
+      <c r="P63" s="6">
         <v>29.339189453125002</v>
       </c>
-      <c r="Q63">
+      <c r="Q63" s="6">
         <v>37.889091796875</v>
       </c>
-      <c r="R63">
+      <c r="R63" s="6">
         <v>80.564341603053435</v>
       </c>
-      <c r="S63">
+      <c r="S63" s="5">
         <v>2.486634340420241E-4</v>
       </c>
     </row>
@@ -4186,40 +4195,40 @@
       <c r="G64" s="2">
         <v>2</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="6">
         <v>2.1354242749731482</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="6">
         <v>4.7762877734374998</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="6">
         <v>7.4728632594204978</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="6">
         <v>9.689548828125</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="6">
         <v>11.876012749999999</v>
       </c>
-      <c r="M64">
+      <c r="M64" s="6">
         <v>14.427649727767699</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="6">
         <v>16.78614105749508</v>
       </c>
-      <c r="O64">
+      <c r="O64" s="6">
         <v>18.961078000000001</v>
       </c>
-      <c r="P64">
+      <c r="P64" s="6">
         <v>22.156904120447891</v>
       </c>
-      <c r="Q64">
+      <c r="Q64" s="6">
         <v>30.171791320406328</v>
       </c>
-      <c r="R64">
+      <c r="R64" s="6">
         <v>70.839391428571403</v>
       </c>
-      <c r="S64">
+      <c r="S64" s="5">
         <v>7.5842347382817357E-3</v>
       </c>
     </row>
@@ -4245,40 +4254,40 @@
       <c r="G65" s="4">
         <v>3</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="6">
         <v>1.839367088607595</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="6">
         <v>3.8443399999999999</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="6">
         <v>7.9566764322916699</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="6">
         <v>10.5547</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="6">
         <v>14.117525392428441</v>
       </c>
-      <c r="M65">
+      <c r="M65" s="6">
         <v>16.70009074410163</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="6">
         <v>20.113669999999999</v>
       </c>
-      <c r="O65">
+      <c r="O65" s="6">
         <v>22.661708217913201</v>
       </c>
-      <c r="P65">
+      <c r="P65" s="6">
         <v>29.339189453125002</v>
       </c>
-      <c r="Q65">
+      <c r="Q65" s="6">
         <v>37.889091796875</v>
       </c>
-      <c r="R65">
+      <c r="R65" s="6">
         <v>80.564341603053435</v>
       </c>
-      <c r="S65">
+      <c r="S65" s="5">
         <v>8.7032201914708437E-3</v>
       </c>
     </row>
@@ -4304,40 +4313,40 @@
       <c r="G66" s="2">
         <v>0</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="6">
         <v>0.47721679687500002</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="6">
         <v>4.0104523493254147</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="6">
         <v>6.04470054446461</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="6">
         <v>7.5634003055071064</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="6">
         <v>9.269675572519084</v>
       </c>
-      <c r="M66">
+      <c r="M66" s="6">
         <v>10.593566739451001</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="6">
         <v>12.35365</v>
       </c>
-      <c r="O66">
+      <c r="O66" s="6">
         <v>14.5060371399177</v>
       </c>
-      <c r="P66">
+      <c r="P66" s="6">
         <v>17.09028</v>
       </c>
-      <c r="Q66">
+      <c r="Q66" s="6">
         <v>22.073692968749999</v>
       </c>
-      <c r="R66">
+      <c r="R66" s="6">
         <v>73.350458984374995</v>
       </c>
-      <c r="S66">
+      <c r="S66" s="5">
         <v>1.1189854531891081E-3</v>
       </c>
     </row>
@@ -4363,40 +4372,40 @@
       <c r="G67" s="4">
         <v>1</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="6">
         <v>0.62017578124999995</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="6">
         <v>6.6967579800600783</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="6">
         <v>8.2986873580246918</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="6">
         <v>10.211143280160471</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="6">
         <v>13.141307572573471</v>
       </c>
-      <c r="M67">
+      <c r="M67" s="6">
         <v>14.166525</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="6">
         <v>16.960998627885502</v>
       </c>
-      <c r="O67">
+      <c r="O67" s="6">
         <v>19.381079437500002</v>
       </c>
-      <c r="P67">
+      <c r="P67" s="6">
         <v>24.007263811634349</v>
       </c>
-      <c r="Q67">
+      <c r="Q67" s="6">
         <v>30.452266444444462</v>
       </c>
-      <c r="R67">
+      <c r="R67" s="6">
         <v>91.403887349953834</v>
       </c>
-      <c r="S67">
+      <c r="S67" s="5">
         <v>4.973268680840482E-4</v>
       </c>
     </row>
@@ -4422,40 +4431,40 @@
       <c r="G68" s="2">
         <v>2</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="6">
         <v>0.47721679687500002</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="6">
         <v>4.0104523493254147</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="6">
         <v>6.04470054446461</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="6">
         <v>7.5634003055071064</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="6">
         <v>9.269675572519084</v>
       </c>
-      <c r="M68">
+      <c r="M68" s="6">
         <v>10.593566739451001</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="6">
         <v>12.35365</v>
       </c>
-      <c r="O68">
+      <c r="O68" s="6">
         <v>14.5060371399177</v>
       </c>
-      <c r="P68">
+      <c r="P68" s="6">
         <v>17.09028</v>
       </c>
-      <c r="Q68">
+      <c r="Q68" s="6">
         <v>22.073692968749999</v>
       </c>
-      <c r="R68">
+      <c r="R68" s="6">
         <v>73.350458984374995</v>
       </c>
-      <c r="S68">
+      <c r="S68" s="5">
         <v>2.237970906378217E-3</v>
       </c>
     </row>
@@ -4481,40 +4490,40 @@
       <c r="G69" s="4">
         <v>3</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="6">
         <v>0.62017578124999995</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="6">
         <v>6.6967579800600783</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="6">
         <v>8.2986873580246918</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="6">
         <v>10.211143280160471</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="6">
         <v>13.141307572573471</v>
       </c>
-      <c r="M69">
+      <c r="M69" s="6">
         <v>14.166525</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="6">
         <v>16.960998627885502</v>
       </c>
-      <c r="O69">
+      <c r="O69" s="6">
         <v>19.381079437500002</v>
       </c>
-      <c r="P69">
+      <c r="P69" s="6">
         <v>24.007263811634349</v>
       </c>
-      <c r="Q69">
+      <c r="Q69" s="6">
         <v>30.452266444444462</v>
       </c>
-      <c r="R69">
+      <c r="R69" s="6">
         <v>91.403887349953834</v>
       </c>
-      <c r="S69">
+      <c r="S69" s="5">
         <v>3.729951510630362E-4</v>
       </c>
     </row>
@@ -4540,40 +4549,40 @@
       <c r="G70" s="2">
         <v>0</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="6">
         <v>0.7629423868312758</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="6">
         <v>6.8481139999999998</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="6">
         <v>8.9217313924050625</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="6">
         <v>11.009604</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="6">
         <v>12.921591578896509</v>
       </c>
-      <c r="M70">
+      <c r="M70" s="6">
         <v>14.609462025316461</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="6">
         <v>16.627009375</v>
       </c>
-      <c r="O70">
+      <c r="O70" s="6">
         <v>19.631711546875</v>
       </c>
-      <c r="P70">
+      <c r="P70" s="6">
         <v>23.479561753749174</v>
       </c>
-      <c r="Q70">
+      <c r="Q70" s="6">
         <v>30.846968435826408</v>
       </c>
-      <c r="R70">
+      <c r="R70" s="6">
         <v>58.154754990925568</v>
       </c>
-      <c r="S70">
+      <c r="S70" s="5">
         <v>0</v>
       </c>
     </row>
@@ -4599,40 +4608,40 @@
       <c r="G71" s="4">
         <v>1</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="6">
         <v>2.15532667876588</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="6">
         <v>8.1659176008483367</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="6">
         <v>11.01791450632911</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="6">
         <v>14.30351484308736</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="6">
         <v>16.711660671874998</v>
       </c>
-      <c r="M71">
+      <c r="M71" s="6">
         <v>19.498062977099238</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="6">
         <v>22.254230900763361</v>
       </c>
-      <c r="O71">
+      <c r="O71" s="6">
         <v>24.949844440371631</v>
       </c>
-      <c r="P71">
+      <c r="P71" s="6">
         <v>29.152473609375008</v>
       </c>
-      <c r="Q71">
+      <c r="Q71" s="6">
         <v>36.425375039648138</v>
       </c>
-      <c r="R71">
+      <c r="R71" s="6">
         <v>57.608820000000001</v>
       </c>
-      <c r="S71">
+      <c r="S71" s="5">
         <v>6.216585851050603E-4</v>
       </c>
     </row>
@@ -4658,40 +4667,40 @@
       <c r="G72" s="2">
         <v>2</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="6">
         <v>0.7629423868312758</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="6">
         <v>6.8481139999999998</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="6">
         <v>8.9217313924050625</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="6">
         <v>11.009604</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="6">
         <v>12.921591578896509</v>
       </c>
-      <c r="M72">
+      <c r="M72" s="6">
         <v>14.609462025316461</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="6">
         <v>16.627009375</v>
       </c>
-      <c r="O72">
+      <c r="O72" s="6">
         <v>19.631711546875</v>
       </c>
-      <c r="P72">
+      <c r="P72" s="6">
         <v>23.479561753749174</v>
       </c>
-      <c r="Q72">
+      <c r="Q72" s="6">
         <v>30.846968435826408</v>
       </c>
-      <c r="R72">
+      <c r="R72" s="6">
         <v>58.154754990925568</v>
       </c>
-      <c r="S72">
+      <c r="S72" s="5">
         <v>4.973268680840482E-4</v>
       </c>
     </row>
@@ -4717,40 +4726,40 @@
       <c r="G73" s="4">
         <v>3</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="6">
         <v>2.15532667876588</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="6">
         <v>8.1659176008483367</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="6">
         <v>11.01791450632911</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="6">
         <v>14.30351484308736</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="6">
         <v>16.711660671874998</v>
       </c>
-      <c r="M73">
+      <c r="M73" s="6">
         <v>19.498062977099238</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="6">
         <v>22.254230900763361</v>
       </c>
-      <c r="O73">
+      <c r="O73" s="6">
         <v>24.949844440371631</v>
       </c>
-      <c r="P73">
+      <c r="P73" s="6">
         <v>29.152473609375008</v>
       </c>
-      <c r="Q73">
+      <c r="Q73" s="6">
         <v>36.425375039648138</v>
       </c>
-      <c r="R73">
+      <c r="R73" s="6">
         <v>57.608820000000001</v>
       </c>
-      <c r="S73">
+      <c r="S73" s="5">
         <v>8.703220191470844E-4</v>
       </c>
     </row>
@@ -4776,40 +4785,40 @@
       <c r="G74" s="2">
         <v>0</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="6">
         <v>0.47721679687500002</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="6">
         <v>4.0104523493254147</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="6">
         <v>6.04470054446461</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="6">
         <v>7.5634003055071064</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="6">
         <v>9.269675572519084</v>
       </c>
-      <c r="M74">
+      <c r="M74" s="6">
         <v>10.593566739451001</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="6">
         <v>12.35365</v>
       </c>
-      <c r="O74">
+      <c r="O74" s="6">
         <v>14.5060371399177</v>
       </c>
-      <c r="P74">
+      <c r="P74" s="6">
         <v>17.09028</v>
       </c>
-      <c r="Q74">
+      <c r="Q74" s="6">
         <v>22.073692968749999</v>
       </c>
-      <c r="R74">
+      <c r="R74" s="6">
         <v>73.350458984374995</v>
       </c>
-      <c r="S74">
+      <c r="S74" s="5">
         <v>1.243317170210121E-3</v>
       </c>
     </row>
@@ -4835,40 +4844,40 @@
       <c r="G75" s="4">
         <v>1</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="6">
         <v>0.62017578124999995</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="6">
         <v>6.6967579800600783</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="6">
         <v>8.2986873580246918</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="6">
         <v>10.211143280160471</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="6">
         <v>13.141307572573471</v>
       </c>
-      <c r="M75">
+      <c r="M75" s="6">
         <v>14.166525</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="6">
         <v>16.960998627885502</v>
       </c>
-      <c r="O75">
+      <c r="O75" s="6">
         <v>19.381079437500002</v>
       </c>
-      <c r="P75">
+      <c r="P75" s="6">
         <v>24.007263811634349</v>
       </c>
-      <c r="Q75">
+      <c r="Q75" s="6">
         <v>30.452266444444462</v>
       </c>
-      <c r="R75">
+      <c r="R75" s="6">
         <v>91.403887349953834</v>
       </c>
-      <c r="S75">
+      <c r="S75" s="5">
         <v>1.3676488872311329E-3</v>
       </c>
     </row>
@@ -4894,40 +4903,40 @@
       <c r="G76" s="2">
         <v>2</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="6">
         <v>0.47721679687500002</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="6">
         <v>4.0104523493254147</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="6">
         <v>6.04470054446461</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="6">
         <v>7.5634003055071064</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="6">
         <v>9.269675572519084</v>
       </c>
-      <c r="M76">
+      <c r="M76" s="6">
         <v>10.593566739451001</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="6">
         <v>12.35365</v>
       </c>
-      <c r="O76">
+      <c r="O76" s="6">
         <v>14.5060371399177</v>
       </c>
-      <c r="P76">
+      <c r="P76" s="6">
         <v>17.09028</v>
       </c>
-      <c r="Q76">
+      <c r="Q76" s="6">
         <v>22.073692968749999</v>
       </c>
-      <c r="R76">
+      <c r="R76" s="6">
         <v>73.350458984374995</v>
       </c>
-      <c r="S76">
+      <c r="S76" s="5">
         <v>0.1219694143976128</v>
       </c>
     </row>
@@ -4953,40 +4962,40 @@
       <c r="G77" s="4">
         <v>3</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="6">
         <v>0.62017578124999995</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="6">
         <v>6.6967579800600783</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="6">
         <v>8.2986873580246918</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="6">
         <v>10.211143280160471</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="6">
         <v>13.141307572573471</v>
       </c>
-      <c r="M77">
+      <c r="M77" s="6">
         <v>14.166525</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="6">
         <v>16.960998627885502</v>
       </c>
-      <c r="O77">
+      <c r="O77" s="6">
         <v>19.381079437500002</v>
       </c>
-      <c r="P77">
+      <c r="P77" s="6">
         <v>24.007263811634349</v>
       </c>
-      <c r="Q77">
+      <c r="Q77" s="6">
         <v>30.452266444444462</v>
       </c>
-      <c r="R77">
+      <c r="R77" s="6">
         <v>91.403887349953834</v>
       </c>
-      <c r="S77">
+      <c r="S77" s="5">
         <v>2.1260723610593061E-2</v>
       </c>
     </row>
@@ -5012,40 +5021,40 @@
       <c r="G78" s="2">
         <v>0</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="6">
         <v>0.7629423868312758</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="6">
         <v>6.8481139999999998</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="6">
         <v>8.9217313924050625</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="6">
         <v>11.009604</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="6">
         <v>12.921591578896509</v>
       </c>
-      <c r="M78">
+      <c r="M78" s="6">
         <v>14.609462025316461</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="6">
         <v>16.627009375</v>
       </c>
-      <c r="O78">
+      <c r="O78" s="6">
         <v>19.631711546875</v>
       </c>
-      <c r="P78">
+      <c r="P78" s="6">
         <v>23.479561753749174</v>
       </c>
-      <c r="Q78">
+      <c r="Q78" s="6">
         <v>30.846968435826408</v>
       </c>
-      <c r="R78">
+      <c r="R78" s="6">
         <v>58.154754990925568</v>
       </c>
-      <c r="S78">
+      <c r="S78" s="5">
         <v>3.729951510630362E-4</v>
       </c>
     </row>
@@ -5071,40 +5080,40 @@
       <c r="G79" s="4">
         <v>1</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="6">
         <v>2.15532667876588</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="6">
         <v>8.1659176008483367</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="6">
         <v>11.01791450632911</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="6">
         <v>14.30351484308736</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="6">
         <v>16.711660671874998</v>
       </c>
-      <c r="M79">
+      <c r="M79" s="6">
         <v>19.498062977099238</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="6">
         <v>22.254230900763361</v>
       </c>
-      <c r="O79">
+      <c r="O79" s="6">
         <v>24.949844440371631</v>
       </c>
-      <c r="P79">
+      <c r="P79" s="6">
         <v>29.152473609375008</v>
       </c>
-      <c r="Q79">
+      <c r="Q79" s="6">
         <v>36.425375039648138</v>
       </c>
-      <c r="R79">
+      <c r="R79" s="6">
         <v>57.608820000000001</v>
       </c>
-      <c r="S79">
+      <c r="S79" s="5">
         <v>1.3676488872311329E-3</v>
       </c>
     </row>
@@ -5130,40 +5139,40 @@
       <c r="G80" s="2">
         <v>2</v>
       </c>
-      <c r="H80">
+      <c r="H80" s="6">
         <v>0.7629423868312758</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="6">
         <v>6.8481139999999998</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="6">
         <v>8.9217313924050625</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="6">
         <v>11.009604</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="6">
         <v>12.921591578896509</v>
       </c>
-      <c r="M80">
+      <c r="M80" s="6">
         <v>14.609462025316461</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="6">
         <v>16.627009375</v>
       </c>
-      <c r="O80">
+      <c r="O80" s="6">
         <v>19.631711546875</v>
       </c>
-      <c r="P80">
+      <c r="P80" s="6">
         <v>23.479561753749174</v>
       </c>
-      <c r="Q80">
+      <c r="Q80" s="6">
         <v>30.846968435826408</v>
       </c>
-      <c r="R80">
+      <c r="R80" s="6">
         <v>58.154754990925568</v>
       </c>
-      <c r="S80">
+      <c r="S80" s="5">
         <v>9.3248787765759043E-3</v>
       </c>
     </row>
@@ -5189,40 +5198,40 @@
       <c r="G81" s="4">
         <v>3</v>
       </c>
-      <c r="H81">
+      <c r="H81" s="6">
         <v>2.15532667876588</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="6">
         <v>8.1659176008483367</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="6">
         <v>11.01791450632911</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="6">
         <v>14.30351484308736</v>
       </c>
-      <c r="L81">
+      <c r="L81" s="6">
         <v>16.711660671874998</v>
       </c>
-      <c r="M81">
+      <c r="M81" s="6">
         <v>19.498062977099238</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="6">
         <v>22.254230900763361</v>
       </c>
-      <c r="O81">
+      <c r="O81" s="6">
         <v>24.949844440371631</v>
       </c>
-      <c r="P81">
+      <c r="P81" s="6">
         <v>29.152473609375008</v>
       </c>
-      <c r="Q81">
+      <c r="Q81" s="6">
         <v>36.425375039648138</v>
       </c>
-      <c r="R81">
+      <c r="R81" s="6">
         <v>57.608820000000001</v>
       </c>
-      <c r="S81">
+      <c r="S81" s="5">
         <v>9.2005470595548922E-3</v>
       </c>
     </row>
@@ -5248,40 +5257,40 @@
       <c r="G82" s="2">
         <v>0</v>
       </c>
-      <c r="H82">
+      <c r="H82" s="6">
         <v>0.33471193415637862</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="6">
         <v>4.2170353991769547</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="6">
         <v>6.0866842250878577</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="6">
         <v>7.7005138765432104</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="6">
         <v>8.9938760000000002</v>
       </c>
-      <c r="M82">
+      <c r="M82" s="6">
         <v>10.651862139917689</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="6">
         <v>12.33949042831216</v>
       </c>
-      <c r="O82">
+      <c r="O82" s="6">
         <v>14.081077349713741</v>
       </c>
-      <c r="P82">
+      <c r="P82" s="6">
         <v>16.948515435114501</v>
       </c>
-      <c r="Q82">
+      <c r="Q82" s="6">
         <v>21.419370747076609</v>
       </c>
-      <c r="R82">
+      <c r="R82" s="6">
         <v>87.685649999999995</v>
       </c>
-      <c r="S82">
+      <c r="S82" s="5">
         <v>6.216585851050603E-4</v>
       </c>
     </row>
@@ -5307,40 +5316,40 @@
       <c r="G83" s="4">
         <v>1</v>
       </c>
-      <c r="H83">
+      <c r="H83" s="6">
         <v>1.1682921810699591</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="6">
         <v>6.3063760000000002</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="6">
         <v>7.5530523159042637</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="6">
         <v>8.8675625</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="6">
         <v>10.558250183206109</v>
       </c>
-      <c r="M83">
+      <c r="M83" s="6">
         <v>11.68690655209452</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="6">
         <v>13.812572416756181</v>
       </c>
-      <c r="O83">
+      <c r="O83" s="6">
         <v>16.41449517508056</v>
       </c>
-      <c r="P83">
+      <c r="P83" s="6">
         <v>18.73211953462604</v>
       </c>
-      <c r="Q83">
+      <c r="Q83" s="6">
         <v>22.924876297640651</v>
       </c>
-      <c r="R83">
+      <c r="R83" s="6">
         <v>60.497309999999999</v>
       </c>
-      <c r="S83">
+      <c r="S83" s="5">
         <v>3.729951510630362E-4</v>
       </c>
     </row>
@@ -5366,40 +5375,40 @@
       <c r="G84" s="2">
         <v>2</v>
       </c>
-      <c r="H84">
+      <c r="H84" s="6">
         <v>0.33471193415637862</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="6">
         <v>4.2170353991769547</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="6">
         <v>6.0866842250878577</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="6">
         <v>7.7005138765432104</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="6">
         <v>8.9938760000000002</v>
       </c>
-      <c r="M84">
+      <c r="M84" s="6">
         <v>10.651862139917689</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="6">
         <v>12.33949042831216</v>
       </c>
-      <c r="O84">
+      <c r="O84" s="6">
         <v>14.081077349713741</v>
       </c>
-      <c r="P84">
+      <c r="P84" s="6">
         <v>16.948515435114501</v>
       </c>
-      <c r="Q84">
+      <c r="Q84" s="6">
         <v>21.419370747076609</v>
       </c>
-      <c r="R84">
+      <c r="R84" s="6">
         <v>87.685649999999995</v>
       </c>
-      <c r="S84">
+      <c r="S84" s="5">
         <v>1.3676488872311329E-3</v>
       </c>
     </row>
@@ -5425,40 +5434,40 @@
       <c r="G85" s="4">
         <v>3</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="6">
         <v>1.1682921810699591</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="6">
         <v>6.3063760000000002</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="6">
         <v>7.5530523159042637</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="6">
         <v>8.8675625</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="6">
         <v>10.558250183206109</v>
       </c>
-      <c r="M85">
+      <c r="M85" s="6">
         <v>11.68690655209452</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="6">
         <v>13.812572416756181</v>
       </c>
-      <c r="O85">
+      <c r="O85" s="6">
         <v>16.41449517508056</v>
       </c>
-      <c r="P85">
+      <c r="P85" s="6">
         <v>18.73211953462604</v>
       </c>
-      <c r="Q85">
+      <c r="Q85" s="6">
         <v>22.924876297640651</v>
       </c>
-      <c r="R85">
+      <c r="R85" s="6">
         <v>60.497309999999999</v>
       </c>
-      <c r="S85">
+      <c r="S85" s="5">
         <v>2.486634340420241E-4</v>
       </c>
     </row>
@@ -5484,40 +5493,40 @@
       <c r="G86" s="2">
         <v>0</v>
       </c>
-      <c r="H86">
+      <c r="H86" s="6">
         <v>1.4637690839694659</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="6">
         <v>6.6970318239190991</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="6">
         <v>8.3890452446906743</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="6">
         <v>10.808166752163061</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="6">
         <v>12.306529893249049</v>
       </c>
-      <c r="M86">
+      <c r="M86" s="6">
         <v>14.21725190839695</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="6">
         <v>16.285162</v>
       </c>
-      <c r="O86">
+      <c r="O86" s="6">
         <v>18.873180166204978</v>
       </c>
-      <c r="P86">
+      <c r="P86" s="6">
         <v>22.943038116343491</v>
       </c>
-      <c r="Q86">
+      <c r="Q86" s="6">
         <v>26.218776000000009</v>
       </c>
-      <c r="R86">
+      <c r="R86" s="6">
         <v>55.206669691470054</v>
       </c>
-      <c r="S86">
+      <c r="S86" s="5">
         <v>0</v>
       </c>
     </row>
@@ -5543,40 +5552,40 @@
       <c r="G87" s="4">
         <v>1</v>
       </c>
-      <c r="H87">
+      <c r="H87" s="6">
         <v>1.4740997229916899</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="6">
         <v>7.7693447191668135</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="6">
         <v>11.239554820803368</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="6">
         <v>13.07894468313641</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="6">
         <v>14.375578224113099</v>
       </c>
-      <c r="M87">
+      <c r="M87" s="6">
         <v>16.013120361529932</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="6">
         <v>18.611569609375</v>
       </c>
-      <c r="O87">
+      <c r="O87" s="6">
         <v>21.600739773569099</v>
       </c>
-      <c r="P87">
+      <c r="P87" s="6">
         <v>26.666127296874997</v>
       </c>
-      <c r="Q87">
+      <c r="Q87" s="6">
         <v>35.365535211192721</v>
       </c>
-      <c r="R87">
+      <c r="R87" s="6">
         <v>60.026386718749997</v>
       </c>
-      <c r="S87">
+      <c r="S87" s="5">
         <v>4.973268680840482E-4</v>
       </c>
     </row>
@@ -5602,40 +5611,40 @@
       <c r="G88" s="2">
         <v>2</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="6">
         <v>1.4637690839694659</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="6">
         <v>6.6970318239190991</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="6">
         <v>8.3890452446906743</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="6">
         <v>10.808166752163061</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="6">
         <v>12.306529893249049</v>
       </c>
-      <c r="M88">
+      <c r="M88" s="6">
         <v>14.21725190839695</v>
       </c>
-      <c r="N88">
+      <c r="N88" s="6">
         <v>16.285162</v>
       </c>
-      <c r="O88">
+      <c r="O88" s="6">
         <v>18.873180166204978</v>
       </c>
-      <c r="P88">
+      <c r="P88" s="6">
         <v>22.943038116343491</v>
       </c>
-      <c r="Q88">
+      <c r="Q88" s="6">
         <v>26.218776000000009</v>
       </c>
-      <c r="R88">
+      <c r="R88" s="6">
         <v>55.206669691470054</v>
       </c>
-      <c r="S88">
+      <c r="S88" s="5">
         <v>3.729951510630362E-4</v>
       </c>
     </row>
@@ -5661,40 +5670,40 @@
       <c r="G89" s="4">
         <v>3</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="6">
         <v>1.4740997229916899</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="6">
         <v>7.7693447191668135</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="6">
         <v>11.239554820803368</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="6">
         <v>13.07894468313641</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="6">
         <v>14.375578224113099</v>
       </c>
-      <c r="M89">
+      <c r="M89" s="6">
         <v>16.013120361529932</v>
       </c>
-      <c r="N89">
+      <c r="N89" s="6">
         <v>18.611569609375</v>
       </c>
-      <c r="O89">
+      <c r="O89" s="6">
         <v>21.600739773569099</v>
       </c>
-      <c r="P89">
+      <c r="P89" s="6">
         <v>26.666127296874997</v>
       </c>
-      <c r="Q89">
+      <c r="Q89" s="6">
         <v>35.365535211192721</v>
       </c>
-      <c r="R89">
+      <c r="R89" s="6">
         <v>60.026386718749997</v>
       </c>
-      <c r="S89">
+      <c r="S89" s="5">
         <v>2.486634340420241E-4</v>
       </c>
     </row>
@@ -5720,40 +5729,40 @@
       <c r="G90" s="2">
         <v>0</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="6">
         <v>0.33471193415637862</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="6">
         <v>4.2170353991769547</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="6">
         <v>6.0866842250878577</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="6">
         <v>7.7005138765432104</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="6">
         <v>8.9938760000000002</v>
       </c>
-      <c r="M90">
+      <c r="M90" s="6">
         <v>10.651862139917689</v>
       </c>
-      <c r="N90">
+      <c r="N90" s="6">
         <v>12.33949042831216</v>
       </c>
-      <c r="O90">
+      <c r="O90" s="6">
         <v>14.081077349713741</v>
       </c>
-      <c r="P90">
+      <c r="P90" s="6">
         <v>16.948515435114501</v>
       </c>
-      <c r="Q90">
+      <c r="Q90" s="6">
         <v>21.419370747076609</v>
       </c>
-      <c r="R90">
+      <c r="R90" s="6">
         <v>87.685649999999995</v>
       </c>
-      <c r="S90">
+      <c r="S90" s="5">
         <v>1.1189854531891081E-3</v>
       </c>
     </row>
@@ -5779,40 +5788,40 @@
       <c r="G91" s="4">
         <v>1</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="6">
         <v>1.1682921810699591</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="6">
         <v>6.3063760000000002</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="6">
         <v>7.5530523159042637</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="6">
         <v>8.8675625</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="6">
         <v>10.558250183206109</v>
       </c>
-      <c r="M91">
+      <c r="M91" s="6">
         <v>11.68690655209452</v>
       </c>
-      <c r="N91">
+      <c r="N91" s="6">
         <v>13.812572416756181</v>
       </c>
-      <c r="O91">
+      <c r="O91" s="6">
         <v>16.41449517508056</v>
       </c>
-      <c r="P91">
+      <c r="P91" s="6">
         <v>18.73211953462604</v>
       </c>
-      <c r="Q91">
+      <c r="Q91" s="6">
         <v>22.924876297640651</v>
       </c>
-      <c r="R91">
+      <c r="R91" s="6">
         <v>60.497309999999999</v>
       </c>
-      <c r="S91">
+      <c r="S91" s="5">
         <v>1.243317170210121E-3</v>
       </c>
     </row>
@@ -5838,40 +5847,40 @@
       <c r="G92" s="2">
         <v>2</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="6">
         <v>0.33471193415637862</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="6">
         <v>4.2170353991769547</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="6">
         <v>6.0866842250878577</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="6">
         <v>7.7005138765432104</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="6">
         <v>8.9938760000000002</v>
       </c>
-      <c r="M92">
+      <c r="M92" s="6">
         <v>10.651862139917689</v>
       </c>
-      <c r="N92">
+      <c r="N92" s="6">
         <v>12.33949042831216</v>
       </c>
-      <c r="O92">
+      <c r="O92" s="6">
         <v>14.081077349713741</v>
       </c>
-      <c r="P92">
+      <c r="P92" s="6">
         <v>16.948515435114501</v>
       </c>
-      <c r="Q92">
+      <c r="Q92" s="6">
         <v>21.419370747076609</v>
       </c>
-      <c r="R92">
+      <c r="R92" s="6">
         <v>87.685649999999995</v>
       </c>
-      <c r="S92">
+      <c r="S92" s="5">
         <v>0.1140121845082681</v>
       </c>
     </row>
@@ -5897,40 +5906,40 @@
       <c r="G93" s="4">
         <v>3</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="6">
         <v>1.1682921810699591</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="6">
         <v>6.3063760000000002</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="6">
         <v>7.5530523159042637</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="6">
         <v>8.8675625</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="6">
         <v>10.558250183206109</v>
       </c>
-      <c r="M93">
+      <c r="M93" s="6">
         <v>11.68690655209452</v>
       </c>
-      <c r="N93">
+      <c r="N93" s="6">
         <v>13.812572416756181</v>
       </c>
-      <c r="O93">
+      <c r="O93" s="6">
         <v>16.41449517508056</v>
       </c>
-      <c r="P93">
+      <c r="P93" s="6">
         <v>18.73211953462604</v>
       </c>
-      <c r="Q93">
+      <c r="Q93" s="6">
         <v>22.924876297640651</v>
       </c>
-      <c r="R93">
+      <c r="R93" s="6">
         <v>60.497309999999999</v>
       </c>
-      <c r="S93">
+      <c r="S93" s="5">
         <v>1.7903767251025739E-2</v>
       </c>
     </row>
@@ -5956,40 +5965,40 @@
       <c r="G94" s="2">
         <v>0</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="6">
         <v>1.4637690839694659</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="6">
         <v>6.6970318239190991</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="6">
         <v>8.3890452446906743</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="6">
         <v>10.808166752163061</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="6">
         <v>12.306529893249049</v>
       </c>
-      <c r="M94">
+      <c r="M94" s="6">
         <v>14.21725190839695</v>
       </c>
-      <c r="N94">
+      <c r="N94" s="6">
         <v>16.285162</v>
       </c>
-      <c r="O94">
+      <c r="O94" s="6">
         <v>18.873180166204978</v>
       </c>
-      <c r="P94">
+      <c r="P94" s="6">
         <v>22.943038116343491</v>
       </c>
-      <c r="Q94">
+      <c r="Q94" s="6">
         <v>26.218776000000009</v>
       </c>
-      <c r="R94">
+      <c r="R94" s="6">
         <v>55.206669691470054</v>
       </c>
-      <c r="S94">
+      <c r="S94" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6015,40 +6024,40 @@
       <c r="G95" s="4">
         <v>1</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="6">
         <v>1.4740997229916899</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="6">
         <v>7.7693447191668135</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="6">
         <v>11.239554820803368</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="6">
         <v>13.07894468313641</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="6">
         <v>14.375578224113099</v>
       </c>
-      <c r="M95">
+      <c r="M95" s="6">
         <v>16.013120361529932</v>
       </c>
-      <c r="N95">
+      <c r="N95" s="6">
         <v>18.611569609375</v>
       </c>
-      <c r="O95">
+      <c r="O95" s="6">
         <v>21.600739773569099</v>
       </c>
-      <c r="P95">
+      <c r="P95" s="6">
         <v>26.666127296874997</v>
       </c>
-      <c r="Q95">
+      <c r="Q95" s="6">
         <v>35.365535211192721</v>
       </c>
-      <c r="R95">
+      <c r="R95" s="6">
         <v>60.026386718749997</v>
       </c>
-      <c r="S95">
+      <c r="S95" s="5">
         <v>3.729951510630362E-4</v>
       </c>
     </row>
@@ -6074,40 +6083,40 @@
       <c r="G96" s="2">
         <v>2</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="6">
         <v>1.4637690839694659</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="6">
         <v>6.6970318239190991</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="6">
         <v>8.3890452446906743</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="6">
         <v>10.808166752163061</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="6">
         <v>12.306529893249049</v>
       </c>
-      <c r="M96">
+      <c r="M96" s="6">
         <v>14.21725190839695</v>
       </c>
-      <c r="N96">
+      <c r="N96" s="6">
         <v>16.285162</v>
       </c>
-      <c r="O96">
+      <c r="O96" s="6">
         <v>18.873180166204978</v>
       </c>
-      <c r="P96">
+      <c r="P96" s="6">
         <v>22.943038116343491</v>
       </c>
-      <c r="Q96">
+      <c r="Q96" s="6">
         <v>26.218776000000009</v>
       </c>
-      <c r="R96">
+      <c r="R96" s="6">
         <v>55.206669691470054</v>
       </c>
-      <c r="S96">
+      <c r="S96" s="5">
         <v>8.2058933233867953E-3</v>
       </c>
     </row>
@@ -6133,40 +6142,40 @@
       <c r="G97" s="4">
         <v>3</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="6">
         <v>1.4740997229916899</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="6">
         <v>7.7693447191668135</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="6">
         <v>11.239554820803368</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="6">
         <v>13.07894468313641</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="6">
         <v>14.375578224113099</v>
       </c>
-      <c r="M97">
+      <c r="M97" s="6">
         <v>16.013120361529932</v>
       </c>
-      <c r="N97">
+      <c r="N97" s="6">
         <v>18.611569609375</v>
       </c>
-      <c r="O97">
+      <c r="O97" s="6">
         <v>21.600739773569099</v>
       </c>
-      <c r="P97">
+      <c r="P97" s="6">
         <v>26.666127296874997</v>
       </c>
-      <c r="Q97">
+      <c r="Q97" s="6">
         <v>35.365535211192721</v>
       </c>
-      <c r="R97">
+      <c r="R97" s="6">
         <v>60.026386718749997</v>
       </c>
-      <c r="S97">
+      <c r="S97" s="5">
         <v>7.832898172323759E-3</v>
       </c>
     </row>
@@ -6192,40 +6201,40 @@
       <c r="G98" s="2">
         <v>0</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="6">
         <v>0.25344650205761321</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="6">
         <v>4.0650399999999998</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="6">
         <v>5.9845214843749996</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="6">
         <v>7.3051772287862526</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="6">
         <v>8.933997890295359</v>
       </c>
-      <c r="M98">
+      <c r="M98" s="6">
         <v>10.347041015625001</v>
       </c>
-      <c r="N98">
+      <c r="N98" s="6">
         <v>11.702159999999999</v>
       </c>
-      <c r="O98">
+      <c r="O98" s="6">
         <v>13.351320406278861</v>
       </c>
-      <c r="P98">
+      <c r="P98" s="6">
         <v>16.20872</v>
       </c>
-      <c r="Q98">
+      <c r="Q98" s="6">
         <v>20.361956106870238</v>
       </c>
-      <c r="R98">
+      <c r="R98" s="6">
         <v>83.124395198522635</v>
       </c>
-      <c r="S98">
+      <c r="S98" s="5">
         <v>2.486634340420241E-4</v>
       </c>
     </row>
@@ -6251,40 +6260,40 @@
       <c r="G99" s="4">
         <v>1</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="6">
         <v>2.949804526748971</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="6">
         <v>5.6144616805170822</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="6">
         <v>6.7019879339699457</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="6">
         <v>7.7090207734375005</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="6">
         <v>11.048292858259101</v>
       </c>
-      <c r="M99">
+      <c r="M99" s="6">
         <v>12.598531437501961</v>
       </c>
-      <c r="N99">
+      <c r="N99" s="6">
         <v>13.714682209256331</v>
       </c>
-      <c r="O99">
+      <c r="O99" s="6">
         <v>15.060348840159859</v>
       </c>
-      <c r="P99">
+      <c r="P99" s="6">
         <v>17.732736036502999</v>
       </c>
-      <c r="Q99">
+      <c r="Q99" s="6">
         <v>22.521615718749999</v>
       </c>
-      <c r="R99">
+      <c r="R99" s="6">
         <v>60.485770042194098</v>
       </c>
-      <c r="S99">
+      <c r="S99" s="5">
         <v>3.729951510630362E-4</v>
       </c>
     </row>
@@ -6310,40 +6319,40 @@
       <c r="G100" s="2">
         <v>2</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="6">
         <v>0.25344650205761321</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="6">
         <v>4.0650399999999998</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="6">
         <v>5.9845214843749996</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="6">
         <v>7.3051772287862526</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="6">
         <v>8.933997890295359</v>
       </c>
-      <c r="M100">
+      <c r="M100" s="6">
         <v>10.347041015625001</v>
       </c>
-      <c r="N100">
+      <c r="N100" s="6">
         <v>11.702159999999999</v>
       </c>
-      <c r="O100">
+      <c r="O100" s="6">
         <v>13.351320406278861</v>
       </c>
-      <c r="P100">
+      <c r="P100" s="6">
         <v>16.20872</v>
       </c>
-      <c r="Q100">
+      <c r="Q100" s="6">
         <v>20.361956106870238</v>
       </c>
-      <c r="R100">
+      <c r="R100" s="6">
         <v>83.124395198522635</v>
       </c>
-      <c r="S100">
+      <c r="S100" s="5">
         <v>1.740644038294169E-3</v>
       </c>
     </row>
@@ -6369,40 +6378,40 @@
       <c r="G101" s="4">
         <v>3</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="6">
         <v>2.949804526748971</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="6">
         <v>5.6144616805170822</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="6">
         <v>6.7019879339699457</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="6">
         <v>7.7090207734375005</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="6">
         <v>11.048292858259101</v>
       </c>
-      <c r="M101">
+      <c r="M101" s="6">
         <v>12.598531437501961</v>
       </c>
-      <c r="N101">
+      <c r="N101" s="6">
         <v>13.714682209256331</v>
       </c>
-      <c r="O101">
+      <c r="O101" s="6">
         <v>15.060348840159859</v>
       </c>
-      <c r="P101">
+      <c r="P101" s="6">
         <v>17.732736036502999</v>
       </c>
-      <c r="Q101">
+      <c r="Q101" s="6">
         <v>22.521615718749999</v>
       </c>
-      <c r="R101">
+      <c r="R101" s="6">
         <v>60.485770042194098</v>
       </c>
-      <c r="S101">
+      <c r="S101" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -6428,40 +6437,40 @@
       <c r="G102" s="2">
         <v>0</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="6">
         <v>2.1247784810126578</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="6">
         <v>6.4855106075949376</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="6">
         <v>9.7189586625111293</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="6">
         <v>11.712478911392401</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="6">
         <v>13.15378881012658</v>
       </c>
-      <c r="M102">
+      <c r="M102" s="6">
         <v>14.498496093749999</v>
       </c>
-      <c r="N102">
+      <c r="N102" s="6">
         <v>16.332376253858019</v>
       </c>
-      <c r="O102">
+      <c r="O102" s="6">
         <v>18.884907609375002</v>
       </c>
-      <c r="P102">
+      <c r="P102" s="6">
         <v>20.516871204042669</v>
       </c>
-      <c r="Q102">
+      <c r="Q102" s="6">
         <v>24.677276296296302</v>
       </c>
-      <c r="R102">
+      <c r="R102" s="6">
         <v>51.680781250000003</v>
       </c>
-      <c r="S102">
+      <c r="S102" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6487,40 +6496,40 @@
       <c r="G103" s="4">
         <v>1</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="6">
         <v>2.9398300000000002</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="6">
         <v>4.7967140000000006</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="6">
         <v>9.5650275143120957</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="6">
         <v>14.811707049578832</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="6">
         <v>16.594202810126582</v>
       </c>
-      <c r="M103">
+      <c r="M103" s="6">
         <v>19.834192059095098</v>
       </c>
-      <c r="N103">
+      <c r="N103" s="6">
         <v>21.536043218778843</v>
       </c>
-      <c r="O103">
+      <c r="O103" s="6">
         <v>22.237145310892501</v>
       </c>
-      <c r="P103">
+      <c r="P103" s="6">
         <v>28.918747907663899</v>
       </c>
-      <c r="Q103">
+      <c r="Q103" s="6">
         <v>47.645134615566406</v>
       </c>
-      <c r="R103">
+      <c r="R103" s="6">
         <v>101.99119</v>
       </c>
-      <c r="S103">
+      <c r="S103" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -6546,40 +6555,40 @@
       <c r="G104" s="2">
         <v>2</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="6">
         <v>2.1247784810126578</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="6">
         <v>6.4855106075949376</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="6">
         <v>9.7189586625111293</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="6">
         <v>11.712478911392401</v>
       </c>
-      <c r="L104">
+      <c r="L104" s="6">
         <v>13.15378881012658</v>
       </c>
-      <c r="M104">
+      <c r="M104" s="6">
         <v>14.498496093749999</v>
       </c>
-      <c r="N104">
+      <c r="N104" s="6">
         <v>16.332376253858019</v>
       </c>
-      <c r="O104">
+      <c r="O104" s="6">
         <v>18.884907609375002</v>
       </c>
-      <c r="P104">
+      <c r="P104" s="6">
         <v>20.516871204042669</v>
       </c>
-      <c r="Q104">
+      <c r="Q104" s="6">
         <v>24.677276296296302</v>
       </c>
-      <c r="R104">
+      <c r="R104" s="6">
         <v>51.680781250000003</v>
       </c>
-      <c r="S104">
+      <c r="S104" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -6605,40 +6614,40 @@
       <c r="G105" s="4">
         <v>3</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="6">
         <v>2.9398300000000002</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="6">
         <v>4.7967140000000006</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="6">
         <v>9.5650275143120957</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="6">
         <v>14.811707049578832</v>
       </c>
-      <c r="L105">
+      <c r="L105" s="6">
         <v>16.594202810126582</v>
       </c>
-      <c r="M105">
+      <c r="M105" s="6">
         <v>19.834192059095098</v>
       </c>
-      <c r="N105">
+      <c r="N105" s="6">
         <v>21.536043218778843</v>
       </c>
-      <c r="O105">
+      <c r="O105" s="6">
         <v>22.237145310892501</v>
       </c>
-      <c r="P105">
+      <c r="P105" s="6">
         <v>28.918747907663899</v>
       </c>
-      <c r="Q105">
+      <c r="Q105" s="6">
         <v>47.645134615566406</v>
       </c>
-      <c r="R105">
+      <c r="R105" s="6">
         <v>101.99119</v>
       </c>
-      <c r="S105">
+      <c r="S105" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -6664,40 +6673,40 @@
       <c r="G106" s="2">
         <v>0</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="6">
         <v>0.25344650205761321</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="6">
         <v>4.0650399999999998</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="6">
         <v>5.9845214843749996</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="6">
         <v>7.3051772287862526</v>
       </c>
-      <c r="L106">
+      <c r="L106" s="6">
         <v>8.933997890295359</v>
       </c>
-      <c r="M106">
+      <c r="M106" s="6">
         <v>10.347041015625001</v>
       </c>
-      <c r="N106">
+      <c r="N106" s="6">
         <v>11.702159999999999</v>
       </c>
-      <c r="O106">
+      <c r="O106" s="6">
         <v>13.351320406278861</v>
       </c>
-      <c r="P106">
+      <c r="P106" s="6">
         <v>16.20872</v>
       </c>
-      <c r="Q106">
+      <c r="Q106" s="6">
         <v>20.361956106870238</v>
       </c>
-      <c r="R106">
+      <c r="R106" s="6">
         <v>83.124395198522635</v>
       </c>
-      <c r="S106">
+      <c r="S106" s="5">
         <v>2.237970906378217E-3</v>
       </c>
     </row>
@@ -6723,40 +6732,40 @@
       <c r="G107" s="4">
         <v>1</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="6">
         <v>2.949804526748971</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="6">
         <v>5.6144616805170822</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="6">
         <v>6.7019879339699457</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="6">
         <v>7.7090207734375005</v>
       </c>
-      <c r="L107">
+      <c r="L107" s="6">
         <v>11.048292858259101</v>
       </c>
-      <c r="M107">
+      <c r="M107" s="6">
         <v>12.598531437501961</v>
       </c>
-      <c r="N107">
+      <c r="N107" s="6">
         <v>13.714682209256331</v>
       </c>
-      <c r="O107">
+      <c r="O107" s="6">
         <v>15.060348840159859</v>
       </c>
-      <c r="P107">
+      <c r="P107" s="6">
         <v>17.732736036502999</v>
       </c>
-      <c r="Q107">
+      <c r="Q107" s="6">
         <v>22.521615718749999</v>
       </c>
-      <c r="R107">
+      <c r="R107" s="6">
         <v>60.485770042194098</v>
       </c>
-      <c r="S107">
+      <c r="S107" s="5">
         <v>6.216585851050603E-4</v>
       </c>
     </row>
@@ -6782,40 +6791,40 @@
       <c r="G108" s="2">
         <v>2</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="6">
         <v>0.25344650205761321</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="6">
         <v>4.0650399999999998</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="6">
         <v>5.9845214843749996</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="6">
         <v>7.3051772287862526</v>
       </c>
-      <c r="L108">
+      <c r="L108" s="6">
         <v>8.933997890295359</v>
       </c>
-      <c r="M108">
+      <c r="M108" s="6">
         <v>10.347041015625001</v>
       </c>
-      <c r="N108">
+      <c r="N108" s="6">
         <v>11.702159999999999</v>
       </c>
-      <c r="O108">
+      <c r="O108" s="6">
         <v>13.351320406278861</v>
       </c>
-      <c r="P108">
+      <c r="P108" s="6">
         <v>16.20872</v>
       </c>
-      <c r="Q108">
+      <c r="Q108" s="6">
         <v>20.361956106870238</v>
       </c>
-      <c r="R108">
+      <c r="R108" s="6">
         <v>83.124395198522635</v>
       </c>
-      <c r="S108">
+      <c r="S108" s="5">
         <v>8.9518836255128686E-2</v>
       </c>
     </row>
@@ -6841,40 +6850,40 @@
       <c r="G109" s="4">
         <v>3</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="6">
         <v>2.949804526748971</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="6">
         <v>5.6144616805170822</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="6">
         <v>6.7019879339699457</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="6">
         <v>7.7090207734375005</v>
       </c>
-      <c r="L109">
+      <c r="L109" s="6">
         <v>11.048292858259101</v>
       </c>
-      <c r="M109">
+      <c r="M109" s="6">
         <v>12.598531437501961</v>
       </c>
-      <c r="N109">
+      <c r="N109" s="6">
         <v>13.714682209256331</v>
       </c>
-      <c r="O109">
+      <c r="O109" s="6">
         <v>15.060348840159859</v>
       </c>
-      <c r="P109">
+      <c r="P109" s="6">
         <v>17.732736036502999</v>
       </c>
-      <c r="Q109">
+      <c r="Q109" s="6">
         <v>22.521615718749999</v>
       </c>
-      <c r="R109">
+      <c r="R109" s="6">
         <v>60.485770042194098</v>
       </c>
-      <c r="S109">
+      <c r="S109" s="5">
         <v>1.4546810891458411E-2</v>
       </c>
     </row>
@@ -6900,40 +6909,40 @@
       <c r="G110" s="2">
         <v>0</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="6">
         <v>2.1247784810126578</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="6">
         <v>6.4855106075949376</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="6">
         <v>9.7189586625111293</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="6">
         <v>11.712478911392401</v>
       </c>
-      <c r="L110">
+      <c r="L110" s="6">
         <v>13.15378881012658</v>
       </c>
-      <c r="M110">
+      <c r="M110" s="6">
         <v>14.498496093749999</v>
       </c>
-      <c r="N110">
+      <c r="N110" s="6">
         <v>16.332376253858019</v>
       </c>
-      <c r="O110">
+      <c r="O110" s="6">
         <v>18.884907609375002</v>
       </c>
-      <c r="P110">
+      <c r="P110" s="6">
         <v>20.516871204042669</v>
       </c>
-      <c r="Q110">
+      <c r="Q110" s="6">
         <v>24.677276296296302</v>
       </c>
-      <c r="R110">
+      <c r="R110" s="6">
         <v>51.680781250000003</v>
       </c>
-      <c r="S110">
+      <c r="S110" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -6959,40 +6968,40 @@
       <c r="G111" s="4">
         <v>1</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="6">
         <v>2.9398300000000002</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="6">
         <v>4.7967140000000006</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="6">
         <v>9.5650275143120957</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="6">
         <v>14.811707049578832</v>
       </c>
-      <c r="L111">
+      <c r="L111" s="6">
         <v>16.594202810126582</v>
       </c>
-      <c r="M111">
+      <c r="M111" s="6">
         <v>19.834192059095098</v>
       </c>
-      <c r="N111">
+      <c r="N111" s="6">
         <v>21.536043218778843</v>
       </c>
-      <c r="O111">
+      <c r="O111" s="6">
         <v>22.237145310892501</v>
       </c>
-      <c r="P111">
+      <c r="P111" s="6">
         <v>28.918747907663899</v>
       </c>
-      <c r="Q111">
+      <c r="Q111" s="6">
         <v>47.645134615566406</v>
       </c>
-      <c r="R111">
+      <c r="R111" s="6">
         <v>101.99119</v>
       </c>
-      <c r="S111">
+      <c r="S111" s="5">
         <v>3.729951510630362E-4</v>
       </c>
     </row>
@@ -7018,40 +7027,40 @@
       <c r="G112" s="2">
         <v>2</v>
       </c>
-      <c r="H112">
+      <c r="H112" s="6">
         <v>2.1247784810126578</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="6">
         <v>6.4855106075949376</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="6">
         <v>9.7189586625111293</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="6">
         <v>11.712478911392401</v>
       </c>
-      <c r="L112">
+      <c r="L112" s="6">
         <v>13.15378881012658</v>
       </c>
-      <c r="M112">
+      <c r="M112" s="6">
         <v>14.498496093749999</v>
       </c>
-      <c r="N112">
+      <c r="N112" s="6">
         <v>16.332376253858019</v>
       </c>
-      <c r="O112">
+      <c r="O112" s="6">
         <v>18.884907609375002</v>
       </c>
-      <c r="P112">
+      <c r="P112" s="6">
         <v>20.516871204042669</v>
       </c>
-      <c r="Q112">
+      <c r="Q112" s="6">
         <v>24.677276296296302</v>
       </c>
-      <c r="R112">
+      <c r="R112" s="6">
         <v>51.680781250000003</v>
       </c>
-      <c r="S112">
+      <c r="S112" s="5">
         <v>5.9679224170085792E-3</v>
       </c>
     </row>
@@ -7077,40 +7086,40 @@
       <c r="G113" s="4">
         <v>3</v>
       </c>
-      <c r="H113">
+      <c r="H113" s="6">
         <v>2.9398300000000002</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="6">
         <v>4.7967140000000006</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="6">
         <v>9.5650275143120957</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="6">
         <v>14.811707049578832</v>
       </c>
-      <c r="L113">
+      <c r="L113" s="6">
         <v>16.594202810126582</v>
       </c>
-      <c r="M113">
+      <c r="M113" s="6">
         <v>19.834192059095098</v>
       </c>
-      <c r="N113">
+      <c r="N113" s="6">
         <v>21.536043218778843</v>
       </c>
-      <c r="O113">
+      <c r="O113" s="6">
         <v>22.237145310892501</v>
       </c>
-      <c r="P113">
+      <c r="P113" s="6">
         <v>28.918747907663899</v>
       </c>
-      <c r="Q113">
+      <c r="Q113" s="6">
         <v>47.645134615566406</v>
       </c>
-      <c r="R113">
+      <c r="R113" s="6">
         <v>101.99119</v>
       </c>
-      <c r="S113">
+      <c r="S113" s="5">
         <v>3.7299515106303618E-3</v>
       </c>
     </row>
@@ -7136,40 +7145,40 @@
       <c r="G114" s="2">
         <v>0</v>
       </c>
-      <c r="H114">
+      <c r="H114" s="6">
         <v>3.3244274809160299E-2</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="6">
         <v>3.3633125443037972</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="6">
         <v>5.1570740000000006</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="6">
         <v>6.7602202625704892</v>
       </c>
-      <c r="L114">
+      <c r="L114" s="6">
         <v>8.201679465648855</v>
       </c>
-      <c r="M114">
+      <c r="M114" s="6">
         <v>9.4410965096952921</v>
       </c>
-      <c r="N114">
+      <c r="N114" s="6">
         <v>11.096442</v>
       </c>
-      <c r="O114">
+      <c r="O114" s="6">
         <v>12.80160260975441</v>
       </c>
-      <c r="P114">
+      <c r="P114" s="6">
         <v>15.553962167938941</v>
       </c>
-      <c r="Q114">
+      <c r="Q114" s="6">
         <v>19.746592</v>
       </c>
-      <c r="R114">
+      <c r="R114" s="6">
         <v>58.266046304541426</v>
       </c>
-      <c r="S114">
+      <c r="S114" s="5">
         <v>3.729951510630362E-4</v>
       </c>
     </row>
@@ -7195,40 +7204,40 @@
       <c r="G115" s="4">
         <v>1</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="6">
         <v>3.3457519531250002</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="6">
         <v>5.1941785504325182</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="6">
         <v>7.3696172839506184</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="6">
         <v>7.7820046552094526</v>
       </c>
-      <c r="L115">
+      <c r="L115" s="6">
         <v>8.8167912427983541</v>
       </c>
-      <c r="M115">
+      <c r="M115" s="6">
         <v>9.565031645569622</v>
       </c>
-      <c r="N115">
+      <c r="N115" s="6">
         <v>12.52122205343364</v>
       </c>
-      <c r="O115">
+      <c r="O115" s="6">
         <v>13.703519624999998</v>
       </c>
-      <c r="P115">
+      <c r="P115" s="6">
         <v>18.950154352723917</v>
       </c>
-      <c r="Q115">
+      <c r="Q115" s="6">
         <v>26.967628428270039</v>
       </c>
-      <c r="R115">
+      <c r="R115" s="6">
         <v>36.093120229007638</v>
       </c>
-      <c r="S115">
+      <c r="S115" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -7254,40 +7263,40 @@
       <c r="G116" s="2">
         <v>2</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="6">
         <v>3.3244274809160299E-2</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="6">
         <v>3.3633125443037972</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="6">
         <v>5.1570740000000006</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="6">
         <v>6.7602202625704892</v>
       </c>
-      <c r="L116">
+      <c r="L116" s="6">
         <v>8.201679465648855</v>
       </c>
-      <c r="M116">
+      <c r="M116" s="6">
         <v>9.4410965096952921</v>
       </c>
-      <c r="N116">
+      <c r="N116" s="6">
         <v>11.096442</v>
       </c>
-      <c r="O116">
+      <c r="O116" s="6">
         <v>12.80160260975441</v>
       </c>
-      <c r="P116">
+      <c r="P116" s="6">
         <v>15.553962167938941</v>
       </c>
-      <c r="Q116">
+      <c r="Q116" s="6">
         <v>19.746592</v>
       </c>
-      <c r="R116">
+      <c r="R116" s="6">
         <v>58.266046304541426</v>
       </c>
-      <c r="S116">
+      <c r="S116" s="5">
         <v>1.1189854531891081E-3</v>
       </c>
     </row>
@@ -7313,40 +7322,40 @@
       <c r="G117" s="4">
         <v>3</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="6">
         <v>3.3457519531250002</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="6">
         <v>5.1941785504325182</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="6">
         <v>7.3696172839506184</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="6">
         <v>7.7820046552094526</v>
       </c>
-      <c r="L117">
+      <c r="L117" s="6">
         <v>8.8167912427983541</v>
       </c>
-      <c r="M117">
+      <c r="M117" s="6">
         <v>9.565031645569622</v>
       </c>
-      <c r="N117">
+      <c r="N117" s="6">
         <v>12.52122205343364</v>
       </c>
-      <c r="O117">
+      <c r="O117" s="6">
         <v>13.703519624999998</v>
       </c>
-      <c r="P117">
+      <c r="P117" s="6">
         <v>18.950154352723917</v>
       </c>
-      <c r="Q117">
+      <c r="Q117" s="6">
         <v>26.967628428270039</v>
       </c>
-      <c r="R117">
+      <c r="R117" s="6">
         <v>36.093120229007638</v>
       </c>
-      <c r="S117">
+      <c r="S117" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -7372,40 +7381,40 @@
       <c r="G118" s="2">
         <v>0</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="6">
         <v>2.4168037974683552</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="6">
         <v>5.7805011832061073</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="6">
         <v>9.1760970464135028</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="6">
         <v>11.252230621463479</v>
       </c>
-      <c r="L118">
+      <c r="L118" s="6">
         <v>12.35359704641351</v>
       </c>
-      <c r="M118">
+      <c r="M118" s="6">
         <v>14.32625921940928</v>
       </c>
-      <c r="N118">
+      <c r="N118" s="6">
         <v>16.309449061249591</v>
       </c>
-      <c r="O118">
+      <c r="O118" s="6">
         <v>18.45369249131944</v>
       </c>
-      <c r="P118">
+      <c r="P118" s="6">
         <v>20.440049999999999</v>
       </c>
-      <c r="Q118">
+      <c r="Q118" s="6">
         <v>28.01737748762217</v>
       </c>
-      <c r="R118">
+      <c r="R118" s="6">
         <v>52.522894736842105</v>
       </c>
-      <c r="S118">
+      <c r="S118" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7431,40 +7440,40 @@
       <c r="G119" s="4">
         <v>1</v>
       </c>
-      <c r="H119">
+      <c r="H119" s="6">
         <v>0.5663248638838474</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="6">
         <v>8.9201113020095431</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="6">
         <v>10.02716054008439</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="6">
         <v>13.04054968010545</v>
       </c>
-      <c r="L119">
+      <c r="L119" s="6">
         <v>14.001102237654319</v>
       </c>
-      <c r="M119">
+      <c r="M119" s="6">
         <v>17.046119999999998</v>
       </c>
-      <c r="N119">
+      <c r="N119" s="6">
         <v>20.65009160305344</v>
       </c>
-      <c r="O119">
+      <c r="O119" s="6">
         <v>23.80545627586207</v>
       </c>
-      <c r="P119">
+      <c r="P119" s="6">
         <v>27.960988561445149</v>
       </c>
-      <c r="Q119">
+      <c r="Q119" s="6">
         <v>33.5399001814882</v>
       </c>
-      <c r="R119">
+      <c r="R119" s="6">
         <v>70.301299999999998</v>
       </c>
-      <c r="S119">
+      <c r="S119" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -7490,40 +7499,40 @@
       <c r="G120" s="2">
         <v>2</v>
       </c>
-      <c r="H120">
+      <c r="H120" s="6">
         <v>2.4168037974683552</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="6">
         <v>5.7805011832061073</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="6">
         <v>9.1760970464135028</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="6">
         <v>11.252230621463479</v>
       </c>
-      <c r="L120">
+      <c r="L120" s="6">
         <v>12.35359704641351</v>
       </c>
-      <c r="M120">
+      <c r="M120" s="6">
         <v>14.32625921940928</v>
       </c>
-      <c r="N120">
+      <c r="N120" s="6">
         <v>16.309449061249591</v>
       </c>
-      <c r="O120">
+      <c r="O120" s="6">
         <v>18.45369249131944</v>
       </c>
-      <c r="P120">
+      <c r="P120" s="6">
         <v>20.440049999999999</v>
       </c>
-      <c r="Q120">
+      <c r="Q120" s="6">
         <v>28.01737748762217</v>
       </c>
-      <c r="R120">
+      <c r="R120" s="6">
         <v>52.522894736842105</v>
       </c>
-      <c r="S120">
+      <c r="S120" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7549,40 +7558,40 @@
       <c r="G121" s="4">
         <v>3</v>
       </c>
-      <c r="H121">
+      <c r="H121" s="6">
         <v>0.5663248638838474</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="6">
         <v>8.9201113020095431</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="6">
         <v>10.02716054008439</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="6">
         <v>13.04054968010545</v>
       </c>
-      <c r="L121">
+      <c r="L121" s="6">
         <v>14.001102237654319</v>
       </c>
-      <c r="M121">
+      <c r="M121" s="6">
         <v>17.046119999999998</v>
       </c>
-      <c r="N121">
+      <c r="N121" s="6">
         <v>20.65009160305344</v>
       </c>
-      <c r="O121">
+      <c r="O121" s="6">
         <v>23.80545627586207</v>
       </c>
-      <c r="P121">
+      <c r="P121" s="6">
         <v>27.960988561445149</v>
       </c>
-      <c r="Q121">
+      <c r="Q121" s="6">
         <v>33.5399001814882</v>
       </c>
-      <c r="R121">
+      <c r="R121" s="6">
         <v>70.301299999999998</v>
       </c>
-      <c r="S121">
+      <c r="S121" s="5">
         <v>3.729951510630362E-4</v>
       </c>
     </row>
@@ -7608,40 +7617,40 @@
       <c r="G122" s="2">
         <v>0</v>
       </c>
-      <c r="H122">
+      <c r="H122" s="6">
         <v>3.3244274809160299E-2</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="6">
         <v>3.3633125443037972</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="6">
         <v>5.1570740000000006</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="6">
         <v>6.7602202625704892</v>
       </c>
-      <c r="L122">
+      <c r="L122" s="6">
         <v>8.201679465648855</v>
       </c>
-      <c r="M122">
+      <c r="M122" s="6">
         <v>9.4410965096952921</v>
       </c>
-      <c r="N122">
+      <c r="N122" s="6">
         <v>11.096442</v>
       </c>
-      <c r="O122">
+      <c r="O122" s="6">
         <v>12.80160260975441</v>
       </c>
-      <c r="P122">
+      <c r="P122" s="6">
         <v>15.553962167938941</v>
       </c>
-      <c r="Q122">
+      <c r="Q122" s="6">
         <v>19.746592</v>
       </c>
-      <c r="R122">
+      <c r="R122" s="6">
         <v>58.266046304541426</v>
       </c>
-      <c r="S122">
+      <c r="S122" s="5">
         <v>2.486634340420241E-4</v>
       </c>
     </row>
@@ -7667,40 +7676,40 @@
       <c r="G123" s="4">
         <v>1</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="6">
         <v>3.3457519531250002</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="6">
         <v>5.1941785504325182</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="6">
         <v>7.3696172839506184</v>
       </c>
-      <c r="K123">
+      <c r="K123" s="6">
         <v>7.7820046552094526</v>
       </c>
-      <c r="L123">
+      <c r="L123" s="6">
         <v>8.8167912427983541</v>
       </c>
-      <c r="M123">
+      <c r="M123" s="6">
         <v>9.565031645569622</v>
       </c>
-      <c r="N123">
+      <c r="N123" s="6">
         <v>12.52122205343364</v>
       </c>
-      <c r="O123">
+      <c r="O123" s="6">
         <v>13.703519624999998</v>
       </c>
-      <c r="P123">
+      <c r="P123" s="6">
         <v>18.950154352723917</v>
       </c>
-      <c r="Q123">
+      <c r="Q123" s="6">
         <v>26.967628428270039</v>
       </c>
-      <c r="R123">
+      <c r="R123" s="6">
         <v>36.093120229007638</v>
       </c>
-      <c r="S123">
+      <c r="S123" s="5">
         <v>3.729951510630362E-4</v>
       </c>
     </row>
@@ -7726,40 +7735,40 @@
       <c r="G124" s="2">
         <v>2</v>
       </c>
-      <c r="H124">
+      <c r="H124" s="6">
         <v>3.3244274809160299E-2</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="6">
         <v>3.3633125443037972</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="6">
         <v>5.1570740000000006</v>
       </c>
-      <c r="K124">
+      <c r="K124" s="6">
         <v>6.7602202625704892</v>
       </c>
-      <c r="L124">
+      <c r="L124" s="6">
         <v>8.201679465648855</v>
       </c>
-      <c r="M124">
+      <c r="M124" s="6">
         <v>9.4410965096952921</v>
       </c>
-      <c r="N124">
+      <c r="N124" s="6">
         <v>11.096442</v>
       </c>
-      <c r="O124">
+      <c r="O124" s="6">
         <v>12.80160260975441</v>
       </c>
-      <c r="P124">
+      <c r="P124" s="6">
         <v>15.553962167938941</v>
       </c>
-      <c r="Q124">
+      <c r="Q124" s="6">
         <v>19.746592</v>
       </c>
-      <c r="R124">
+      <c r="R124" s="6">
         <v>58.266046304541426</v>
       </c>
-      <c r="S124">
+      <c r="S124" s="5">
         <v>6.5647146587094363E-2</v>
       </c>
     </row>
@@ -7785,40 +7794,40 @@
       <c r="G125" s="4">
         <v>3</v>
       </c>
-      <c r="H125">
+      <c r="H125" s="6">
         <v>3.3457519531250002</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="6">
         <v>5.1941785504325182</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="6">
         <v>7.3696172839506184</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="6">
         <v>7.7820046552094526</v>
       </c>
-      <c r="L125">
+      <c r="L125" s="6">
         <v>8.8167912427983541</v>
       </c>
-      <c r="M125">
+      <c r="M125" s="6">
         <v>9.565031645569622</v>
       </c>
-      <c r="N125">
+      <c r="N125" s="6">
         <v>12.52122205343364</v>
       </c>
-      <c r="O125">
+      <c r="O125" s="6">
         <v>13.703519624999998</v>
       </c>
-      <c r="P125">
+      <c r="P125" s="6">
         <v>18.950154352723917</v>
       </c>
-      <c r="Q125">
+      <c r="Q125" s="6">
         <v>26.967628428270039</v>
       </c>
-      <c r="R125">
+      <c r="R125" s="6">
         <v>36.093120229007638</v>
       </c>
-      <c r="S125">
+      <c r="S125" s="5">
         <v>9.0762153425338801E-3</v>
       </c>
     </row>
@@ -7844,40 +7853,40 @@
       <c r="G126" s="2">
         <v>0</v>
       </c>
-      <c r="H126">
+      <c r="H126" s="6">
         <v>2.4168037974683552</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="6">
         <v>5.7805011832061073</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="6">
         <v>9.1760970464135028</v>
       </c>
-      <c r="K126">
+      <c r="K126" s="6">
         <v>11.252230621463479</v>
       </c>
-      <c r="L126">
+      <c r="L126" s="6">
         <v>12.35359704641351</v>
       </c>
-      <c r="M126">
+      <c r="M126" s="6">
         <v>14.32625921940928</v>
       </c>
-      <c r="N126">
+      <c r="N126" s="6">
         <v>16.309449061249591</v>
       </c>
-      <c r="O126">
+      <c r="O126" s="6">
         <v>18.45369249131944</v>
       </c>
-      <c r="P126">
+      <c r="P126" s="6">
         <v>20.440049999999999</v>
       </c>
-      <c r="Q126">
+      <c r="Q126" s="6">
         <v>28.01737748762217</v>
       </c>
-      <c r="R126">
+      <c r="R126" s="6">
         <v>52.522894736842105</v>
       </c>
-      <c r="S126">
+      <c r="S126" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -7903,40 +7912,40 @@
       <c r="G127" s="4">
         <v>1</v>
       </c>
-      <c r="H127">
+      <c r="H127" s="6">
         <v>0.5663248638838474</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="6">
         <v>8.9201113020095431</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="6">
         <v>10.02716054008439</v>
       </c>
-      <c r="K127">
+      <c r="K127" s="6">
         <v>13.04054968010545</v>
       </c>
-      <c r="L127">
+      <c r="L127" s="6">
         <v>14.001102237654319</v>
       </c>
-      <c r="M127">
+      <c r="M127" s="6">
         <v>17.046119999999998</v>
       </c>
-      <c r="N127">
+      <c r="N127" s="6">
         <v>20.65009160305344</v>
       </c>
-      <c r="O127">
+      <c r="O127" s="6">
         <v>23.80545627586207</v>
       </c>
-      <c r="P127">
+      <c r="P127" s="6">
         <v>27.960988561445149</v>
       </c>
-      <c r="Q127">
+      <c r="Q127" s="6">
         <v>33.5399001814882</v>
       </c>
-      <c r="R127">
+      <c r="R127" s="6">
         <v>70.301299999999998</v>
       </c>
-      <c r="S127">
+      <c r="S127" s="5">
         <v>3.729951510630362E-4</v>
       </c>
     </row>
@@ -7962,40 +7971,40 @@
       <c r="G128" s="2">
         <v>2</v>
       </c>
-      <c r="H128">
+      <c r="H128" s="6">
         <v>2.4168037974683552</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="6">
         <v>5.7805011832061073</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="6">
         <v>9.1760970464135028</v>
       </c>
-      <c r="K128">
+      <c r="K128" s="6">
         <v>11.252230621463479</v>
       </c>
-      <c r="L128">
+      <c r="L128" s="6">
         <v>12.35359704641351</v>
       </c>
-      <c r="M128">
+      <c r="M128" s="6">
         <v>14.32625921940928</v>
       </c>
-      <c r="N128">
+      <c r="N128" s="6">
         <v>16.309449061249591</v>
       </c>
-      <c r="O128">
+      <c r="O128" s="6">
         <v>18.45369249131944</v>
       </c>
-      <c r="P128">
+      <c r="P128" s="6">
         <v>20.440049999999999</v>
       </c>
-      <c r="Q128">
+      <c r="Q128" s="6">
         <v>28.01737748762217</v>
       </c>
-      <c r="R128">
+      <c r="R128" s="6">
         <v>52.522894736842105</v>
       </c>
-      <c r="S128">
+      <c r="S128" s="5">
         <v>3.7299515106303618E-3</v>
       </c>
     </row>
@@ -8021,40 +8030,40 @@
       <c r="G129" s="4">
         <v>3</v>
       </c>
-      <c r="H129">
+      <c r="H129" s="6">
         <v>0.5663248638838474</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="6">
         <v>8.9201113020095431</v>
       </c>
-      <c r="J129">
+      <c r="J129" s="6">
         <v>10.02716054008439</v>
       </c>
-      <c r="K129">
+      <c r="K129" s="6">
         <v>13.04054968010545</v>
       </c>
-      <c r="L129">
+      <c r="L129" s="6">
         <v>14.001102237654319</v>
       </c>
-      <c r="M129">
+      <c r="M129" s="6">
         <v>17.046119999999998</v>
       </c>
-      <c r="N129">
+      <c r="N129" s="6">
         <v>20.65009160305344</v>
       </c>
-      <c r="O129">
+      <c r="O129" s="6">
         <v>23.80545627586207</v>
       </c>
-      <c r="P129">
+      <c r="P129" s="6">
         <v>27.960988561445149</v>
       </c>
-      <c r="Q129">
+      <c r="Q129" s="6">
         <v>33.5399001814882</v>
       </c>
-      <c r="R129">
+      <c r="R129" s="6">
         <v>70.301299999999998</v>
       </c>
-      <c r="S129">
+      <c r="S129" s="5">
         <v>4.3516100957354219E-3</v>
       </c>
     </row>
@@ -8080,40 +8089,40 @@
       <c r="G130" s="2">
         <v>0</v>
       </c>
-      <c r="H130">
+      <c r="H130" s="6">
         <v>0.31911392405063282</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="6">
         <v>3.3407819670781889</v>
       </c>
-      <c r="J130">
+      <c r="J130" s="6">
         <v>4.9252798353909473</v>
       </c>
-      <c r="K130">
+      <c r="K130" s="6">
         <v>6.8123710937500004</v>
       </c>
-      <c r="L130">
+      <c r="L130" s="6">
         <v>8.297035392714589</v>
       </c>
-      <c r="M130">
+      <c r="M130" s="6">
         <v>9.4550483351235233</v>
       </c>
-      <c r="N130">
+      <c r="N130" s="6">
         <v>11.234451500950168</v>
       </c>
-      <c r="O130">
+      <c r="O130" s="6">
         <v>12.709834756176159</v>
       </c>
-      <c r="P130">
+      <c r="P130" s="6">
         <v>15.20328625</v>
       </c>
-      <c r="Q130">
+      <c r="Q130" s="6">
         <v>18.993441085872579</v>
       </c>
-      <c r="R130">
+      <c r="R130" s="6">
         <v>57.441369999999999</v>
       </c>
-      <c r="S130">
+      <c r="S130" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -8139,40 +8148,40 @@
       <c r="G131" s="4">
         <v>1</v>
       </c>
-      <c r="H131">
+      <c r="H131" s="6">
         <v>2.465411392405064</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="6">
         <v>5.808709452201934</v>
       </c>
-      <c r="J131">
+      <c r="J131" s="6">
         <v>7.6871716772151899</v>
       </c>
-      <c r="K131">
+      <c r="K131" s="6">
         <v>8.6211779999999987</v>
       </c>
-      <c r="L131">
+      <c r="L131" s="6">
         <v>10.62030217146958</v>
       </c>
-      <c r="M131">
+      <c r="M131" s="6">
         <v>13.129556786703601</v>
       </c>
-      <c r="N131">
+      <c r="N131" s="6">
         <v>16.040760405063288</v>
       </c>
-      <c r="O131">
+      <c r="O131" s="6">
         <v>20.264839598162631</v>
       </c>
-      <c r="P131">
+      <c r="P131" s="6">
         <v>24.533874045801532</v>
       </c>
-      <c r="Q131">
+      <c r="Q131" s="6">
         <v>30.98007106383572</v>
       </c>
-      <c r="R131">
+      <c r="R131" s="6">
         <v>46.107929389312986</v>
       </c>
-      <c r="S131">
+      <c r="S131" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8198,40 +8207,40 @@
       <c r="G132" s="2">
         <v>2</v>
       </c>
-      <c r="H132">
+      <c r="H132" s="6">
         <v>0.31911392405063282</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="6">
         <v>3.3407819670781889</v>
       </c>
-      <c r="J132">
+      <c r="J132" s="6">
         <v>4.9252798353909473</v>
       </c>
-      <c r="K132">
+      <c r="K132" s="6">
         <v>6.8123710937500004</v>
       </c>
-      <c r="L132">
+      <c r="L132" s="6">
         <v>8.297035392714589</v>
       </c>
-      <c r="M132">
+      <c r="M132" s="6">
         <v>9.4550483351235233</v>
       </c>
-      <c r="N132">
+      <c r="N132" s="6">
         <v>11.234451500950168</v>
       </c>
-      <c r="O132">
+      <c r="O132" s="6">
         <v>12.709834756176159</v>
       </c>
-      <c r="P132">
+      <c r="P132" s="6">
         <v>15.20328625</v>
       </c>
-      <c r="Q132">
+      <c r="Q132" s="6">
         <v>18.993441085872579</v>
       </c>
-      <c r="R132">
+      <c r="R132" s="6">
         <v>57.441369999999999</v>
       </c>
-      <c r="S132">
+      <c r="S132" s="5">
         <v>9.9465373616809639E-4</v>
       </c>
     </row>
@@ -8257,40 +8266,40 @@
       <c r="G133" s="4">
         <v>3</v>
       </c>
-      <c r="H133">
+      <c r="H133" s="6">
         <v>2.465411392405064</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="6">
         <v>5.808709452201934</v>
       </c>
-      <c r="J133">
+      <c r="J133" s="6">
         <v>7.6871716772151899</v>
       </c>
-      <c r="K133">
+      <c r="K133" s="6">
         <v>8.6211779999999987</v>
       </c>
-      <c r="L133">
+      <c r="L133" s="6">
         <v>10.62030217146958</v>
       </c>
-      <c r="M133">
+      <c r="M133" s="6">
         <v>13.129556786703601</v>
       </c>
-      <c r="N133">
+      <c r="N133" s="6">
         <v>16.040760405063288</v>
       </c>
-      <c r="O133">
+      <c r="O133" s="6">
         <v>20.264839598162631</v>
       </c>
-      <c r="P133">
+      <c r="P133" s="6">
         <v>24.533874045801532</v>
       </c>
-      <c r="Q133">
+      <c r="Q133" s="6">
         <v>30.98007106383572</v>
       </c>
-      <c r="R133">
+      <c r="R133" s="6">
         <v>46.107929389312986</v>
       </c>
-      <c r="S133">
+      <c r="S133" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8316,40 +8325,40 @@
       <c r="G134" s="2">
         <v>0</v>
       </c>
-      <c r="H134">
+      <c r="H134" s="6">
         <v>1.0112000000000001</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="6">
         <v>5.1142019334049413</v>
       </c>
-      <c r="J134">
+      <c r="J134" s="6">
         <v>6.8531970862962117</v>
       </c>
-      <c r="K134">
+      <c r="K134" s="6">
         <v>7.9665419999999996</v>
       </c>
-      <c r="L134">
+      <c r="L134" s="6">
         <v>11.17128227880659</v>
       </c>
-      <c r="M134">
+      <c r="M134" s="6">
         <v>11.742290000000001</v>
       </c>
-      <c r="N134">
+      <c r="N134" s="6">
         <v>13.223052766772961</v>
       </c>
-      <c r="O134">
+      <c r="O134" s="6">
         <v>16.432939805568612</v>
       </c>
-      <c r="P134">
+      <c r="P134" s="6">
         <v>19.533517725190862</v>
       </c>
-      <c r="Q134">
+      <c r="Q134" s="6">
         <v>24.169363311068707</v>
       </c>
-      <c r="R134">
+      <c r="R134" s="6">
         <v>52.464699907663885</v>
       </c>
-      <c r="S134">
+      <c r="S134" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -8375,40 +8384,40 @@
       <c r="G135" s="4">
         <v>1</v>
       </c>
-      <c r="H135">
+      <c r="H135" s="6">
         <v>4.4483127572016459</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="6">
         <v>5.411090534979424</v>
       </c>
-      <c r="J135">
+      <c r="J135" s="6">
         <v>9.2565899999999992</v>
       </c>
-      <c r="K135">
+      <c r="K135" s="6">
         <v>10.050333969465649</v>
       </c>
-      <c r="L135">
+      <c r="L135" s="6">
         <v>10.362500000000001</v>
       </c>
-      <c r="M135">
+      <c r="M135" s="6">
         <v>12.25012658227848</v>
       </c>
-      <c r="N135">
+      <c r="N135" s="6">
         <v>13.08521</v>
       </c>
-      <c r="O135">
+      <c r="O135" s="6">
         <v>17.593012704174228</v>
       </c>
-      <c r="P135">
+      <c r="P135" s="6">
         <v>20.903037974683539</v>
       </c>
-      <c r="Q135">
+      <c r="Q135" s="6">
         <v>25.103000923361037</v>
       </c>
-      <c r="R135">
+      <c r="R135" s="6">
         <v>29.049866412213738</v>
       </c>
-      <c r="S135">
+      <c r="S135" s="5">
         <v>0</v>
       </c>
     </row>
@@ -8434,40 +8443,40 @@
       <c r="G136" s="2">
         <v>2</v>
       </c>
-      <c r="H136">
+      <c r="H136" s="6">
         <v>1.0112000000000001</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="6">
         <v>5.1142019334049413</v>
       </c>
-      <c r="J136">
+      <c r="J136" s="6">
         <v>6.8531970862962117</v>
       </c>
-      <c r="K136">
+      <c r="K136" s="6">
         <v>7.9665419999999996</v>
       </c>
-      <c r="L136">
+      <c r="L136" s="6">
         <v>11.17128227880659</v>
       </c>
-      <c r="M136">
+      <c r="M136" s="6">
         <v>11.742290000000001</v>
       </c>
-      <c r="N136">
+      <c r="N136" s="6">
         <v>13.223052766772961</v>
       </c>
-      <c r="O136">
+      <c r="O136" s="6">
         <v>16.432939805568612</v>
       </c>
-      <c r="P136">
+      <c r="P136" s="6">
         <v>19.533517725190862</v>
       </c>
-      <c r="Q136">
+      <c r="Q136" s="6">
         <v>24.169363311068707</v>
       </c>
-      <c r="R136">
+      <c r="R136" s="6">
         <v>52.464699907663885</v>
       </c>
-      <c r="S136">
+      <c r="S136" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -8493,40 +8502,40 @@
       <c r="G137" s="4">
         <v>3</v>
       </c>
-      <c r="H137">
+      <c r="H137" s="6">
         <v>4.4483127572016459</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="6">
         <v>5.411090534979424</v>
       </c>
-      <c r="J137">
+      <c r="J137" s="6">
         <v>9.2565899999999992</v>
       </c>
-      <c r="K137">
+      <c r="K137" s="6">
         <v>10.050333969465649</v>
       </c>
-      <c r="L137">
+      <c r="L137" s="6">
         <v>10.362500000000001</v>
       </c>
-      <c r="M137">
+      <c r="M137" s="6">
         <v>12.25012658227848</v>
       </c>
-      <c r="N137">
+      <c r="N137" s="6">
         <v>13.08521</v>
       </c>
-      <c r="O137">
+      <c r="O137" s="6">
         <v>17.593012704174228</v>
       </c>
-      <c r="P137">
+      <c r="P137" s="6">
         <v>20.903037974683539</v>
       </c>
-      <c r="Q137">
+      <c r="Q137" s="6">
         <v>25.103000923361037</v>
       </c>
-      <c r="R137">
+      <c r="R137" s="6">
         <v>29.049866412213738</v>
       </c>
-      <c r="S137">
+      <c r="S137" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -8552,40 +8561,40 @@
       <c r="G138" s="2">
         <v>0</v>
       </c>
-      <c r="H138">
+      <c r="H138" s="6">
         <v>0.31911392405063282</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="6">
         <v>3.3407819670781889</v>
       </c>
-      <c r="J138">
+      <c r="J138" s="6">
         <v>4.9252798353909473</v>
       </c>
-      <c r="K138">
+      <c r="K138" s="6">
         <v>6.8123710937500004</v>
       </c>
-      <c r="L138">
+      <c r="L138" s="6">
         <v>8.297035392714589</v>
       </c>
-      <c r="M138">
+      <c r="M138" s="6">
         <v>9.4550483351235233</v>
       </c>
-      <c r="N138">
+      <c r="N138" s="6">
         <v>11.234451500950168</v>
       </c>
-      <c r="O138">
+      <c r="O138" s="6">
         <v>12.709834756176159</v>
       </c>
-      <c r="P138">
+      <c r="P138" s="6">
         <v>15.20328625</v>
       </c>
-      <c r="Q138">
+      <c r="Q138" s="6">
         <v>18.993441085872579</v>
       </c>
-      <c r="R138">
+      <c r="R138" s="6">
         <v>57.441369999999999</v>
       </c>
-      <c r="S138">
+      <c r="S138" s="5">
         <v>4.973268680840482E-4</v>
       </c>
     </row>
@@ -8611,40 +8620,40 @@
       <c r="G139" s="4">
         <v>1</v>
       </c>
-      <c r="H139">
+      <c r="H139" s="6">
         <v>2.465411392405064</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="6">
         <v>5.808709452201934</v>
       </c>
-      <c r="J139">
+      <c r="J139" s="6">
         <v>7.6871716772151899</v>
       </c>
-      <c r="K139">
+      <c r="K139" s="6">
         <v>8.6211779999999987</v>
       </c>
-      <c r="L139">
+      <c r="L139" s="6">
         <v>10.62030217146958</v>
       </c>
-      <c r="M139">
+      <c r="M139" s="6">
         <v>13.129556786703601</v>
       </c>
-      <c r="N139">
+      <c r="N139" s="6">
         <v>16.040760405063288</v>
       </c>
-      <c r="O139">
+      <c r="O139" s="6">
         <v>20.264839598162631</v>
       </c>
-      <c r="P139">
+      <c r="P139" s="6">
         <v>24.533874045801532</v>
       </c>
-      <c r="Q139">
+      <c r="Q139" s="6">
         <v>30.98007106383572</v>
       </c>
-      <c r="R139">
+      <c r="R139" s="6">
         <v>46.107929389312986</v>
       </c>
-      <c r="S139">
+      <c r="S139" s="5">
         <v>2.486634340420241E-4</v>
       </c>
     </row>
@@ -8670,40 +8679,40 @@
       <c r="G140" s="2">
         <v>2</v>
       </c>
-      <c r="H140">
+      <c r="H140" s="6">
         <v>0.31911392405063282</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="6">
         <v>3.3407819670781889</v>
       </c>
-      <c r="J140">
+      <c r="J140" s="6">
         <v>4.9252798353909473</v>
       </c>
-      <c r="K140">
+      <c r="K140" s="6">
         <v>6.8123710937500004</v>
       </c>
-      <c r="L140">
+      <c r="L140" s="6">
         <v>8.297035392714589</v>
       </c>
-      <c r="M140">
+      <c r="M140" s="6">
         <v>9.4550483351235233</v>
       </c>
-      <c r="N140">
+      <c r="N140" s="6">
         <v>11.234451500950168</v>
       </c>
-      <c r="O140">
+      <c r="O140" s="6">
         <v>12.709834756176159</v>
       </c>
-      <c r="P140">
+      <c r="P140" s="6">
         <v>15.20328625</v>
       </c>
-      <c r="Q140">
+      <c r="Q140" s="6">
         <v>18.993441085872579</v>
       </c>
-      <c r="R140">
+      <c r="R140" s="6">
         <v>57.441369999999999</v>
       </c>
-      <c r="S140">
+      <c r="S140" s="5">
         <v>3.5931866219072482E-2</v>
       </c>
     </row>
@@ -8729,40 +8738,40 @@
       <c r="G141" s="4">
         <v>3</v>
       </c>
-      <c r="H141">
+      <c r="H141" s="6">
         <v>2.465411392405064</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="6">
         <v>5.808709452201934</v>
       </c>
-      <c r="J141">
+      <c r="J141" s="6">
         <v>7.6871716772151899</v>
       </c>
-      <c r="K141">
+      <c r="K141" s="6">
         <v>8.6211779999999987</v>
       </c>
-      <c r="L141">
+      <c r="L141" s="6">
         <v>10.62030217146958</v>
       </c>
-      <c r="M141">
+      <c r="M141" s="6">
         <v>13.129556786703601</v>
       </c>
-      <c r="N141">
+      <c r="N141" s="6">
         <v>16.040760405063288</v>
       </c>
-      <c r="O141">
+      <c r="O141" s="6">
         <v>20.264839598162631</v>
       </c>
-      <c r="P141">
+      <c r="P141" s="6">
         <v>24.533874045801532</v>
       </c>
-      <c r="Q141">
+      <c r="Q141" s="6">
         <v>30.98007106383572</v>
       </c>
-      <c r="R141">
+      <c r="R141" s="6">
         <v>46.107929389312986</v>
       </c>
-      <c r="S141">
+      <c r="S141" s="5">
         <v>6.2165858510506034E-3</v>
       </c>
     </row>
@@ -8788,40 +8797,40 @@
       <c r="G142" s="2">
         <v>0</v>
       </c>
-      <c r="H142">
+      <c r="H142" s="6">
         <v>1.0112000000000001</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="6">
         <v>5.1142019334049413</v>
       </c>
-      <c r="J142">
+      <c r="J142" s="6">
         <v>6.8531970862962117</v>
       </c>
-      <c r="K142">
+      <c r="K142" s="6">
         <v>7.9665419999999996</v>
       </c>
-      <c r="L142">
+      <c r="L142" s="6">
         <v>11.17128227880659</v>
       </c>
-      <c r="M142">
+      <c r="M142" s="6">
         <v>11.742290000000001</v>
       </c>
-      <c r="N142">
+      <c r="N142" s="6">
         <v>13.223052766772961</v>
       </c>
-      <c r="O142">
+      <c r="O142" s="6">
         <v>16.432939805568612</v>
       </c>
-      <c r="P142">
+      <c r="P142" s="6">
         <v>19.533517725190862</v>
       </c>
-      <c r="Q142">
+      <c r="Q142" s="6">
         <v>24.169363311068707</v>
       </c>
-      <c r="R142">
+      <c r="R142" s="6">
         <v>52.464699907663885</v>
       </c>
-      <c r="S142">
+      <c r="S142" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -8847,40 +8856,40 @@
       <c r="G143" s="4">
         <v>1</v>
       </c>
-      <c r="H143">
+      <c r="H143" s="6">
         <v>4.4483127572016459</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="6">
         <v>5.411090534979424</v>
       </c>
-      <c r="J143">
+      <c r="J143" s="6">
         <v>9.2565899999999992</v>
       </c>
-      <c r="K143">
+      <c r="K143" s="6">
         <v>10.050333969465649</v>
       </c>
-      <c r="L143">
+      <c r="L143" s="6">
         <v>10.362500000000001</v>
       </c>
-      <c r="M143">
+      <c r="M143" s="6">
         <v>12.25012658227848</v>
       </c>
-      <c r="N143">
+      <c r="N143" s="6">
         <v>13.08521</v>
       </c>
-      <c r="O143">
+      <c r="O143" s="6">
         <v>17.593012704174228</v>
       </c>
-      <c r="P143">
+      <c r="P143" s="6">
         <v>20.903037974683539</v>
       </c>
-      <c r="Q143">
+      <c r="Q143" s="6">
         <v>25.103000923361037</v>
       </c>
-      <c r="R143">
+      <c r="R143" s="6">
         <v>29.049866412213738</v>
       </c>
-      <c r="S143">
+      <c r="S143" s="5">
         <v>1.2433171702101199E-4</v>
       </c>
     </row>
@@ -8906,40 +8915,40 @@
       <c r="G144" s="2">
         <v>2</v>
       </c>
-      <c r="H144">
+      <c r="H144" s="6">
         <v>1.0112000000000001</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="6">
         <v>5.1142019334049413</v>
       </c>
-      <c r="J144">
+      <c r="J144" s="6">
         <v>6.8531970862962117</v>
       </c>
-      <c r="K144">
+      <c r="K144" s="6">
         <v>7.9665419999999996</v>
       </c>
-      <c r="L144">
+      <c r="L144" s="6">
         <v>11.17128227880659</v>
       </c>
-      <c r="M144">
+      <c r="M144" s="6">
         <v>11.742290000000001</v>
       </c>
-      <c r="N144">
+      <c r="N144" s="6">
         <v>13.223052766772961</v>
       </c>
-      <c r="O144">
+      <c r="O144" s="6">
         <v>16.432939805568612</v>
       </c>
-      <c r="P144">
+      <c r="P144" s="6">
         <v>19.533517725190862</v>
       </c>
-      <c r="Q144">
+      <c r="Q144" s="6">
         <v>24.169363311068707</v>
       </c>
-      <c r="R144">
+      <c r="R144" s="6">
         <v>52.464699907663885</v>
       </c>
-      <c r="S144">
+      <c r="S144" s="5">
         <v>2.735297774462265E-3</v>
       </c>
     </row>
@@ -8965,40 +8974,40 @@
       <c r="G145" s="4">
         <v>3</v>
       </c>
-      <c r="H145">
+      <c r="H145" s="6">
         <v>4.4483127572016459</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="6">
         <v>5.411090534979424</v>
       </c>
-      <c r="J145">
+      <c r="J145" s="6">
         <v>9.2565899999999992</v>
       </c>
-      <c r="K145">
+      <c r="K145" s="6">
         <v>10.050333969465649</v>
       </c>
-      <c r="L145">
+      <c r="L145" s="6">
         <v>10.362500000000001</v>
       </c>
-      <c r="M145">
+      <c r="M145" s="6">
         <v>12.25012658227848</v>
       </c>
-      <c r="N145">
+      <c r="N145" s="6">
         <v>13.08521</v>
       </c>
-      <c r="O145">
+      <c r="O145" s="6">
         <v>17.593012704174228</v>
       </c>
-      <c r="P145">
+      <c r="P145" s="6">
         <v>20.903037974683539</v>
       </c>
-      <c r="Q145">
+      <c r="Q145" s="6">
         <v>25.103000923361037</v>
       </c>
-      <c r="R145">
+      <c r="R145" s="6">
         <v>29.049866412213738</v>
       </c>
-      <c r="S145">
+      <c r="S145" s="5">
         <v>2.1136391893572049E-3</v>
       </c>
     </row>

--- a/Main/SASdata/couple_formue.xlsx
+++ b/Main/SASdata/couple_formue.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Ny\SASdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA4948B-F116-4D4A-AB20-EF4D7061575F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79101F3C-F95A-4EF8-87E9-77A6B0DCBE1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6EC07FC9-461D-4A48-A1A5-A60E64016522}"/>
   </bookViews>
@@ -36,18 +36,6 @@
     <t>Aldersforskel</t>
   </si>
   <si>
-    <t>Mand (adgang til efterløn)</t>
-  </si>
-  <si>
-    <t>Mand (high skilled)</t>
-  </si>
-  <si>
-    <t>Kvinde (adgang til efterløn)</t>
-  </si>
-  <si>
-    <t>Kvinde (high skilled)</t>
-  </si>
-  <si>
     <t>Mand (ST)</t>
   </si>
   <si>
@@ -56,14 +44,26 @@
   <si>
     <t>Frac</t>
   </si>
+  <si>
+    <t>Mand (elig)</t>
+  </si>
+  <si>
+    <t>Mand (hs)</t>
+  </si>
+  <si>
+    <t>Kvinde (elig)</t>
+  </si>
+  <si>
+    <t>Kvinde (hs)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -120,8 +120,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,17 +438,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4253942D-D70C-439F-BCC9-108C66B9FC8F}">
   <dimension ref="A1:S145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
     <col min="8" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -461,22 +461,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="H1" s="1">
         <v>0</v>
@@ -512,7 +512,7 @@
         <v>100</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -538,37 +538,37 @@
         <v>0</v>
       </c>
       <c r="H2" s="6">
-        <v>0.54449588477366251</v>
+        <v>0.15138888888888891</v>
       </c>
       <c r="I2" s="6">
-        <v>3.3027850886075938</v>
+        <v>4.920453729259858</v>
       </c>
       <c r="J2" s="6">
-        <v>4.9204589321404786</v>
+        <v>7.047493843665193</v>
       </c>
       <c r="K2" s="6">
-        <v>6.1925763660988693</v>
+        <v>8.8402590342078167</v>
       </c>
       <c r="L2" s="6">
-        <v>7.5319900413674929</v>
+        <v>10.36204274973147</v>
       </c>
       <c r="M2" s="6">
-        <v>8.8650823045267479</v>
+        <v>12.255852994555349</v>
       </c>
       <c r="N2" s="6">
-        <v>10.209918827187211</v>
+        <v>14.278386671755719</v>
       </c>
       <c r="O2" s="6">
-        <v>12.093162109374999</v>
+        <v>16.54286985574354</v>
       </c>
       <c r="P2" s="6">
-        <v>14.34358188096591</v>
+        <v>19.771670373779649</v>
       </c>
       <c r="Q2" s="6">
-        <v>18.052756493934599</v>
+        <v>25.78335841232095</v>
       </c>
       <c r="R2" s="6">
-        <v>43.089660493827161</v>
+        <v>90.0739054290718</v>
       </c>
       <c r="S2" s="5">
         <v>2.486634340420241E-4</v>
@@ -600,34 +600,34 @@
         <v>2.3921589688506977</v>
       </c>
       <c r="I3" s="6">
-        <v>6.3432939261342911</v>
+        <v>8.2654860394853351</v>
       </c>
       <c r="J3" s="6">
-        <v>7.7808340000000005</v>
+        <v>10.995046852320669</v>
       </c>
       <c r="K3" s="6">
-        <v>9.4308662551440321</v>
+        <v>13.603579166520571</v>
       </c>
       <c r="L3" s="6">
-        <v>12.119677208895251</v>
+        <v>15.570547595627659</v>
       </c>
       <c r="M3" s="6">
-        <v>13.634462025316459</v>
+        <v>17.73688691738144</v>
       </c>
       <c r="N3" s="6">
-        <v>14.15351469354189</v>
+        <v>20.61862613430127</v>
       </c>
       <c r="O3" s="6">
-        <v>14.39675837974684</v>
+        <v>23.783987931297709</v>
       </c>
       <c r="P3" s="6">
-        <v>17.024994625954189</v>
+        <v>29.575912880282257</v>
       </c>
       <c r="Q3" s="6">
-        <v>20.449633856154581</v>
+        <v>37.312983125518848</v>
       </c>
       <c r="R3" s="6">
-        <v>46.57761</v>
+        <v>83.378747810858115</v>
       </c>
       <c r="S3" s="5">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>2</v>
       </c>
       <c r="H4" s="6">
-        <v>0.54449588477366251</v>
+        <v>0.15138888888888891</v>
       </c>
       <c r="I4" s="6">
-        <v>3.3027850886075938</v>
+        <v>4.920453729259858</v>
       </c>
       <c r="J4" s="6">
-        <v>4.9204589321404786</v>
+        <v>7.047493843665193</v>
       </c>
       <c r="K4" s="6">
-        <v>6.1925763660988693</v>
+        <v>8.8402590342078167</v>
       </c>
       <c r="L4" s="6">
-        <v>7.5319900413674929</v>
+        <v>10.36204274973147</v>
       </c>
       <c r="M4" s="6">
-        <v>8.8650823045267479</v>
+        <v>12.255852994555349</v>
       </c>
       <c r="N4" s="6">
-        <v>10.209918827187211</v>
+        <v>14.278386671755719</v>
       </c>
       <c r="O4" s="6">
-        <v>12.093162109374999</v>
+        <v>16.54286985574354</v>
       </c>
       <c r="P4" s="6">
-        <v>14.34358188096591</v>
+        <v>19.771670373779649</v>
       </c>
       <c r="Q4" s="6">
-        <v>18.052756493934599</v>
+        <v>25.78335841232095</v>
       </c>
       <c r="R4" s="6">
-        <v>43.089660493827161</v>
+        <v>90.0739054290718</v>
       </c>
       <c r="S4" s="5">
         <v>2.486634340420241E-4</v>
@@ -718,34 +718,34 @@
         <v>2.3921589688506977</v>
       </c>
       <c r="I5" s="6">
-        <v>6.3432939261342911</v>
+        <v>8.2654860394853351</v>
       </c>
       <c r="J5" s="6">
-        <v>7.7808340000000005</v>
+        <v>10.995046852320669</v>
       </c>
       <c r="K5" s="6">
-        <v>9.4308662551440321</v>
+        <v>13.603579166520571</v>
       </c>
       <c r="L5" s="6">
-        <v>12.119677208895251</v>
+        <v>15.570547595627659</v>
       </c>
       <c r="M5" s="6">
-        <v>13.634462025316459</v>
+        <v>17.73688691738144</v>
       </c>
       <c r="N5" s="6">
-        <v>14.15351469354189</v>
+        <v>20.61862613430127</v>
       </c>
       <c r="O5" s="6">
-        <v>14.39675837974684</v>
+        <v>23.783987931297709</v>
       </c>
       <c r="P5" s="6">
-        <v>17.024994625954189</v>
+        <v>29.575912880282257</v>
       </c>
       <c r="Q5" s="6">
-        <v>20.449633856154581</v>
+        <v>37.312983125518848</v>
       </c>
       <c r="R5" s="6">
-        <v>46.57761</v>
+        <v>83.378747810858115</v>
       </c>
       <c r="S5" s="5">
         <v>2.486634340420241E-4</v>
@@ -774,37 +774,37 @@
         <v>0</v>
       </c>
       <c r="H6" s="6">
-        <v>2.1148227712137491</v>
+        <v>0.19946460980036299</v>
       </c>
       <c r="I6" s="6">
-        <v>5.2310055915414031</v>
+        <v>5.95027187074637</v>
       </c>
       <c r="J6" s="6">
-        <v>8.3413183593750002</v>
+        <v>9.1500884046052633</v>
       </c>
       <c r="K6" s="6">
-        <v>9.2247247265624992</v>
+        <v>11.757331422931191</v>
       </c>
       <c r="L6" s="6">
-        <v>11.545770042194091</v>
+        <v>14.218470248038741</v>
       </c>
       <c r="M6" s="6">
-        <v>12.51341721374046</v>
+        <v>17.535042798409112</v>
       </c>
       <c r="N6" s="6">
-        <v>15.100380658436219</v>
+        <v>20.809782716808588</v>
       </c>
       <c r="O6" s="6">
-        <v>17.110495</v>
+        <v>24.429244759002771</v>
       </c>
       <c r="P6" s="6">
-        <v>20.632932098765441</v>
+        <v>30.065343936436332</v>
       </c>
       <c r="Q6" s="6">
-        <v>24.108676134902261</v>
+        <v>39.390907486388393</v>
       </c>
       <c r="R6" s="6">
-        <v>55.598904403866811</v>
+        <v>96.547302977232931</v>
       </c>
       <c r="S6" s="5">
         <v>0</v>
@@ -833,37 +833,37 @@
         <v>1</v>
       </c>
       <c r="H7" s="6">
-        <v>2.5385654008438818</v>
+        <v>1.5250692520775631</v>
       </c>
       <c r="I7" s="6">
-        <v>6.9766913663440082</v>
+        <v>7.3844303797468358</v>
       </c>
       <c r="J7" s="6">
-        <v>9.253395061728396</v>
+        <v>10.269819999999999</v>
       </c>
       <c r="K7" s="6">
-        <v>10.25841429521776</v>
+        <v>12.213019390581721</v>
       </c>
       <c r="L7" s="6">
-        <v>11.776512345679009</v>
+        <v>13.631560480147741</v>
       </c>
       <c r="M7" s="6">
-        <v>13.880933921755719</v>
+        <v>16.782098765432099</v>
       </c>
       <c r="N7" s="6">
-        <v>14.448945312499999</v>
+        <v>20.903037974683539</v>
       </c>
       <c r="O7" s="6">
-        <v>16.937078059071748</v>
+        <v>24.536604572396268</v>
       </c>
       <c r="P7" s="6">
-        <v>17.487985480943738</v>
+        <v>30.140880217785867</v>
       </c>
       <c r="Q7" s="6">
-        <v>27.081190584743229</v>
+        <v>40.241837425910248</v>
       </c>
       <c r="R7" s="6">
-        <v>43.072423664122141</v>
+        <v>78.098309982486882</v>
       </c>
       <c r="S7" s="5">
         <v>2.486634340420241E-4</v>
@@ -892,37 +892,37 @@
         <v>2</v>
       </c>
       <c r="H8" s="6">
-        <v>2.1148227712137491</v>
+        <v>0.19946460980036299</v>
       </c>
       <c r="I8" s="6">
-        <v>5.2310055915414031</v>
+        <v>5.95027187074637</v>
       </c>
       <c r="J8" s="6">
-        <v>8.3413183593750002</v>
+        <v>9.1500884046052633</v>
       </c>
       <c r="K8" s="6">
-        <v>9.2247247265624992</v>
+        <v>11.757331422931191</v>
       </c>
       <c r="L8" s="6">
-        <v>11.545770042194091</v>
+        <v>14.218470248038741</v>
       </c>
       <c r="M8" s="6">
-        <v>12.51341721374046</v>
+        <v>17.535042798409112</v>
       </c>
       <c r="N8" s="6">
-        <v>15.100380658436219</v>
+        <v>20.809782716808588</v>
       </c>
       <c r="O8" s="6">
-        <v>17.110495</v>
+        <v>24.429244759002771</v>
       </c>
       <c r="P8" s="6">
-        <v>20.632932098765441</v>
+        <v>30.065343936436332</v>
       </c>
       <c r="Q8" s="6">
-        <v>24.108676134902261</v>
+        <v>39.390907486388393</v>
       </c>
       <c r="R8" s="6">
-        <v>55.598904403866811</v>
+        <v>96.547302977232931</v>
       </c>
       <c r="S8" s="5">
         <v>1.2433171702101199E-4</v>
@@ -951,37 +951,37 @@
         <v>3</v>
       </c>
       <c r="H9" s="6">
-        <v>2.5385654008438818</v>
+        <v>1.5250692520775631</v>
       </c>
       <c r="I9" s="6">
-        <v>6.9766913663440082</v>
+        <v>7.3844303797468358</v>
       </c>
       <c r="J9" s="6">
-        <v>9.253395061728396</v>
+        <v>10.269819999999999</v>
       </c>
       <c r="K9" s="6">
-        <v>10.25841429521776</v>
+        <v>12.213019390581721</v>
       </c>
       <c r="L9" s="6">
-        <v>11.776512345679009</v>
+        <v>13.631560480147741</v>
       </c>
       <c r="M9" s="6">
-        <v>13.880933921755719</v>
+        <v>16.782098765432099</v>
       </c>
       <c r="N9" s="6">
-        <v>14.448945312499999</v>
+        <v>20.903037974683539</v>
       </c>
       <c r="O9" s="6">
-        <v>16.937078059071748</v>
+        <v>24.536604572396268</v>
       </c>
       <c r="P9" s="6">
-        <v>17.487985480943738</v>
+        <v>30.140880217785867</v>
       </c>
       <c r="Q9" s="6">
-        <v>27.081190584743229</v>
+        <v>40.241837425910248</v>
       </c>
       <c r="R9" s="6">
-        <v>43.072423664122141</v>
+        <v>78.098309982486882</v>
       </c>
       <c r="S9" s="5">
         <v>0</v>
@@ -1010,37 +1010,37 @@
         <v>0</v>
       </c>
       <c r="H10" s="6">
-        <v>0.54449588477366251</v>
+        <v>0.15138888888888891</v>
       </c>
       <c r="I10" s="6">
-        <v>3.3027850886075938</v>
+        <v>4.920453729259858</v>
       </c>
       <c r="J10" s="6">
-        <v>4.9204589321404786</v>
+        <v>7.047493843665193</v>
       </c>
       <c r="K10" s="6">
-        <v>6.1925763660988693</v>
+        <v>8.8402590342078167</v>
       </c>
       <c r="L10" s="6">
-        <v>7.5319900413674929</v>
+        <v>10.36204274973147</v>
       </c>
       <c r="M10" s="6">
-        <v>8.8650823045267479</v>
+        <v>12.255852994555349</v>
       </c>
       <c r="N10" s="6">
-        <v>10.209918827187211</v>
+        <v>14.278386671755719</v>
       </c>
       <c r="O10" s="6">
-        <v>12.093162109374999</v>
+        <v>16.54286985574354</v>
       </c>
       <c r="P10" s="6">
-        <v>14.34358188096591</v>
+        <v>19.771670373779649</v>
       </c>
       <c r="Q10" s="6">
-        <v>18.052756493934599</v>
+        <v>25.78335841232095</v>
       </c>
       <c r="R10" s="6">
-        <v>43.089660493827161</v>
+        <v>90.0739054290718</v>
       </c>
       <c r="S10" s="5">
         <v>6.216585851050603E-4</v>
@@ -1072,34 +1072,34 @@
         <v>2.3921589688506977</v>
       </c>
       <c r="I11" s="6">
-        <v>6.3432939261342911</v>
+        <v>8.2654860394853351</v>
       </c>
       <c r="J11" s="6">
-        <v>7.7808340000000005</v>
+        <v>10.995046852320669</v>
       </c>
       <c r="K11" s="6">
-        <v>9.4308662551440321</v>
+        <v>13.603579166520571</v>
       </c>
       <c r="L11" s="6">
-        <v>12.119677208895251</v>
+        <v>15.570547595627659</v>
       </c>
       <c r="M11" s="6">
-        <v>13.634462025316459</v>
+        <v>17.73688691738144</v>
       </c>
       <c r="N11" s="6">
-        <v>14.15351469354189</v>
+        <v>20.61862613430127</v>
       </c>
       <c r="O11" s="6">
-        <v>14.39675837974684</v>
+        <v>23.783987931297709</v>
       </c>
       <c r="P11" s="6">
-        <v>17.024994625954189</v>
+        <v>29.575912880282257</v>
       </c>
       <c r="Q11" s="6">
-        <v>20.449633856154581</v>
+        <v>37.312983125518848</v>
       </c>
       <c r="R11" s="6">
-        <v>46.57761</v>
+        <v>83.378747810858115</v>
       </c>
       <c r="S11" s="5">
         <v>1.2433171702101199E-4</v>
@@ -1128,37 +1128,37 @@
         <v>2</v>
       </c>
       <c r="H12" s="6">
-        <v>0.54449588477366251</v>
+        <v>0.15138888888888891</v>
       </c>
       <c r="I12" s="6">
-        <v>3.3027850886075938</v>
+        <v>4.920453729259858</v>
       </c>
       <c r="J12" s="6">
-        <v>4.9204589321404786</v>
+        <v>7.047493843665193</v>
       </c>
       <c r="K12" s="6">
-        <v>6.1925763660988693</v>
+        <v>8.8402590342078167</v>
       </c>
       <c r="L12" s="6">
-        <v>7.5319900413674929</v>
+        <v>10.36204274973147</v>
       </c>
       <c r="M12" s="6">
-        <v>8.8650823045267479</v>
+        <v>12.255852994555349</v>
       </c>
       <c r="N12" s="6">
-        <v>10.209918827187211</v>
+        <v>14.278386671755719</v>
       </c>
       <c r="O12" s="6">
-        <v>12.093162109374999</v>
+        <v>16.54286985574354</v>
       </c>
       <c r="P12" s="6">
-        <v>14.34358188096591</v>
+        <v>19.771670373779649</v>
       </c>
       <c r="Q12" s="6">
-        <v>18.052756493934599</v>
+        <v>25.78335841232095</v>
       </c>
       <c r="R12" s="6">
-        <v>43.089660493827161</v>
+        <v>90.0739054290718</v>
       </c>
       <c r="S12" s="5">
         <v>4.0905134899912973E-2</v>
@@ -1190,34 +1190,34 @@
         <v>2.3921589688506977</v>
       </c>
       <c r="I13" s="6">
-        <v>6.3432939261342911</v>
+        <v>8.2654860394853351</v>
       </c>
       <c r="J13" s="6">
-        <v>7.7808340000000005</v>
+        <v>10.995046852320669</v>
       </c>
       <c r="K13" s="6">
-        <v>9.4308662551440321</v>
+        <v>13.603579166520571</v>
       </c>
       <c r="L13" s="6">
-        <v>12.119677208895251</v>
+        <v>15.570547595627659</v>
       </c>
       <c r="M13" s="6">
-        <v>13.634462025316459</v>
+        <v>17.73688691738144</v>
       </c>
       <c r="N13" s="6">
-        <v>14.15351469354189</v>
+        <v>20.61862613430127</v>
       </c>
       <c r="O13" s="6">
-        <v>14.39675837974684</v>
+        <v>23.783987931297709</v>
       </c>
       <c r="P13" s="6">
-        <v>17.024994625954189</v>
+        <v>29.575912880282257</v>
       </c>
       <c r="Q13" s="6">
-        <v>20.449633856154581</v>
+        <v>37.312983125518848</v>
       </c>
       <c r="R13" s="6">
-        <v>46.57761</v>
+        <v>83.378747810858115</v>
       </c>
       <c r="S13" s="5">
         <v>5.0976003978614936E-3</v>
@@ -1246,37 +1246,37 @@
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>2.1148227712137491</v>
+        <v>0.19946460980036299</v>
       </c>
       <c r="I14" s="6">
-        <v>5.2310055915414031</v>
+        <v>5.95027187074637</v>
       </c>
       <c r="J14" s="6">
-        <v>8.3413183593750002</v>
+        <v>9.1500884046052633</v>
       </c>
       <c r="K14" s="6">
-        <v>9.2247247265624992</v>
+        <v>11.757331422931191</v>
       </c>
       <c r="L14" s="6">
-        <v>11.545770042194091</v>
+        <v>14.218470248038741</v>
       </c>
       <c r="M14" s="6">
-        <v>12.51341721374046</v>
+        <v>17.535042798409112</v>
       </c>
       <c r="N14" s="6">
-        <v>15.100380658436219</v>
+        <v>20.809782716808588</v>
       </c>
       <c r="O14" s="6">
-        <v>17.110495</v>
+        <v>24.429244759002771</v>
       </c>
       <c r="P14" s="6">
-        <v>20.632932098765441</v>
+        <v>30.065343936436332</v>
       </c>
       <c r="Q14" s="6">
-        <v>24.108676134902261</v>
+        <v>39.390907486388393</v>
       </c>
       <c r="R14" s="6">
-        <v>55.598904403866811</v>
+        <v>96.547302977232931</v>
       </c>
       <c r="S14" s="5">
         <v>2.486634340420241E-4</v>
@@ -1305,37 +1305,37 @@
         <v>1</v>
       </c>
       <c r="H15" s="6">
-        <v>2.5385654008438818</v>
+        <v>1.5250692520775631</v>
       </c>
       <c r="I15" s="6">
-        <v>6.9766913663440082</v>
+        <v>7.3844303797468358</v>
       </c>
       <c r="J15" s="6">
-        <v>9.253395061728396</v>
+        <v>10.269819999999999</v>
       </c>
       <c r="K15" s="6">
-        <v>10.25841429521776</v>
+        <v>12.213019390581721</v>
       </c>
       <c r="L15" s="6">
-        <v>11.776512345679009</v>
+        <v>13.631560480147741</v>
       </c>
       <c r="M15" s="6">
-        <v>13.880933921755719</v>
+        <v>16.782098765432099</v>
       </c>
       <c r="N15" s="6">
-        <v>14.448945312499999</v>
+        <v>20.903037974683539</v>
       </c>
       <c r="O15" s="6">
-        <v>16.937078059071748</v>
+        <v>24.536604572396268</v>
       </c>
       <c r="P15" s="6">
-        <v>17.487985480943738</v>
+        <v>30.140880217785867</v>
       </c>
       <c r="Q15" s="6">
-        <v>27.081190584743229</v>
+        <v>40.241837425910248</v>
       </c>
       <c r="R15" s="6">
-        <v>43.072423664122141</v>
+        <v>78.098309982486882</v>
       </c>
       <c r="S15" s="5">
         <v>2.486634340420241E-4</v>
@@ -1364,37 +1364,37 @@
         <v>2</v>
       </c>
       <c r="H16" s="6">
-        <v>2.1148227712137491</v>
+        <v>0.19946460980036299</v>
       </c>
       <c r="I16" s="6">
-        <v>5.2310055915414031</v>
+        <v>5.95027187074637</v>
       </c>
       <c r="J16" s="6">
-        <v>8.3413183593750002</v>
+        <v>9.1500884046052633</v>
       </c>
       <c r="K16" s="6">
-        <v>9.2247247265624992</v>
+        <v>11.757331422931191</v>
       </c>
       <c r="L16" s="6">
-        <v>11.545770042194091</v>
+        <v>14.218470248038741</v>
       </c>
       <c r="M16" s="6">
-        <v>12.51341721374046</v>
+        <v>17.535042798409112</v>
       </c>
       <c r="N16" s="6">
-        <v>15.100380658436219</v>
+        <v>20.809782716808588</v>
       </c>
       <c r="O16" s="6">
-        <v>17.110495</v>
+        <v>24.429244759002771</v>
       </c>
       <c r="P16" s="6">
-        <v>20.632932098765441</v>
+        <v>30.065343936436332</v>
       </c>
       <c r="Q16" s="6">
-        <v>24.108676134902261</v>
+        <v>39.390907486388393</v>
       </c>
       <c r="R16" s="6">
-        <v>55.598904403866811</v>
+        <v>96.547302977232931</v>
       </c>
       <c r="S16" s="5">
         <v>1.8649757553151809E-3</v>
@@ -1423,37 +1423,37 @@
         <v>3</v>
       </c>
       <c r="H17" s="6">
-        <v>2.5385654008438818</v>
+        <v>1.5250692520775631</v>
       </c>
       <c r="I17" s="6">
-        <v>6.9766913663440082</v>
+        <v>7.3844303797468358</v>
       </c>
       <c r="J17" s="6">
-        <v>9.253395061728396</v>
+        <v>10.269819999999999</v>
       </c>
       <c r="K17" s="6">
-        <v>10.25841429521776</v>
+        <v>12.213019390581721</v>
       </c>
       <c r="L17" s="6">
-        <v>11.776512345679009</v>
+        <v>13.631560480147741</v>
       </c>
       <c r="M17" s="6">
-        <v>13.880933921755719</v>
+        <v>16.782098765432099</v>
       </c>
       <c r="N17" s="6">
-        <v>14.448945312499999</v>
+        <v>20.903037974683539</v>
       </c>
       <c r="O17" s="6">
-        <v>16.937078059071748</v>
+        <v>24.536604572396268</v>
       </c>
       <c r="P17" s="6">
-        <v>17.487985480943738</v>
+        <v>30.140880217785867</v>
       </c>
       <c r="Q17" s="6">
-        <v>27.081190584743229</v>
+        <v>40.241837425910248</v>
       </c>
       <c r="R17" s="6">
-        <v>43.072423664122141</v>
+        <v>78.098309982486882</v>
       </c>
       <c r="S17" s="5">
         <v>1.3676488872311329E-3</v>
@@ -1482,37 +1482,37 @@
         <v>0</v>
       </c>
       <c r="H18" s="6">
-        <v>0.57648734177215188</v>
+        <v>8.236625514403291E-2</v>
       </c>
       <c r="I18" s="6">
-        <v>3.5836779236641219</v>
+        <v>4.5581048794124248</v>
       </c>
       <c r="J18" s="6">
-        <v>5.5476953125000001</v>
+        <v>6.8547016460905352</v>
       </c>
       <c r="K18" s="6">
-        <v>6.9881015220054659</v>
+        <v>8.7852242532678115</v>
       </c>
       <c r="L18" s="6">
-        <v>8.6304989265267178</v>
+        <v>10.642938187976291</v>
       </c>
       <c r="M18" s="6">
-        <v>9.997211934156379</v>
+        <v>12.45022132091448</v>
       </c>
       <c r="N18" s="6">
-        <v>11.39918183444656</v>
+        <v>14.34105263157895</v>
       </c>
       <c r="O18" s="6">
-        <v>13.489800421875</v>
+        <v>16.832624380681079</v>
       </c>
       <c r="P18" s="6">
-        <v>15.81245122621166</v>
+        <v>20.47028896672504</v>
       </c>
       <c r="Q18" s="6">
-        <v>19.71048778062293</v>
+        <v>27.24935844713518</v>
       </c>
       <c r="R18" s="6">
-        <v>78.631494140624994</v>
+        <v>132.5186514886164</v>
       </c>
       <c r="S18" s="5">
         <v>2.486634340420241E-4</v>
@@ -1541,37 +1541,37 @@
         <v>1</v>
       </c>
       <c r="H19" s="6">
-        <v>3.3608966244725735</v>
+        <v>2.0576638965835641</v>
       </c>
       <c r="I19" s="6">
-        <v>4.6757043365249062</v>
+        <v>6.0340957937763715</v>
       </c>
       <c r="J19" s="6">
-        <v>6.7317164921602339</v>
+        <v>8.0836447801246543</v>
       </c>
       <c r="K19" s="6">
-        <v>8.4807337251908397</v>
+        <v>9.8238371875000006</v>
       </c>
       <c r="L19" s="6">
-        <v>9.494675848101263</v>
+        <v>11.360008000000001</v>
       </c>
       <c r="M19" s="6">
-        <v>10.81011619341564</v>
+        <v>13.14978</v>
       </c>
       <c r="N19" s="6">
-        <v>12.129468093988551</v>
+        <v>15.521253124958221</v>
       </c>
       <c r="O19" s="6">
-        <v>14.195088867187501</v>
+        <v>18.796938115586691</v>
       </c>
       <c r="P19" s="6">
-        <v>16.922557431304398</v>
+        <v>23.406664246823961</v>
       </c>
       <c r="Q19" s="6">
-        <v>19.10858854198473</v>
+        <v>31.572913236427269</v>
       </c>
       <c r="R19" s="6">
-        <v>55.835715648854965</v>
+        <v>67.569600725952824</v>
       </c>
       <c r="S19" s="5">
         <v>3.729951510630362E-4</v>
@@ -1600,37 +1600,37 @@
         <v>2</v>
       </c>
       <c r="H20" s="6">
-        <v>0.57648734177215188</v>
+        <v>8.236625514403291E-2</v>
       </c>
       <c r="I20" s="6">
-        <v>3.5836779236641219</v>
+        <v>4.5581048794124248</v>
       </c>
       <c r="J20" s="6">
-        <v>5.5476953125000001</v>
+        <v>6.8547016460905352</v>
       </c>
       <c r="K20" s="6">
-        <v>6.9881015220054659</v>
+        <v>8.7852242532678115</v>
       </c>
       <c r="L20" s="6">
-        <v>8.6304989265267178</v>
+        <v>10.642938187976291</v>
       </c>
       <c r="M20" s="6">
-        <v>9.997211934156379</v>
+        <v>12.45022132091448</v>
       </c>
       <c r="N20" s="6">
-        <v>11.39918183444656</v>
+        <v>14.34105263157895</v>
       </c>
       <c r="O20" s="6">
-        <v>13.489800421875</v>
+        <v>16.832624380681079</v>
       </c>
       <c r="P20" s="6">
-        <v>15.81245122621166</v>
+        <v>20.47028896672504</v>
       </c>
       <c r="Q20" s="6">
-        <v>19.71048778062293</v>
+        <v>27.24935844713518</v>
       </c>
       <c r="R20" s="6">
-        <v>78.631494140624994</v>
+        <v>132.5186514886164</v>
       </c>
       <c r="S20" s="5">
         <v>7.459903021260724E-4</v>
@@ -1659,37 +1659,37 @@
         <v>3</v>
       </c>
       <c r="H21" s="6">
-        <v>3.3608966244725735</v>
+        <v>2.0576638965835641</v>
       </c>
       <c r="I21" s="6">
-        <v>4.6757043365249062</v>
+        <v>6.0340957937763715</v>
       </c>
       <c r="J21" s="6">
-        <v>6.7317164921602339</v>
+        <v>8.0836447801246543</v>
       </c>
       <c r="K21" s="6">
-        <v>8.4807337251908397</v>
+        <v>9.8238371875000006</v>
       </c>
       <c r="L21" s="6">
-        <v>9.494675848101263</v>
+        <v>11.360008000000001</v>
       </c>
       <c r="M21" s="6">
-        <v>10.81011619341564</v>
+        <v>13.14978</v>
       </c>
       <c r="N21" s="6">
-        <v>12.129468093988551</v>
+        <v>15.521253124958221</v>
       </c>
       <c r="O21" s="6">
-        <v>14.195088867187501</v>
+        <v>18.796938115586691</v>
       </c>
       <c r="P21" s="6">
-        <v>16.922557431304398</v>
+        <v>23.406664246823961</v>
       </c>
       <c r="Q21" s="6">
-        <v>19.10858854198473</v>
+        <v>31.572913236427269</v>
       </c>
       <c r="R21" s="6">
-        <v>55.835715648854965</v>
+        <v>67.569600725952824</v>
       </c>
       <c r="S21" s="5">
         <v>3.729951510630362E-4</v>
@@ -1718,37 +1718,37 @@
         <v>0</v>
       </c>
       <c r="H22" s="6">
-        <v>1.1697151898734179</v>
+        <v>0.99442386831275731</v>
       </c>
       <c r="I22" s="6">
-        <v>5.15640429736185</v>
+        <v>6.8830156030534351</v>
       </c>
       <c r="J22" s="6">
-        <v>8.0239735806297716</v>
+        <v>9.7918270042194102</v>
       </c>
       <c r="K22" s="6">
-        <v>9.7096846192868878</v>
+        <v>12.542890725761771</v>
       </c>
       <c r="L22" s="6">
-        <v>13.107079893098089</v>
+        <v>14.90192682490458</v>
       </c>
       <c r="M22" s="6">
-        <v>15.168771738506569</v>
+        <v>17.797776717557252</v>
       </c>
       <c r="N22" s="6">
-        <v>16.869688488549638</v>
+        <v>20.540518366412211</v>
       </c>
       <c r="O22" s="6">
-        <v>17.96376208248784</v>
+        <v>23.470828457702581</v>
       </c>
       <c r="P22" s="6">
-        <v>21.237351112828939</v>
+        <v>28.432916705098677</v>
       </c>
       <c r="Q22" s="6">
-        <v>27.794939390625</v>
+        <v>36.123582221625732</v>
       </c>
       <c r="R22" s="6">
-        <v>98.903339694656509</v>
+        <v>98.903339694656466</v>
       </c>
       <c r="S22" s="5">
         <v>0</v>
@@ -1777,37 +1777,37 @@
         <v>1</v>
       </c>
       <c r="H23" s="6">
-        <v>2.9478320312499999</v>
+        <v>1.7421500000000001</v>
       </c>
       <c r="I23" s="6">
-        <v>5.0113507969995323</v>
+        <v>8.9949618320610689</v>
       </c>
       <c r="J23" s="6">
-        <v>9.7337761563506984</v>
+        <v>12.6215625</v>
       </c>
       <c r="K23" s="6">
-        <v>12.947347580745729</v>
+        <v>15.855589999999999</v>
       </c>
       <c r="L23" s="6">
-        <v>15.15560461676955</v>
+        <v>18.474483362521891</v>
       </c>
       <c r="M23" s="6">
-        <v>17.621838248945149</v>
+        <v>21.581220703124998</v>
       </c>
       <c r="N23" s="6">
-        <v>19.961570603651992</v>
+        <v>25.178110687022897</v>
       </c>
       <c r="O23" s="6">
-        <v>22.377479207756231</v>
+        <v>28.814296875</v>
       </c>
       <c r="P23" s="6">
-        <v>27.951065132040643</v>
+        <v>35.316240474174428</v>
       </c>
       <c r="Q23" s="6">
-        <v>32.995386899594905</v>
+        <v>44.992677746999078</v>
       </c>
       <c r="R23" s="6">
-        <v>47.96168776371308</v>
+        <v>144.72800534283169</v>
       </c>
       <c r="S23" s="5">
         <v>3.729951510630362E-4</v>
@@ -1836,37 +1836,37 @@
         <v>2</v>
       </c>
       <c r="H24" s="6">
-        <v>1.1697151898734179</v>
+        <v>0.99442386831275731</v>
       </c>
       <c r="I24" s="6">
-        <v>5.15640429736185</v>
+        <v>6.8830156030534351</v>
       </c>
       <c r="J24" s="6">
-        <v>8.0239735806297716</v>
+        <v>9.7918270042194102</v>
       </c>
       <c r="K24" s="6">
-        <v>9.7096846192868878</v>
+        <v>12.542890725761771</v>
       </c>
       <c r="L24" s="6">
-        <v>13.107079893098089</v>
+        <v>14.90192682490458</v>
       </c>
       <c r="M24" s="6">
-        <v>15.168771738506569</v>
+        <v>17.797776717557252</v>
       </c>
       <c r="N24" s="6">
-        <v>16.869688488549638</v>
+        <v>20.540518366412211</v>
       </c>
       <c r="O24" s="6">
-        <v>17.96376208248784</v>
+        <v>23.470828457702581</v>
       </c>
       <c r="P24" s="6">
-        <v>21.237351112828939</v>
+        <v>28.432916705098677</v>
       </c>
       <c r="Q24" s="6">
-        <v>27.794939390625</v>
+        <v>36.123582221625732</v>
       </c>
       <c r="R24" s="6">
-        <v>98.903339694656509</v>
+        <v>98.903339694656466</v>
       </c>
       <c r="S24" s="5">
         <v>1.2433171702101199E-4</v>
@@ -1895,37 +1895,37 @@
         <v>3</v>
       </c>
       <c r="H25" s="6">
-        <v>2.9478320312499999</v>
+        <v>1.7421500000000001</v>
       </c>
       <c r="I25" s="6">
-        <v>5.0113507969995323</v>
+        <v>8.9949618320610689</v>
       </c>
       <c r="J25" s="6">
-        <v>9.7337761563506984</v>
+        <v>12.6215625</v>
       </c>
       <c r="K25" s="6">
-        <v>12.947347580745729</v>
+        <v>15.855589999999999</v>
       </c>
       <c r="L25" s="6">
-        <v>15.15560461676955</v>
+        <v>18.474483362521891</v>
       </c>
       <c r="M25" s="6">
-        <v>17.621838248945149</v>
+        <v>21.581220703124998</v>
       </c>
       <c r="N25" s="6">
-        <v>19.961570603651992</v>
+        <v>25.178110687022897</v>
       </c>
       <c r="O25" s="6">
-        <v>22.377479207756231</v>
+        <v>28.814296875</v>
       </c>
       <c r="P25" s="6">
-        <v>27.951065132040643</v>
+        <v>35.316240474174428</v>
       </c>
       <c r="Q25" s="6">
-        <v>32.995386899594905</v>
+        <v>44.992677746999078</v>
       </c>
       <c r="R25" s="6">
-        <v>47.96168776371308</v>
+        <v>144.72800534283169</v>
       </c>
       <c r="S25" s="5">
         <v>0</v>
@@ -1954,37 +1954,37 @@
         <v>0</v>
       </c>
       <c r="H26" s="6">
-        <v>0.57648734177215188</v>
+        <v>8.236625514403291E-2</v>
       </c>
       <c r="I26" s="6">
-        <v>3.5836779236641219</v>
+        <v>4.5581048794124248</v>
       </c>
       <c r="J26" s="6">
-        <v>5.5476953125000001</v>
+        <v>6.8547016460905352</v>
       </c>
       <c r="K26" s="6">
-        <v>6.9881015220054659</v>
+        <v>8.7852242532678115</v>
       </c>
       <c r="L26" s="6">
-        <v>8.6304989265267178</v>
+        <v>10.642938187976291</v>
       </c>
       <c r="M26" s="6">
-        <v>9.997211934156379</v>
+        <v>12.45022132091448</v>
       </c>
       <c r="N26" s="6">
-        <v>11.39918183444656</v>
+        <v>14.34105263157895</v>
       </c>
       <c r="O26" s="6">
-        <v>13.489800421875</v>
+        <v>16.832624380681079</v>
       </c>
       <c r="P26" s="6">
-        <v>15.81245122621166</v>
+        <v>20.47028896672504</v>
       </c>
       <c r="Q26" s="6">
-        <v>19.71048778062293</v>
+        <v>27.24935844713518</v>
       </c>
       <c r="R26" s="6">
-        <v>78.631494140624994</v>
+        <v>132.5186514886164</v>
       </c>
       <c r="S26" s="5">
         <v>2.486634340420241E-4</v>
@@ -2013,37 +2013,37 @@
         <v>1</v>
       </c>
       <c r="H27" s="6">
-        <v>3.3608966244725735</v>
+        <v>2.0576638965835641</v>
       </c>
       <c r="I27" s="6">
-        <v>4.6757043365249062</v>
+        <v>6.0340957937763715</v>
       </c>
       <c r="J27" s="6">
-        <v>6.7317164921602339</v>
+        <v>8.0836447801246543</v>
       </c>
       <c r="K27" s="6">
-        <v>8.4807337251908397</v>
+        <v>9.8238371875000006</v>
       </c>
       <c r="L27" s="6">
-        <v>9.494675848101263</v>
+        <v>11.360008000000001</v>
       </c>
       <c r="M27" s="6">
-        <v>10.81011619341564</v>
+        <v>13.14978</v>
       </c>
       <c r="N27" s="6">
-        <v>12.129468093988551</v>
+        <v>15.521253124958221</v>
       </c>
       <c r="O27" s="6">
-        <v>14.195088867187501</v>
+        <v>18.796938115586691</v>
       </c>
       <c r="P27" s="6">
-        <v>16.922557431304398</v>
+        <v>23.406664246823961</v>
       </c>
       <c r="Q27" s="6">
-        <v>19.10858854198473</v>
+        <v>31.572913236427269</v>
       </c>
       <c r="R27" s="6">
-        <v>55.835715648854965</v>
+        <v>67.569600725952824</v>
       </c>
       <c r="S27" s="5">
         <v>6.216585851050603E-4</v>
@@ -2072,37 +2072,37 @@
         <v>2</v>
       </c>
       <c r="H28" s="6">
-        <v>0.57648734177215188</v>
+        <v>8.236625514403291E-2</v>
       </c>
       <c r="I28" s="6">
-        <v>3.5836779236641219</v>
+        <v>4.5581048794124248</v>
       </c>
       <c r="J28" s="6">
-        <v>5.5476953125000001</v>
+        <v>6.8547016460905352</v>
       </c>
       <c r="K28" s="6">
-        <v>6.9881015220054659</v>
+        <v>8.7852242532678115</v>
       </c>
       <c r="L28" s="6">
-        <v>8.6304989265267178</v>
+        <v>10.642938187976291</v>
       </c>
       <c r="M28" s="6">
-        <v>9.997211934156379</v>
+        <v>12.45022132091448</v>
       </c>
       <c r="N28" s="6">
-        <v>11.39918183444656</v>
+        <v>14.34105263157895</v>
       </c>
       <c r="O28" s="6">
-        <v>13.489800421875</v>
+        <v>16.832624380681079</v>
       </c>
       <c r="P28" s="6">
-        <v>15.81245122621166</v>
+        <v>20.47028896672504</v>
       </c>
       <c r="Q28" s="6">
-        <v>19.71048778062293</v>
+        <v>27.24935844713518</v>
       </c>
       <c r="R28" s="6">
-        <v>78.631494140624994</v>
+        <v>132.5186514886164</v>
       </c>
       <c r="S28" s="5">
         <v>6.7636454059430556E-2</v>
@@ -2131,37 +2131,37 @@
         <v>3</v>
       </c>
       <c r="H29" s="6">
-        <v>3.3608966244725735</v>
+        <v>2.0576638965835641</v>
       </c>
       <c r="I29" s="6">
-        <v>4.6757043365249062</v>
+        <v>6.0340957937763715</v>
       </c>
       <c r="J29" s="6">
-        <v>6.7317164921602339</v>
+        <v>8.0836447801246543</v>
       </c>
       <c r="K29" s="6">
-        <v>8.4807337251908397</v>
+        <v>9.8238371875000006</v>
       </c>
       <c r="L29" s="6">
-        <v>9.494675848101263</v>
+        <v>11.360008000000001</v>
       </c>
       <c r="M29" s="6">
-        <v>10.81011619341564</v>
+        <v>13.14978</v>
       </c>
       <c r="N29" s="6">
-        <v>12.129468093988551</v>
+        <v>15.521253124958221</v>
       </c>
       <c r="O29" s="6">
-        <v>14.195088867187501</v>
+        <v>18.796938115586691</v>
       </c>
       <c r="P29" s="6">
-        <v>16.922557431304398</v>
+        <v>23.406664246823961</v>
       </c>
       <c r="Q29" s="6">
-        <v>19.10858854198473</v>
+        <v>31.572913236427269</v>
       </c>
       <c r="R29" s="6">
-        <v>55.835715648854965</v>
+        <v>67.569600725952824</v>
       </c>
       <c r="S29" s="5">
         <v>8.7032201914708437E-3</v>
@@ -2190,37 +2190,37 @@
         <v>0</v>
       </c>
       <c r="H30" s="6">
-        <v>1.1697151898734179</v>
+        <v>0.99442386831275731</v>
       </c>
       <c r="I30" s="6">
-        <v>5.15640429736185</v>
+        <v>6.8830156030534351</v>
       </c>
       <c r="J30" s="6">
-        <v>8.0239735806297716</v>
+        <v>9.7918270042194102</v>
       </c>
       <c r="K30" s="6">
-        <v>9.7096846192868878</v>
+        <v>12.542890725761771</v>
       </c>
       <c r="L30" s="6">
-        <v>13.107079893098089</v>
+        <v>14.90192682490458</v>
       </c>
       <c r="M30" s="6">
-        <v>15.168771738506569</v>
+        <v>17.797776717557252</v>
       </c>
       <c r="N30" s="6">
-        <v>16.869688488549638</v>
+        <v>20.540518366412211</v>
       </c>
       <c r="O30" s="6">
-        <v>17.96376208248784</v>
+        <v>23.470828457702581</v>
       </c>
       <c r="P30" s="6">
-        <v>21.237351112828939</v>
+        <v>28.432916705098677</v>
       </c>
       <c r="Q30" s="6">
-        <v>27.794939390625</v>
+        <v>36.123582221625732</v>
       </c>
       <c r="R30" s="6">
-        <v>98.903339694656509</v>
+        <v>98.903339694656466</v>
       </c>
       <c r="S30" s="5">
         <v>0</v>
@@ -2249,37 +2249,37 @@
         <v>1</v>
       </c>
       <c r="H31" s="6">
-        <v>2.9478320312499999</v>
+        <v>1.7421500000000001</v>
       </c>
       <c r="I31" s="6">
-        <v>5.0113507969995323</v>
+        <v>8.9949618320610689</v>
       </c>
       <c r="J31" s="6">
-        <v>9.7337761563506984</v>
+        <v>12.6215625</v>
       </c>
       <c r="K31" s="6">
-        <v>12.947347580745729</v>
+        <v>15.855589999999999</v>
       </c>
       <c r="L31" s="6">
-        <v>15.15560461676955</v>
+        <v>18.474483362521891</v>
       </c>
       <c r="M31" s="6">
-        <v>17.621838248945149</v>
+        <v>21.581220703124998</v>
       </c>
       <c r="N31" s="6">
-        <v>19.961570603651992</v>
+        <v>25.178110687022897</v>
       </c>
       <c r="O31" s="6">
-        <v>22.377479207756231</v>
+        <v>28.814296875</v>
       </c>
       <c r="P31" s="6">
-        <v>27.951065132040643</v>
+        <v>35.316240474174428</v>
       </c>
       <c r="Q31" s="6">
-        <v>32.995386899594905</v>
+        <v>44.992677746999078</v>
       </c>
       <c r="R31" s="6">
-        <v>47.96168776371308</v>
+        <v>144.72800534283169</v>
       </c>
       <c r="S31" s="5">
         <v>2.486634340420241E-4</v>
@@ -2308,37 +2308,37 @@
         <v>2</v>
       </c>
       <c r="H32" s="6">
-        <v>1.1697151898734179</v>
+        <v>0.99442386831275731</v>
       </c>
       <c r="I32" s="6">
-        <v>5.15640429736185</v>
+        <v>6.8830156030534351</v>
       </c>
       <c r="J32" s="6">
-        <v>8.0239735806297716</v>
+        <v>9.7918270042194102</v>
       </c>
       <c r="K32" s="6">
-        <v>9.7096846192868878</v>
+        <v>12.542890725761771</v>
       </c>
       <c r="L32" s="6">
-        <v>13.107079893098089</v>
+        <v>14.90192682490458</v>
       </c>
       <c r="M32" s="6">
-        <v>15.168771738506569</v>
+        <v>17.797776717557252</v>
       </c>
       <c r="N32" s="6">
-        <v>16.869688488549638</v>
+        <v>20.540518366412211</v>
       </c>
       <c r="O32" s="6">
-        <v>17.96376208248784</v>
+        <v>23.470828457702581</v>
       </c>
       <c r="P32" s="6">
-        <v>21.237351112828939</v>
+        <v>28.432916705098677</v>
       </c>
       <c r="Q32" s="6">
-        <v>27.794939390625</v>
+        <v>36.123582221625732</v>
       </c>
       <c r="R32" s="6">
-        <v>98.903339694656509</v>
+        <v>98.903339694656466</v>
       </c>
       <c r="S32" s="5">
         <v>4.2272783787144098E-3</v>
@@ -2367,37 +2367,37 @@
         <v>3</v>
       </c>
       <c r="H33" s="6">
-        <v>2.9478320312499999</v>
+        <v>1.7421500000000001</v>
       </c>
       <c r="I33" s="6">
-        <v>5.0113507969995323</v>
+        <v>8.9949618320610689</v>
       </c>
       <c r="J33" s="6">
-        <v>9.7337761563506984</v>
+        <v>12.6215625</v>
       </c>
       <c r="K33" s="6">
-        <v>12.947347580745729</v>
+        <v>15.855589999999999</v>
       </c>
       <c r="L33" s="6">
-        <v>15.15560461676955</v>
+        <v>18.474483362521891</v>
       </c>
       <c r="M33" s="6">
-        <v>17.621838248945149</v>
+        <v>21.581220703124998</v>
       </c>
       <c r="N33" s="6">
-        <v>19.961570603651992</v>
+        <v>25.178110687022897</v>
       </c>
       <c r="O33" s="6">
-        <v>22.377479207756231</v>
+        <v>28.814296875</v>
       </c>
       <c r="P33" s="6">
-        <v>27.951065132040643</v>
+        <v>35.316240474174428</v>
       </c>
       <c r="Q33" s="6">
-        <v>32.995386899594905</v>
+        <v>44.992677746999078</v>
       </c>
       <c r="R33" s="6">
-        <v>47.96168776371308</v>
+        <v>144.72800534283169</v>
       </c>
       <c r="S33" s="5">
         <v>3.9786149446723864E-3</v>
@@ -2426,37 +2426,37 @@
         <v>0</v>
       </c>
       <c r="H34" s="6">
-        <v>8.7275390625000004E-2</v>
+        <v>6.8301225919439575E-4</v>
       </c>
       <c r="I34" s="6">
-        <v>3.6622253086419758</v>
+        <v>4.5405755248594026</v>
       </c>
       <c r="J34" s="6">
-        <v>5.4188806139232009</v>
+        <v>6.7112288512911853</v>
       </c>
       <c r="K34" s="6">
-        <v>7.037705896885071</v>
+        <v>8.5179702255122276</v>
       </c>
       <c r="L34" s="6">
-        <v>8.5308104500907458</v>
+        <v>10.24265267175573</v>
       </c>
       <c r="M34" s="6">
-        <v>9.9317241173664126</v>
+        <v>11.998526691896711</v>
       </c>
       <c r="N34" s="6">
-        <v>11.777870175438601</v>
+        <v>13.97869</v>
       </c>
       <c r="O34" s="6">
-        <v>13.628095</v>
+        <v>16.52139</v>
       </c>
       <c r="P34" s="6">
-        <v>15.864739441195589</v>
+        <v>20.019179999999999</v>
       </c>
       <c r="Q34" s="6">
-        <v>21.232329</v>
+        <v>25.884014886164618</v>
       </c>
       <c r="R34" s="6">
-        <v>70.806950000000001</v>
+        <v>115.26644</v>
       </c>
       <c r="S34" s="5">
         <v>4.973268680840482E-4</v>
@@ -2488,34 +2488,34 @@
         <v>2.496154672395273</v>
       </c>
       <c r="I35" s="6">
-        <v>5.8632698892671611</v>
+        <v>6.7000424136144217</v>
       </c>
       <c r="J35" s="6">
-        <v>7.2686788399570368</v>
+        <v>9.3516642741850138</v>
       </c>
       <c r="K35" s="6">
-        <v>8.7826858877707252</v>
+        <v>11.622388432491771</v>
       </c>
       <c r="L35" s="6">
-        <v>9.7416863509787905</v>
+        <v>13.31262060552093</v>
       </c>
       <c r="M35" s="6">
-        <v>11.44873091603054</v>
+        <v>15.900977443609021</v>
       </c>
       <c r="N35" s="6">
-        <v>13.910938</v>
+        <v>18.585954906250002</v>
       </c>
       <c r="O35" s="6">
-        <v>17.055630085131781</v>
+        <v>21.869542174071661</v>
       </c>
       <c r="P35" s="6">
-        <v>19.495053333333338</v>
+        <v>27.338334290191348</v>
       </c>
       <c r="Q35" s="6">
-        <v>26.732408732824428</v>
+        <v>37.53857332202179</v>
       </c>
       <c r="R35" s="6">
-        <v>51.61468</v>
+        <v>88.249161727349701</v>
       </c>
       <c r="S35" s="5">
         <v>2.486634340420241E-4</v>
@@ -2544,37 +2544,37 @@
         <v>2</v>
       </c>
       <c r="H36" s="6">
-        <v>8.7275390625000004E-2</v>
+        <v>6.8301225919439575E-4</v>
       </c>
       <c r="I36" s="6">
-        <v>3.6622253086419758</v>
+        <v>4.5405755248594026</v>
       </c>
       <c r="J36" s="6">
-        <v>5.4188806139232009</v>
+        <v>6.7112288512911853</v>
       </c>
       <c r="K36" s="6">
-        <v>7.037705896885071</v>
+        <v>8.5179702255122276</v>
       </c>
       <c r="L36" s="6">
-        <v>8.5308104500907458</v>
+        <v>10.24265267175573</v>
       </c>
       <c r="M36" s="6">
-        <v>9.9317241173664126</v>
+        <v>11.998526691896711</v>
       </c>
       <c r="N36" s="6">
-        <v>11.777870175438601</v>
+        <v>13.97869</v>
       </c>
       <c r="O36" s="6">
-        <v>13.628095</v>
+        <v>16.52139</v>
       </c>
       <c r="P36" s="6">
-        <v>15.864739441195589</v>
+        <v>20.019179999999999</v>
       </c>
       <c r="Q36" s="6">
-        <v>21.232329</v>
+        <v>25.884014886164618</v>
       </c>
       <c r="R36" s="6">
-        <v>70.806950000000001</v>
+        <v>115.26644</v>
       </c>
       <c r="S36" s="5">
         <v>1.3676488872311329E-3</v>
@@ -2606,34 +2606,34 @@
         <v>2.496154672395273</v>
       </c>
       <c r="I37" s="6">
-        <v>5.8632698892671611</v>
+        <v>6.7000424136144217</v>
       </c>
       <c r="J37" s="6">
-        <v>7.2686788399570368</v>
+        <v>9.3516642741850138</v>
       </c>
       <c r="K37" s="6">
-        <v>8.7826858877707252</v>
+        <v>11.622388432491771</v>
       </c>
       <c r="L37" s="6">
-        <v>9.7416863509787905</v>
+        <v>13.31262060552093</v>
       </c>
       <c r="M37" s="6">
-        <v>11.44873091603054</v>
+        <v>15.900977443609021</v>
       </c>
       <c r="N37" s="6">
-        <v>13.910938</v>
+        <v>18.585954906250002</v>
       </c>
       <c r="O37" s="6">
-        <v>17.055630085131781</v>
+        <v>21.869542174071661</v>
       </c>
       <c r="P37" s="6">
-        <v>19.495053333333338</v>
+        <v>27.338334290191348</v>
       </c>
       <c r="Q37" s="6">
-        <v>26.732408732824428</v>
+        <v>37.53857332202179</v>
       </c>
       <c r="R37" s="6">
-        <v>51.61468</v>
+        <v>88.249161727349701</v>
       </c>
       <c r="S37" s="5">
         <v>2.486634340420241E-4</v>
@@ -2662,37 +2662,37 @@
         <v>0</v>
       </c>
       <c r="H38" s="6">
-        <v>1.0738683127572011</v>
+        <v>0.15962890625000001</v>
       </c>
       <c r="I38" s="6">
-        <v>4.551925720538792</v>
+        <v>6.4067068698860492</v>
       </c>
       <c r="J38" s="6">
-        <v>7.0134819298664119</v>
+        <v>9.7180397404580159</v>
       </c>
       <c r="K38" s="6">
-        <v>9.3051509832563699</v>
+        <v>12.005155318445562</v>
       </c>
       <c r="L38" s="6">
-        <v>11.814865234375</v>
+        <v>14.3332246571683</v>
       </c>
       <c r="M38" s="6">
-        <v>14.348261816229011</v>
+        <v>16.63814885496183</v>
       </c>
       <c r="N38" s="6">
-        <v>16.338760687022901</v>
+        <v>19.377639889196669</v>
       </c>
       <c r="O38" s="6">
-        <v>18.58457738818565</v>
+        <v>22.22097527254445</v>
       </c>
       <c r="P38" s="6">
-        <v>22.477912726462261</v>
+        <v>26.815743748762578</v>
       </c>
       <c r="Q38" s="6">
-        <v>30.842407000000001</v>
+        <v>35.109676977138022</v>
       </c>
       <c r="R38" s="6">
-        <v>53.37075690115762</v>
+        <v>145.50545300592708</v>
       </c>
       <c r="S38" s="5">
         <v>0</v>
@@ -2721,37 +2721,37 @@
         <v>1</v>
       </c>
       <c r="H39" s="6">
-        <v>2.9686934156378597</v>
+        <v>0.63133587786259526</v>
       </c>
       <c r="I39" s="6">
-        <v>4.805974221267455</v>
+        <v>5.4516870595041897</v>
       </c>
       <c r="J39" s="6">
-        <v>8.6703806856851191</v>
+        <v>8.5985858328345426</v>
       </c>
       <c r="K39" s="6">
-        <v>11.247218106995891</v>
+        <v>13.647119531760429</v>
       </c>
       <c r="L39" s="6">
-        <v>13.625821307998621</v>
+        <v>17.106395173245041</v>
       </c>
       <c r="M39" s="6">
-        <v>15.464482421874999</v>
+        <v>20.455970951257328</v>
       </c>
       <c r="N39" s="6">
-        <v>18.96338822141561</v>
+        <v>24.151916923737907</v>
       </c>
       <c r="O39" s="6">
-        <v>21.310987999999998</v>
+        <v>27.97005660284951</v>
       </c>
       <c r="P39" s="6">
-        <v>24.786283020770323</v>
+        <v>33.638997638428457</v>
       </c>
       <c r="Q39" s="6">
-        <v>28.768556295636692</v>
+        <v>46.027285819254331</v>
       </c>
       <c r="R39" s="6">
-        <v>37.767200000000003</v>
+        <v>146.0254445385267</v>
       </c>
       <c r="S39" s="5">
         <v>1.2433171702101199E-4</v>
@@ -2780,37 +2780,37 @@
         <v>2</v>
       </c>
       <c r="H40" s="6">
-        <v>1.0738683127572011</v>
+        <v>0.15962890625000001</v>
       </c>
       <c r="I40" s="6">
-        <v>4.551925720538792</v>
+        <v>6.4067068698860492</v>
       </c>
       <c r="J40" s="6">
-        <v>7.0134819298664119</v>
+        <v>9.7180397404580159</v>
       </c>
       <c r="K40" s="6">
-        <v>9.3051509832563699</v>
+        <v>12.005155318445562</v>
       </c>
       <c r="L40" s="6">
-        <v>11.814865234375</v>
+        <v>14.3332246571683</v>
       </c>
       <c r="M40" s="6">
-        <v>14.348261816229011</v>
+        <v>16.63814885496183</v>
       </c>
       <c r="N40" s="6">
-        <v>16.338760687022901</v>
+        <v>19.377639889196669</v>
       </c>
       <c r="O40" s="6">
-        <v>18.58457738818565</v>
+        <v>22.22097527254445</v>
       </c>
       <c r="P40" s="6">
-        <v>22.477912726462261</v>
+        <v>26.815743748762578</v>
       </c>
       <c r="Q40" s="6">
-        <v>30.842407000000001</v>
+        <v>35.109676977138022</v>
       </c>
       <c r="R40" s="6">
-        <v>53.37075690115762</v>
+        <v>145.50545300592708</v>
       </c>
       <c r="S40" s="5">
         <v>0</v>
@@ -2839,37 +2839,37 @@
         <v>3</v>
       </c>
       <c r="H41" s="6">
-        <v>2.9686934156378597</v>
+        <v>0.63133587786259526</v>
       </c>
       <c r="I41" s="6">
-        <v>4.805974221267455</v>
+        <v>5.4516870595041897</v>
       </c>
       <c r="J41" s="6">
-        <v>8.6703806856851191</v>
+        <v>8.5985858328345426</v>
       </c>
       <c r="K41" s="6">
-        <v>11.247218106995891</v>
+        <v>13.647119531760429</v>
       </c>
       <c r="L41" s="6">
-        <v>13.625821307998621</v>
+        <v>17.106395173245041</v>
       </c>
       <c r="M41" s="6">
-        <v>15.464482421874999</v>
+        <v>20.455970951257328</v>
       </c>
       <c r="N41" s="6">
-        <v>18.96338822141561</v>
+        <v>24.151916923737907</v>
       </c>
       <c r="O41" s="6">
-        <v>21.310987999999998</v>
+        <v>27.97005660284951</v>
       </c>
       <c r="P41" s="6">
-        <v>24.786283020770323</v>
+        <v>33.638997638428457</v>
       </c>
       <c r="Q41" s="6">
-        <v>28.768556295636692</v>
+        <v>46.027285819254331</v>
       </c>
       <c r="R41" s="6">
-        <v>37.767200000000003</v>
+        <v>146.0254445385267</v>
       </c>
       <c r="S41" s="5">
         <v>4.973268680840482E-4</v>
@@ -2898,37 +2898,37 @@
         <v>0</v>
       </c>
       <c r="H42" s="6">
-        <v>8.7275390625000004E-2</v>
+        <v>6.8301225919439575E-4</v>
       </c>
       <c r="I42" s="6">
-        <v>3.6622253086419758</v>
+        <v>4.5405755248594026</v>
       </c>
       <c r="J42" s="6">
-        <v>5.4188806139232009</v>
+        <v>6.7112288512911853</v>
       </c>
       <c r="K42" s="6">
-        <v>7.037705896885071</v>
+        <v>8.5179702255122276</v>
       </c>
       <c r="L42" s="6">
-        <v>8.5308104500907458</v>
+        <v>10.24265267175573</v>
       </c>
       <c r="M42" s="6">
-        <v>9.9317241173664126</v>
+        <v>11.998526691896711</v>
       </c>
       <c r="N42" s="6">
-        <v>11.777870175438601</v>
+        <v>13.97869</v>
       </c>
       <c r="O42" s="6">
-        <v>13.628095</v>
+        <v>16.52139</v>
       </c>
       <c r="P42" s="6">
-        <v>15.864739441195589</v>
+        <v>20.019179999999999</v>
       </c>
       <c r="Q42" s="6">
-        <v>21.232329</v>
+        <v>25.884014886164618</v>
       </c>
       <c r="R42" s="6">
-        <v>70.806950000000001</v>
+        <v>115.26644</v>
       </c>
       <c r="S42" s="5">
         <v>9.9465373616809639E-4</v>
@@ -2960,34 +2960,34 @@
         <v>2.496154672395273</v>
       </c>
       <c r="I43" s="6">
-        <v>5.8632698892671611</v>
+        <v>6.7000424136144217</v>
       </c>
       <c r="J43" s="6">
-        <v>7.2686788399570368</v>
+        <v>9.3516642741850138</v>
       </c>
       <c r="K43" s="6">
-        <v>8.7826858877707252</v>
+        <v>11.622388432491771</v>
       </c>
       <c r="L43" s="6">
-        <v>9.7416863509787905</v>
+        <v>13.31262060552093</v>
       </c>
       <c r="M43" s="6">
-        <v>11.44873091603054</v>
+        <v>15.900977443609021</v>
       </c>
       <c r="N43" s="6">
-        <v>13.910938</v>
+        <v>18.585954906250002</v>
       </c>
       <c r="O43" s="6">
-        <v>17.055630085131781</v>
+        <v>21.869542174071661</v>
       </c>
       <c r="P43" s="6">
-        <v>19.495053333333338</v>
+        <v>27.338334290191348</v>
       </c>
       <c r="Q43" s="6">
-        <v>26.732408732824428</v>
+        <v>37.53857332202179</v>
       </c>
       <c r="R43" s="6">
-        <v>51.61468</v>
+        <v>88.249161727349701</v>
       </c>
       <c r="S43" s="5">
         <v>4.973268680840482E-4</v>
@@ -3016,37 +3016,37 @@
         <v>2</v>
       </c>
       <c r="H44" s="6">
-        <v>8.7275390625000004E-2</v>
+        <v>6.8301225919439575E-4</v>
       </c>
       <c r="I44" s="6">
-        <v>3.6622253086419758</v>
+        <v>4.5405755248594026</v>
       </c>
       <c r="J44" s="6">
-        <v>5.4188806139232009</v>
+        <v>6.7112288512911853</v>
       </c>
       <c r="K44" s="6">
-        <v>7.037705896885071</v>
+        <v>8.5179702255122276</v>
       </c>
       <c r="L44" s="6">
-        <v>8.5308104500907458</v>
+        <v>10.24265267175573</v>
       </c>
       <c r="M44" s="6">
-        <v>9.9317241173664126</v>
+        <v>11.998526691896711</v>
       </c>
       <c r="N44" s="6">
-        <v>11.777870175438601</v>
+        <v>13.97869</v>
       </c>
       <c r="O44" s="6">
-        <v>13.628095</v>
+        <v>16.52139</v>
       </c>
       <c r="P44" s="6">
-        <v>15.864739441195589</v>
+        <v>20.019179999999999</v>
       </c>
       <c r="Q44" s="6">
-        <v>21.232329</v>
+        <v>25.884014886164618</v>
       </c>
       <c r="R44" s="6">
-        <v>70.806950000000001</v>
+        <v>115.26644</v>
       </c>
       <c r="S44" s="5">
         <v>9.1010816859380825E-2</v>
@@ -3078,34 +3078,34 @@
         <v>2.496154672395273</v>
       </c>
       <c r="I45" s="6">
-        <v>5.8632698892671611</v>
+        <v>6.7000424136144217</v>
       </c>
       <c r="J45" s="6">
-        <v>7.2686788399570368</v>
+        <v>9.3516642741850138</v>
       </c>
       <c r="K45" s="6">
-        <v>8.7826858877707252</v>
+        <v>11.622388432491771</v>
       </c>
       <c r="L45" s="6">
-        <v>9.7416863509787905</v>
+        <v>13.31262060552093</v>
       </c>
       <c r="M45" s="6">
-        <v>11.44873091603054</v>
+        <v>15.900977443609021</v>
       </c>
       <c r="N45" s="6">
-        <v>13.910938</v>
+        <v>18.585954906250002</v>
       </c>
       <c r="O45" s="6">
-        <v>17.055630085131781</v>
+        <v>21.869542174071661</v>
       </c>
       <c r="P45" s="6">
-        <v>19.495053333333338</v>
+        <v>27.338334290191348</v>
       </c>
       <c r="Q45" s="6">
-        <v>26.732408732824428</v>
+        <v>37.53857332202179</v>
       </c>
       <c r="R45" s="6">
-        <v>51.61468</v>
+        <v>88.249161727349701</v>
       </c>
       <c r="S45" s="5">
         <v>1.330349372124829E-2</v>
@@ -3134,37 +3134,37 @@
         <v>0</v>
       </c>
       <c r="H46" s="6">
-        <v>1.0738683127572011</v>
+        <v>0.15962890625000001</v>
       </c>
       <c r="I46" s="6">
-        <v>4.551925720538792</v>
+        <v>6.4067068698860492</v>
       </c>
       <c r="J46" s="6">
-        <v>7.0134819298664119</v>
+        <v>9.7180397404580159</v>
       </c>
       <c r="K46" s="6">
-        <v>9.3051509832563699</v>
+        <v>12.005155318445562</v>
       </c>
       <c r="L46" s="6">
-        <v>11.814865234375</v>
+        <v>14.3332246571683</v>
       </c>
       <c r="M46" s="6">
-        <v>14.348261816229011</v>
+        <v>16.63814885496183</v>
       </c>
       <c r="N46" s="6">
-        <v>16.338760687022901</v>
+        <v>19.377639889196669</v>
       </c>
       <c r="O46" s="6">
-        <v>18.58457738818565</v>
+        <v>22.22097527254445</v>
       </c>
       <c r="P46" s="6">
-        <v>22.477912726462261</v>
+        <v>26.815743748762578</v>
       </c>
       <c r="Q46" s="6">
-        <v>30.842407000000001</v>
+        <v>35.109676977138022</v>
       </c>
       <c r="R46" s="6">
-        <v>53.37075690115762</v>
+        <v>145.50545300592708</v>
       </c>
       <c r="S46" s="5">
         <v>3.729951510630362E-4</v>
@@ -3193,37 +3193,37 @@
         <v>1</v>
       </c>
       <c r="H47" s="6">
-        <v>2.9686934156378597</v>
+        <v>0.63133587786259526</v>
       </c>
       <c r="I47" s="6">
-        <v>4.805974221267455</v>
+        <v>5.4516870595041897</v>
       </c>
       <c r="J47" s="6">
-        <v>8.6703806856851191</v>
+        <v>8.5985858328345426</v>
       </c>
       <c r="K47" s="6">
-        <v>11.247218106995891</v>
+        <v>13.647119531760429</v>
       </c>
       <c r="L47" s="6">
-        <v>13.625821307998621</v>
+        <v>17.106395173245041</v>
       </c>
       <c r="M47" s="6">
-        <v>15.464482421874999</v>
+        <v>20.455970951257328</v>
       </c>
       <c r="N47" s="6">
-        <v>18.96338822141561</v>
+        <v>24.151916923737907</v>
       </c>
       <c r="O47" s="6">
-        <v>21.310987999999998</v>
+        <v>27.97005660284951</v>
       </c>
       <c r="P47" s="6">
-        <v>24.786283020770323</v>
+        <v>33.638997638428457</v>
       </c>
       <c r="Q47" s="6">
-        <v>28.768556295636692</v>
+        <v>46.027285819254331</v>
       </c>
       <c r="R47" s="6">
-        <v>37.767200000000003</v>
+        <v>146.0254445385267</v>
       </c>
       <c r="S47" s="5">
         <v>8.703220191470844E-4</v>
@@ -3252,37 +3252,37 @@
         <v>2</v>
       </c>
       <c r="H48" s="6">
-        <v>1.0738683127572011</v>
+        <v>0.15962890625000001</v>
       </c>
       <c r="I48" s="6">
-        <v>4.551925720538792</v>
+        <v>6.4067068698860492</v>
       </c>
       <c r="J48" s="6">
-        <v>7.0134819298664119</v>
+        <v>9.7180397404580159</v>
       </c>
       <c r="K48" s="6">
-        <v>9.3051509832563699</v>
+        <v>12.005155318445562</v>
       </c>
       <c r="L48" s="6">
-        <v>11.814865234375</v>
+        <v>14.3332246571683</v>
       </c>
       <c r="M48" s="6">
-        <v>14.348261816229011</v>
+        <v>16.63814885496183</v>
       </c>
       <c r="N48" s="6">
-        <v>16.338760687022901</v>
+        <v>19.377639889196669</v>
       </c>
       <c r="O48" s="6">
-        <v>18.58457738818565</v>
+        <v>22.22097527254445</v>
       </c>
       <c r="P48" s="6">
-        <v>22.477912726462261</v>
+        <v>26.815743748762578</v>
       </c>
       <c r="Q48" s="6">
-        <v>30.842407000000001</v>
+        <v>35.109676977138022</v>
       </c>
       <c r="R48" s="6">
-        <v>53.37075690115762</v>
+        <v>145.50545300592708</v>
       </c>
       <c r="S48" s="5">
         <v>5.0976003978614936E-3</v>
@@ -3311,37 +3311,37 @@
         <v>3</v>
       </c>
       <c r="H49" s="6">
-        <v>2.9686934156378597</v>
+        <v>0.63133587786259526</v>
       </c>
       <c r="I49" s="6">
-        <v>4.805974221267455</v>
+        <v>5.4516870595041897</v>
       </c>
       <c r="J49" s="6">
-        <v>8.6703806856851191</v>
+        <v>8.5985858328345426</v>
       </c>
       <c r="K49" s="6">
-        <v>11.247218106995891</v>
+        <v>13.647119531760429</v>
       </c>
       <c r="L49" s="6">
-        <v>13.625821307998621</v>
+        <v>17.106395173245041</v>
       </c>
       <c r="M49" s="6">
-        <v>15.464482421874999</v>
+        <v>20.455970951257328</v>
       </c>
       <c r="N49" s="6">
-        <v>18.96338822141561</v>
+        <v>24.151916923737907</v>
       </c>
       <c r="O49" s="6">
-        <v>21.310987999999998</v>
+        <v>27.97005660284951</v>
       </c>
       <c r="P49" s="6">
-        <v>24.786283020770323</v>
+        <v>33.638997638428457</v>
       </c>
       <c r="Q49" s="6">
-        <v>28.768556295636692</v>
+        <v>46.027285819254331</v>
       </c>
       <c r="R49" s="6">
-        <v>37.767200000000003</v>
+        <v>146.0254445385267</v>
       </c>
       <c r="S49" s="5">
         <v>5.9679224170085792E-3</v>
@@ -3370,37 +3370,37 @@
         <v>0</v>
       </c>
       <c r="H50" s="6">
-        <v>0.36298664122137403</v>
+        <v>5.5236004390779365E-2</v>
       </c>
       <c r="I50" s="6">
-        <v>3.9253959212376941</v>
+        <v>4.6348061619123051</v>
       </c>
       <c r="J50" s="6">
-        <v>5.8203544682395645</v>
+        <v>6.9240992744274701</v>
       </c>
       <c r="K50" s="6">
-        <v>7.7923896962286472</v>
+        <v>8.7053125020130775</v>
       </c>
       <c r="L50" s="6">
-        <v>9.1143035711709377</v>
+        <v>10.413093582773051</v>
       </c>
       <c r="M50" s="6">
-        <v>10.777220683287171</v>
+        <v>12.21303650934996</v>
       </c>
       <c r="N50" s="6">
-        <v>12.847560921875001</v>
+        <v>14.267865188294008</v>
       </c>
       <c r="O50" s="6">
-        <v>14.652311097046409</v>
+        <v>16.99563554813593</v>
       </c>
       <c r="P50" s="6">
-        <v>16.962520501500471</v>
+        <v>20.875205488203271</v>
       </c>
       <c r="Q50" s="6">
-        <v>21.373634637580789</v>
+        <v>27.320744505728218</v>
       </c>
       <c r="R50" s="6">
-        <v>110.0926687763713</v>
+        <v>135.1673292469352</v>
       </c>
       <c r="S50" s="5">
         <v>4.973268680840482E-4</v>
@@ -3429,37 +3429,37 @@
         <v>1</v>
       </c>
       <c r="H51" s="6">
-        <v>4.0371624472573844</v>
+        <v>1.1682921810699591</v>
       </c>
       <c r="I51" s="6">
-        <v>6.8757893255305742</v>
+        <v>6.127514894441795</v>
       </c>
       <c r="J51" s="6">
-        <v>8.0329957805907188</v>
+        <v>7.9432374348802481</v>
       </c>
       <c r="K51" s="6">
-        <v>8.7407083750000005</v>
+        <v>10.002478515625</v>
       </c>
       <c r="L51" s="6">
-        <v>11.020537109375001</v>
+        <v>11.747313589462131</v>
       </c>
       <c r="M51" s="6">
-        <v>13.00297350415512</v>
+        <v>13.799435938221379</v>
       </c>
       <c r="N51" s="6">
-        <v>15.18388829038112</v>
+        <v>15.8381996906277</v>
       </c>
       <c r="O51" s="6">
-        <v>16.29380274261603</v>
+        <v>18.346787167846941</v>
       </c>
       <c r="P51" s="6">
-        <v>19.571032212926291</v>
+        <v>22.211778287623449</v>
       </c>
       <c r="Q51" s="6">
-        <v>24.0977656260388</v>
+        <v>27.796493208406304</v>
       </c>
       <c r="R51" s="6">
-        <v>75.582141350210975</v>
+        <v>96.6926094570928</v>
       </c>
       <c r="S51" s="5">
         <v>4.973268680840482E-4</v>
@@ -3488,37 +3488,37 @@
         <v>2</v>
       </c>
       <c r="H52" s="6">
-        <v>0.36298664122137403</v>
+        <v>5.5236004390779365E-2</v>
       </c>
       <c r="I52" s="6">
-        <v>3.9253959212376941</v>
+        <v>4.6348061619123051</v>
       </c>
       <c r="J52" s="6">
-        <v>5.8203544682395645</v>
+        <v>6.9240992744274701</v>
       </c>
       <c r="K52" s="6">
-        <v>7.7923896962286472</v>
+        <v>8.7053125020130775</v>
       </c>
       <c r="L52" s="6">
-        <v>9.1143035711709377</v>
+        <v>10.413093582773051</v>
       </c>
       <c r="M52" s="6">
-        <v>10.777220683287171</v>
+        <v>12.21303650934996</v>
       </c>
       <c r="N52" s="6">
-        <v>12.847560921875001</v>
+        <v>14.267865188294008</v>
       </c>
       <c r="O52" s="6">
-        <v>14.652311097046409</v>
+        <v>16.99563554813593</v>
       </c>
       <c r="P52" s="6">
-        <v>16.962520501500471</v>
+        <v>20.875205488203271</v>
       </c>
       <c r="Q52" s="6">
-        <v>21.373634637580789</v>
+        <v>27.320744505728218</v>
       </c>
       <c r="R52" s="6">
-        <v>110.0926687763713</v>
+        <v>135.1673292469352</v>
       </c>
       <c r="S52" s="5">
         <v>2.237970906378217E-3</v>
@@ -3547,37 +3547,37 @@
         <v>3</v>
       </c>
       <c r="H53" s="6">
-        <v>4.0371624472573844</v>
+        <v>1.1682921810699591</v>
       </c>
       <c r="I53" s="6">
-        <v>6.8757893255305742</v>
+        <v>6.127514894441795</v>
       </c>
       <c r="J53" s="6">
-        <v>8.0329957805907188</v>
+        <v>7.9432374348802481</v>
       </c>
       <c r="K53" s="6">
-        <v>8.7407083750000005</v>
+        <v>10.002478515625</v>
       </c>
       <c r="L53" s="6">
-        <v>11.020537109375001</v>
+        <v>11.747313589462131</v>
       </c>
       <c r="M53" s="6">
-        <v>13.00297350415512</v>
+        <v>13.799435938221379</v>
       </c>
       <c r="N53" s="6">
-        <v>15.18388829038112</v>
+        <v>15.8381996906277</v>
       </c>
       <c r="O53" s="6">
-        <v>16.29380274261603</v>
+        <v>18.346787167846941</v>
       </c>
       <c r="P53" s="6">
-        <v>19.571032212926291</v>
+        <v>22.211778287623449</v>
       </c>
       <c r="Q53" s="6">
-        <v>24.0977656260388</v>
+        <v>27.796493208406304</v>
       </c>
       <c r="R53" s="6">
-        <v>75.582141350210975</v>
+        <v>96.6926094570928</v>
       </c>
       <c r="S53" s="5">
         <v>3.729951510630362E-4</v>
@@ -3606,37 +3606,37 @@
         <v>0</v>
       </c>
       <c r="H54" s="6">
-        <v>2.1354242749731482</v>
+        <v>0.21230632235084598</v>
       </c>
       <c r="I54" s="6">
-        <v>4.7762877734374998</v>
+        <v>6.5291098162574102</v>
       </c>
       <c r="J54" s="6">
-        <v>7.4728632594204978</v>
+        <v>9.3799246190256156</v>
       </c>
       <c r="K54" s="6">
-        <v>9.689548828125</v>
+        <v>11.24943933792253</v>
       </c>
       <c r="L54" s="6">
-        <v>11.876012749999999</v>
+        <v>13.15351481201011</v>
       </c>
       <c r="M54" s="6">
-        <v>14.427649727767699</v>
+        <v>15.34971502318613</v>
       </c>
       <c r="N54" s="6">
-        <v>16.78614105749508</v>
+        <v>18.138038384532759</v>
       </c>
       <c r="O54" s="6">
-        <v>18.961078000000001</v>
+        <v>21.392553534351151</v>
       </c>
       <c r="P54" s="6">
-        <v>22.156904120447891</v>
+        <v>25.47206926581655</v>
       </c>
       <c r="Q54" s="6">
-        <v>30.171791320406328</v>
+        <v>33.269650676724737</v>
       </c>
       <c r="R54" s="6">
-        <v>70.839391428571403</v>
+        <v>132.16062171628718</v>
       </c>
       <c r="S54" s="5">
         <v>1.2433171702101199E-4</v>
@@ -3665,37 +3665,37 @@
         <v>1</v>
       </c>
       <c r="H55" s="6">
-        <v>1.839367088607595</v>
+        <v>0.1635802469135802</v>
       </c>
       <c r="I55" s="6">
-        <v>3.8443399999999999</v>
+        <v>5.621048060854803</v>
       </c>
       <c r="J55" s="6">
-        <v>7.9566764322916699</v>
+        <v>8.9973264998970919</v>
       </c>
       <c r="K55" s="6">
-        <v>10.5547</v>
+        <v>12.089157793395431</v>
       </c>
       <c r="L55" s="6">
-        <v>14.117525392428441</v>
+        <v>15.225256000000002</v>
       </c>
       <c r="M55" s="6">
-        <v>16.70009074410163</v>
+        <v>18.785752448797858</v>
       </c>
       <c r="N55" s="6">
-        <v>20.113669999999999</v>
+        <v>22.238403319131088</v>
       </c>
       <c r="O55" s="6">
-        <v>22.661708217913201</v>
+        <v>26.999232489381338</v>
       </c>
       <c r="P55" s="6">
-        <v>29.339189453125002</v>
+        <v>33.940806246245479</v>
       </c>
       <c r="Q55" s="6">
-        <v>37.889091796875</v>
+        <v>46.676702879192661</v>
       </c>
       <c r="R55" s="6">
-        <v>80.564341603053435</v>
+        <v>120.53063505503809</v>
       </c>
       <c r="S55" s="5">
         <v>7.459903021260724E-4</v>
@@ -3724,37 +3724,37 @@
         <v>2</v>
       </c>
       <c r="H56" s="6">
-        <v>2.1354242749731482</v>
+        <v>0.21230632235084598</v>
       </c>
       <c r="I56" s="6">
-        <v>4.7762877734374998</v>
+        <v>6.5291098162574102</v>
       </c>
       <c r="J56" s="6">
-        <v>7.4728632594204978</v>
+        <v>9.3799246190256156</v>
       </c>
       <c r="K56" s="6">
-        <v>9.689548828125</v>
+        <v>11.24943933792253</v>
       </c>
       <c r="L56" s="6">
-        <v>11.876012749999999</v>
+        <v>13.15351481201011</v>
       </c>
       <c r="M56" s="6">
-        <v>14.427649727767699</v>
+        <v>15.34971502318613</v>
       </c>
       <c r="N56" s="6">
-        <v>16.78614105749508</v>
+        <v>18.138038384532759</v>
       </c>
       <c r="O56" s="6">
-        <v>18.961078000000001</v>
+        <v>21.392553534351151</v>
       </c>
       <c r="P56" s="6">
-        <v>22.156904120447891</v>
+        <v>25.47206926581655</v>
       </c>
       <c r="Q56" s="6">
-        <v>30.171791320406328</v>
+        <v>33.269650676724737</v>
       </c>
       <c r="R56" s="6">
-        <v>70.839391428571403</v>
+        <v>132.16062171628718</v>
       </c>
       <c r="S56" s="5">
         <v>2.486634340420241E-4</v>
@@ -3783,37 +3783,37 @@
         <v>3</v>
       </c>
       <c r="H57" s="6">
-        <v>1.839367088607595</v>
+        <v>0.1635802469135802</v>
       </c>
       <c r="I57" s="6">
-        <v>3.8443399999999999</v>
+        <v>5.621048060854803</v>
       </c>
       <c r="J57" s="6">
-        <v>7.9566764322916699</v>
+        <v>8.9973264998970919</v>
       </c>
       <c r="K57" s="6">
-        <v>10.5547</v>
+        <v>12.089157793395431</v>
       </c>
       <c r="L57" s="6">
-        <v>14.117525392428441</v>
+        <v>15.225256000000002</v>
       </c>
       <c r="M57" s="6">
-        <v>16.70009074410163</v>
+        <v>18.785752448797858</v>
       </c>
       <c r="N57" s="6">
-        <v>20.113669999999999</v>
+        <v>22.238403319131088</v>
       </c>
       <c r="O57" s="6">
-        <v>22.661708217913201</v>
+        <v>26.999232489381338</v>
       </c>
       <c r="P57" s="6">
-        <v>29.339189453125002</v>
+        <v>33.940806246245479</v>
       </c>
       <c r="Q57" s="6">
-        <v>37.889091796875</v>
+        <v>46.676702879192661</v>
       </c>
       <c r="R57" s="6">
-        <v>80.564341603053435</v>
+        <v>120.53063505503809</v>
       </c>
       <c r="S57" s="5">
         <v>2.486634340420241E-4</v>
@@ -3842,37 +3842,37 @@
         <v>0</v>
       </c>
       <c r="H58" s="6">
-        <v>0.36298664122137403</v>
+        <v>5.5236004390779365E-2</v>
       </c>
       <c r="I58" s="6">
-        <v>3.9253959212376941</v>
+        <v>4.6348061619123051</v>
       </c>
       <c r="J58" s="6">
-        <v>5.8203544682395645</v>
+        <v>6.9240992744274701</v>
       </c>
       <c r="K58" s="6">
-        <v>7.7923896962286472</v>
+        <v>8.7053125020130775</v>
       </c>
       <c r="L58" s="6">
-        <v>9.1143035711709377</v>
+        <v>10.413093582773051</v>
       </c>
       <c r="M58" s="6">
-        <v>10.777220683287171</v>
+        <v>12.21303650934996</v>
       </c>
       <c r="N58" s="6">
-        <v>12.847560921875001</v>
+        <v>14.267865188294008</v>
       </c>
       <c r="O58" s="6">
-        <v>14.652311097046409</v>
+        <v>16.99563554813593</v>
       </c>
       <c r="P58" s="6">
-        <v>16.962520501500471</v>
+        <v>20.875205488203271</v>
       </c>
       <c r="Q58" s="6">
-        <v>21.373634637580789</v>
+        <v>27.320744505728218</v>
       </c>
       <c r="R58" s="6">
-        <v>110.0926687763713</v>
+        <v>135.1673292469352</v>
       </c>
       <c r="S58" s="5">
         <v>1.491980604252145E-3</v>
@@ -3901,37 +3901,37 @@
         <v>1</v>
       </c>
       <c r="H59" s="6">
-        <v>4.0371624472573844</v>
+        <v>1.1682921810699591</v>
       </c>
       <c r="I59" s="6">
-        <v>6.8757893255305742</v>
+        <v>6.127514894441795</v>
       </c>
       <c r="J59" s="6">
-        <v>8.0329957805907188</v>
+        <v>7.9432374348802481</v>
       </c>
       <c r="K59" s="6">
-        <v>8.7407083750000005</v>
+        <v>10.002478515625</v>
       </c>
       <c r="L59" s="6">
-        <v>11.020537109375001</v>
+        <v>11.747313589462131</v>
       </c>
       <c r="M59" s="6">
-        <v>13.00297350415512</v>
+        <v>13.799435938221379</v>
       </c>
       <c r="N59" s="6">
-        <v>15.18388829038112</v>
+        <v>15.8381996906277</v>
       </c>
       <c r="O59" s="6">
-        <v>16.29380274261603</v>
+        <v>18.346787167846941</v>
       </c>
       <c r="P59" s="6">
-        <v>19.571032212926291</v>
+        <v>22.211778287623449</v>
       </c>
       <c r="Q59" s="6">
-        <v>24.0977656260388</v>
+        <v>27.796493208406304</v>
       </c>
       <c r="R59" s="6">
-        <v>75.582141350210975</v>
+        <v>96.6926094570928</v>
       </c>
       <c r="S59" s="5">
         <v>9.9465373616809639E-4</v>
@@ -3960,37 +3960,37 @@
         <v>2</v>
       </c>
       <c r="H60" s="6">
-        <v>0.36298664122137403</v>
+        <v>5.5236004390779365E-2</v>
       </c>
       <c r="I60" s="6">
-        <v>3.9253959212376941</v>
+        <v>4.6348061619123051</v>
       </c>
       <c r="J60" s="6">
-        <v>5.8203544682395645</v>
+        <v>6.9240992744274701</v>
       </c>
       <c r="K60" s="6">
-        <v>7.7923896962286472</v>
+        <v>8.7053125020130775</v>
       </c>
       <c r="L60" s="6">
-        <v>9.1143035711709377</v>
+        <v>10.413093582773051</v>
       </c>
       <c r="M60" s="6">
-        <v>10.777220683287171</v>
+        <v>12.21303650934996</v>
       </c>
       <c r="N60" s="6">
-        <v>12.847560921875001</v>
+        <v>14.267865188294008</v>
       </c>
       <c r="O60" s="6">
-        <v>14.652311097046409</v>
+        <v>16.99563554813593</v>
       </c>
       <c r="P60" s="6">
-        <v>16.962520501500471</v>
+        <v>20.875205488203271</v>
       </c>
       <c r="Q60" s="6">
-        <v>21.373634637580789</v>
+        <v>27.320744505728218</v>
       </c>
       <c r="R60" s="6">
-        <v>110.0926687763713</v>
+        <v>135.1673292469352</v>
       </c>
       <c r="S60" s="5">
         <v>0.1117742136018898</v>
@@ -4019,37 +4019,37 @@
         <v>3</v>
       </c>
       <c r="H61" s="6">
-        <v>4.0371624472573844</v>
+        <v>1.1682921810699591</v>
       </c>
       <c r="I61" s="6">
-        <v>6.8757893255305742</v>
+        <v>6.127514894441795</v>
       </c>
       <c r="J61" s="6">
-        <v>8.0329957805907188</v>
+        <v>7.9432374348802481</v>
       </c>
       <c r="K61" s="6">
-        <v>8.7407083750000005</v>
+        <v>10.002478515625</v>
       </c>
       <c r="L61" s="6">
-        <v>11.020537109375001</v>
+        <v>11.747313589462131</v>
       </c>
       <c r="M61" s="6">
-        <v>13.00297350415512</v>
+        <v>13.799435938221379</v>
       </c>
       <c r="N61" s="6">
-        <v>15.18388829038112</v>
+        <v>15.8381996906277</v>
       </c>
       <c r="O61" s="6">
-        <v>16.29380274261603</v>
+        <v>18.346787167846941</v>
       </c>
       <c r="P61" s="6">
-        <v>19.571032212926291</v>
+        <v>22.211778287623449</v>
       </c>
       <c r="Q61" s="6">
-        <v>24.0977656260388</v>
+        <v>27.796493208406304</v>
       </c>
       <c r="R61" s="6">
-        <v>75.582141350210975</v>
+        <v>96.6926094570928</v>
       </c>
       <c r="S61" s="5">
         <v>2.088772845953003E-2</v>
@@ -4078,37 +4078,37 @@
         <v>0</v>
       </c>
       <c r="H62" s="6">
-        <v>2.1354242749731482</v>
+        <v>0.21230632235084598</v>
       </c>
       <c r="I62" s="6">
-        <v>4.7762877734374998</v>
+        <v>6.5291098162574102</v>
       </c>
       <c r="J62" s="6">
-        <v>7.4728632594204978</v>
+        <v>9.3799246190256156</v>
       </c>
       <c r="K62" s="6">
-        <v>9.689548828125</v>
+        <v>11.24943933792253</v>
       </c>
       <c r="L62" s="6">
-        <v>11.876012749999999</v>
+        <v>13.15351481201011</v>
       </c>
       <c r="M62" s="6">
-        <v>14.427649727767699</v>
+        <v>15.34971502318613</v>
       </c>
       <c r="N62" s="6">
-        <v>16.78614105749508</v>
+        <v>18.138038384532759</v>
       </c>
       <c r="O62" s="6">
-        <v>18.961078000000001</v>
+        <v>21.392553534351151</v>
       </c>
       <c r="P62" s="6">
-        <v>22.156904120447891</v>
+        <v>25.47206926581655</v>
       </c>
       <c r="Q62" s="6">
-        <v>30.171791320406328</v>
+        <v>33.269650676724737</v>
       </c>
       <c r="R62" s="6">
-        <v>70.839391428571403</v>
+        <v>132.16062171628718</v>
       </c>
       <c r="S62" s="5">
         <v>3.729951510630362E-4</v>
@@ -4137,37 +4137,37 @@
         <v>1</v>
       </c>
       <c r="H63" s="6">
-        <v>1.839367088607595</v>
+        <v>0.1635802469135802</v>
       </c>
       <c r="I63" s="6">
-        <v>3.8443399999999999</v>
+        <v>5.621048060854803</v>
       </c>
       <c r="J63" s="6">
-        <v>7.9566764322916699</v>
+        <v>8.9973264998970919</v>
       </c>
       <c r="K63" s="6">
-        <v>10.5547</v>
+        <v>12.089157793395431</v>
       </c>
       <c r="L63" s="6">
-        <v>14.117525392428441</v>
+        <v>15.225256000000002</v>
       </c>
       <c r="M63" s="6">
-        <v>16.70009074410163</v>
+        <v>18.785752448797858</v>
       </c>
       <c r="N63" s="6">
-        <v>20.113669999999999</v>
+        <v>22.238403319131088</v>
       </c>
       <c r="O63" s="6">
-        <v>22.661708217913201</v>
+        <v>26.999232489381338</v>
       </c>
       <c r="P63" s="6">
-        <v>29.339189453125002</v>
+        <v>33.940806246245479</v>
       </c>
       <c r="Q63" s="6">
-        <v>37.889091796875</v>
+        <v>46.676702879192661</v>
       </c>
       <c r="R63" s="6">
-        <v>80.564341603053435</v>
+        <v>120.53063505503809</v>
       </c>
       <c r="S63" s="5">
         <v>2.486634340420241E-4</v>
@@ -4196,37 +4196,37 @@
         <v>2</v>
       </c>
       <c r="H64" s="6">
-        <v>2.1354242749731482</v>
+        <v>0.21230632235084598</v>
       </c>
       <c r="I64" s="6">
-        <v>4.7762877734374998</v>
+        <v>6.5291098162574102</v>
       </c>
       <c r="J64" s="6">
-        <v>7.4728632594204978</v>
+        <v>9.3799246190256156</v>
       </c>
       <c r="K64" s="6">
-        <v>9.689548828125</v>
+        <v>11.24943933792253</v>
       </c>
       <c r="L64" s="6">
-        <v>11.876012749999999</v>
+        <v>13.15351481201011</v>
       </c>
       <c r="M64" s="6">
-        <v>14.427649727767699</v>
+        <v>15.34971502318613</v>
       </c>
       <c r="N64" s="6">
-        <v>16.78614105749508</v>
+        <v>18.138038384532759</v>
       </c>
       <c r="O64" s="6">
-        <v>18.961078000000001</v>
+        <v>21.392553534351151</v>
       </c>
       <c r="P64" s="6">
-        <v>22.156904120447891</v>
+        <v>25.47206926581655</v>
       </c>
       <c r="Q64" s="6">
-        <v>30.171791320406328</v>
+        <v>33.269650676724737</v>
       </c>
       <c r="R64" s="6">
-        <v>70.839391428571403</v>
+        <v>132.16062171628718</v>
       </c>
       <c r="S64" s="5">
         <v>7.5842347382817357E-3</v>
@@ -4255,37 +4255,37 @@
         <v>3</v>
       </c>
       <c r="H65" s="6">
-        <v>1.839367088607595</v>
+        <v>0.1635802469135802</v>
       </c>
       <c r="I65" s="6">
-        <v>3.8443399999999999</v>
+        <v>5.621048060854803</v>
       </c>
       <c r="J65" s="6">
-        <v>7.9566764322916699</v>
+        <v>8.9973264998970919</v>
       </c>
       <c r="K65" s="6">
-        <v>10.5547</v>
+        <v>12.089157793395431</v>
       </c>
       <c r="L65" s="6">
-        <v>14.117525392428441</v>
+        <v>15.225256000000002</v>
       </c>
       <c r="M65" s="6">
-        <v>16.70009074410163</v>
+        <v>18.785752448797858</v>
       </c>
       <c r="N65" s="6">
-        <v>20.113669999999999</v>
+        <v>22.238403319131088</v>
       </c>
       <c r="O65" s="6">
-        <v>22.661708217913201</v>
+        <v>26.999232489381338</v>
       </c>
       <c r="P65" s="6">
-        <v>29.339189453125002</v>
+        <v>33.940806246245479</v>
       </c>
       <c r="Q65" s="6">
-        <v>37.889091796875</v>
+        <v>46.676702879192661</v>
       </c>
       <c r="R65" s="6">
-        <v>80.564341603053435</v>
+        <v>120.53063505503809</v>
       </c>
       <c r="S65" s="5">
         <v>8.7032201914708437E-3</v>
@@ -4314,37 +4314,37 @@
         <v>0</v>
       </c>
       <c r="H66" s="6">
-        <v>0.47721679687500002</v>
+        <v>0.120283203125</v>
       </c>
       <c r="I66" s="6">
-        <v>4.0104523493254147</v>
+        <v>4.2245639656594278</v>
       </c>
       <c r="J66" s="6">
-        <v>6.04470054446461</v>
+        <v>6.4784968295579297</v>
       </c>
       <c r="K66" s="6">
-        <v>7.5634003055071064</v>
+        <v>8.2560886691363198</v>
       </c>
       <c r="L66" s="6">
-        <v>9.269675572519084</v>
+        <v>10.004370502057609</v>
       </c>
       <c r="M66" s="6">
-        <v>10.593566739451001</v>
+        <v>11.754573502722319</v>
       </c>
       <c r="N66" s="6">
-        <v>12.35365</v>
+        <v>13.909166380712708</v>
       </c>
       <c r="O66" s="6">
-        <v>14.5060371399177</v>
+        <v>16.24175779162956</v>
       </c>
       <c r="P66" s="6">
-        <v>17.09028</v>
+        <v>19.949530000000031</v>
       </c>
       <c r="Q66" s="6">
-        <v>22.073692968749999</v>
+        <v>26.17166807790008</v>
       </c>
       <c r="R66" s="6">
-        <v>73.350458984374995</v>
+        <v>135.7710838272651</v>
       </c>
       <c r="S66" s="5">
         <v>1.1189854531891081E-3</v>
@@ -4373,37 +4373,37 @@
         <v>1</v>
       </c>
       <c r="H67" s="6">
-        <v>0.62017578124999995</v>
+        <v>0.45188747731397455</v>
       </c>
       <c r="I67" s="6">
-        <v>6.6967579800600783</v>
+        <v>6.974283874422901</v>
       </c>
       <c r="J67" s="6">
-        <v>8.2986873580246918</v>
+        <v>9.1831891139240529</v>
       </c>
       <c r="K67" s="6">
-        <v>10.211143280160471</v>
+        <v>11.064937651179601</v>
       </c>
       <c r="L67" s="6">
-        <v>13.141307572573471</v>
+        <v>13.54471888916161</v>
       </c>
       <c r="M67" s="6">
-        <v>14.166525</v>
+        <v>15.965753064798601</v>
       </c>
       <c r="N67" s="6">
-        <v>16.960998627885502</v>
+        <v>18.94888101939058</v>
       </c>
       <c r="O67" s="6">
-        <v>19.381079437500002</v>
+        <v>22.273774710887299</v>
       </c>
       <c r="P67" s="6">
-        <v>24.007263811634349</v>
+        <v>27.868651459525381</v>
       </c>
       <c r="Q67" s="6">
-        <v>30.452266444444462</v>
+        <v>38.364789551795802</v>
       </c>
       <c r="R67" s="6">
-        <v>91.403887349953834</v>
+        <v>116.36952582557149</v>
       </c>
       <c r="S67" s="5">
         <v>4.973268680840482E-4</v>
@@ -4432,37 +4432,37 @@
         <v>2</v>
       </c>
       <c r="H68" s="6">
-        <v>0.47721679687500002</v>
+        <v>0.120283203125</v>
       </c>
       <c r="I68" s="6">
-        <v>4.0104523493254147</v>
+        <v>4.2245639656594278</v>
       </c>
       <c r="J68" s="6">
-        <v>6.04470054446461</v>
+        <v>6.4784968295579297</v>
       </c>
       <c r="K68" s="6">
-        <v>7.5634003055071064</v>
+        <v>8.2560886691363198</v>
       </c>
       <c r="L68" s="6">
-        <v>9.269675572519084</v>
+        <v>10.004370502057609</v>
       </c>
       <c r="M68" s="6">
-        <v>10.593566739451001</v>
+        <v>11.754573502722319</v>
       </c>
       <c r="N68" s="6">
-        <v>12.35365</v>
+        <v>13.909166380712708</v>
       </c>
       <c r="O68" s="6">
-        <v>14.5060371399177</v>
+        <v>16.24175779162956</v>
       </c>
       <c r="P68" s="6">
-        <v>17.09028</v>
+        <v>19.949530000000031</v>
       </c>
       <c r="Q68" s="6">
-        <v>22.073692968749999</v>
+        <v>26.17166807790008</v>
       </c>
       <c r="R68" s="6">
-        <v>73.350458984374995</v>
+        <v>135.7710838272651</v>
       </c>
       <c r="S68" s="5">
         <v>2.237970906378217E-3</v>
@@ -4491,37 +4491,37 @@
         <v>3</v>
       </c>
       <c r="H69" s="6">
-        <v>0.62017578124999995</v>
+        <v>0.45188747731397455</v>
       </c>
       <c r="I69" s="6">
-        <v>6.6967579800600783</v>
+        <v>6.974283874422901</v>
       </c>
       <c r="J69" s="6">
-        <v>8.2986873580246918</v>
+        <v>9.1831891139240529</v>
       </c>
       <c r="K69" s="6">
-        <v>10.211143280160471</v>
+        <v>11.064937651179601</v>
       </c>
       <c r="L69" s="6">
-        <v>13.141307572573471</v>
+        <v>13.54471888916161</v>
       </c>
       <c r="M69" s="6">
-        <v>14.166525</v>
+        <v>15.965753064798601</v>
       </c>
       <c r="N69" s="6">
-        <v>16.960998627885502</v>
+        <v>18.94888101939058</v>
       </c>
       <c r="O69" s="6">
-        <v>19.381079437500002</v>
+        <v>22.273774710887299</v>
       </c>
       <c r="P69" s="6">
-        <v>24.007263811634349</v>
+        <v>27.868651459525381</v>
       </c>
       <c r="Q69" s="6">
-        <v>30.452266444444462</v>
+        <v>38.364789551795802</v>
       </c>
       <c r="R69" s="6">
-        <v>91.403887349953834</v>
+        <v>116.36952582557149</v>
       </c>
       <c r="S69" s="5">
         <v>3.729951510630362E-4</v>
@@ -4550,37 +4550,37 @@
         <v>0</v>
       </c>
       <c r="H70" s="6">
-        <v>0.7629423868312758</v>
+        <v>0.10508438818565401</v>
       </c>
       <c r="I70" s="6">
-        <v>6.8481139999999998</v>
+        <v>6.8940442371020865</v>
       </c>
       <c r="J70" s="6">
-        <v>8.9217313924050625</v>
+        <v>9.7983742591024559</v>
       </c>
       <c r="K70" s="6">
-        <v>11.009604</v>
+        <v>11.98023515625</v>
       </c>
       <c r="L70" s="6">
-        <v>12.921591578896509</v>
+        <v>14.06725026852847</v>
       </c>
       <c r="M70" s="6">
-        <v>14.609462025316461</v>
+        <v>16.641186684188529</v>
       </c>
       <c r="N70" s="6">
-        <v>16.627009375</v>
+        <v>19.547336197636962</v>
       </c>
       <c r="O70" s="6">
-        <v>19.631711546875</v>
+        <v>22.629354804687502</v>
       </c>
       <c r="P70" s="6">
-        <v>23.479561753749174</v>
+        <v>27.90455</v>
       </c>
       <c r="Q70" s="6">
-        <v>30.846968435826408</v>
+        <v>35.651808498431571</v>
       </c>
       <c r="R70" s="6">
-        <v>58.154754990925568</v>
+        <v>109.6648423817864</v>
       </c>
       <c r="S70" s="5">
         <v>0</v>
@@ -4609,37 +4609,37 @@
         <v>1</v>
       </c>
       <c r="H71" s="6">
-        <v>2.15532667876588</v>
+        <v>1.6846168051708219</v>
       </c>
       <c r="I71" s="6">
-        <v>8.1659176008483367</v>
+        <v>8.0866668191257922</v>
       </c>
       <c r="J71" s="6">
-        <v>11.01791450632911</v>
+        <v>12.02428244274809</v>
       </c>
       <c r="K71" s="6">
-        <v>14.30351484308736</v>
+        <v>15.674347042031521</v>
       </c>
       <c r="L71" s="6">
-        <v>16.711660671874998</v>
+        <v>18.427993677649159</v>
       </c>
       <c r="M71" s="6">
-        <v>19.498062977099238</v>
+        <v>20.99493451674298</v>
       </c>
       <c r="N71" s="6">
-        <v>22.254230900763361</v>
+        <v>24.36857357679915</v>
       </c>
       <c r="O71" s="6">
-        <v>24.949844440371631</v>
+        <v>29.224829606681027</v>
       </c>
       <c r="P71" s="6">
-        <v>29.152473609375008</v>
+        <v>35.612091234624572</v>
       </c>
       <c r="Q71" s="6">
-        <v>36.425375039648138</v>
+        <v>45.167337490220127</v>
       </c>
       <c r="R71" s="6">
-        <v>57.608820000000001</v>
+        <v>99.449964381121987</v>
       </c>
       <c r="S71" s="5">
         <v>6.216585851050603E-4</v>
@@ -4668,37 +4668,37 @@
         <v>2</v>
       </c>
       <c r="H72" s="6">
-        <v>0.7629423868312758</v>
+        <v>0.10508438818565401</v>
       </c>
       <c r="I72" s="6">
-        <v>6.8481139999999998</v>
+        <v>6.8940442371020865</v>
       </c>
       <c r="J72" s="6">
-        <v>8.9217313924050625</v>
+        <v>9.7983742591024559</v>
       </c>
       <c r="K72" s="6">
-        <v>11.009604</v>
+        <v>11.98023515625</v>
       </c>
       <c r="L72" s="6">
-        <v>12.921591578896509</v>
+        <v>14.06725026852847</v>
       </c>
       <c r="M72" s="6">
-        <v>14.609462025316461</v>
+        <v>16.641186684188529</v>
       </c>
       <c r="N72" s="6">
-        <v>16.627009375</v>
+        <v>19.547336197636962</v>
       </c>
       <c r="O72" s="6">
-        <v>19.631711546875</v>
+        <v>22.629354804687502</v>
       </c>
       <c r="P72" s="6">
-        <v>23.479561753749174</v>
+        <v>27.90455</v>
       </c>
       <c r="Q72" s="6">
-        <v>30.846968435826408</v>
+        <v>35.651808498431571</v>
       </c>
       <c r="R72" s="6">
-        <v>58.154754990925568</v>
+        <v>109.6648423817864</v>
       </c>
       <c r="S72" s="5">
         <v>4.973268680840482E-4</v>
@@ -4727,37 +4727,37 @@
         <v>3</v>
       </c>
       <c r="H73" s="6">
-        <v>2.15532667876588</v>
+        <v>1.6846168051708219</v>
       </c>
       <c r="I73" s="6">
-        <v>8.1659176008483367</v>
+        <v>8.0866668191257922</v>
       </c>
       <c r="J73" s="6">
-        <v>11.01791450632911</v>
+        <v>12.02428244274809</v>
       </c>
       <c r="K73" s="6">
-        <v>14.30351484308736</v>
+        <v>15.674347042031521</v>
       </c>
       <c r="L73" s="6">
-        <v>16.711660671874998</v>
+        <v>18.427993677649159</v>
       </c>
       <c r="M73" s="6">
-        <v>19.498062977099238</v>
+        <v>20.99493451674298</v>
       </c>
       <c r="N73" s="6">
-        <v>22.254230900763361</v>
+        <v>24.36857357679915</v>
       </c>
       <c r="O73" s="6">
-        <v>24.949844440371631</v>
+        <v>29.224829606681027</v>
       </c>
       <c r="P73" s="6">
-        <v>29.152473609375008</v>
+        <v>35.612091234624572</v>
       </c>
       <c r="Q73" s="6">
-        <v>36.425375039648138</v>
+        <v>45.167337490220127</v>
       </c>
       <c r="R73" s="6">
-        <v>57.608820000000001</v>
+        <v>99.449964381121987</v>
       </c>
       <c r="S73" s="5">
         <v>8.703220191470844E-4</v>
@@ -4786,37 +4786,37 @@
         <v>0</v>
       </c>
       <c r="H74" s="6">
-        <v>0.47721679687500002</v>
+        <v>0.120283203125</v>
       </c>
       <c r="I74" s="6">
-        <v>4.0104523493254147</v>
+        <v>4.2245639656594278</v>
       </c>
       <c r="J74" s="6">
-        <v>6.04470054446461</v>
+        <v>6.4784968295579297</v>
       </c>
       <c r="K74" s="6">
-        <v>7.5634003055071064</v>
+        <v>8.2560886691363198</v>
       </c>
       <c r="L74" s="6">
-        <v>9.269675572519084</v>
+        <v>10.004370502057609</v>
       </c>
       <c r="M74" s="6">
-        <v>10.593566739451001</v>
+        <v>11.754573502722319</v>
       </c>
       <c r="N74" s="6">
-        <v>12.35365</v>
+        <v>13.909166380712708</v>
       </c>
       <c r="O74" s="6">
-        <v>14.5060371399177</v>
+        <v>16.24175779162956</v>
       </c>
       <c r="P74" s="6">
-        <v>17.09028</v>
+        <v>19.949530000000031</v>
       </c>
       <c r="Q74" s="6">
-        <v>22.073692968749999</v>
+        <v>26.17166807790008</v>
       </c>
       <c r="R74" s="6">
-        <v>73.350458984374995</v>
+        <v>135.7710838272651</v>
       </c>
       <c r="S74" s="5">
         <v>1.243317170210121E-3</v>
@@ -4845,37 +4845,37 @@
         <v>1</v>
       </c>
       <c r="H75" s="6">
-        <v>0.62017578124999995</v>
+        <v>0.45188747731397455</v>
       </c>
       <c r="I75" s="6">
-        <v>6.6967579800600783</v>
+        <v>6.974283874422901</v>
       </c>
       <c r="J75" s="6">
-        <v>8.2986873580246918</v>
+        <v>9.1831891139240529</v>
       </c>
       <c r="K75" s="6">
-        <v>10.211143280160471</v>
+        <v>11.064937651179601</v>
       </c>
       <c r="L75" s="6">
-        <v>13.141307572573471</v>
+        <v>13.54471888916161</v>
       </c>
       <c r="M75" s="6">
-        <v>14.166525</v>
+        <v>15.965753064798601</v>
       </c>
       <c r="N75" s="6">
-        <v>16.960998627885502</v>
+        <v>18.94888101939058</v>
       </c>
       <c r="O75" s="6">
-        <v>19.381079437500002</v>
+        <v>22.273774710887299</v>
       </c>
       <c r="P75" s="6">
-        <v>24.007263811634349</v>
+        <v>27.868651459525381</v>
       </c>
       <c r="Q75" s="6">
-        <v>30.452266444444462</v>
+        <v>38.364789551795802</v>
       </c>
       <c r="R75" s="6">
-        <v>91.403887349953834</v>
+        <v>116.36952582557149</v>
       </c>
       <c r="S75" s="5">
         <v>1.3676488872311329E-3</v>
@@ -4904,37 +4904,37 @@
         <v>2</v>
       </c>
       <c r="H76" s="6">
-        <v>0.47721679687500002</v>
+        <v>0.120283203125</v>
       </c>
       <c r="I76" s="6">
-        <v>4.0104523493254147</v>
+        <v>4.2245639656594278</v>
       </c>
       <c r="J76" s="6">
-        <v>6.04470054446461</v>
+        <v>6.4784968295579297</v>
       </c>
       <c r="K76" s="6">
-        <v>7.5634003055071064</v>
+        <v>8.2560886691363198</v>
       </c>
       <c r="L76" s="6">
-        <v>9.269675572519084</v>
+        <v>10.004370502057609</v>
       </c>
       <c r="M76" s="6">
-        <v>10.593566739451001</v>
+        <v>11.754573502722319</v>
       </c>
       <c r="N76" s="6">
-        <v>12.35365</v>
+        <v>13.909166380712708</v>
       </c>
       <c r="O76" s="6">
-        <v>14.5060371399177</v>
+        <v>16.24175779162956</v>
       </c>
       <c r="P76" s="6">
-        <v>17.09028</v>
+        <v>19.949530000000031</v>
       </c>
       <c r="Q76" s="6">
-        <v>22.073692968749999</v>
+        <v>26.17166807790008</v>
       </c>
       <c r="R76" s="6">
-        <v>73.350458984374995</v>
+        <v>135.7710838272651</v>
       </c>
       <c r="S76" s="5">
         <v>0.1219694143976128</v>
@@ -4963,37 +4963,37 @@
         <v>3</v>
       </c>
       <c r="H77" s="6">
-        <v>0.62017578124999995</v>
+        <v>0.45188747731397455</v>
       </c>
       <c r="I77" s="6">
-        <v>6.6967579800600783</v>
+        <v>6.974283874422901</v>
       </c>
       <c r="J77" s="6">
-        <v>8.2986873580246918</v>
+        <v>9.1831891139240529</v>
       </c>
       <c r="K77" s="6">
-        <v>10.211143280160471</v>
+        <v>11.064937651179601</v>
       </c>
       <c r="L77" s="6">
-        <v>13.141307572573471</v>
+        <v>13.54471888916161</v>
       </c>
       <c r="M77" s="6">
-        <v>14.166525</v>
+        <v>15.965753064798601</v>
       </c>
       <c r="N77" s="6">
-        <v>16.960998627885502</v>
+        <v>18.94888101939058</v>
       </c>
       <c r="O77" s="6">
-        <v>19.381079437500002</v>
+        <v>22.273774710887299</v>
       </c>
       <c r="P77" s="6">
-        <v>24.007263811634349</v>
+        <v>27.868651459525381</v>
       </c>
       <c r="Q77" s="6">
-        <v>30.452266444444462</v>
+        <v>38.364789551795802</v>
       </c>
       <c r="R77" s="6">
-        <v>91.403887349953834</v>
+        <v>116.36952582557149</v>
       </c>
       <c r="S77" s="5">
         <v>2.1260723610593061E-2</v>
@@ -5022,37 +5022,37 @@
         <v>0</v>
       </c>
       <c r="H78" s="6">
-        <v>0.7629423868312758</v>
+        <v>0.10508438818565401</v>
       </c>
       <c r="I78" s="6">
-        <v>6.8481139999999998</v>
+        <v>6.8940442371020865</v>
       </c>
       <c r="J78" s="6">
-        <v>8.9217313924050625</v>
+        <v>9.7983742591024559</v>
       </c>
       <c r="K78" s="6">
-        <v>11.009604</v>
+        <v>11.98023515625</v>
       </c>
       <c r="L78" s="6">
-        <v>12.921591578896509</v>
+        <v>14.06725026852847</v>
       </c>
       <c r="M78" s="6">
-        <v>14.609462025316461</v>
+        <v>16.641186684188529</v>
       </c>
       <c r="N78" s="6">
-        <v>16.627009375</v>
+        <v>19.547336197636962</v>
       </c>
       <c r="O78" s="6">
-        <v>19.631711546875</v>
+        <v>22.629354804687502</v>
       </c>
       <c r="P78" s="6">
-        <v>23.479561753749174</v>
+        <v>27.90455</v>
       </c>
       <c r="Q78" s="6">
-        <v>30.846968435826408</v>
+        <v>35.651808498431571</v>
       </c>
       <c r="R78" s="6">
-        <v>58.154754990925568</v>
+        <v>109.6648423817864</v>
       </c>
       <c r="S78" s="5">
         <v>3.729951510630362E-4</v>
@@ -5081,37 +5081,37 @@
         <v>1</v>
       </c>
       <c r="H79" s="6">
-        <v>2.15532667876588</v>
+        <v>1.6846168051708219</v>
       </c>
       <c r="I79" s="6">
-        <v>8.1659176008483367</v>
+        <v>8.0866668191257922</v>
       </c>
       <c r="J79" s="6">
-        <v>11.01791450632911</v>
+        <v>12.02428244274809</v>
       </c>
       <c r="K79" s="6">
-        <v>14.30351484308736</v>
+        <v>15.674347042031521</v>
       </c>
       <c r="L79" s="6">
-        <v>16.711660671874998</v>
+        <v>18.427993677649159</v>
       </c>
       <c r="M79" s="6">
-        <v>19.498062977099238</v>
+        <v>20.99493451674298</v>
       </c>
       <c r="N79" s="6">
-        <v>22.254230900763361</v>
+        <v>24.36857357679915</v>
       </c>
       <c r="O79" s="6">
-        <v>24.949844440371631</v>
+        <v>29.224829606681027</v>
       </c>
       <c r="P79" s="6">
-        <v>29.152473609375008</v>
+        <v>35.612091234624572</v>
       </c>
       <c r="Q79" s="6">
-        <v>36.425375039648138</v>
+        <v>45.167337490220127</v>
       </c>
       <c r="R79" s="6">
-        <v>57.608820000000001</v>
+        <v>99.449964381121987</v>
       </c>
       <c r="S79" s="5">
         <v>1.3676488872311329E-3</v>
@@ -5140,37 +5140,37 @@
         <v>2</v>
       </c>
       <c r="H80" s="6">
-        <v>0.7629423868312758</v>
+        <v>0.10508438818565401</v>
       </c>
       <c r="I80" s="6">
-        <v>6.8481139999999998</v>
+        <v>6.8940442371020865</v>
       </c>
       <c r="J80" s="6">
-        <v>8.9217313924050625</v>
+        <v>9.7983742591024559</v>
       </c>
       <c r="K80" s="6">
-        <v>11.009604</v>
+        <v>11.98023515625</v>
       </c>
       <c r="L80" s="6">
-        <v>12.921591578896509</v>
+        <v>14.06725026852847</v>
       </c>
       <c r="M80" s="6">
-        <v>14.609462025316461</v>
+        <v>16.641186684188529</v>
       </c>
       <c r="N80" s="6">
-        <v>16.627009375</v>
+        <v>19.547336197636962</v>
       </c>
       <c r="O80" s="6">
-        <v>19.631711546875</v>
+        <v>22.629354804687502</v>
       </c>
       <c r="P80" s="6">
-        <v>23.479561753749174</v>
+        <v>27.90455</v>
       </c>
       <c r="Q80" s="6">
-        <v>30.846968435826408</v>
+        <v>35.651808498431571</v>
       </c>
       <c r="R80" s="6">
-        <v>58.154754990925568</v>
+        <v>109.6648423817864</v>
       </c>
       <c r="S80" s="5">
         <v>9.3248787765759043E-3</v>
@@ -5199,37 +5199,37 @@
         <v>3</v>
       </c>
       <c r="H81" s="6">
-        <v>2.15532667876588</v>
+        <v>1.6846168051708219</v>
       </c>
       <c r="I81" s="6">
-        <v>8.1659176008483367</v>
+        <v>8.0866668191257922</v>
       </c>
       <c r="J81" s="6">
-        <v>11.01791450632911</v>
+        <v>12.02428244274809</v>
       </c>
       <c r="K81" s="6">
-        <v>14.30351484308736</v>
+        <v>15.674347042031521</v>
       </c>
       <c r="L81" s="6">
-        <v>16.711660671874998</v>
+        <v>18.427993677649159</v>
       </c>
       <c r="M81" s="6">
-        <v>19.498062977099238</v>
+        <v>20.99493451674298</v>
       </c>
       <c r="N81" s="6">
-        <v>22.254230900763361</v>
+        <v>24.36857357679915</v>
       </c>
       <c r="O81" s="6">
-        <v>24.949844440371631</v>
+        <v>29.224829606681027</v>
       </c>
       <c r="P81" s="6">
-        <v>29.152473609375008</v>
+        <v>35.612091234624572</v>
       </c>
       <c r="Q81" s="6">
-        <v>36.425375039648138</v>
+        <v>45.167337490220127</v>
       </c>
       <c r="R81" s="6">
-        <v>57.608820000000001</v>
+        <v>99.449964381121987</v>
       </c>
       <c r="S81" s="5">
         <v>9.2005470595548922E-3</v>
@@ -5258,37 +5258,37 @@
         <v>0</v>
       </c>
       <c r="H82" s="6">
-        <v>0.33471193415637862</v>
+        <v>0.14127332601536768</v>
       </c>
       <c r="I82" s="6">
-        <v>4.2170353991769547</v>
+        <v>4.3914</v>
       </c>
       <c r="J82" s="6">
-        <v>6.0866842250878577</v>
+        <v>6.4635156250000003</v>
       </c>
       <c r="K82" s="6">
-        <v>7.7005138765432104</v>
+        <v>8.2830916030534354</v>
       </c>
       <c r="L82" s="6">
-        <v>8.9938760000000002</v>
+        <v>10.11896551724138</v>
       </c>
       <c r="M82" s="6">
-        <v>10.651862139917689</v>
+        <v>11.941984732824428</v>
       </c>
       <c r="N82" s="6">
-        <v>12.33949042831216</v>
+        <v>13.889156378600822</v>
       </c>
       <c r="O82" s="6">
-        <v>14.081077349713741</v>
+        <v>16.36759259259259</v>
       </c>
       <c r="P82" s="6">
-        <v>16.948515435114501</v>
+        <v>19.756028495102409</v>
       </c>
       <c r="Q82" s="6">
-        <v>21.419370747076609</v>
+        <v>25.3000725952813</v>
       </c>
       <c r="R82" s="6">
-        <v>87.685649999999995</v>
+        <v>110.17828371278459</v>
       </c>
       <c r="S82" s="5">
         <v>6.216585851050603E-4</v>
@@ -5317,37 +5317,37 @@
         <v>1</v>
       </c>
       <c r="H83" s="6">
-        <v>1.1682921810699591</v>
+        <v>1.156084949215143</v>
       </c>
       <c r="I83" s="6">
-        <v>6.3063760000000002</v>
+        <v>6.3055880834857048</v>
       </c>
       <c r="J83" s="6">
-        <v>7.5530523159042637</v>
+        <v>8.104006008467401</v>
       </c>
       <c r="K83" s="6">
-        <v>8.8675625</v>
+        <v>9.832718707803993</v>
       </c>
       <c r="L83" s="6">
-        <v>10.558250183206109</v>
+        <v>11.805924893296901</v>
       </c>
       <c r="M83" s="6">
-        <v>11.68690655209452</v>
+        <v>14.122626892252899</v>
       </c>
       <c r="N83" s="6">
-        <v>13.812572416756181</v>
+        <v>16.800315038238402</v>
       </c>
       <c r="O83" s="6">
-        <v>16.41449517508056</v>
+        <v>19.959385012701102</v>
       </c>
       <c r="P83" s="6">
-        <v>18.73211953462604</v>
+        <v>25.589859800169361</v>
       </c>
       <c r="Q83" s="6">
-        <v>22.924876297640651</v>
+        <v>34.367730377014318</v>
       </c>
       <c r="R83" s="6">
-        <v>60.497309999999999</v>
+        <v>75.582141350210975</v>
       </c>
       <c r="S83" s="5">
         <v>3.729951510630362E-4</v>
@@ -5376,37 +5376,37 @@
         <v>2</v>
       </c>
       <c r="H84" s="6">
-        <v>0.33471193415637862</v>
+        <v>0.14127332601536768</v>
       </c>
       <c r="I84" s="6">
-        <v>4.2170353991769547</v>
+        <v>4.3914</v>
       </c>
       <c r="J84" s="6">
-        <v>6.0866842250878577</v>
+        <v>6.4635156250000003</v>
       </c>
       <c r="K84" s="6">
-        <v>7.7005138765432104</v>
+        <v>8.2830916030534354</v>
       </c>
       <c r="L84" s="6">
-        <v>8.9938760000000002</v>
+        <v>10.11896551724138</v>
       </c>
       <c r="M84" s="6">
-        <v>10.651862139917689</v>
+        <v>11.941984732824428</v>
       </c>
       <c r="N84" s="6">
-        <v>12.33949042831216</v>
+        <v>13.889156378600822</v>
       </c>
       <c r="O84" s="6">
-        <v>14.081077349713741</v>
+        <v>16.36759259259259</v>
       </c>
       <c r="P84" s="6">
-        <v>16.948515435114501</v>
+        <v>19.756028495102409</v>
       </c>
       <c r="Q84" s="6">
-        <v>21.419370747076609</v>
+        <v>25.3000725952813</v>
       </c>
       <c r="R84" s="6">
-        <v>87.685649999999995</v>
+        <v>110.17828371278459</v>
       </c>
       <c r="S84" s="5">
         <v>1.3676488872311329E-3</v>
@@ -5435,37 +5435,37 @@
         <v>3</v>
       </c>
       <c r="H85" s="6">
-        <v>1.1682921810699591</v>
+        <v>1.156084949215143</v>
       </c>
       <c r="I85" s="6">
-        <v>6.3063760000000002</v>
+        <v>6.3055880834857048</v>
       </c>
       <c r="J85" s="6">
-        <v>7.5530523159042637</v>
+        <v>8.104006008467401</v>
       </c>
       <c r="K85" s="6">
-        <v>8.8675625</v>
+        <v>9.832718707803993</v>
       </c>
       <c r="L85" s="6">
-        <v>10.558250183206109</v>
+        <v>11.805924893296901</v>
       </c>
       <c r="M85" s="6">
-        <v>11.68690655209452</v>
+        <v>14.122626892252899</v>
       </c>
       <c r="N85" s="6">
-        <v>13.812572416756181</v>
+        <v>16.800315038238402</v>
       </c>
       <c r="O85" s="6">
-        <v>16.41449517508056</v>
+        <v>19.959385012701102</v>
       </c>
       <c r="P85" s="6">
-        <v>18.73211953462604</v>
+        <v>25.589859800169361</v>
       </c>
       <c r="Q85" s="6">
-        <v>22.924876297640651</v>
+        <v>34.367730377014318</v>
       </c>
       <c r="R85" s="6">
-        <v>60.497309999999999</v>
+        <v>75.582141350210975</v>
       </c>
       <c r="S85" s="5">
         <v>2.486634340420241E-4</v>
@@ -5494,37 +5494,37 @@
         <v>0</v>
       </c>
       <c r="H86" s="6">
-        <v>1.4637690839694659</v>
+        <v>0.66345735027223229</v>
       </c>
       <c r="I86" s="6">
-        <v>6.6970318239190991</v>
+        <v>5.0135081946303472</v>
       </c>
       <c r="J86" s="6">
-        <v>8.3890452446906743</v>
+        <v>8.34985366102139</v>
       </c>
       <c r="K86" s="6">
-        <v>10.808166752163061</v>
+        <v>11.519036660318561</v>
       </c>
       <c r="L86" s="6">
-        <v>12.306529893249049</v>
+        <v>15.050669695226359</v>
       </c>
       <c r="M86" s="6">
-        <v>14.21725190839695</v>
+        <v>18.004999151450061</v>
       </c>
       <c r="N86" s="6">
-        <v>16.285162</v>
+        <v>20.83259680953519</v>
       </c>
       <c r="O86" s="6">
-        <v>18.873180166204978</v>
+        <v>24.790759541984723</v>
       </c>
       <c r="P86" s="6">
-        <v>22.943038116343491</v>
+        <v>30.225840396721878</v>
       </c>
       <c r="Q86" s="6">
-        <v>26.218776000000009</v>
+        <v>40.083646481998919</v>
       </c>
       <c r="R86" s="6">
-        <v>55.206669691470054</v>
+        <v>113.17745183887919</v>
       </c>
       <c r="S86" s="5">
         <v>0</v>
@@ -5553,37 +5553,37 @@
         <v>1</v>
       </c>
       <c r="H87" s="6">
-        <v>1.4740997229916899</v>
+        <v>0.72267837541163549</v>
       </c>
       <c r="I87" s="6">
-        <v>7.7693447191668135</v>
+        <v>7.5426753349539268</v>
       </c>
       <c r="J87" s="6">
-        <v>11.239554820803368</v>
+        <v>10.928029414589099</v>
       </c>
       <c r="K87" s="6">
-        <v>13.07894468313641</v>
+        <v>14.089757428779389</v>
       </c>
       <c r="L87" s="6">
-        <v>14.375578224113099</v>
+        <v>17.392950805767601</v>
       </c>
       <c r="M87" s="6">
-        <v>16.013120361529932</v>
+        <v>21.054233455072328</v>
       </c>
       <c r="N87" s="6">
-        <v>18.611569609375</v>
+        <v>24.99222099342369</v>
       </c>
       <c r="O87" s="6">
-        <v>21.600739773569099</v>
+        <v>30.023625907663888</v>
       </c>
       <c r="P87" s="6">
-        <v>26.666127296874997</v>
+        <v>37.890493437499998</v>
       </c>
       <c r="Q87" s="6">
-        <v>35.365535211192721</v>
+        <v>48.925127393434465</v>
       </c>
       <c r="R87" s="6">
-        <v>60.026386718749997</v>
+        <v>135.8368126094571</v>
       </c>
       <c r="S87" s="5">
         <v>4.973268680840482E-4</v>
@@ -5612,37 +5612,37 @@
         <v>2</v>
       </c>
       <c r="H88" s="6">
-        <v>1.4637690839694659</v>
+        <v>0.66345735027223229</v>
       </c>
       <c r="I88" s="6">
-        <v>6.6970318239190991</v>
+        <v>5.0135081946303472</v>
       </c>
       <c r="J88" s="6">
-        <v>8.3890452446906743</v>
+        <v>8.34985366102139</v>
       </c>
       <c r="K88" s="6">
-        <v>10.808166752163061</v>
+        <v>11.519036660318561</v>
       </c>
       <c r="L88" s="6">
-        <v>12.306529893249049</v>
+        <v>15.050669695226359</v>
       </c>
       <c r="M88" s="6">
-        <v>14.21725190839695</v>
+        <v>18.004999151450061</v>
       </c>
       <c r="N88" s="6">
-        <v>16.285162</v>
+        <v>20.83259680953519</v>
       </c>
       <c r="O88" s="6">
-        <v>18.873180166204978</v>
+        <v>24.790759541984723</v>
       </c>
       <c r="P88" s="6">
-        <v>22.943038116343491</v>
+        <v>30.225840396721878</v>
       </c>
       <c r="Q88" s="6">
-        <v>26.218776000000009</v>
+        <v>40.083646481998919</v>
       </c>
       <c r="R88" s="6">
-        <v>55.206669691470054</v>
+        <v>113.17745183887919</v>
       </c>
       <c r="S88" s="5">
         <v>3.729951510630362E-4</v>
@@ -5671,37 +5671,37 @@
         <v>3</v>
       </c>
       <c r="H89" s="6">
-        <v>1.4740997229916899</v>
+        <v>0.72267837541163549</v>
       </c>
       <c r="I89" s="6">
-        <v>7.7693447191668135</v>
+        <v>7.5426753349539268</v>
       </c>
       <c r="J89" s="6">
-        <v>11.239554820803368</v>
+        <v>10.928029414589099</v>
       </c>
       <c r="K89" s="6">
-        <v>13.07894468313641</v>
+        <v>14.089757428779389</v>
       </c>
       <c r="L89" s="6">
-        <v>14.375578224113099</v>
+        <v>17.392950805767601</v>
       </c>
       <c r="M89" s="6">
-        <v>16.013120361529932</v>
+        <v>21.054233455072328</v>
       </c>
       <c r="N89" s="6">
-        <v>18.611569609375</v>
+        <v>24.99222099342369</v>
       </c>
       <c r="O89" s="6">
-        <v>21.600739773569099</v>
+        <v>30.023625907663888</v>
       </c>
       <c r="P89" s="6">
-        <v>26.666127296874997</v>
+        <v>37.890493437499998</v>
       </c>
       <c r="Q89" s="6">
-        <v>35.365535211192721</v>
+        <v>48.925127393434465</v>
       </c>
       <c r="R89" s="6">
-        <v>60.026386718749997</v>
+        <v>135.8368126094571</v>
       </c>
       <c r="S89" s="5">
         <v>2.486634340420241E-4</v>
@@ -5730,37 +5730,37 @@
         <v>0</v>
       </c>
       <c r="H90" s="6">
-        <v>0.33471193415637862</v>
+        <v>0.14127332601536768</v>
       </c>
       <c r="I90" s="6">
-        <v>4.2170353991769547</v>
+        <v>4.3914</v>
       </c>
       <c r="J90" s="6">
-        <v>6.0866842250878577</v>
+        <v>6.4635156250000003</v>
       </c>
       <c r="K90" s="6">
-        <v>7.7005138765432104</v>
+        <v>8.2830916030534354</v>
       </c>
       <c r="L90" s="6">
-        <v>8.9938760000000002</v>
+        <v>10.11896551724138</v>
       </c>
       <c r="M90" s="6">
-        <v>10.651862139917689</v>
+        <v>11.941984732824428</v>
       </c>
       <c r="N90" s="6">
-        <v>12.33949042831216</v>
+        <v>13.889156378600822</v>
       </c>
       <c r="O90" s="6">
-        <v>14.081077349713741</v>
+        <v>16.36759259259259</v>
       </c>
       <c r="P90" s="6">
-        <v>16.948515435114501</v>
+        <v>19.756028495102409</v>
       </c>
       <c r="Q90" s="6">
-        <v>21.419370747076609</v>
+        <v>25.3000725952813</v>
       </c>
       <c r="R90" s="6">
-        <v>87.685649999999995</v>
+        <v>110.17828371278459</v>
       </c>
       <c r="S90" s="5">
         <v>1.1189854531891081E-3</v>
@@ -5789,37 +5789,37 @@
         <v>1</v>
       </c>
       <c r="H91" s="6">
-        <v>1.1682921810699591</v>
+        <v>1.156084949215143</v>
       </c>
       <c r="I91" s="6">
-        <v>6.3063760000000002</v>
+        <v>6.3055880834857048</v>
       </c>
       <c r="J91" s="6">
-        <v>7.5530523159042637</v>
+        <v>8.104006008467401</v>
       </c>
       <c r="K91" s="6">
-        <v>8.8675625</v>
+        <v>9.832718707803993</v>
       </c>
       <c r="L91" s="6">
-        <v>10.558250183206109</v>
+        <v>11.805924893296901</v>
       </c>
       <c r="M91" s="6">
-        <v>11.68690655209452</v>
+        <v>14.122626892252899</v>
       </c>
       <c r="N91" s="6">
-        <v>13.812572416756181</v>
+        <v>16.800315038238402</v>
       </c>
       <c r="O91" s="6">
-        <v>16.41449517508056</v>
+        <v>19.959385012701102</v>
       </c>
       <c r="P91" s="6">
-        <v>18.73211953462604</v>
+        <v>25.589859800169361</v>
       </c>
       <c r="Q91" s="6">
-        <v>22.924876297640651</v>
+        <v>34.367730377014318</v>
       </c>
       <c r="R91" s="6">
-        <v>60.497309999999999</v>
+        <v>75.582141350210975</v>
       </c>
       <c r="S91" s="5">
         <v>1.243317170210121E-3</v>
@@ -5848,37 +5848,37 @@
         <v>2</v>
       </c>
       <c r="H92" s="6">
-        <v>0.33471193415637862</v>
+        <v>0.14127332601536768</v>
       </c>
       <c r="I92" s="6">
-        <v>4.2170353991769547</v>
+        <v>4.3914</v>
       </c>
       <c r="J92" s="6">
-        <v>6.0866842250878577</v>
+        <v>6.4635156250000003</v>
       </c>
       <c r="K92" s="6">
-        <v>7.7005138765432104</v>
+        <v>8.2830916030534354</v>
       </c>
       <c r="L92" s="6">
-        <v>8.9938760000000002</v>
+        <v>10.11896551724138</v>
       </c>
       <c r="M92" s="6">
-        <v>10.651862139917689</v>
+        <v>11.941984732824428</v>
       </c>
       <c r="N92" s="6">
-        <v>12.33949042831216</v>
+        <v>13.889156378600822</v>
       </c>
       <c r="O92" s="6">
-        <v>14.081077349713741</v>
+        <v>16.36759259259259</v>
       </c>
       <c r="P92" s="6">
-        <v>16.948515435114501</v>
+        <v>19.756028495102409</v>
       </c>
       <c r="Q92" s="6">
-        <v>21.419370747076609</v>
+        <v>25.3000725952813</v>
       </c>
       <c r="R92" s="6">
-        <v>87.685649999999995</v>
+        <v>110.17828371278459</v>
       </c>
       <c r="S92" s="5">
         <v>0.1140121845082681</v>
@@ -5907,37 +5907,37 @@
         <v>3</v>
       </c>
       <c r="H93" s="6">
-        <v>1.1682921810699591</v>
+        <v>1.156084949215143</v>
       </c>
       <c r="I93" s="6">
-        <v>6.3063760000000002</v>
+        <v>6.3055880834857048</v>
       </c>
       <c r="J93" s="6">
-        <v>7.5530523159042637</v>
+        <v>8.104006008467401</v>
       </c>
       <c r="K93" s="6">
-        <v>8.8675625</v>
+        <v>9.832718707803993</v>
       </c>
       <c r="L93" s="6">
-        <v>10.558250183206109</v>
+        <v>11.805924893296901</v>
       </c>
       <c r="M93" s="6">
-        <v>11.68690655209452</v>
+        <v>14.122626892252899</v>
       </c>
       <c r="N93" s="6">
-        <v>13.812572416756181</v>
+        <v>16.800315038238402</v>
       </c>
       <c r="O93" s="6">
-        <v>16.41449517508056</v>
+        <v>19.959385012701102</v>
       </c>
       <c r="P93" s="6">
-        <v>18.73211953462604</v>
+        <v>25.589859800169361</v>
       </c>
       <c r="Q93" s="6">
-        <v>22.924876297640651</v>
+        <v>34.367730377014318</v>
       </c>
       <c r="R93" s="6">
-        <v>60.497309999999999</v>
+        <v>75.582141350210975</v>
       </c>
       <c r="S93" s="5">
         <v>1.7903767251025739E-2</v>
@@ -5966,37 +5966,37 @@
         <v>0</v>
       </c>
       <c r="H94" s="6">
-        <v>1.4637690839694659</v>
+        <v>0.66345735027223229</v>
       </c>
       <c r="I94" s="6">
-        <v>6.6970318239190991</v>
+        <v>5.0135081946303472</v>
       </c>
       <c r="J94" s="6">
-        <v>8.3890452446906743</v>
+        <v>8.34985366102139</v>
       </c>
       <c r="K94" s="6">
-        <v>10.808166752163061</v>
+        <v>11.519036660318561</v>
       </c>
       <c r="L94" s="6">
-        <v>12.306529893249049</v>
+        <v>15.050669695226359</v>
       </c>
       <c r="M94" s="6">
-        <v>14.21725190839695</v>
+        <v>18.004999151450061</v>
       </c>
       <c r="N94" s="6">
-        <v>16.285162</v>
+        <v>20.83259680953519</v>
       </c>
       <c r="O94" s="6">
-        <v>18.873180166204978</v>
+        <v>24.790759541984723</v>
       </c>
       <c r="P94" s="6">
-        <v>22.943038116343491</v>
+        <v>30.225840396721878</v>
       </c>
       <c r="Q94" s="6">
-        <v>26.218776000000009</v>
+        <v>40.083646481998919</v>
       </c>
       <c r="R94" s="6">
-        <v>55.206669691470054</v>
+        <v>113.17745183887919</v>
       </c>
       <c r="S94" s="5">
         <v>0</v>
@@ -6025,37 +6025,37 @@
         <v>1</v>
       </c>
       <c r="H95" s="6">
-        <v>1.4740997229916899</v>
+        <v>0.72267837541163549</v>
       </c>
       <c r="I95" s="6">
-        <v>7.7693447191668135</v>
+        <v>7.5426753349539268</v>
       </c>
       <c r="J95" s="6">
-        <v>11.239554820803368</v>
+        <v>10.928029414589099</v>
       </c>
       <c r="K95" s="6">
-        <v>13.07894468313641</v>
+        <v>14.089757428779389</v>
       </c>
       <c r="L95" s="6">
-        <v>14.375578224113099</v>
+        <v>17.392950805767601</v>
       </c>
       <c r="M95" s="6">
-        <v>16.013120361529932</v>
+        <v>21.054233455072328</v>
       </c>
       <c r="N95" s="6">
-        <v>18.611569609375</v>
+        <v>24.99222099342369</v>
       </c>
       <c r="O95" s="6">
-        <v>21.600739773569099</v>
+        <v>30.023625907663888</v>
       </c>
       <c r="P95" s="6">
-        <v>26.666127296874997</v>
+        <v>37.890493437499998</v>
       </c>
       <c r="Q95" s="6">
-        <v>35.365535211192721</v>
+        <v>48.925127393434465</v>
       </c>
       <c r="R95" s="6">
-        <v>60.026386718749997</v>
+        <v>135.8368126094571</v>
       </c>
       <c r="S95" s="5">
         <v>3.729951510630362E-4</v>
@@ -6084,37 +6084,37 @@
         <v>2</v>
       </c>
       <c r="H96" s="6">
-        <v>1.4637690839694659</v>
+        <v>0.66345735027223229</v>
       </c>
       <c r="I96" s="6">
-        <v>6.6970318239190991</v>
+        <v>5.0135081946303472</v>
       </c>
       <c r="J96" s="6">
-        <v>8.3890452446906743</v>
+        <v>8.34985366102139</v>
       </c>
       <c r="K96" s="6">
-        <v>10.808166752163061</v>
+        <v>11.519036660318561</v>
       </c>
       <c r="L96" s="6">
-        <v>12.306529893249049</v>
+        <v>15.050669695226359</v>
       </c>
       <c r="M96" s="6">
-        <v>14.21725190839695</v>
+        <v>18.004999151450061</v>
       </c>
       <c r="N96" s="6">
-        <v>16.285162</v>
+        <v>20.83259680953519</v>
       </c>
       <c r="O96" s="6">
-        <v>18.873180166204978</v>
+        <v>24.790759541984723</v>
       </c>
       <c r="P96" s="6">
-        <v>22.943038116343491</v>
+        <v>30.225840396721878</v>
       </c>
       <c r="Q96" s="6">
-        <v>26.218776000000009</v>
+        <v>40.083646481998919</v>
       </c>
       <c r="R96" s="6">
-        <v>55.206669691470054</v>
+        <v>113.17745183887919</v>
       </c>
       <c r="S96" s="5">
         <v>8.2058933233867953E-3</v>
@@ -6143,37 +6143,37 @@
         <v>3</v>
       </c>
       <c r="H97" s="6">
-        <v>1.4740997229916899</v>
+        <v>0.72267837541163549</v>
       </c>
       <c r="I97" s="6">
-        <v>7.7693447191668135</v>
+        <v>7.5426753349539268</v>
       </c>
       <c r="J97" s="6">
-        <v>11.239554820803368</v>
+        <v>10.928029414589099</v>
       </c>
       <c r="K97" s="6">
-        <v>13.07894468313641</v>
+        <v>14.089757428779389</v>
       </c>
       <c r="L97" s="6">
-        <v>14.375578224113099</v>
+        <v>17.392950805767601</v>
       </c>
       <c r="M97" s="6">
-        <v>16.013120361529932</v>
+        <v>21.054233455072328</v>
       </c>
       <c r="N97" s="6">
-        <v>18.611569609375</v>
+        <v>24.99222099342369</v>
       </c>
       <c r="O97" s="6">
-        <v>21.600739773569099</v>
+        <v>30.023625907663888</v>
       </c>
       <c r="P97" s="6">
-        <v>26.666127296874997</v>
+        <v>37.890493437499998</v>
       </c>
       <c r="Q97" s="6">
-        <v>35.365535211192721</v>
+        <v>48.925127393434465</v>
       </c>
       <c r="R97" s="6">
-        <v>60.026386718749997</v>
+        <v>135.8368126094571</v>
       </c>
       <c r="S97" s="5">
         <v>7.832898172323759E-3</v>
@@ -6202,37 +6202,37 @@
         <v>0</v>
       </c>
       <c r="H98" s="6">
-        <v>0.25344650205761321</v>
+        <v>0.14652953586497891</v>
       </c>
       <c r="I98" s="6">
-        <v>4.0650399999999998</v>
+        <v>4.2320488296142988</v>
       </c>
       <c r="J98" s="6">
-        <v>5.9845214843749996</v>
+        <v>6.5994750914127422</v>
       </c>
       <c r="K98" s="6">
-        <v>7.3051772287862526</v>
+        <v>8.3392683409685144</v>
       </c>
       <c r="L98" s="6">
-        <v>8.933997890295359</v>
+        <v>10.415763950080759</v>
       </c>
       <c r="M98" s="6">
-        <v>10.347041015625001</v>
+        <v>12.34415371053689</v>
       </c>
       <c r="N98" s="6">
-        <v>11.702159999999999</v>
+        <v>14.44787396733212</v>
       </c>
       <c r="O98" s="6">
-        <v>13.351320406278861</v>
+        <v>17.021900386496771</v>
       </c>
       <c r="P98" s="6">
-        <v>16.20872</v>
+        <v>20.789231009194388</v>
       </c>
       <c r="Q98" s="6">
-        <v>20.361956106870238</v>
+        <v>27.274991985752472</v>
       </c>
       <c r="R98" s="6">
-        <v>83.124395198522635</v>
+        <v>121.82858594411509</v>
       </c>
       <c r="S98" s="5">
         <v>2.486634340420241E-4</v>
@@ -6261,37 +6261,37 @@
         <v>1</v>
       </c>
       <c r="H99" s="6">
-        <v>2.949804526748971</v>
+        <v>2.6171569703622399</v>
       </c>
       <c r="I99" s="6">
-        <v>5.6144616805170822</v>
+        <v>6.8399254938271605</v>
       </c>
       <c r="J99" s="6">
-        <v>6.7019879339699457</v>
+        <v>9.269553289576498</v>
       </c>
       <c r="K99" s="6">
-        <v>7.7090207734375005</v>
+        <v>10.96173693032179</v>
       </c>
       <c r="L99" s="6">
-        <v>11.048292858259101</v>
+        <v>12.48015709349955</v>
       </c>
       <c r="M99" s="6">
-        <v>12.598531437501961</v>
+        <v>14.425719858797569</v>
       </c>
       <c r="N99" s="6">
-        <v>13.714682209256331</v>
+        <v>17.00425871663003</v>
       </c>
       <c r="O99" s="6">
-        <v>15.060348840159859</v>
+        <v>19.266084466453041</v>
       </c>
       <c r="P99" s="6">
-        <v>17.732736036502999</v>
+        <v>22.335958875064041</v>
       </c>
       <c r="Q99" s="6">
-        <v>22.521615718749999</v>
+        <v>26.92548136964793</v>
       </c>
       <c r="R99" s="6">
-        <v>60.485770042194098</v>
+        <v>50.821865148861647</v>
       </c>
       <c r="S99" s="5">
         <v>3.729951510630362E-4</v>
@@ -6320,37 +6320,37 @@
         <v>2</v>
       </c>
       <c r="H100" s="6">
-        <v>0.25344650205761321</v>
+        <v>0.14652953586497891</v>
       </c>
       <c r="I100" s="6">
-        <v>4.0650399999999998</v>
+        <v>4.2320488296142988</v>
       </c>
       <c r="J100" s="6">
-        <v>5.9845214843749996</v>
+        <v>6.5994750914127422</v>
       </c>
       <c r="K100" s="6">
-        <v>7.3051772287862526</v>
+        <v>8.3392683409685144</v>
       </c>
       <c r="L100" s="6">
-        <v>8.933997890295359</v>
+        <v>10.415763950080759</v>
       </c>
       <c r="M100" s="6">
-        <v>10.347041015625001</v>
+        <v>12.34415371053689</v>
       </c>
       <c r="N100" s="6">
-        <v>11.702159999999999</v>
+        <v>14.44787396733212</v>
       </c>
       <c r="O100" s="6">
-        <v>13.351320406278861</v>
+        <v>17.021900386496771</v>
       </c>
       <c r="P100" s="6">
-        <v>16.20872</v>
+        <v>20.789231009194388</v>
       </c>
       <c r="Q100" s="6">
-        <v>20.361956106870238</v>
+        <v>27.274991985752472</v>
       </c>
       <c r="R100" s="6">
-        <v>83.124395198522635</v>
+        <v>121.82858594411509</v>
       </c>
       <c r="S100" s="5">
         <v>1.740644038294169E-3</v>
@@ -6379,37 +6379,37 @@
         <v>3</v>
       </c>
       <c r="H101" s="6">
-        <v>2.949804526748971</v>
+        <v>2.6171569703622399</v>
       </c>
       <c r="I101" s="6">
-        <v>5.6144616805170822</v>
+        <v>6.8399254938271605</v>
       </c>
       <c r="J101" s="6">
-        <v>6.7019879339699457</v>
+        <v>9.269553289576498</v>
       </c>
       <c r="K101" s="6">
-        <v>7.7090207734375005</v>
+        <v>10.96173693032179</v>
       </c>
       <c r="L101" s="6">
-        <v>11.048292858259101</v>
+        <v>12.48015709349955</v>
       </c>
       <c r="M101" s="6">
-        <v>12.598531437501961</v>
+        <v>14.425719858797569</v>
       </c>
       <c r="N101" s="6">
-        <v>13.714682209256331</v>
+        <v>17.00425871663003</v>
       </c>
       <c r="O101" s="6">
-        <v>15.060348840159859</v>
+        <v>19.266084466453041</v>
       </c>
       <c r="P101" s="6">
-        <v>17.732736036502999</v>
+        <v>22.335958875064041</v>
       </c>
       <c r="Q101" s="6">
-        <v>22.521615718749999</v>
+        <v>26.92548136964793</v>
       </c>
       <c r="R101" s="6">
-        <v>60.485770042194098</v>
+        <v>50.821865148861647</v>
       </c>
       <c r="S101" s="5">
         <v>1.2433171702101199E-4</v>
@@ -6438,37 +6438,37 @@
         <v>0</v>
       </c>
       <c r="H102" s="6">
-        <v>2.1247784810126578</v>
+        <v>0.83515432098765441</v>
       </c>
       <c r="I102" s="6">
-        <v>6.4855106075949376</v>
+        <v>7.0382387109879962</v>
       </c>
       <c r="J102" s="6">
-        <v>9.7189586625111293</v>
+        <v>9.556549374045801</v>
       </c>
       <c r="K102" s="6">
-        <v>11.712478911392401</v>
+        <v>12.519953584435418</v>
       </c>
       <c r="L102" s="6">
-        <v>13.15378881012658</v>
+        <v>14.976658784588441</v>
       </c>
       <c r="M102" s="6">
-        <v>14.498496093749999</v>
+        <v>17.215464098073561</v>
       </c>
       <c r="N102" s="6">
-        <v>16.332376253858019</v>
+        <v>20.354039975887769</v>
       </c>
       <c r="O102" s="6">
-        <v>18.884907609375002</v>
+        <v>24.242117995040239</v>
       </c>
       <c r="P102" s="6">
-        <v>20.516871204042669</v>
+        <v>28.60566638441999</v>
       </c>
       <c r="Q102" s="6">
-        <v>24.677276296296302</v>
+        <v>39.634027124999996</v>
       </c>
       <c r="R102" s="6">
-        <v>51.680781250000003</v>
+        <v>80.728607705779339</v>
       </c>
       <c r="S102" s="5">
         <v>0</v>
@@ -6497,37 +6497,37 @@
         <v>1</v>
       </c>
       <c r="H103" s="6">
-        <v>2.9398300000000002</v>
+        <v>0.64450617283950629</v>
       </c>
       <c r="I103" s="6">
-        <v>4.7967140000000006</v>
+        <v>8.5386852113191356</v>
       </c>
       <c r="J103" s="6">
-        <v>9.5650275143120957</v>
+        <v>11.26044444444444</v>
       </c>
       <c r="K103" s="6">
-        <v>14.811707049578832</v>
+        <v>13.840196564885499</v>
       </c>
       <c r="L103" s="6">
-        <v>16.594202810126582</v>
+        <v>17.577642980554771</v>
       </c>
       <c r="M103" s="6">
-        <v>19.834192059095098</v>
+        <v>20.695378450578811</v>
       </c>
       <c r="N103" s="6">
-        <v>21.536043218778843</v>
+        <v>24.562110797427799</v>
       </c>
       <c r="O103" s="6">
-        <v>22.237145310892501</v>
+        <v>28.78544694367498</v>
       </c>
       <c r="P103" s="6">
-        <v>28.918747907663899</v>
+        <v>33.369432841659624</v>
       </c>
       <c r="Q103" s="6">
-        <v>47.645134615566406</v>
+        <v>41.671417432013385</v>
       </c>
       <c r="R103" s="6">
-        <v>101.99119</v>
+        <v>100.37838000000001</v>
       </c>
       <c r="S103" s="5">
         <v>1.2433171702101199E-4</v>
@@ -6556,37 +6556,37 @@
         <v>2</v>
       </c>
       <c r="H104" s="6">
-        <v>2.1247784810126578</v>
+        <v>0.83515432098765441</v>
       </c>
       <c r="I104" s="6">
-        <v>6.4855106075949376</v>
+        <v>7.0382387109879962</v>
       </c>
       <c r="J104" s="6">
-        <v>9.7189586625111293</v>
+        <v>9.556549374045801</v>
       </c>
       <c r="K104" s="6">
-        <v>11.712478911392401</v>
+        <v>12.519953584435418</v>
       </c>
       <c r="L104" s="6">
-        <v>13.15378881012658</v>
+        <v>14.976658784588441</v>
       </c>
       <c r="M104" s="6">
-        <v>14.498496093749999</v>
+        <v>17.215464098073561</v>
       </c>
       <c r="N104" s="6">
-        <v>16.332376253858019</v>
+        <v>20.354039975887769</v>
       </c>
       <c r="O104" s="6">
-        <v>18.884907609375002</v>
+        <v>24.242117995040239</v>
       </c>
       <c r="P104" s="6">
-        <v>20.516871204042669</v>
+        <v>28.60566638441999</v>
       </c>
       <c r="Q104" s="6">
-        <v>24.677276296296302</v>
+        <v>39.634027124999996</v>
       </c>
       <c r="R104" s="6">
-        <v>51.680781250000003</v>
+        <v>80.728607705779339</v>
       </c>
       <c r="S104" s="5">
         <v>1.2433171702101199E-4</v>
@@ -6615,37 +6615,37 @@
         <v>3</v>
       </c>
       <c r="H105" s="6">
-        <v>2.9398300000000002</v>
+        <v>0.64450617283950629</v>
       </c>
       <c r="I105" s="6">
-        <v>4.7967140000000006</v>
+        <v>8.5386852113191356</v>
       </c>
       <c r="J105" s="6">
-        <v>9.5650275143120957</v>
+        <v>11.26044444444444</v>
       </c>
       <c r="K105" s="6">
-        <v>14.811707049578832</v>
+        <v>13.840196564885499</v>
       </c>
       <c r="L105" s="6">
-        <v>16.594202810126582</v>
+        <v>17.577642980554771</v>
       </c>
       <c r="M105" s="6">
-        <v>19.834192059095098</v>
+        <v>20.695378450578811</v>
       </c>
       <c r="N105" s="6">
-        <v>21.536043218778843</v>
+        <v>24.562110797427799</v>
       </c>
       <c r="O105" s="6">
-        <v>22.237145310892501</v>
+        <v>28.78544694367498</v>
       </c>
       <c r="P105" s="6">
-        <v>28.918747907663899</v>
+        <v>33.369432841659624</v>
       </c>
       <c r="Q105" s="6">
-        <v>47.645134615566406</v>
+        <v>41.671417432013385</v>
       </c>
       <c r="R105" s="6">
-        <v>101.99119</v>
+        <v>100.37838000000001</v>
       </c>
       <c r="S105" s="5">
         <v>1.2433171702101199E-4</v>
@@ -6674,37 +6674,37 @@
         <v>0</v>
       </c>
       <c r="H106" s="6">
-        <v>0.25344650205761321</v>
+        <v>0.14652953586497891</v>
       </c>
       <c r="I106" s="6">
-        <v>4.0650399999999998</v>
+        <v>4.2320488296142988</v>
       </c>
       <c r="J106" s="6">
-        <v>5.9845214843749996</v>
+        <v>6.5994750914127422</v>
       </c>
       <c r="K106" s="6">
-        <v>7.3051772287862526</v>
+        <v>8.3392683409685144</v>
       </c>
       <c r="L106" s="6">
-        <v>8.933997890295359</v>
+        <v>10.415763950080759</v>
       </c>
       <c r="M106" s="6">
-        <v>10.347041015625001</v>
+        <v>12.34415371053689</v>
       </c>
       <c r="N106" s="6">
-        <v>11.702159999999999</v>
+        <v>14.44787396733212</v>
       </c>
       <c r="O106" s="6">
-        <v>13.351320406278861</v>
+        <v>17.021900386496771</v>
       </c>
       <c r="P106" s="6">
-        <v>16.20872</v>
+        <v>20.789231009194388</v>
       </c>
       <c r="Q106" s="6">
-        <v>20.361956106870238</v>
+        <v>27.274991985752472</v>
       </c>
       <c r="R106" s="6">
-        <v>83.124395198522635</v>
+        <v>121.82858594411509</v>
       </c>
       <c r="S106" s="5">
         <v>2.237970906378217E-3</v>
@@ -6733,37 +6733,37 @@
         <v>1</v>
       </c>
       <c r="H107" s="6">
-        <v>2.949804526748971</v>
+        <v>2.6171569703622399</v>
       </c>
       <c r="I107" s="6">
-        <v>5.6144616805170822</v>
+        <v>6.8399254938271605</v>
       </c>
       <c r="J107" s="6">
-        <v>6.7019879339699457</v>
+        <v>9.269553289576498</v>
       </c>
       <c r="K107" s="6">
-        <v>7.7090207734375005</v>
+        <v>10.96173693032179</v>
       </c>
       <c r="L107" s="6">
-        <v>11.048292858259101</v>
+        <v>12.48015709349955</v>
       </c>
       <c r="M107" s="6">
-        <v>12.598531437501961</v>
+        <v>14.425719858797569</v>
       </c>
       <c r="N107" s="6">
-        <v>13.714682209256331</v>
+        <v>17.00425871663003</v>
       </c>
       <c r="O107" s="6">
-        <v>15.060348840159859</v>
+        <v>19.266084466453041</v>
       </c>
       <c r="P107" s="6">
-        <v>17.732736036502999</v>
+        <v>22.335958875064041</v>
       </c>
       <c r="Q107" s="6">
-        <v>22.521615718749999</v>
+        <v>26.92548136964793</v>
       </c>
       <c r="R107" s="6">
-        <v>60.485770042194098</v>
+        <v>50.821865148861647</v>
       </c>
       <c r="S107" s="5">
         <v>6.216585851050603E-4</v>
@@ -6792,37 +6792,37 @@
         <v>2</v>
       </c>
       <c r="H108" s="6">
-        <v>0.25344650205761321</v>
+        <v>0.14652953586497891</v>
       </c>
       <c r="I108" s="6">
-        <v>4.0650399999999998</v>
+        <v>4.2320488296142988</v>
       </c>
       <c r="J108" s="6">
-        <v>5.9845214843749996</v>
+        <v>6.5994750914127422</v>
       </c>
       <c r="K108" s="6">
-        <v>7.3051772287862526</v>
+        <v>8.3392683409685144</v>
       </c>
       <c r="L108" s="6">
-        <v>8.933997890295359</v>
+        <v>10.415763950080759</v>
       </c>
       <c r="M108" s="6">
-        <v>10.347041015625001</v>
+        <v>12.34415371053689</v>
       </c>
       <c r="N108" s="6">
-        <v>11.702159999999999</v>
+        <v>14.44787396733212</v>
       </c>
       <c r="O108" s="6">
-        <v>13.351320406278861</v>
+        <v>17.021900386496771</v>
       </c>
       <c r="P108" s="6">
-        <v>16.20872</v>
+        <v>20.789231009194388</v>
       </c>
       <c r="Q108" s="6">
-        <v>20.361956106870238</v>
+        <v>27.274991985752472</v>
       </c>
       <c r="R108" s="6">
-        <v>83.124395198522635</v>
+        <v>121.82858594411509</v>
       </c>
       <c r="S108" s="5">
         <v>8.9518836255128686E-2</v>
@@ -6851,37 +6851,37 @@
         <v>3</v>
       </c>
       <c r="H109" s="6">
-        <v>2.949804526748971</v>
+        <v>2.6171569703622399</v>
       </c>
       <c r="I109" s="6">
-        <v>5.6144616805170822</v>
+        <v>6.8399254938271605</v>
       </c>
       <c r="J109" s="6">
-        <v>6.7019879339699457</v>
+        <v>9.269553289576498</v>
       </c>
       <c r="K109" s="6">
-        <v>7.7090207734375005</v>
+        <v>10.96173693032179</v>
       </c>
       <c r="L109" s="6">
-        <v>11.048292858259101</v>
+        <v>12.48015709349955</v>
       </c>
       <c r="M109" s="6">
-        <v>12.598531437501961</v>
+        <v>14.425719858797569</v>
       </c>
       <c r="N109" s="6">
-        <v>13.714682209256331</v>
+        <v>17.00425871663003</v>
       </c>
       <c r="O109" s="6">
-        <v>15.060348840159859</v>
+        <v>19.266084466453041</v>
       </c>
       <c r="P109" s="6">
-        <v>17.732736036502999</v>
+        <v>22.335958875064041</v>
       </c>
       <c r="Q109" s="6">
-        <v>22.521615718749999</v>
+        <v>26.92548136964793</v>
       </c>
       <c r="R109" s="6">
-        <v>60.485770042194098</v>
+        <v>50.821865148861647</v>
       </c>
       <c r="S109" s="5">
         <v>1.4546810891458411E-2</v>
@@ -6910,37 +6910,37 @@
         <v>0</v>
       </c>
       <c r="H110" s="6">
-        <v>2.1247784810126578</v>
+        <v>0.83515432098765441</v>
       </c>
       <c r="I110" s="6">
-        <v>6.4855106075949376</v>
+        <v>7.0382387109879962</v>
       </c>
       <c r="J110" s="6">
-        <v>9.7189586625111293</v>
+        <v>9.556549374045801</v>
       </c>
       <c r="K110" s="6">
-        <v>11.712478911392401</v>
+        <v>12.519953584435418</v>
       </c>
       <c r="L110" s="6">
-        <v>13.15378881012658</v>
+        <v>14.976658784588441</v>
       </c>
       <c r="M110" s="6">
-        <v>14.498496093749999</v>
+        <v>17.215464098073561</v>
       </c>
       <c r="N110" s="6">
-        <v>16.332376253858019</v>
+        <v>20.354039975887769</v>
       </c>
       <c r="O110" s="6">
-        <v>18.884907609375002</v>
+        <v>24.242117995040239</v>
       </c>
       <c r="P110" s="6">
-        <v>20.516871204042669</v>
+        <v>28.60566638441999</v>
       </c>
       <c r="Q110" s="6">
-        <v>24.677276296296302</v>
+        <v>39.634027124999996</v>
       </c>
       <c r="R110" s="6">
-        <v>51.680781250000003</v>
+        <v>80.728607705779339</v>
       </c>
       <c r="S110" s="5">
         <v>1.2433171702101199E-4</v>
@@ -6969,37 +6969,37 @@
         <v>1</v>
       </c>
       <c r="H111" s="6">
-        <v>2.9398300000000002</v>
+        <v>0.64450617283950629</v>
       </c>
       <c r="I111" s="6">
-        <v>4.7967140000000006</v>
+        <v>8.5386852113191356</v>
       </c>
       <c r="J111" s="6">
-        <v>9.5650275143120957</v>
+        <v>11.26044444444444</v>
       </c>
       <c r="K111" s="6">
-        <v>14.811707049578832</v>
+        <v>13.840196564885499</v>
       </c>
       <c r="L111" s="6">
-        <v>16.594202810126582</v>
+        <v>17.577642980554771</v>
       </c>
       <c r="M111" s="6">
-        <v>19.834192059095098</v>
+        <v>20.695378450578811</v>
       </c>
       <c r="N111" s="6">
-        <v>21.536043218778843</v>
+        <v>24.562110797427799</v>
       </c>
       <c r="O111" s="6">
-        <v>22.237145310892501</v>
+        <v>28.78544694367498</v>
       </c>
       <c r="P111" s="6">
-        <v>28.918747907663899</v>
+        <v>33.369432841659624</v>
       </c>
       <c r="Q111" s="6">
-        <v>47.645134615566406</v>
+        <v>41.671417432013385</v>
       </c>
       <c r="R111" s="6">
-        <v>101.99119</v>
+        <v>100.37838000000001</v>
       </c>
       <c r="S111" s="5">
         <v>3.729951510630362E-4</v>
@@ -7028,37 +7028,37 @@
         <v>2</v>
       </c>
       <c r="H112" s="6">
-        <v>2.1247784810126578</v>
+        <v>0.83515432098765441</v>
       </c>
       <c r="I112" s="6">
-        <v>6.4855106075949376</v>
+        <v>7.0382387109879962</v>
       </c>
       <c r="J112" s="6">
-        <v>9.7189586625111293</v>
+        <v>9.556549374045801</v>
       </c>
       <c r="K112" s="6">
-        <v>11.712478911392401</v>
+        <v>12.519953584435418</v>
       </c>
       <c r="L112" s="6">
-        <v>13.15378881012658</v>
+        <v>14.976658784588441</v>
       </c>
       <c r="M112" s="6">
-        <v>14.498496093749999</v>
+        <v>17.215464098073561</v>
       </c>
       <c r="N112" s="6">
-        <v>16.332376253858019</v>
+        <v>20.354039975887769</v>
       </c>
       <c r="O112" s="6">
-        <v>18.884907609375002</v>
+        <v>24.242117995040239</v>
       </c>
       <c r="P112" s="6">
-        <v>20.516871204042669</v>
+        <v>28.60566638441999</v>
       </c>
       <c r="Q112" s="6">
-        <v>24.677276296296302</v>
+        <v>39.634027124999996</v>
       </c>
       <c r="R112" s="6">
-        <v>51.680781250000003</v>
+        <v>80.728607705779339</v>
       </c>
       <c r="S112" s="5">
         <v>5.9679224170085792E-3</v>
@@ -7087,37 +7087,37 @@
         <v>3</v>
       </c>
       <c r="H113" s="6">
-        <v>2.9398300000000002</v>
+        <v>0.64450617283950629</v>
       </c>
       <c r="I113" s="6">
-        <v>4.7967140000000006</v>
+        <v>8.5386852113191356</v>
       </c>
       <c r="J113" s="6">
-        <v>9.5650275143120957</v>
+        <v>11.26044444444444</v>
       </c>
       <c r="K113" s="6">
-        <v>14.811707049578832</v>
+        <v>13.840196564885499</v>
       </c>
       <c r="L113" s="6">
-        <v>16.594202810126582</v>
+        <v>17.577642980554771</v>
       </c>
       <c r="M113" s="6">
-        <v>19.834192059095098</v>
+        <v>20.695378450578811</v>
       </c>
       <c r="N113" s="6">
-        <v>21.536043218778843</v>
+        <v>24.562110797427799</v>
       </c>
       <c r="O113" s="6">
-        <v>22.237145310892501</v>
+        <v>28.78544694367498</v>
       </c>
       <c r="P113" s="6">
-        <v>28.918747907663899</v>
+        <v>33.369432841659624</v>
       </c>
       <c r="Q113" s="6">
-        <v>47.645134615566406</v>
+        <v>41.671417432013385</v>
       </c>
       <c r="R113" s="6">
-        <v>101.99119</v>
+        <v>100.37838000000001</v>
       </c>
       <c r="S113" s="5">
         <v>3.7299515106303618E-3</v>
@@ -7146,37 +7146,37 @@
         <v>0</v>
       </c>
       <c r="H114" s="6">
-        <v>3.3244274809160299E-2</v>
+        <v>1.07E-3</v>
       </c>
       <c r="I114" s="6">
-        <v>3.3633125443037972</v>
+        <v>4.1049527924073717</v>
       </c>
       <c r="J114" s="6">
-        <v>5.1570740000000006</v>
+        <v>6.0037396121883662</v>
       </c>
       <c r="K114" s="6">
-        <v>6.7602202625704892</v>
+        <v>7.9460849254483144</v>
       </c>
       <c r="L114" s="6">
-        <v>8.201679465648855</v>
+        <v>9.7920800000000003</v>
       </c>
       <c r="M114" s="6">
-        <v>9.4410965096952921</v>
+        <v>11.76721946564885</v>
       </c>
       <c r="N114" s="6">
-        <v>11.096442</v>
+        <v>13.873257443082309</v>
       </c>
       <c r="O114" s="6">
-        <v>12.80160260975441</v>
+        <v>16.435613886536832</v>
       </c>
       <c r="P114" s="6">
-        <v>15.553962167938941</v>
+        <v>19.479375000000001</v>
       </c>
       <c r="Q114" s="6">
-        <v>19.746592</v>
+        <v>25.70958257713249</v>
       </c>
       <c r="R114" s="6">
-        <v>58.266046304541426</v>
+        <v>89.725385266723109</v>
       </c>
       <c r="S114" s="5">
         <v>3.729951510630362E-4</v>
@@ -7205,37 +7205,37 @@
         <v>1</v>
       </c>
       <c r="H115" s="6">
-        <v>3.3457519531250002</v>
+        <v>6.4171459934138309</v>
       </c>
       <c r="I115" s="6">
-        <v>5.1941785504325182</v>
+        <v>9.9866461335707939</v>
       </c>
       <c r="J115" s="6">
-        <v>7.3696172839506184</v>
+        <v>11.772826891447371</v>
       </c>
       <c r="K115" s="6">
-        <v>7.7820046552094526</v>
+        <v>13.198623263888891</v>
       </c>
       <c r="L115" s="6">
-        <v>8.8167912427983541</v>
+        <v>14.741208730916028</v>
       </c>
       <c r="M115" s="6">
-        <v>9.565031645569622</v>
+        <v>16.297959372114498</v>
       </c>
       <c r="N115" s="6">
-        <v>12.52122205343364</v>
+        <v>17.779607250000002</v>
       </c>
       <c r="O115" s="6">
-        <v>13.703519624999998</v>
+        <v>20.057053890522049</v>
       </c>
       <c r="P115" s="6">
-        <v>18.950154352723917</v>
+        <v>23.44634241798839</v>
       </c>
       <c r="Q115" s="6">
-        <v>26.967628428270039</v>
+        <v>31.169914774710602</v>
       </c>
       <c r="R115" s="6">
-        <v>36.093120229007638</v>
+        <v>53.478765323992995</v>
       </c>
       <c r="S115" s="5">
         <v>1.2433171702101199E-4</v>
@@ -7264,37 +7264,37 @@
         <v>2</v>
       </c>
       <c r="H116" s="6">
-        <v>3.3244274809160299E-2</v>
+        <v>1.07E-3</v>
       </c>
       <c r="I116" s="6">
-        <v>3.3633125443037972</v>
+        <v>4.1049527924073717</v>
       </c>
       <c r="J116" s="6">
-        <v>5.1570740000000006</v>
+        <v>6.0037396121883662</v>
       </c>
       <c r="K116" s="6">
-        <v>6.7602202625704892</v>
+        <v>7.9460849254483144</v>
       </c>
       <c r="L116" s="6">
-        <v>8.201679465648855</v>
+        <v>9.7920800000000003</v>
       </c>
       <c r="M116" s="6">
-        <v>9.4410965096952921</v>
+        <v>11.76721946564885</v>
       </c>
       <c r="N116" s="6">
-        <v>11.096442</v>
+        <v>13.873257443082309</v>
       </c>
       <c r="O116" s="6">
-        <v>12.80160260975441</v>
+        <v>16.435613886536832</v>
       </c>
       <c r="P116" s="6">
-        <v>15.553962167938941</v>
+        <v>19.479375000000001</v>
       </c>
       <c r="Q116" s="6">
-        <v>19.746592</v>
+        <v>25.70958257713249</v>
       </c>
       <c r="R116" s="6">
-        <v>58.266046304541426</v>
+        <v>89.725385266723109</v>
       </c>
       <c r="S116" s="5">
         <v>1.1189854531891081E-3</v>
@@ -7323,37 +7323,37 @@
         <v>3</v>
       </c>
       <c r="H117" s="6">
-        <v>3.3457519531250002</v>
+        <v>6.4171459934138309</v>
       </c>
       <c r="I117" s="6">
-        <v>5.1941785504325182</v>
+        <v>9.9866461335707939</v>
       </c>
       <c r="J117" s="6">
-        <v>7.3696172839506184</v>
+        <v>11.772826891447371</v>
       </c>
       <c r="K117" s="6">
-        <v>7.7820046552094526</v>
+        <v>13.198623263888891</v>
       </c>
       <c r="L117" s="6">
-        <v>8.8167912427983541</v>
+        <v>14.741208730916028</v>
       </c>
       <c r="M117" s="6">
-        <v>9.565031645569622</v>
+        <v>16.297959372114498</v>
       </c>
       <c r="N117" s="6">
-        <v>12.52122205343364</v>
+        <v>17.779607250000002</v>
       </c>
       <c r="O117" s="6">
-        <v>13.703519624999998</v>
+        <v>20.057053890522049</v>
       </c>
       <c r="P117" s="6">
-        <v>18.950154352723917</v>
+        <v>23.44634241798839</v>
       </c>
       <c r="Q117" s="6">
-        <v>26.967628428270039</v>
+        <v>31.169914774710602</v>
       </c>
       <c r="R117" s="6">
-        <v>36.093120229007638</v>
+        <v>53.478765323992995</v>
       </c>
       <c r="S117" s="5">
         <v>1.2433171702101199E-4</v>
@@ -7382,37 +7382,37 @@
         <v>0</v>
       </c>
       <c r="H118" s="6">
-        <v>2.4168037974683552</v>
+        <v>1.876561181434599</v>
       </c>
       <c r="I118" s="6">
-        <v>5.7805011832061073</v>
+        <v>8.9481430041152255</v>
       </c>
       <c r="J118" s="6">
-        <v>9.1760970464135028</v>
+        <v>10.35255725190839</v>
       </c>
       <c r="K118" s="6">
-        <v>11.252230621463479</v>
+        <v>11.788020663474331</v>
       </c>
       <c r="L118" s="6">
-        <v>12.35359704641351</v>
+        <v>13.768828125000001</v>
       </c>
       <c r="M118" s="6">
-        <v>14.32625921940928</v>
+        <v>15.845711015625</v>
       </c>
       <c r="N118" s="6">
-        <v>16.309449061249591</v>
+        <v>18.70627434377646</v>
       </c>
       <c r="O118" s="6">
-        <v>18.45369249131944</v>
+        <v>22.92802</v>
       </c>
       <c r="P118" s="6">
-        <v>20.440049999999999</v>
+        <v>31.911676545300601</v>
       </c>
       <c r="Q118" s="6">
-        <v>28.01737748762217</v>
+        <v>41.527357602689548</v>
       </c>
       <c r="R118" s="6">
-        <v>52.522894736842105</v>
+        <v>102.4902709568163</v>
       </c>
       <c r="S118" s="5">
         <v>0</v>
@@ -7441,37 +7441,37 @@
         <v>1</v>
       </c>
       <c r="H119" s="6">
-        <v>0.5663248638838474</v>
+        <v>0.50295898437499997</v>
       </c>
       <c r="I119" s="6">
-        <v>8.9201113020095431</v>
+        <v>8.9143066052032456</v>
       </c>
       <c r="J119" s="6">
-        <v>10.02716054008439</v>
+        <v>13.109697265625</v>
       </c>
       <c r="K119" s="6">
-        <v>13.04054968010545</v>
+        <v>16.087055356063971</v>
       </c>
       <c r="L119" s="6">
-        <v>14.001102237654319</v>
+        <v>19.638234622389792</v>
       </c>
       <c r="M119" s="6">
-        <v>17.046119999999998</v>
+        <v>24.00880886426593</v>
       </c>
       <c r="N119" s="6">
-        <v>20.65009160305344</v>
+        <v>28.215824854116359</v>
       </c>
       <c r="O119" s="6">
-        <v>23.80545627586207</v>
+        <v>31.912692525181953</v>
       </c>
       <c r="P119" s="6">
-        <v>27.960988561445149</v>
+        <v>38.170197868441363</v>
       </c>
       <c r="Q119" s="6">
-        <v>33.5399001814882</v>
+        <v>50.570534752157016</v>
       </c>
       <c r="R119" s="6">
-        <v>70.301299999999998</v>
+        <v>94.73732924693519</v>
       </c>
       <c r="S119" s="5">
         <v>1.2433171702101199E-4</v>
@@ -7500,37 +7500,37 @@
         <v>2</v>
       </c>
       <c r="H120" s="6">
-        <v>2.4168037974683552</v>
+        <v>1.876561181434599</v>
       </c>
       <c r="I120" s="6">
-        <v>5.7805011832061073</v>
+        <v>8.9481430041152255</v>
       </c>
       <c r="J120" s="6">
-        <v>9.1760970464135028</v>
+        <v>10.35255725190839</v>
       </c>
       <c r="K120" s="6">
-        <v>11.252230621463479</v>
+        <v>11.788020663474331</v>
       </c>
       <c r="L120" s="6">
-        <v>12.35359704641351</v>
+        <v>13.768828125000001</v>
       </c>
       <c r="M120" s="6">
-        <v>14.32625921940928</v>
+        <v>15.845711015625</v>
       </c>
       <c r="N120" s="6">
-        <v>16.309449061249591</v>
+        <v>18.70627434377646</v>
       </c>
       <c r="O120" s="6">
-        <v>18.45369249131944</v>
+        <v>22.92802</v>
       </c>
       <c r="P120" s="6">
-        <v>20.440049999999999</v>
+        <v>31.911676545300601</v>
       </c>
       <c r="Q120" s="6">
-        <v>28.01737748762217</v>
+        <v>41.527357602689548</v>
       </c>
       <c r="R120" s="6">
-        <v>52.522894736842105</v>
+        <v>102.4902709568163</v>
       </c>
       <c r="S120" s="5">
         <v>0</v>
@@ -7559,37 +7559,37 @@
         <v>3</v>
       </c>
       <c r="H121" s="6">
-        <v>0.5663248638838474</v>
+        <v>0.50295898437499997</v>
       </c>
       <c r="I121" s="6">
-        <v>8.9201113020095431</v>
+        <v>8.9143066052032456</v>
       </c>
       <c r="J121" s="6">
-        <v>10.02716054008439</v>
+        <v>13.109697265625</v>
       </c>
       <c r="K121" s="6">
-        <v>13.04054968010545</v>
+        <v>16.087055356063971</v>
       </c>
       <c r="L121" s="6">
-        <v>14.001102237654319</v>
+        <v>19.638234622389792</v>
       </c>
       <c r="M121" s="6">
-        <v>17.046119999999998</v>
+        <v>24.00880886426593</v>
       </c>
       <c r="N121" s="6">
-        <v>20.65009160305344</v>
+        <v>28.215824854116359</v>
       </c>
       <c r="O121" s="6">
-        <v>23.80545627586207</v>
+        <v>31.912692525181953</v>
       </c>
       <c r="P121" s="6">
-        <v>27.960988561445149</v>
+        <v>38.170197868441363</v>
       </c>
       <c r="Q121" s="6">
-        <v>33.5399001814882</v>
+        <v>50.570534752157016</v>
       </c>
       <c r="R121" s="6">
-        <v>70.301299999999998</v>
+        <v>94.73732924693519</v>
       </c>
       <c r="S121" s="5">
         <v>3.729951510630362E-4</v>
@@ -7618,37 +7618,37 @@
         <v>0</v>
       </c>
       <c r="H122" s="6">
-        <v>3.3244274809160299E-2</v>
+        <v>1.07E-3</v>
       </c>
       <c r="I122" s="6">
-        <v>3.3633125443037972</v>
+        <v>4.1049527924073717</v>
       </c>
       <c r="J122" s="6">
-        <v>5.1570740000000006</v>
+        <v>6.0037396121883662</v>
       </c>
       <c r="K122" s="6">
-        <v>6.7602202625704892</v>
+        <v>7.9460849254483144</v>
       </c>
       <c r="L122" s="6">
-        <v>8.201679465648855</v>
+        <v>9.7920800000000003</v>
       </c>
       <c r="M122" s="6">
-        <v>9.4410965096952921</v>
+        <v>11.76721946564885</v>
       </c>
       <c r="N122" s="6">
-        <v>11.096442</v>
+        <v>13.873257443082309</v>
       </c>
       <c r="O122" s="6">
-        <v>12.80160260975441</v>
+        <v>16.435613886536832</v>
       </c>
       <c r="P122" s="6">
-        <v>15.553962167938941</v>
+        <v>19.479375000000001</v>
       </c>
       <c r="Q122" s="6">
-        <v>19.746592</v>
+        <v>25.70958257713249</v>
       </c>
       <c r="R122" s="6">
-        <v>58.266046304541426</v>
+        <v>89.725385266723109</v>
       </c>
       <c r="S122" s="5">
         <v>2.486634340420241E-4</v>
@@ -7677,37 +7677,37 @@
         <v>1</v>
       </c>
       <c r="H123" s="6">
-        <v>3.3457519531250002</v>
+        <v>6.4171459934138309</v>
       </c>
       <c r="I123" s="6">
-        <v>5.1941785504325182</v>
+        <v>9.9866461335707939</v>
       </c>
       <c r="J123" s="6">
-        <v>7.3696172839506184</v>
+        <v>11.772826891447371</v>
       </c>
       <c r="K123" s="6">
-        <v>7.7820046552094526</v>
+        <v>13.198623263888891</v>
       </c>
       <c r="L123" s="6">
-        <v>8.8167912427983541</v>
+        <v>14.741208730916028</v>
       </c>
       <c r="M123" s="6">
-        <v>9.565031645569622</v>
+        <v>16.297959372114498</v>
       </c>
       <c r="N123" s="6">
-        <v>12.52122205343364</v>
+        <v>17.779607250000002</v>
       </c>
       <c r="O123" s="6">
-        <v>13.703519624999998</v>
+        <v>20.057053890522049</v>
       </c>
       <c r="P123" s="6">
-        <v>18.950154352723917</v>
+        <v>23.44634241798839</v>
       </c>
       <c r="Q123" s="6">
-        <v>26.967628428270039</v>
+        <v>31.169914774710602</v>
       </c>
       <c r="R123" s="6">
-        <v>36.093120229007638</v>
+        <v>53.478765323992995</v>
       </c>
       <c r="S123" s="5">
         <v>3.729951510630362E-4</v>
@@ -7736,37 +7736,37 @@
         <v>2</v>
       </c>
       <c r="H124" s="6">
-        <v>3.3244274809160299E-2</v>
+        <v>1.07E-3</v>
       </c>
       <c r="I124" s="6">
-        <v>3.3633125443037972</v>
+        <v>4.1049527924073717</v>
       </c>
       <c r="J124" s="6">
-        <v>5.1570740000000006</v>
+        <v>6.0037396121883662</v>
       </c>
       <c r="K124" s="6">
-        <v>6.7602202625704892</v>
+        <v>7.9460849254483144</v>
       </c>
       <c r="L124" s="6">
-        <v>8.201679465648855</v>
+        <v>9.7920800000000003</v>
       </c>
       <c r="M124" s="6">
-        <v>9.4410965096952921</v>
+        <v>11.76721946564885</v>
       </c>
       <c r="N124" s="6">
-        <v>11.096442</v>
+        <v>13.873257443082309</v>
       </c>
       <c r="O124" s="6">
-        <v>12.80160260975441</v>
+        <v>16.435613886536832</v>
       </c>
       <c r="P124" s="6">
-        <v>15.553962167938941</v>
+        <v>19.479375000000001</v>
       </c>
       <c r="Q124" s="6">
-        <v>19.746592</v>
+        <v>25.70958257713249</v>
       </c>
       <c r="R124" s="6">
-        <v>58.266046304541426</v>
+        <v>89.725385266723109</v>
       </c>
       <c r="S124" s="5">
         <v>6.5647146587094363E-2</v>
@@ -7795,37 +7795,37 @@
         <v>3</v>
       </c>
       <c r="H125" s="6">
-        <v>3.3457519531250002</v>
+        <v>6.4171459934138309</v>
       </c>
       <c r="I125" s="6">
-        <v>5.1941785504325182</v>
+        <v>9.9866461335707939</v>
       </c>
       <c r="J125" s="6">
-        <v>7.3696172839506184</v>
+        <v>11.772826891447371</v>
       </c>
       <c r="K125" s="6">
-        <v>7.7820046552094526</v>
+        <v>13.198623263888891</v>
       </c>
       <c r="L125" s="6">
-        <v>8.8167912427983541</v>
+        <v>14.741208730916028</v>
       </c>
       <c r="M125" s="6">
-        <v>9.565031645569622</v>
+        <v>16.297959372114498</v>
       </c>
       <c r="N125" s="6">
-        <v>12.52122205343364</v>
+        <v>17.779607250000002</v>
       </c>
       <c r="O125" s="6">
-        <v>13.703519624999998</v>
+        <v>20.057053890522049</v>
       </c>
       <c r="P125" s="6">
-        <v>18.950154352723917</v>
+        <v>23.44634241798839</v>
       </c>
       <c r="Q125" s="6">
-        <v>26.967628428270039</v>
+        <v>31.169914774710602</v>
       </c>
       <c r="R125" s="6">
-        <v>36.093120229007638</v>
+        <v>53.478765323992995</v>
       </c>
       <c r="S125" s="5">
         <v>9.0762153425338801E-3</v>
@@ -7854,37 +7854,37 @@
         <v>0</v>
       </c>
       <c r="H126" s="6">
-        <v>2.4168037974683552</v>
+        <v>1.876561181434599</v>
       </c>
       <c r="I126" s="6">
-        <v>5.7805011832061073</v>
+        <v>8.9481430041152255</v>
       </c>
       <c r="J126" s="6">
-        <v>9.1760970464135028</v>
+        <v>10.35255725190839</v>
       </c>
       <c r="K126" s="6">
-        <v>11.252230621463479</v>
+        <v>11.788020663474331</v>
       </c>
       <c r="L126" s="6">
-        <v>12.35359704641351</v>
+        <v>13.768828125000001</v>
       </c>
       <c r="M126" s="6">
-        <v>14.32625921940928</v>
+        <v>15.845711015625</v>
       </c>
       <c r="N126" s="6">
-        <v>16.309449061249591</v>
+        <v>18.70627434377646</v>
       </c>
       <c r="O126" s="6">
-        <v>18.45369249131944</v>
+        <v>22.92802</v>
       </c>
       <c r="P126" s="6">
-        <v>20.440049999999999</v>
+        <v>31.911676545300601</v>
       </c>
       <c r="Q126" s="6">
-        <v>28.01737748762217</v>
+        <v>41.527357602689548</v>
       </c>
       <c r="R126" s="6">
-        <v>52.522894736842105</v>
+        <v>102.4902709568163</v>
       </c>
       <c r="S126" s="5">
         <v>1.2433171702101199E-4</v>
@@ -7913,37 +7913,37 @@
         <v>1</v>
       </c>
       <c r="H127" s="6">
-        <v>0.5663248638838474</v>
+        <v>0.50295898437499997</v>
       </c>
       <c r="I127" s="6">
-        <v>8.9201113020095431</v>
+        <v>8.9143066052032456</v>
       </c>
       <c r="J127" s="6">
-        <v>10.02716054008439</v>
+        <v>13.109697265625</v>
       </c>
       <c r="K127" s="6">
-        <v>13.04054968010545</v>
+        <v>16.087055356063971</v>
       </c>
       <c r="L127" s="6">
-        <v>14.001102237654319</v>
+        <v>19.638234622389792</v>
       </c>
       <c r="M127" s="6">
-        <v>17.046119999999998</v>
+        <v>24.00880886426593</v>
       </c>
       <c r="N127" s="6">
-        <v>20.65009160305344</v>
+        <v>28.215824854116359</v>
       </c>
       <c r="O127" s="6">
-        <v>23.80545627586207</v>
+        <v>31.912692525181953</v>
       </c>
       <c r="P127" s="6">
-        <v>27.960988561445149</v>
+        <v>38.170197868441363</v>
       </c>
       <c r="Q127" s="6">
-        <v>33.5399001814882</v>
+        <v>50.570534752157016</v>
       </c>
       <c r="R127" s="6">
-        <v>70.301299999999998</v>
+        <v>94.73732924693519</v>
       </c>
       <c r="S127" s="5">
         <v>3.729951510630362E-4</v>
@@ -7972,37 +7972,37 @@
         <v>2</v>
       </c>
       <c r="H128" s="6">
-        <v>2.4168037974683552</v>
+        <v>1.876561181434599</v>
       </c>
       <c r="I128" s="6">
-        <v>5.7805011832061073</v>
+        <v>8.9481430041152255</v>
       </c>
       <c r="J128" s="6">
-        <v>9.1760970464135028</v>
+        <v>10.35255725190839</v>
       </c>
       <c r="K128" s="6">
-        <v>11.252230621463479</v>
+        <v>11.788020663474331</v>
       </c>
       <c r="L128" s="6">
-        <v>12.35359704641351</v>
+        <v>13.768828125000001</v>
       </c>
       <c r="M128" s="6">
-        <v>14.32625921940928</v>
+        <v>15.845711015625</v>
       </c>
       <c r="N128" s="6">
-        <v>16.309449061249591</v>
+        <v>18.70627434377646</v>
       </c>
       <c r="O128" s="6">
-        <v>18.45369249131944</v>
+        <v>22.92802</v>
       </c>
       <c r="P128" s="6">
-        <v>20.440049999999999</v>
+        <v>31.911676545300601</v>
       </c>
       <c r="Q128" s="6">
-        <v>28.01737748762217</v>
+        <v>41.527357602689548</v>
       </c>
       <c r="R128" s="6">
-        <v>52.522894736842105</v>
+        <v>102.4902709568163</v>
       </c>
       <c r="S128" s="5">
         <v>3.7299515106303618E-3</v>
@@ -8031,37 +8031,37 @@
         <v>3</v>
       </c>
       <c r="H129" s="6">
-        <v>0.5663248638838474</v>
+        <v>0.50295898437499997</v>
       </c>
       <c r="I129" s="6">
-        <v>8.9201113020095431</v>
+        <v>8.9143066052032456</v>
       </c>
       <c r="J129" s="6">
-        <v>10.02716054008439</v>
+        <v>13.109697265625</v>
       </c>
       <c r="K129" s="6">
-        <v>13.04054968010545</v>
+        <v>16.087055356063971</v>
       </c>
       <c r="L129" s="6">
-        <v>14.001102237654319</v>
+        <v>19.638234622389792</v>
       </c>
       <c r="M129" s="6">
-        <v>17.046119999999998</v>
+        <v>24.00880886426593</v>
       </c>
       <c r="N129" s="6">
-        <v>20.65009160305344</v>
+        <v>28.215824854116359</v>
       </c>
       <c r="O129" s="6">
-        <v>23.80545627586207</v>
+        <v>31.912692525181953</v>
       </c>
       <c r="P129" s="6">
-        <v>27.960988561445149</v>
+        <v>38.170197868441363</v>
       </c>
       <c r="Q129" s="6">
-        <v>33.5399001814882</v>
+        <v>50.570534752157016</v>
       </c>
       <c r="R129" s="6">
-        <v>70.301299999999998</v>
+        <v>94.73732924693519</v>
       </c>
       <c r="S129" s="5">
         <v>4.3516100957354219E-3</v>
@@ -8090,37 +8090,37 @@
         <v>0</v>
       </c>
       <c r="H130" s="6">
-        <v>0.31911392405063282</v>
+        <v>1.2666049382716051</v>
       </c>
       <c r="I130" s="6">
-        <v>3.3407819670781889</v>
+        <v>4.4297809458106903</v>
       </c>
       <c r="J130" s="6">
-        <v>4.9252798353909473</v>
+        <v>6.5130858802177851</v>
       </c>
       <c r="K130" s="6">
-        <v>6.8123710937500004</v>
+        <v>8.353229375039648</v>
       </c>
       <c r="L130" s="6">
-        <v>8.297035392714589</v>
+        <v>10.195421060315249</v>
       </c>
       <c r="M130" s="6">
-        <v>9.4550483351235233</v>
+        <v>11.64647694598543</v>
       </c>
       <c r="N130" s="6">
-        <v>11.234451500950168</v>
+        <v>13.635161610820301</v>
       </c>
       <c r="O130" s="6">
-        <v>12.709834756176159</v>
+        <v>16.26733812636737</v>
       </c>
       <c r="P130" s="6">
-        <v>15.20328625</v>
+        <v>19.279516463792259</v>
       </c>
       <c r="Q130" s="6">
-        <v>18.993441085872579</v>
+        <v>26.236288355326209</v>
       </c>
       <c r="R130" s="6">
-        <v>57.441369999999999</v>
+        <v>67.742346760070049</v>
       </c>
       <c r="S130" s="5">
         <v>1.2433171702101199E-4</v>
@@ -8149,37 +8149,37 @@
         <v>1</v>
       </c>
       <c r="H131" s="6">
-        <v>2.465411392405064</v>
+        <v>10.290100000000001</v>
       </c>
       <c r="I131" s="6">
-        <v>5.808709452201934</v>
+        <v>12.612068000000001</v>
       </c>
       <c r="J131" s="6">
-        <v>7.6871716772151899</v>
+        <v>13.334710291782089</v>
       </c>
       <c r="K131" s="6">
-        <v>8.6211779999999987</v>
+        <v>15.256210469278722</v>
       </c>
       <c r="L131" s="6">
-        <v>10.62030217146958</v>
+        <v>20.001995658640912</v>
       </c>
       <c r="M131" s="6">
-        <v>13.129556786703601</v>
+        <v>21.796963333333331</v>
       </c>
       <c r="N131" s="6">
-        <v>16.040760405063288</v>
+        <v>22.753346760070048</v>
       </c>
       <c r="O131" s="6">
-        <v>20.264839598162631</v>
+        <v>26.884950099022962</v>
       </c>
       <c r="P131" s="6">
-        <v>24.533874045801532</v>
+        <v>34.0070045167054</v>
       </c>
       <c r="Q131" s="6">
-        <v>30.98007106383572</v>
+        <v>41.401238432155438</v>
       </c>
       <c r="R131" s="6">
-        <v>46.107929389312986</v>
+        <v>49.854711033274953</v>
       </c>
       <c r="S131" s="5">
         <v>0</v>
@@ -8208,37 +8208,37 @@
         <v>2</v>
       </c>
       <c r="H132" s="6">
-        <v>0.31911392405063282</v>
+        <v>1.2666049382716051</v>
       </c>
       <c r="I132" s="6">
-        <v>3.3407819670781889</v>
+        <v>4.4297809458106903</v>
       </c>
       <c r="J132" s="6">
-        <v>4.9252798353909473</v>
+        <v>6.5130858802177851</v>
       </c>
       <c r="K132" s="6">
-        <v>6.8123710937500004</v>
+        <v>8.353229375039648</v>
       </c>
       <c r="L132" s="6">
-        <v>8.297035392714589</v>
+        <v>10.195421060315249</v>
       </c>
       <c r="M132" s="6">
-        <v>9.4550483351235233</v>
+        <v>11.64647694598543</v>
       </c>
       <c r="N132" s="6">
-        <v>11.234451500950168</v>
+        <v>13.635161610820301</v>
       </c>
       <c r="O132" s="6">
-        <v>12.709834756176159</v>
+        <v>16.26733812636737</v>
       </c>
       <c r="P132" s="6">
-        <v>15.20328625</v>
+        <v>19.279516463792259</v>
       </c>
       <c r="Q132" s="6">
-        <v>18.993441085872579</v>
+        <v>26.236288355326209</v>
       </c>
       <c r="R132" s="6">
-        <v>57.441369999999999</v>
+        <v>67.742346760070049</v>
       </c>
       <c r="S132" s="5">
         <v>9.9465373616809639E-4</v>
@@ -8267,37 +8267,37 @@
         <v>3</v>
       </c>
       <c r="H133" s="6">
-        <v>2.465411392405064</v>
+        <v>10.290100000000001</v>
       </c>
       <c r="I133" s="6">
-        <v>5.808709452201934</v>
+        <v>12.612068000000001</v>
       </c>
       <c r="J133" s="6">
-        <v>7.6871716772151899</v>
+        <v>13.334710291782089</v>
       </c>
       <c r="K133" s="6">
-        <v>8.6211779999999987</v>
+        <v>15.256210469278722</v>
       </c>
       <c r="L133" s="6">
-        <v>10.62030217146958</v>
+        <v>20.001995658640912</v>
       </c>
       <c r="M133" s="6">
-        <v>13.129556786703601</v>
+        <v>21.796963333333331</v>
       </c>
       <c r="N133" s="6">
-        <v>16.040760405063288</v>
+        <v>22.753346760070048</v>
       </c>
       <c r="O133" s="6">
-        <v>20.264839598162631</v>
+        <v>26.884950099022962</v>
       </c>
       <c r="P133" s="6">
-        <v>24.533874045801532</v>
+        <v>34.0070045167054</v>
       </c>
       <c r="Q133" s="6">
-        <v>30.98007106383572</v>
+        <v>41.401238432155438</v>
       </c>
       <c r="R133" s="6">
-        <v>46.107929389312986</v>
+        <v>49.854711033274953</v>
       </c>
       <c r="S133" s="5">
         <v>0</v>
@@ -8326,37 +8326,37 @@
         <v>0</v>
       </c>
       <c r="H134" s="6">
-        <v>1.0112000000000001</v>
+        <v>5.5491316793893137</v>
       </c>
       <c r="I134" s="6">
-        <v>5.1142019334049413</v>
+        <v>9.1897876269621435</v>
       </c>
       <c r="J134" s="6">
-        <v>6.8531970862962117</v>
+        <v>10.18037</v>
       </c>
       <c r="K134" s="6">
-        <v>7.9665419999999996</v>
+        <v>12.262197599261309</v>
       </c>
       <c r="L134" s="6">
-        <v>11.17128227880659</v>
+        <v>14.402265625</v>
       </c>
       <c r="M134" s="6">
-        <v>11.742290000000001</v>
+        <v>17.765669436749768</v>
       </c>
       <c r="N134" s="6">
-        <v>13.223052766772961</v>
+        <v>21.209700000000002</v>
       </c>
       <c r="O134" s="6">
-        <v>16.432939805568612</v>
+        <v>25.757390542907178</v>
       </c>
       <c r="P134" s="6">
-        <v>19.533517725190862</v>
+        <v>35.393056731583414</v>
       </c>
       <c r="Q134" s="6">
-        <v>24.169363311068707</v>
+        <v>48.820439453124997</v>
       </c>
       <c r="R134" s="6">
-        <v>52.464699907663885</v>
+        <v>63.150035026269705</v>
       </c>
       <c r="S134" s="5">
         <v>1.2433171702101199E-4</v>
@@ -8385,37 +8385,37 @@
         <v>1</v>
       </c>
       <c r="H135" s="6">
-        <v>4.4483127572016459</v>
+        <v>5.49451</v>
       </c>
       <c r="I135" s="6">
-        <v>5.411090534979424</v>
+        <v>9.3022991640625001</v>
       </c>
       <c r="J135" s="6">
-        <v>9.2565899999999992</v>
+        <v>11.7096797928429</v>
       </c>
       <c r="K135" s="6">
-        <v>10.050333969465649</v>
+        <v>13.86055675992613</v>
       </c>
       <c r="L135" s="6">
-        <v>10.362500000000001</v>
+        <v>18.24291346501089</v>
       </c>
       <c r="M135" s="6">
-        <v>12.25012658227848</v>
+        <v>22.280323286427109</v>
       </c>
       <c r="N135" s="6">
-        <v>13.08521</v>
+        <v>23.976412656488549</v>
       </c>
       <c r="O135" s="6">
-        <v>17.593012704174228</v>
+        <v>30.09155955917268</v>
       </c>
       <c r="P135" s="6">
-        <v>20.903037974683539</v>
+        <v>44.126300060617595</v>
       </c>
       <c r="Q135" s="6">
-        <v>25.103000923361037</v>
+        <v>49.436239074210405</v>
       </c>
       <c r="R135" s="6">
-        <v>29.049866412213738</v>
+        <v>79.482495621716282</v>
       </c>
       <c r="S135" s="5">
         <v>0</v>
@@ -8444,37 +8444,37 @@
         <v>2</v>
       </c>
       <c r="H136" s="6">
-        <v>1.0112000000000001</v>
+        <v>5.5491316793893137</v>
       </c>
       <c r="I136" s="6">
-        <v>5.1142019334049413</v>
+        <v>9.1897876269621435</v>
       </c>
       <c r="J136" s="6">
-        <v>6.8531970862962117</v>
+        <v>10.18037</v>
       </c>
       <c r="K136" s="6">
-        <v>7.9665419999999996</v>
+        <v>12.262197599261309</v>
       </c>
       <c r="L136" s="6">
-        <v>11.17128227880659</v>
+        <v>14.402265625</v>
       </c>
       <c r="M136" s="6">
-        <v>11.742290000000001</v>
+        <v>17.765669436749768</v>
       </c>
       <c r="N136" s="6">
-        <v>13.223052766772961</v>
+        <v>21.209700000000002</v>
       </c>
       <c r="O136" s="6">
-        <v>16.432939805568612</v>
+        <v>25.757390542907178</v>
       </c>
       <c r="P136" s="6">
-        <v>19.533517725190862</v>
+        <v>35.393056731583414</v>
       </c>
       <c r="Q136" s="6">
-        <v>24.169363311068707</v>
+        <v>48.820439453124997</v>
       </c>
       <c r="R136" s="6">
-        <v>52.464699907663885</v>
+        <v>63.150035026269705</v>
       </c>
       <c r="S136" s="5">
         <v>1.2433171702101199E-4</v>
@@ -8503,37 +8503,37 @@
         <v>3</v>
       </c>
       <c r="H137" s="6">
-        <v>4.4483127572016459</v>
+        <v>5.49451</v>
       </c>
       <c r="I137" s="6">
-        <v>5.411090534979424</v>
+        <v>9.3022991640625001</v>
       </c>
       <c r="J137" s="6">
-        <v>9.2565899999999992</v>
+        <v>11.7096797928429</v>
       </c>
       <c r="K137" s="6">
-        <v>10.050333969465649</v>
+        <v>13.86055675992613</v>
       </c>
       <c r="L137" s="6">
-        <v>10.362500000000001</v>
+        <v>18.24291346501089</v>
       </c>
       <c r="M137" s="6">
-        <v>12.25012658227848</v>
+        <v>22.280323286427109</v>
       </c>
       <c r="N137" s="6">
-        <v>13.08521</v>
+        <v>23.976412656488549</v>
       </c>
       <c r="O137" s="6">
-        <v>17.593012704174228</v>
+        <v>30.09155955917268</v>
       </c>
       <c r="P137" s="6">
-        <v>20.903037974683539</v>
+        <v>44.126300060617595</v>
       </c>
       <c r="Q137" s="6">
-        <v>25.103000923361037</v>
+        <v>49.436239074210405</v>
       </c>
       <c r="R137" s="6">
-        <v>29.049866412213738</v>
+        <v>79.482495621716282</v>
       </c>
       <c r="S137" s="5">
         <v>1.2433171702101199E-4</v>
@@ -8562,37 +8562,37 @@
         <v>0</v>
       </c>
       <c r="H138" s="6">
-        <v>0.31911392405063282</v>
+        <v>1.2666049382716051</v>
       </c>
       <c r="I138" s="6">
-        <v>3.3407819670781889</v>
+        <v>4.4297809458106903</v>
       </c>
       <c r="J138" s="6">
-        <v>4.9252798353909473</v>
+        <v>6.5130858802177851</v>
       </c>
       <c r="K138" s="6">
-        <v>6.8123710937500004</v>
+        <v>8.353229375039648</v>
       </c>
       <c r="L138" s="6">
-        <v>8.297035392714589</v>
+        <v>10.195421060315249</v>
       </c>
       <c r="M138" s="6">
-        <v>9.4550483351235233</v>
+        <v>11.64647694598543</v>
       </c>
       <c r="N138" s="6">
-        <v>11.234451500950168</v>
+        <v>13.635161610820301</v>
       </c>
       <c r="O138" s="6">
-        <v>12.709834756176159</v>
+        <v>16.26733812636737</v>
       </c>
       <c r="P138" s="6">
-        <v>15.20328625</v>
+        <v>19.279516463792259</v>
       </c>
       <c r="Q138" s="6">
-        <v>18.993441085872579</v>
+        <v>26.236288355326209</v>
       </c>
       <c r="R138" s="6">
-        <v>57.441369999999999</v>
+        <v>67.742346760070049</v>
       </c>
       <c r="S138" s="5">
         <v>4.973268680840482E-4</v>
@@ -8621,37 +8621,37 @@
         <v>1</v>
       </c>
       <c r="H139" s="6">
-        <v>2.465411392405064</v>
+        <v>10.290100000000001</v>
       </c>
       <c r="I139" s="6">
-        <v>5.808709452201934</v>
+        <v>12.612068000000001</v>
       </c>
       <c r="J139" s="6">
-        <v>7.6871716772151899</v>
+        <v>13.334710291782089</v>
       </c>
       <c r="K139" s="6">
-        <v>8.6211779999999987</v>
+        <v>15.256210469278722</v>
       </c>
       <c r="L139" s="6">
-        <v>10.62030217146958</v>
+        <v>20.001995658640912</v>
       </c>
       <c r="M139" s="6">
-        <v>13.129556786703601</v>
+        <v>21.796963333333331</v>
       </c>
       <c r="N139" s="6">
-        <v>16.040760405063288</v>
+        <v>22.753346760070048</v>
       </c>
       <c r="O139" s="6">
-        <v>20.264839598162631</v>
+        <v>26.884950099022962</v>
       </c>
       <c r="P139" s="6">
-        <v>24.533874045801532</v>
+        <v>34.0070045167054</v>
       </c>
       <c r="Q139" s="6">
-        <v>30.98007106383572</v>
+        <v>41.401238432155438</v>
       </c>
       <c r="R139" s="6">
-        <v>46.107929389312986</v>
+        <v>49.854711033274953</v>
       </c>
       <c r="S139" s="5">
         <v>2.486634340420241E-4</v>
@@ -8680,37 +8680,37 @@
         <v>2</v>
       </c>
       <c r="H140" s="6">
-        <v>0.31911392405063282</v>
+        <v>1.2666049382716051</v>
       </c>
       <c r="I140" s="6">
-        <v>3.3407819670781889</v>
+        <v>4.4297809458106903</v>
       </c>
       <c r="J140" s="6">
-        <v>4.9252798353909473</v>
+        <v>6.5130858802177851</v>
       </c>
       <c r="K140" s="6">
-        <v>6.8123710937500004</v>
+        <v>8.353229375039648</v>
       </c>
       <c r="L140" s="6">
-        <v>8.297035392714589</v>
+        <v>10.195421060315249</v>
       </c>
       <c r="M140" s="6">
-        <v>9.4550483351235233</v>
+        <v>11.64647694598543</v>
       </c>
       <c r="N140" s="6">
-        <v>11.234451500950168</v>
+        <v>13.635161610820301</v>
       </c>
       <c r="O140" s="6">
-        <v>12.709834756176159</v>
+        <v>16.26733812636737</v>
       </c>
       <c r="P140" s="6">
-        <v>15.20328625</v>
+        <v>19.279516463792259</v>
       </c>
       <c r="Q140" s="6">
-        <v>18.993441085872579</v>
+        <v>26.236288355326209</v>
       </c>
       <c r="R140" s="6">
-        <v>57.441369999999999</v>
+        <v>67.742346760070049</v>
       </c>
       <c r="S140" s="5">
         <v>3.5931866219072482E-2</v>
@@ -8739,37 +8739,37 @@
         <v>3</v>
       </c>
       <c r="H141" s="6">
-        <v>2.465411392405064</v>
+        <v>10.290100000000001</v>
       </c>
       <c r="I141" s="6">
-        <v>5.808709452201934</v>
+        <v>12.612068000000001</v>
       </c>
       <c r="J141" s="6">
-        <v>7.6871716772151899</v>
+        <v>13.334710291782089</v>
       </c>
       <c r="K141" s="6">
-        <v>8.6211779999999987</v>
+        <v>15.256210469278722</v>
       </c>
       <c r="L141" s="6">
-        <v>10.62030217146958</v>
+        <v>20.001995658640912</v>
       </c>
       <c r="M141" s="6">
-        <v>13.129556786703601</v>
+        <v>21.796963333333331</v>
       </c>
       <c r="N141" s="6">
-        <v>16.040760405063288</v>
+        <v>22.753346760070048</v>
       </c>
       <c r="O141" s="6">
-        <v>20.264839598162631</v>
+        <v>26.884950099022962</v>
       </c>
       <c r="P141" s="6">
-        <v>24.533874045801532</v>
+        <v>34.0070045167054</v>
       </c>
       <c r="Q141" s="6">
-        <v>30.98007106383572</v>
+        <v>41.401238432155438</v>
       </c>
       <c r="R141" s="6">
-        <v>46.107929389312986</v>
+        <v>49.854711033274953</v>
       </c>
       <c r="S141" s="5">
         <v>6.2165858510506034E-3</v>
@@ -8798,37 +8798,37 @@
         <v>0</v>
       </c>
       <c r="H142" s="6">
-        <v>1.0112000000000001</v>
+        <v>5.5491316793893137</v>
       </c>
       <c r="I142" s="6">
-        <v>5.1142019334049413</v>
+        <v>9.1897876269621435</v>
       </c>
       <c r="J142" s="6">
-        <v>6.8531970862962117</v>
+        <v>10.18037</v>
       </c>
       <c r="K142" s="6">
-        <v>7.9665419999999996</v>
+        <v>12.262197599261309</v>
       </c>
       <c r="L142" s="6">
-        <v>11.17128227880659</v>
+        <v>14.402265625</v>
       </c>
       <c r="M142" s="6">
-        <v>11.742290000000001</v>
+        <v>17.765669436749768</v>
       </c>
       <c r="N142" s="6">
-        <v>13.223052766772961</v>
+        <v>21.209700000000002</v>
       </c>
       <c r="O142" s="6">
-        <v>16.432939805568612</v>
+        <v>25.757390542907178</v>
       </c>
       <c r="P142" s="6">
-        <v>19.533517725190862</v>
+        <v>35.393056731583414</v>
       </c>
       <c r="Q142" s="6">
-        <v>24.169363311068707</v>
+        <v>48.820439453124997</v>
       </c>
       <c r="R142" s="6">
-        <v>52.464699907663885</v>
+        <v>63.150035026269705</v>
       </c>
       <c r="S142" s="5">
         <v>1.2433171702101199E-4</v>
@@ -8857,37 +8857,37 @@
         <v>1</v>
       </c>
       <c r="H143" s="6">
-        <v>4.4483127572016459</v>
+        <v>5.49451</v>
       </c>
       <c r="I143" s="6">
-        <v>5.411090534979424</v>
+        <v>9.3022991640625001</v>
       </c>
       <c r="J143" s="6">
-        <v>9.2565899999999992</v>
+        <v>11.7096797928429</v>
       </c>
       <c r="K143" s="6">
-        <v>10.050333969465649</v>
+        <v>13.86055675992613</v>
       </c>
       <c r="L143" s="6">
-        <v>10.362500000000001</v>
+        <v>18.24291346501089</v>
       </c>
       <c r="M143" s="6">
-        <v>12.25012658227848</v>
+        <v>22.280323286427109</v>
       </c>
       <c r="N143" s="6">
-        <v>13.08521</v>
+        <v>23.976412656488549</v>
       </c>
       <c r="O143" s="6">
-        <v>17.593012704174228</v>
+        <v>30.09155955917268</v>
       </c>
       <c r="P143" s="6">
-        <v>20.903037974683539</v>
+        <v>44.126300060617595</v>
       </c>
       <c r="Q143" s="6">
-        <v>25.103000923361037</v>
+        <v>49.436239074210405</v>
       </c>
       <c r="R143" s="6">
-        <v>29.049866412213738</v>
+        <v>79.482495621716282</v>
       </c>
       <c r="S143" s="5">
         <v>1.2433171702101199E-4</v>
@@ -8916,37 +8916,37 @@
         <v>2</v>
       </c>
       <c r="H144" s="6">
-        <v>1.0112000000000001</v>
+        <v>5.5491316793893137</v>
       </c>
       <c r="I144" s="6">
-        <v>5.1142019334049413</v>
+        <v>9.1897876269621435</v>
       </c>
       <c r="J144" s="6">
-        <v>6.8531970862962117</v>
+        <v>10.18037</v>
       </c>
       <c r="K144" s="6">
-        <v>7.9665419999999996</v>
+        <v>12.262197599261309</v>
       </c>
       <c r="L144" s="6">
-        <v>11.17128227880659</v>
+        <v>14.402265625</v>
       </c>
       <c r="M144" s="6">
-        <v>11.742290000000001</v>
+        <v>17.765669436749768</v>
       </c>
       <c r="N144" s="6">
-        <v>13.223052766772961</v>
+        <v>21.209700000000002</v>
       </c>
       <c r="O144" s="6">
-        <v>16.432939805568612</v>
+        <v>25.757390542907178</v>
       </c>
       <c r="P144" s="6">
-        <v>19.533517725190862</v>
+        <v>35.393056731583414</v>
       </c>
       <c r="Q144" s="6">
-        <v>24.169363311068707</v>
+        <v>48.820439453124997</v>
       </c>
       <c r="R144" s="6">
-        <v>52.464699907663885</v>
+        <v>63.150035026269705</v>
       </c>
       <c r="S144" s="5">
         <v>2.735297774462265E-3</v>
@@ -8975,37 +8975,37 @@
         <v>3</v>
       </c>
       <c r="H145" s="6">
-        <v>4.4483127572016459</v>
+        <v>5.49451</v>
       </c>
       <c r="I145" s="6">
-        <v>5.411090534979424</v>
+        <v>9.3022991640625001</v>
       </c>
       <c r="J145" s="6">
-        <v>9.2565899999999992</v>
+        <v>11.7096797928429</v>
       </c>
       <c r="K145" s="6">
-        <v>10.050333969465649</v>
+        <v>13.86055675992613</v>
       </c>
       <c r="L145" s="6">
-        <v>10.362500000000001</v>
+        <v>18.24291346501089</v>
       </c>
       <c r="M145" s="6">
-        <v>12.25012658227848</v>
+        <v>22.280323286427109</v>
       </c>
       <c r="N145" s="6">
-        <v>13.08521</v>
+        <v>23.976412656488549</v>
       </c>
       <c r="O145" s="6">
-        <v>17.593012704174228</v>
+        <v>30.09155955917268</v>
       </c>
       <c r="P145" s="6">
-        <v>20.903037974683539</v>
+        <v>44.126300060617595</v>
       </c>
       <c r="Q145" s="6">
-        <v>25.103000923361037</v>
+        <v>49.436239074210405</v>
       </c>
       <c r="R145" s="6">
-        <v>29.049866412213738</v>
+        <v>79.482495621716282</v>
       </c>
       <c r="S145" s="5">
         <v>2.1136391893572049E-3</v>

--- a/Main/SASdata/couple_formue.xlsx
+++ b/Main/SASdata/couple_formue.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Ny\SASdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale\Speciale_retirement\Main\SASdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79101F3C-F95A-4EF8-87E9-77A6B0DCBE1F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E1B830-CD8D-4635-844D-332CC21D466F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6EC07FC9-461D-4A48-A1A5-A60E64016522}"/>
   </bookViews>
@@ -438,8 +438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4253942D-D70C-439F-BCC9-108C66B9FC8F}">
   <dimension ref="A1:S145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +571,7 @@
         <v>90.0739054290718</v>
       </c>
       <c r="S2" s="5">
-        <v>2.486634340420241E-4</v>
+        <v>2.4336821611097589E-4</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -630,7 +630,7 @@
         <v>83.378747810858115</v>
       </c>
       <c r="S3" s="5">
-        <v>0</v>
+        <v>1.2168410805548791E-4</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -689,7 +689,7 @@
         <v>90.0739054290718</v>
       </c>
       <c r="S4" s="5">
-        <v>2.486634340420241E-4</v>
+        <v>7.3010464833292768E-4</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
         <v>83.378747810858115</v>
       </c>
       <c r="S5" s="5">
-        <v>2.486634340420241E-4</v>
+        <v>2.4336821611097589E-4</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -866,7 +866,7 @@
         <v>78.098309982486882</v>
       </c>
       <c r="S7" s="5">
-        <v>2.486634340420241E-4</v>
+        <v>1.2168410805548791E-4</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>96.547302977232931</v>
       </c>
       <c r="S8" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>2.4336821611097589E-4</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -984,7 +984,7 @@
         <v>78.098309982486882</v>
       </c>
       <c r="S9" s="5">
-        <v>0</v>
+        <v>2.4336821611097589E-4</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
         <v>90.0739054290718</v>
       </c>
       <c r="S10" s="5">
-        <v>6.216585851050603E-4</v>
+        <v>9.7347286444390358E-4</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1102,7 +1102,7 @@
         <v>83.378747810858115</v>
       </c>
       <c r="S11" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>2.4336821611097589E-4</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1161,7 +1161,7 @@
         <v>90.0739054290718</v>
       </c>
       <c r="S12" s="5">
-        <v>4.0905134899912973E-2</v>
+        <v>6.8264784619128743E-2</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1220,7 +1220,7 @@
         <v>83.378747810858115</v>
       </c>
       <c r="S13" s="5">
-        <v>5.0976003978614936E-3</v>
+        <v>4.1372596738865914E-3</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1279,7 +1279,7 @@
         <v>96.547302977232931</v>
       </c>
       <c r="S14" s="5">
-        <v>2.486634340420241E-4</v>
+        <v>1.2168410805548791E-4</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1338,7 +1338,7 @@
         <v>78.098309982486882</v>
       </c>
       <c r="S15" s="5">
-        <v>2.486634340420241E-4</v>
+        <v>1.2168410805548791E-4</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1397,7 +1397,7 @@
         <v>96.547302977232931</v>
       </c>
       <c r="S16" s="5">
-        <v>1.8649757553151809E-3</v>
+        <v>9.7347286444390366E-3</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -1456,7 +1456,7 @@
         <v>78.098309982486882</v>
       </c>
       <c r="S17" s="5">
-        <v>1.3676488872311329E-3</v>
+        <v>2.6770503772207349E-3</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -1515,7 +1515,7 @@
         <v>132.5186514886164</v>
       </c>
       <c r="S18" s="5">
-        <v>2.486634340420241E-4</v>
+        <v>2.4336821611097589E-4</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -1574,7 +1574,7 @@
         <v>67.569600725952824</v>
       </c>
       <c r="S19" s="5">
-        <v>3.729951510630362E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -1633,7 +1633,7 @@
         <v>132.5186514886164</v>
       </c>
       <c r="S20" s="5">
-        <v>7.459903021260724E-4</v>
+        <v>3.6505232416646379E-4</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -1692,7 +1692,7 @@
         <v>67.569600725952824</v>
       </c>
       <c r="S21" s="5">
-        <v>3.729951510630362E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -1751,7 +1751,7 @@
         <v>98.903339694656466</v>
       </c>
       <c r="S22" s="5">
-        <v>0</v>
+        <v>3.6505232416646379E-4</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
@@ -1810,7 +1810,7 @@
         <v>144.72800534283169</v>
       </c>
       <c r="S23" s="5">
-        <v>3.729951510630362E-4</v>
+        <v>3.6505232416646379E-4</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
@@ -1869,7 +1869,7 @@
         <v>98.903339694656466</v>
       </c>
       <c r="S24" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>3.6505232416646379E-4</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
@@ -1928,7 +1928,7 @@
         <v>144.72800534283169</v>
       </c>
       <c r="S25" s="5">
-        <v>0</v>
+        <v>3.6505232416646379E-4</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -1987,7 +1987,7 @@
         <v>132.5186514886164</v>
       </c>
       <c r="S26" s="5">
-        <v>2.486634340420241E-4</v>
+        <v>1.581893404721343E-3</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
@@ -2046,7 +2046,7 @@
         <v>67.569600725952824</v>
       </c>
       <c r="S27" s="5">
-        <v>6.216585851050603E-4</v>
+        <v>1.2168410805548791E-4</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
@@ -2105,7 +2105,7 @@
         <v>132.5186514886164</v>
       </c>
       <c r="S28" s="5">
-        <v>6.7636454059430556E-2</v>
+        <v>0.11523485032854711</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
@@ -2164,7 +2164,7 @@
         <v>67.569600725952824</v>
       </c>
       <c r="S29" s="5">
-        <v>8.7032201914708437E-3</v>
+        <v>6.8143100511073246E-3</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -2223,7 +2223,7 @@
         <v>98.903339694656466</v>
       </c>
       <c r="S30" s="5">
-        <v>0</v>
+        <v>4.8673643222195179E-4</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
@@ -2282,7 +2282,7 @@
         <v>144.72800534283169</v>
       </c>
       <c r="S31" s="5">
-        <v>2.486634340420241E-4</v>
+        <v>3.6505232416646379E-4</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -2341,7 +2341,7 @@
         <v>98.903339694656466</v>
       </c>
       <c r="S32" s="5">
-        <v>4.2272783787144098E-3</v>
+        <v>1.4480408858603071E-2</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
@@ -2400,7 +2400,7 @@
         <v>144.72800534283169</v>
       </c>
       <c r="S33" s="5">
-        <v>3.9786149446723864E-3</v>
+        <v>5.96252129471891E-3</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
@@ -2459,7 +2459,7 @@
         <v>115.26644</v>
       </c>
       <c r="S34" s="5">
-        <v>4.973268680840482E-4</v>
+        <v>7.3010464833292768E-4</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -2518,7 +2518,7 @@
         <v>88.249161727349701</v>
       </c>
       <c r="S35" s="5">
-        <v>2.486634340420241E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -2577,7 +2577,7 @@
         <v>115.26644</v>
       </c>
       <c r="S36" s="5">
-        <v>1.3676488872311329E-3</v>
+        <v>2.5553662691652468E-3</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -2636,7 +2636,7 @@
         <v>88.249161727349701</v>
       </c>
       <c r="S37" s="5">
-        <v>2.486634340420241E-4</v>
+        <v>4.8673643222195179E-4</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -2695,7 +2695,7 @@
         <v>145.50545300592708</v>
       </c>
       <c r="S38" s="5">
-        <v>0</v>
+        <v>2.4336821611097589E-4</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -2754,7 +2754,7 @@
         <v>146.0254445385267</v>
       </c>
       <c r="S39" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>1.2168410805548791E-4</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -2813,7 +2813,7 @@
         <v>145.50545300592708</v>
       </c>
       <c r="S40" s="5">
-        <v>0</v>
+        <v>8.5178875638841568E-4</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
@@ -2872,7 +2872,7 @@
         <v>146.0254445385267</v>
       </c>
       <c r="S41" s="5">
-        <v>4.973268680840482E-4</v>
+        <v>8.5178875638841568E-4</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
@@ -2931,7 +2931,7 @@
         <v>115.26644</v>
       </c>
       <c r="S42" s="5">
-        <v>9.9465373616809639E-4</v>
+        <v>2.0686298369432948E-3</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
@@ -2990,7 +2990,7 @@
         <v>88.249161727349701</v>
       </c>
       <c r="S43" s="5">
-        <v>4.973268680840482E-4</v>
+        <v>2.4336821611097589E-4</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
@@ -3049,7 +3049,7 @@
         <v>115.26644</v>
       </c>
       <c r="S44" s="5">
-        <v>9.1010816859380825E-2</v>
+        <v>0.14954976880019469</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
@@ -3108,7 +3108,7 @@
         <v>88.249161727349701</v>
       </c>
       <c r="S45" s="5">
-        <v>1.330349372124829E-2</v>
+        <v>8.2745193477731811E-3</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
@@ -3167,7 +3167,7 @@
         <v>145.50545300592708</v>
       </c>
       <c r="S46" s="5">
-        <v>3.729951510630362E-4</v>
+        <v>1.2168410805548791E-4</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
@@ -3226,7 +3226,7 @@
         <v>146.0254445385267</v>
       </c>
       <c r="S47" s="5">
-        <v>8.703220191470844E-4</v>
+        <v>2.4336821611097589E-4</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
@@ -3285,7 +3285,7 @@
         <v>145.50545300592708</v>
       </c>
       <c r="S48" s="5">
-        <v>5.0976003978614936E-3</v>
+        <v>2.2146507666098811E-2</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.25">
@@ -3344,7 +3344,7 @@
         <v>146.0254445385267</v>
       </c>
       <c r="S49" s="5">
-        <v>5.9679224170085792E-3</v>
+        <v>5.96252129471891E-3</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
@@ -3403,7 +3403,7 @@
         <v>135.1673292469352</v>
       </c>
       <c r="S50" s="5">
-        <v>4.973268680840482E-4</v>
+        <v>7.3010464833292768E-4</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
@@ -3462,7 +3462,7 @@
         <v>96.6926094570928</v>
       </c>
       <c r="S51" s="5">
-        <v>4.973268680840482E-4</v>
+        <v>1.2168410805548791E-4</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
@@ -3521,7 +3521,7 @@
         <v>135.1673292469352</v>
       </c>
       <c r="S52" s="5">
-        <v>2.237970906378217E-3</v>
+        <v>1.0951569724993919E-3</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
@@ -3580,7 +3580,7 @@
         <v>96.6926094570928</v>
       </c>
       <c r="S53" s="5">
-        <v>3.729951510630362E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.25">
@@ -3639,7 +3639,7 @@
         <v>132.16062171628718</v>
       </c>
       <c r="S54" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>4.8673643222195179E-4</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.25">
@@ -3698,7 +3698,7 @@
         <v>120.53063505503809</v>
       </c>
       <c r="S55" s="5">
-        <v>7.459903021260724E-4</v>
+        <v>6.0842054027743979E-4</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.25">
@@ -3757,7 +3757,7 @@
         <v>132.16062171628718</v>
       </c>
       <c r="S56" s="5">
-        <v>2.486634340420241E-4</v>
+        <v>1.581893404721343E-3</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.25">
@@ -3816,7 +3816,7 @@
         <v>120.53063505503809</v>
       </c>
       <c r="S57" s="5">
-        <v>2.486634340420241E-4</v>
+        <v>3.6505232416646379E-4</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.25">
@@ -3875,7 +3875,7 @@
         <v>135.1673292469352</v>
       </c>
       <c r="S58" s="5">
-        <v>1.491980604252145E-3</v>
+        <v>2.5553662691652468E-3</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.25">
@@ -3934,7 +3934,7 @@
         <v>96.6926094570928</v>
       </c>
       <c r="S59" s="5">
-        <v>9.9465373616809639E-4</v>
+        <v>3.6505232416646379E-4</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.25">
@@ -3993,7 +3993,7 @@
         <v>135.1673292469352</v>
       </c>
       <c r="S60" s="5">
-        <v>0.1117742136018898</v>
+        <v>0.16098807495741049</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.25">
@@ -4052,7 +4052,7 @@
         <v>96.6926094570928</v>
       </c>
       <c r="S61" s="5">
-        <v>2.088772845953003E-2</v>
+        <v>1.095156972499392E-2</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.25">
@@ -4111,7 +4111,7 @@
         <v>132.16062171628718</v>
       </c>
       <c r="S62" s="5">
-        <v>3.729951510630362E-4</v>
+        <v>3.6505232416646379E-4</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.25">
@@ -4170,7 +4170,7 @@
         <v>120.53063505503809</v>
       </c>
       <c r="S63" s="5">
-        <v>2.486634340420241E-4</v>
+        <v>4.8673643222195179E-4</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.25">
@@ -4229,7 +4229,7 @@
         <v>132.16062171628718</v>
       </c>
       <c r="S64" s="5">
-        <v>7.5842347382817357E-3</v>
+        <v>2.5431978583596981E-2</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.25">
@@ -4288,7 +4288,7 @@
         <v>120.53063505503809</v>
       </c>
       <c r="S65" s="5">
-        <v>8.7032201914708437E-3</v>
+        <v>1.082988561693843E-2</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.25">
@@ -4347,7 +4347,7 @@
         <v>135.7710838272651</v>
       </c>
       <c r="S66" s="5">
-        <v>1.1189854531891081E-3</v>
+        <v>1.0951569724993919E-3</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.25">
@@ -4406,7 +4406,7 @@
         <v>116.36952582557149</v>
       </c>
       <c r="S67" s="5">
-        <v>4.973268680840482E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.25">
@@ -4465,7 +4465,7 @@
         <v>135.7710838272651</v>
       </c>
       <c r="S68" s="5">
-        <v>2.237970906378217E-3</v>
+        <v>1.338525188610367E-3</v>
       </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.25">
@@ -4524,7 +4524,7 @@
         <v>116.36952582557149</v>
       </c>
       <c r="S69" s="5">
-        <v>3.729951510630362E-4</v>
+        <v>3.6505232416646379E-4</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.25">
@@ -4583,7 +4583,7 @@
         <v>109.6648423817864</v>
       </c>
       <c r="S70" s="5">
-        <v>0</v>
+        <v>4.8673643222195179E-4</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
@@ -4642,7 +4642,7 @@
         <v>99.449964381121987</v>
       </c>
       <c r="S71" s="5">
-        <v>6.216585851050603E-4</v>
+        <v>6.0842054027743979E-4</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.25">
@@ -4701,7 +4701,7 @@
         <v>109.6648423817864</v>
       </c>
       <c r="S72" s="5">
-        <v>4.973268680840482E-4</v>
+        <v>1.4602092966658549E-3</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.25">
@@ -4760,7 +4760,7 @@
         <v>99.449964381121987</v>
       </c>
       <c r="S73" s="5">
-        <v>8.703220191470844E-4</v>
+        <v>1.4602092966658549E-3</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.25">
@@ -4819,7 +4819,7 @@
         <v>135.7710838272651</v>
       </c>
       <c r="S74" s="5">
-        <v>1.243317170210121E-3</v>
+        <v>2.1903139449987829E-3</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.25">
@@ -4878,7 +4878,7 @@
         <v>116.36952582557149</v>
       </c>
       <c r="S75" s="5">
-        <v>1.3676488872311329E-3</v>
+        <v>4.8673643222195179E-4</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.25">
@@ -4937,7 +4937,7 @@
         <v>135.7710838272651</v>
       </c>
       <c r="S76" s="5">
-        <v>0.1219694143976128</v>
+        <v>0.12338768556826479</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.25">
@@ -4996,7 +4996,7 @@
         <v>116.36952582557149</v>
       </c>
       <c r="S77" s="5">
-        <v>2.1260723610593061E-2</v>
+        <v>9.978096860550012E-3</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.25">
@@ -5055,7 +5055,7 @@
         <v>109.6648423817864</v>
       </c>
       <c r="S78" s="5">
-        <v>3.729951510630362E-4</v>
+        <v>3.6505232416646379E-4</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.25">
@@ -5114,7 +5114,7 @@
         <v>99.449964381121987</v>
       </c>
       <c r="S79" s="5">
-        <v>1.3676488872311329E-3</v>
+        <v>8.5178875638841568E-4</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.25">
@@ -5173,7 +5173,7 @@
         <v>109.6648423817864</v>
       </c>
       <c r="S80" s="5">
-        <v>9.3248787765759043E-3</v>
+        <v>2.2146507666098811E-2</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.25">
@@ -5232,7 +5232,7 @@
         <v>99.449964381121987</v>
       </c>
       <c r="S81" s="5">
-        <v>9.2005470595548922E-3</v>
+        <v>9.3696763202725727E-3</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.25">
@@ -5291,7 +5291,7 @@
         <v>110.17828371278459</v>
       </c>
       <c r="S82" s="5">
-        <v>6.216585851050603E-4</v>
+        <v>3.6505232416646379E-4</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.25">
@@ -5350,7 +5350,7 @@
         <v>75.582141350210975</v>
       </c>
       <c r="S83" s="5">
-        <v>3.729951510630362E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.25">
@@ -5409,7 +5409,7 @@
         <v>110.17828371278459</v>
       </c>
       <c r="S84" s="5">
-        <v>1.3676488872311329E-3</v>
+        <v>1.21684108055488E-3</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.25">
@@ -5468,7 +5468,7 @@
         <v>75.582141350210975</v>
       </c>
       <c r="S85" s="5">
-        <v>2.486634340420241E-4</v>
+        <v>3.6505232416646379E-4</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.25">
@@ -5527,7 +5527,7 @@
         <v>113.17745183887919</v>
       </c>
       <c r="S86" s="5">
-        <v>0</v>
+        <v>3.6505232416646379E-4</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.25">
@@ -5586,7 +5586,7 @@
         <v>135.8368126094571</v>
       </c>
       <c r="S87" s="5">
-        <v>4.973268680840482E-4</v>
+        <v>6.0842054027743979E-4</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.25">
@@ -5645,7 +5645,7 @@
         <v>113.17745183887919</v>
       </c>
       <c r="S88" s="5">
-        <v>3.729951510630362E-4</v>
+        <v>6.0842054027743979E-4</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.25">
@@ -5704,7 +5704,7 @@
         <v>135.8368126094571</v>
       </c>
       <c r="S89" s="5">
-        <v>2.486634340420241E-4</v>
+        <v>3.6505232416646379E-4</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.25">
@@ -5763,7 +5763,7 @@
         <v>110.17828371278459</v>
       </c>
       <c r="S90" s="5">
-        <v>1.1189854531891081E-3</v>
+        <v>8.5178875638841568E-4</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.25">
@@ -5822,7 +5822,7 @@
         <v>75.582141350210975</v>
       </c>
       <c r="S91" s="5">
-        <v>1.243317170210121E-3</v>
+        <v>2.4336821611097589E-4</v>
       </c>
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.25">
@@ -5881,7 +5881,7 @@
         <v>110.17828371278459</v>
       </c>
       <c r="S92" s="5">
-        <v>0.1140121845082681</v>
+        <v>6.4127524945242154E-2</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.25">
@@ -5940,7 +5940,7 @@
         <v>75.582141350210975</v>
       </c>
       <c r="S93" s="5">
-        <v>1.7903767251025739E-2</v>
+        <v>5.2324166463859822E-3</v>
       </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.25">
@@ -5999,7 +5999,7 @@
         <v>113.17745183887919</v>
       </c>
       <c r="S94" s="5">
-        <v>0</v>
+        <v>2.4336821611097589E-4</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
@@ -6058,7 +6058,7 @@
         <v>135.8368126094571</v>
       </c>
       <c r="S95" s="5">
-        <v>3.729951510630362E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
@@ -6117,7 +6117,7 @@
         <v>113.17745183887919</v>
       </c>
       <c r="S96" s="5">
-        <v>8.2058933233867953E-3</v>
+        <v>1.399367242638111E-2</v>
       </c>
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.25">
@@ -6176,7 +6176,7 @@
         <v>135.8368126094571</v>
       </c>
       <c r="S97" s="5">
-        <v>7.832898172323759E-3</v>
+        <v>6.4492577269408616E-3</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.25">
@@ -6235,7 +6235,7 @@
         <v>121.82858594411509</v>
       </c>
       <c r="S98" s="5">
-        <v>2.486634340420241E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.25">
@@ -6294,7 +6294,7 @@
         <v>50.821865148861647</v>
       </c>
       <c r="S99" s="5">
-        <v>3.729951510630362E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.25">
@@ -6353,7 +6353,7 @@
         <v>121.82858594411509</v>
       </c>
       <c r="S100" s="5">
-        <v>1.740644038294169E-3</v>
+        <v>6.0842054027743979E-4</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.25">
@@ -6412,7 +6412,7 @@
         <v>50.821865148861647</v>
       </c>
       <c r="S101" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.25">
@@ -6471,7 +6471,7 @@
         <v>80.728607705779339</v>
       </c>
       <c r="S102" s="5">
-        <v>0</v>
+        <v>3.6505232416646379E-4</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.25">
@@ -6530,7 +6530,7 @@
         <v>100.37838000000001</v>
       </c>
       <c r="S103" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.25">
@@ -6589,7 +6589,7 @@
         <v>80.728607705779339</v>
       </c>
       <c r="S104" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>2.4336821611097589E-4</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.25">
@@ -6648,7 +6648,7 @@
         <v>100.37838000000001</v>
       </c>
       <c r="S105" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>4.8673643222195179E-4</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.25">
@@ -6707,7 +6707,7 @@
         <v>121.82858594411509</v>
       </c>
       <c r="S106" s="5">
-        <v>2.237970906378217E-3</v>
+        <v>7.3010464833292768E-4</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.25">
@@ -6766,7 +6766,7 @@
         <v>50.821865148861647</v>
       </c>
       <c r="S107" s="5">
-        <v>6.216585851050603E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.25">
@@ -6825,7 +6825,7 @@
         <v>121.82858594411509</v>
       </c>
       <c r="S108" s="5">
-        <v>8.9518836255128686E-2</v>
+        <v>3.0299342905816502E-2</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.25">
@@ -6884,7 +6884,7 @@
         <v>50.821865148861647</v>
       </c>
       <c r="S109" s="5">
-        <v>1.4546810891458411E-2</v>
+        <v>2.6770503772207349E-3</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.25">
@@ -6943,7 +6943,7 @@
         <v>80.728607705779339</v>
       </c>
       <c r="S110" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.25">
@@ -7002,7 +7002,7 @@
         <v>100.37838000000001</v>
       </c>
       <c r="S111" s="5">
-        <v>3.729951510630362E-4</v>
+        <v>3.6505232416646379E-4</v>
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.25">
@@ -7061,7 +7061,7 @@
         <v>80.728607705779339</v>
       </c>
       <c r="S112" s="5">
-        <v>5.9679224170085792E-3</v>
+        <v>6.0842054027743977E-3</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.25">
@@ -7120,7 +7120,7 @@
         <v>100.37838000000001</v>
       </c>
       <c r="S113" s="5">
-        <v>3.7299515106303618E-3</v>
+        <v>3.2854709174981751E-3</v>
       </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.25">
@@ -7179,7 +7179,7 @@
         <v>89.725385266723109</v>
       </c>
       <c r="S114" s="5">
-        <v>3.729951510630362E-4</v>
+        <v>3.6505232416646379E-4</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.25">
@@ -7238,7 +7238,7 @@
         <v>53.478765323992995</v>
       </c>
       <c r="S115" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.25">
@@ -7297,7 +7297,7 @@
         <v>89.725385266723109</v>
       </c>
       <c r="S116" s="5">
-        <v>1.1189854531891081E-3</v>
+        <v>2.4336821611097589E-4</v>
       </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.25">
@@ -7356,7 +7356,7 @@
         <v>53.478765323992995</v>
       </c>
       <c r="S117" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>1.2168410805548791E-4</v>
       </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.25">
@@ -7415,7 +7415,7 @@
         <v>102.4902709568163</v>
       </c>
       <c r="S118" s="5">
-        <v>0</v>
+        <v>1.2168410805548791E-4</v>
       </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.25">
@@ -7474,7 +7474,7 @@
         <v>94.73732924693519</v>
       </c>
       <c r="S119" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>1.2168410805548791E-4</v>
       </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.25">
@@ -7533,7 +7533,7 @@
         <v>102.4902709568163</v>
       </c>
       <c r="S120" s="5">
-        <v>0</v>
+        <v>4.8673643222195179E-4</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.25">
@@ -7592,7 +7592,7 @@
         <v>94.73732924693519</v>
       </c>
       <c r="S121" s="5">
-        <v>3.729951510630362E-4</v>
+        <v>2.4336821611097589E-4</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.25">
@@ -7651,7 +7651,7 @@
         <v>89.725385266723109</v>
       </c>
       <c r="S122" s="5">
-        <v>2.486634340420241E-4</v>
+        <v>2.4336821611097589E-4</v>
       </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.25">
@@ -7710,7 +7710,7 @@
         <v>53.478765323992995</v>
       </c>
       <c r="S123" s="5">
-        <v>3.729951510630362E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.25">
@@ -7769,7 +7769,7 @@
         <v>89.725385266723109</v>
       </c>
       <c r="S124" s="5">
-        <v>6.5647146587094363E-2</v>
+        <v>1.6914091019712821E-2</v>
       </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.25">
@@ -7828,7 +7828,7 @@
         <v>53.478765323992995</v>
       </c>
       <c r="S125" s="5">
-        <v>9.0762153425338801E-3</v>
+        <v>1.0951569724993919E-3</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.25">
@@ -7887,7 +7887,7 @@
         <v>102.4902709568163</v>
       </c>
       <c r="S126" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.25">
@@ -7946,7 +7946,7 @@
         <v>94.73732924693519</v>
       </c>
       <c r="S127" s="5">
-        <v>3.729951510630362E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.25">
@@ -8005,7 +8005,7 @@
         <v>102.4902709568163</v>
       </c>
       <c r="S128" s="5">
-        <v>3.7299515106303618E-3</v>
+        <v>3.4071550255536632E-3</v>
       </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.25">
@@ -8064,7 +8064,7 @@
         <v>94.73732924693519</v>
       </c>
       <c r="S129" s="5">
-        <v>4.3516100957354219E-3</v>
+        <v>2.1903139449987829E-3</v>
       </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.25">
@@ -8123,7 +8123,7 @@
         <v>67.742346760070049</v>
       </c>
       <c r="S130" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.25">
@@ -8241,7 +8241,7 @@
         <v>67.742346760070049</v>
       </c>
       <c r="S132" s="5">
-        <v>9.9465373616809639E-4</v>
+        <v>3.6505232416646379E-4</v>
       </c>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.25">
@@ -8300,7 +8300,7 @@
         <v>49.854711033274953</v>
       </c>
       <c r="S133" s="5">
-        <v>0</v>
+        <v>1.2168410805548791E-4</v>
       </c>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.25">
@@ -8359,7 +8359,7 @@
         <v>63.150035026269705</v>
       </c>
       <c r="S134" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.25">
@@ -8418,7 +8418,7 @@
         <v>79.482495621716282</v>
       </c>
       <c r="S135" s="5">
-        <v>0</v>
+        <v>1.2168410805548791E-4</v>
       </c>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.25">
@@ -8477,7 +8477,7 @@
         <v>63.150035026269705</v>
       </c>
       <c r="S136" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>2.4336821611097589E-4</v>
       </c>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.25">
@@ -8536,7 +8536,7 @@
         <v>79.482495621716282</v>
       </c>
       <c r="S137" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>1.2168410805548791E-4</v>
       </c>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.25">
@@ -8595,7 +8595,7 @@
         <v>67.742346760070049</v>
       </c>
       <c r="S138" s="5">
-        <v>4.973268680840482E-4</v>
+        <v>1.2168410805548791E-4</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.25">
@@ -8654,7 +8654,7 @@
         <v>49.854711033274953</v>
       </c>
       <c r="S139" s="5">
-        <v>2.486634340420241E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.25">
@@ -8713,7 +8713,7 @@
         <v>67.742346760070049</v>
       </c>
       <c r="S140" s="5">
-        <v>3.5931866219072482E-2</v>
+        <v>8.0311511316622057E-3</v>
       </c>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.25">
@@ -8772,7 +8772,7 @@
         <v>49.854711033274953</v>
       </c>
       <c r="S141" s="5">
-        <v>6.2165858510506034E-3</v>
+        <v>4.8673643222195179E-4</v>
       </c>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.25">
@@ -8831,7 +8831,7 @@
         <v>63.150035026269705</v>
       </c>
       <c r="S142" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>1.2168410805548791E-4</v>
       </c>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.25">
@@ -8890,7 +8890,7 @@
         <v>79.482495621716282</v>
       </c>
       <c r="S143" s="5">
-        <v>1.2433171702101199E-4</v>
+        <v>1.2168410805548791E-4</v>
       </c>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.25">
@@ -8949,7 +8949,7 @@
         <v>63.150035026269705</v>
       </c>
       <c r="S144" s="5">
-        <v>2.735297774462265E-3</v>
+        <v>1.338525188610367E-3</v>
       </c>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.25">
@@ -9008,7 +9008,7 @@
         <v>79.482495621716282</v>
       </c>
       <c r="S145" s="5">
-        <v>2.1136391893572049E-3</v>
+        <v>7.3010464833292768E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Main/SASdata/couple_formue.xlsx
+++ b/Main/SASdata/couple_formue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale\Speciale_retirement\Main\SASdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E1B830-CD8D-4635-844D-332CC21D466F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46543C7-ED9D-439F-916A-6E66ED51C5D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6EC07FC9-461D-4A48-A1A5-A60E64016522}"/>
   </bookViews>
@@ -137,6 +137,897 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="da-DK"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="da-DK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Ark1'!$U$2:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Ark1'!$V$2:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.8220978340228781E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14711608663908496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19445120467266974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21696276466293493</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17559016792406917</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.503528839133607E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5144804088586031E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5553662691652466E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1925042589437822E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-106F-4B2A-8532-3EFCE354EFA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="553212944"/>
+        <c:axId val="553206712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="553212944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553206712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="553206712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="da-DK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="553212944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="da-DK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C6BEE8-E5D4-48E4-A857-B8374C5AB2CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4253942D-D70C-439F-BCC9-108C66B9FC8F}">
-  <dimension ref="A1:S145"/>
+  <dimension ref="A1:W145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +1347,7 @@
     <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +1406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-4</v>
       </c>
@@ -573,8 +1464,19 @@
       <c r="S2" s="5">
         <v>2.4336821611097589E-4</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U2" s="6">
+        <v>-4</v>
+      </c>
+      <c r="V2">
+        <f>SUMIFS($S$2:$S$145,$A$2:$A$145,U2)</f>
+        <v>8.8220978340228781E-2</v>
+      </c>
+      <c r="W2">
+        <f>SUMPRODUCT(U2:U10,V2:V10)</f>
+        <v>-1.0904112922852276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-4</v>
       </c>
@@ -632,8 +1534,16 @@
       <c r="S3" s="5">
         <v>1.2168410805548791E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U3" s="6">
+        <f>U2+1</f>
+        <v>-3</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V10" si="0">SUMIFS($S$2:$S$145,$A$2:$A$145,U3)</f>
+        <v>0.14711608663908496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4</v>
       </c>
@@ -691,8 +1601,16 @@
       <c r="S4" s="5">
         <v>7.3010464833292768E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U4" s="6">
+        <f t="shared" ref="U4:U11" si="1">U3+1</f>
+        <v>-2</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="0"/>
+        <v>0.19445120467266974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-4</v>
       </c>
@@ -750,8 +1668,16 @@
       <c r="S5" s="5">
         <v>2.4336821611097589E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U5" s="6">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>0.21696276466293493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-4</v>
       </c>
@@ -809,8 +1735,16 @@
       <c r="S6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>0.17559016792406917</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-4</v>
       </c>
@@ -868,8 +1802,16 @@
       <c r="S7" s="5">
         <v>1.2168410805548791E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U7" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>9.503528839133607E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-4</v>
       </c>
@@ -927,8 +1869,16 @@
       <c r="S8" s="5">
         <v>2.4336821611097589E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U8" s="6">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="0"/>
+        <v>4.5144804088586031E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-4</v>
       </c>
@@ -986,8 +1936,16 @@
       <c r="S9" s="5">
         <v>2.4336821611097589E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U9" s="6">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>2.5553662691652466E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-4</v>
       </c>
@@ -1045,8 +2003,16 @@
       <c r="S10" s="5">
         <v>9.7347286444390358E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U10" s="6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>1.1925042589437822E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-4</v>
       </c>
@@ -1104,8 +2070,13 @@
       <c r="S11" s="5">
         <v>2.4336821611097589E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U11" s="6"/>
+      <c r="V11">
+        <f>SUM(V2:V10)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-4</v>
       </c>
@@ -1164,7 +2135,7 @@
         <v>6.8264784619128743E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-4</v>
       </c>
@@ -1223,7 +2194,7 @@
         <v>4.1372596738865914E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-4</v>
       </c>
@@ -1282,7 +2253,7 @@
         <v>1.2168410805548791E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-4</v>
       </c>
@@ -1341,7 +2312,7 @@
         <v>1.2168410805548791E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-4</v>
       </c>
@@ -4232,7 +5203,7 @@
         <v>2.5431978583596981E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1</v>
       </c>
@@ -4291,7 +5262,7 @@
         <v>1.082988561693843E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>0</v>
       </c>
@@ -4349,8 +5320,9 @@
       <c r="S66" s="5">
         <v>1.0951569724993919E-3</v>
       </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T66" s="5"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>0</v>
       </c>
@@ -4409,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
@@ -4468,7 +5440,7 @@
         <v>1.338525188610367E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>0</v>
       </c>
@@ -4527,7 +5499,7 @@
         <v>3.6505232416646379E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>0</v>
       </c>
@@ -4586,7 +5558,7 @@
         <v>4.8673643222195179E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>0</v>
       </c>
@@ -4645,7 +5617,7 @@
         <v>6.0842054027743979E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>0</v>
       </c>
@@ -4704,7 +5676,7 @@
         <v>1.4602092966658549E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>0</v>
       </c>
@@ -4763,7 +5735,7 @@
         <v>1.4602092966658549E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>0</v>
       </c>
@@ -4822,7 +5794,7 @@
         <v>2.1903139449987829E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>0</v>
       </c>
@@ -4881,7 +5853,7 @@
         <v>4.8673643222195179E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>0</v>
       </c>
@@ -4940,7 +5912,7 @@
         <v>0.12338768556826479</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>0</v>
       </c>
@@ -4999,7 +5971,7 @@
         <v>9.978096860550012E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0</v>
       </c>
@@ -5058,7 +6030,7 @@
         <v>3.6505232416646379E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>0</v>
       </c>
@@ -5117,7 +6089,7 @@
         <v>8.5178875638841568E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>0</v>
       </c>
@@ -9014,5 +9986,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Main/SASdata/couple_formue.xlsx
+++ b/Main/SASdata/couple_formue.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale\Speciale_retirement\Main\SASdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederik\Desktop\Speciale_retirement\Main\SASdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46543C7-ED9D-439F-916A-6E66ED51C5D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBE0743-398A-480F-B840-BE302FD51FC8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6EC07FC9-461D-4A48-A1A5-A60E64016522}"/>
   </bookViews>
@@ -137,897 +137,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="da-DK"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="da-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Ark1'!$U$2:$U$10</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Ark1'!$V$2:$V$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>8.8220978340228781E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14711608663908496</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.19445120467266974</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.21696276466293493</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.17559016792406917</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.503528839133607E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.5144804088586031E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.5553662691652466E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.1925042589437822E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-106F-4B2A-8532-3EFCE354EFA7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="553212944"/>
-        <c:axId val="553206712"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="553212944"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="553206712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="553206712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="da-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="553212944"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="da-DK"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagram 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C6BEE8-E5D4-48E4-A857-B8374C5AB2CF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1327,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4253942D-D70C-439F-BCC9-108C66B9FC8F}">
-  <dimension ref="A1:W145"/>
+  <dimension ref="A1:U145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,7 +456,7 @@
     <col min="19" max="19" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-4</v>
       </c>
@@ -1464,19 +573,9 @@
       <c r="S2" s="5">
         <v>2.4336821611097589E-4</v>
       </c>
-      <c r="U2" s="6">
-        <v>-4</v>
-      </c>
-      <c r="V2">
-        <f>SUMIFS($S$2:$S$145,$A$2:$A$145,U2)</f>
-        <v>8.8220978340228781E-2</v>
-      </c>
-      <c r="W2">
-        <f>SUMPRODUCT(U2:U10,V2:V10)</f>
-        <v>-1.0904112922852276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-4</v>
       </c>
@@ -1534,16 +633,9 @@
       <c r="S3" s="5">
         <v>1.2168410805548791E-4</v>
       </c>
-      <c r="U3" s="6">
-        <f>U2+1</f>
-        <v>-3</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V10" si="0">SUMIFS($S$2:$S$145,$A$2:$A$145,U3)</f>
-        <v>0.14711608663908496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U3" s="6"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>-4</v>
       </c>
@@ -1601,16 +693,9 @@
       <c r="S4" s="5">
         <v>7.3010464833292768E-4</v>
       </c>
-      <c r="U4" s="6">
-        <f t="shared" ref="U4:U11" si="1">U3+1</f>
-        <v>-2</v>
-      </c>
-      <c r="V4">
-        <f t="shared" si="0"/>
-        <v>0.19445120467266974</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>-4</v>
       </c>
@@ -1668,16 +753,9 @@
       <c r="S5" s="5">
         <v>2.4336821611097589E-4</v>
       </c>
-      <c r="U5" s="6">
-        <f t="shared" si="1"/>
-        <v>-1</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="0"/>
-        <v>0.21696276466293493</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>-4</v>
       </c>
@@ -1735,16 +813,9 @@
       <c r="S6" s="5">
         <v>0</v>
       </c>
-      <c r="U6" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <f t="shared" si="0"/>
-        <v>0.17559016792406917</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>-4</v>
       </c>
@@ -1802,16 +873,9 @@
       <c r="S7" s="5">
         <v>1.2168410805548791E-4</v>
       </c>
-      <c r="U7" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <f t="shared" si="0"/>
-        <v>9.503528839133607E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>-4</v>
       </c>
@@ -1869,16 +933,9 @@
       <c r="S8" s="5">
         <v>2.4336821611097589E-4</v>
       </c>
-      <c r="U8" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="V8">
-        <f t="shared" si="0"/>
-        <v>4.5144804088586031E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>-4</v>
       </c>
@@ -1936,16 +993,9 @@
       <c r="S9" s="5">
         <v>2.4336821611097589E-4</v>
       </c>
-      <c r="U9" s="6">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="0"/>
-        <v>2.5553662691652466E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-4</v>
       </c>
@@ -2003,16 +1053,9 @@
       <c r="S10" s="5">
         <v>9.7347286444390358E-4</v>
       </c>
-      <c r="U10" s="6">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="V10">
-        <f t="shared" si="0"/>
-        <v>1.1925042589437822E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>-4</v>
       </c>
@@ -2071,12 +1114,8 @@
         <v>2.4336821611097589E-4</v>
       </c>
       <c r="U11" s="6"/>
-      <c r="V11">
-        <f>SUM(V2:V10)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>-4</v>
       </c>
@@ -2135,7 +1174,7 @@
         <v>6.8264784619128743E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>-4</v>
       </c>
@@ -2194,7 +1233,7 @@
         <v>4.1372596738865914E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>-4</v>
       </c>
@@ -2253,7 +1292,7 @@
         <v>1.2168410805548791E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>-4</v>
       </c>
@@ -2312,7 +1351,7 @@
         <v>1.2168410805548791E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>-4</v>
       </c>
@@ -9986,6 +9025,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>